--- a/data/countyData.xlsx
+++ b/data/countyData.xlsx
@@ -1635,10 +1635,10 @@
         <v>0</v>
       </c>
       <c r="AE2">
-        <v>-25.03755633450175</v>
+        <v>-50.0751126690035</v>
       </c>
       <c r="AF2">
-        <v>7.738095238095238</v>
+        <v>4.2</v>
       </c>
       <c r="AG2">
         <v>28</v>
@@ -1658,7 +1658,7 @@
         <v>195</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -1730,22 +1730,22 @@
         <v>0</v>
       </c>
       <c r="AA3">
-        <v>333.3333333333333</v>
+        <v>25</v>
       </c>
       <c r="AB3">
-        <v>1.318101933216169</v>
+        <v>1.757469244288225</v>
       </c>
       <c r="AC3">
-        <v>2.380952380952381</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>-43.93673110720562</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>0</v>
+        <v>43.93673110720562</v>
       </c>
       <c r="AF3">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AG3">
         <v>9</v>
@@ -1765,7 +1765,7 @@
         <v>196</v>
       </c>
       <c r="C4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -1840,7 +1840,7 @@
         <v>0</v>
       </c>
       <c r="AB4">
-        <v>1.038113599288151</v>
+        <v>1.186415542043601</v>
       </c>
       <c r="AC4">
         <v>0</v>
@@ -1849,10 +1849,10 @@
         <v>0</v>
       </c>
       <c r="AE4">
-        <v>-59.32077710218003</v>
+        <v>14.83019427554501</v>
       </c>
       <c r="AF4">
-        <v>8.333333333333334</v>
+        <v>1</v>
       </c>
       <c r="AG4">
         <v>29</v>
@@ -1872,10 +1872,10 @@
         <v>197</v>
       </c>
       <c r="C5">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E5">
         <v>2613</v>
@@ -1944,22 +1944,22 @@
         <v>0</v>
       </c>
       <c r="AA5">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AB5">
-        <v>2.67891312667432</v>
+        <v>3.827018752391887</v>
       </c>
       <c r="AC5">
-        <v>0</v>
+        <v>3.773584905660377</v>
       </c>
       <c r="AD5">
-        <v>0</v>
+        <v>76.54037504783774</v>
       </c>
       <c r="AE5">
-        <v>0</v>
+        <v>-38.27018752391887</v>
       </c>
       <c r="AF5">
-        <v>6.785714285714286</v>
+        <v>7.2</v>
       </c>
       <c r="AG5">
         <v>15</v>
@@ -2086,7 +2086,7 @@
         <v>199</v>
       </c>
       <c r="C7">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -2158,10 +2158,10 @@
         <v>0</v>
       </c>
       <c r="AA7">
-        <v>105.2631578947368</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="AB7">
-        <v>5.957980558168705</v>
+        <v>6.898714330511131</v>
       </c>
       <c r="AC7">
         <v>0</v>
@@ -2170,10 +2170,10 @@
         <v>0</v>
       </c>
       <c r="AE7">
-        <v>0</v>
+        <v>62.71558482282847</v>
       </c>
       <c r="AF7">
-        <v>2.283830198746165</v>
+        <v>2.4</v>
       </c>
       <c r="AG7">
         <v>39</v>
@@ -2193,7 +2193,7 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -2265,22 +2265,22 @@
         <v>34.83386923901393</v>
       </c>
       <c r="AA8">
-        <v>74.07407407407408</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="AB8">
-        <v>3.200189640867607</v>
+        <v>3.555766267630674</v>
       </c>
       <c r="AC8">
-        <v>4.761904761904762</v>
+        <v>1.886792452830189</v>
       </c>
       <c r="AD8">
-        <v>-23.70510845087117</v>
+        <v>-11.85255422543558</v>
       </c>
       <c r="AE8">
-        <v>11.85255422543558</v>
+        <v>-59.26277112717791</v>
       </c>
       <c r="AF8">
-        <v>4.440167288851501</v>
+        <v>3</v>
       </c>
       <c r="AG8">
         <v>109</v>
@@ -2300,7 +2300,7 @@
         <v>201</v>
       </c>
       <c r="C9">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -2372,10 +2372,10 @@
         <v>4.423273222184417</v>
       </c>
       <c r="AA9">
-        <v>62.5</v>
+        <v>7.142857142857142</v>
       </c>
       <c r="AB9">
-        <v>0.9860109693720343</v>
+        <v>0.8627595982005299</v>
       </c>
       <c r="AC9">
         <v>0</v>
@@ -2384,10 +2384,10 @@
         <v>0</v>
       </c>
       <c r="AE9">
-        <v>12.32513711715043</v>
+        <v>-49.30054846860172</v>
       </c>
       <c r="AF9">
-        <v>18.42883307169021</v>
+        <v>5.5</v>
       </c>
       <c r="AG9">
         <v>181</v>
@@ -2407,7 +2407,7 @@
         <v>202</v>
       </c>
       <c r="C10">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -2482,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="AB10">
-        <v>4.797806716929403</v>
+        <v>5.311857436600411</v>
       </c>
       <c r="AC10">
         <v>0</v>
@@ -2491,10 +2491,10 @@
         <v>0</v>
       </c>
       <c r="AE10">
-        <v>-34.27004797806717</v>
+        <v>34.27004797806717</v>
       </c>
       <c r="AF10">
-        <v>7.264087933424316</v>
+        <v>3.3</v>
       </c>
       <c r="AG10">
         <v>72</v>
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="AA11">
-        <v>62.5</v>
+        <v>6.25</v>
       </c>
       <c r="AB11">
         <v>3.070427940894262</v>
@@ -2598,10 +2598,10 @@
         <v>0</v>
       </c>
       <c r="AE11">
-        <v>-38.38034926117827</v>
+        <v>-57.57052389176742</v>
       </c>
       <c r="AF11">
-        <v>2.131083202511773</v>
+        <v>1</v>
       </c>
       <c r="AG11">
         <v>48</v>
@@ -2728,7 +2728,7 @@
         <v>205</v>
       </c>
       <c r="C13">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -2803,7 +2803,7 @@
         <v>0</v>
       </c>
       <c r="AB13">
-        <v>0.5391666024801663</v>
+        <v>0.6161904028344758</v>
       </c>
       <c r="AC13">
         <v>0</v>
@@ -2815,7 +2815,7 @@
         <v>-7.702380035430948</v>
       </c>
       <c r="AF13">
-        <v>6.785714285714286</v>
+        <v>3.6</v>
       </c>
       <c r="AG13">
         <v>93</v>
@@ -2835,7 +2835,7 @@
         <v>206</v>
       </c>
       <c r="C14">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -2910,7 +2910,7 @@
         <v>0</v>
       </c>
       <c r="AB14">
-        <v>0.7430110522894028</v>
+        <v>1.021640196897929</v>
       </c>
       <c r="AC14">
         <v>0</v>
@@ -2919,10 +2919,10 @@
         <v>0</v>
       </c>
       <c r="AE14">
-        <v>-9.287638153617534</v>
+        <v>0</v>
       </c>
       <c r="AF14">
-        <v>7.806122448979592</v>
+        <v>4.7</v>
       </c>
       <c r="AG14">
         <v>21</v>
@@ -2942,10 +2942,10 @@
         <v>207</v>
       </c>
       <c r="C15">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15">
         <v>11417</v>
@@ -3014,22 +3014,22 @@
         <v>6.436663233779609</v>
       </c>
       <c r="AA15">
-        <v>0</v>
+        <v>4.761904761904762</v>
       </c>
       <c r="AB15">
-        <v>1.751773670841727</v>
+        <v>1.839362354383814</v>
       </c>
       <c r="AC15">
-        <v>0</v>
+        <v>1.886792452830189</v>
       </c>
       <c r="AD15">
-        <v>0</v>
+        <v>8.758868354208637</v>
       </c>
       <c r="AE15">
-        <v>-8.758868354208637</v>
+        <v>-78.82981518787773</v>
       </c>
       <c r="AF15">
-        <v>19.09388856757278</v>
+        <v>5.8</v>
       </c>
       <c r="AG15">
         <v>302</v>
@@ -3121,22 +3121,22 @@
         <v>18.95375284306293</v>
       </c>
       <c r="AA16">
-        <v>125</v>
+        <v>12.5</v>
       </c>
       <c r="AB16">
         <v>0.7717538105344395</v>
       </c>
       <c r="AC16">
-        <v>2.380952380952381</v>
+        <v>0</v>
       </c>
       <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
         <v>-9.646922631680495</v>
       </c>
-      <c r="AE16">
-        <v>9.646922631680495</v>
-      </c>
       <c r="AF16">
-        <v>3.639455782312925</v>
+        <v>2.2</v>
       </c>
       <c r="AG16">
         <v>99</v>
@@ -3156,7 +3156,7 @@
         <v>209</v>
       </c>
       <c r="C17">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D17">
         <v>2</v>
@@ -3228,22 +3228,22 @@
         <v>0</v>
       </c>
       <c r="AA17">
-        <v>100</v>
+        <v>9.523809523809524</v>
       </c>
       <c r="AB17">
-        <v>6.664445184938354</v>
+        <v>6.997667444185272</v>
       </c>
       <c r="AC17">
-        <v>2.380952380952381</v>
+        <v>0</v>
       </c>
       <c r="AD17">
-        <v>-33.32222592469177</v>
+        <v>0</v>
       </c>
       <c r="AE17">
-        <v>-166.6111296234589</v>
+        <v>-66.64445184938354</v>
       </c>
       <c r="AF17">
-        <v>1.662704555506413</v>
+        <v>0.7</v>
       </c>
       <c r="AG17">
         <v>115</v>
@@ -3263,10 +3263,10 @@
         <v>210</v>
       </c>
       <c r="C18">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18">
         <v>8535</v>
@@ -3335,22 +3335,22 @@
         <v>0</v>
       </c>
       <c r="AA18">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AB18">
-        <v>1.991798476859989</v>
+        <v>4.686584651435266</v>
       </c>
       <c r="AC18">
-        <v>0</v>
+        <v>1.886792452830189</v>
       </c>
       <c r="AD18">
-        <v>0</v>
+        <v>11.71646162858817</v>
       </c>
       <c r="AE18">
-        <v>70.29876977152901</v>
+        <v>281.195079086116</v>
       </c>
       <c r="AF18">
-        <v>14.57135126777984</v>
+        <v>15.6</v>
       </c>
       <c r="AG18">
         <v>102</v>
@@ -3370,7 +3370,7 @@
         <v>211</v>
       </c>
       <c r="C19">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D19">
         <v>3</v>
@@ -3442,22 +3442,22 @@
         <v>0</v>
       </c>
       <c r="AA19">
-        <v>62.5</v>
+        <v>6.122448979591836</v>
       </c>
       <c r="AB19">
-        <v>3.246753246753247</v>
+        <v>3.314393939393939</v>
       </c>
       <c r="AC19">
-        <v>4.761904761904762</v>
+        <v>3.773584905660377</v>
       </c>
       <c r="AD19">
-        <v>0</v>
+        <v>-13.52813852813853</v>
       </c>
       <c r="AE19">
-        <v>-27.05627705627706</v>
+        <v>81.16883116883118</v>
       </c>
       <c r="AF19">
-        <v>11.87441928431766</v>
+        <v>3.3</v>
       </c>
       <c r="AG19">
         <v>242</v>
@@ -3477,7 +3477,7 @@
         <v>212</v>
       </c>
       <c r="C20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -3552,7 +3552,7 @@
         <v>0</v>
       </c>
       <c r="AB20">
-        <v>0.3778813452575891</v>
+        <v>0.5038417936767855</v>
       </c>
       <c r="AC20">
         <v>0</v>
@@ -3561,10 +3561,10 @@
         <v>0</v>
       </c>
       <c r="AE20">
-        <v>-12.59604484191964</v>
+        <v>12.59604484191964</v>
       </c>
       <c r="AF20">
-        <v>3.571428571428572</v>
+        <v>2.4</v>
       </c>
       <c r="AG20">
         <v>24</v>
@@ -3584,10 +3584,10 @@
         <v>213</v>
       </c>
       <c r="C21">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="D21">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E21">
         <v>10348</v>
@@ -3656,22 +3656,22 @@
         <v>12.96680497925311</v>
       </c>
       <c r="AA21">
-        <v>77.31958762886599</v>
+        <v>9.813084112149532</v>
       </c>
       <c r="AB21">
-        <v>18.74758407421724</v>
+        <v>20.6803247004252</v>
       </c>
       <c r="AC21">
-        <v>21.42857142857143</v>
+        <v>28.30188679245283</v>
       </c>
       <c r="AD21">
-        <v>48.31851565519907</v>
+        <v>28.99110939311944</v>
       </c>
       <c r="AE21">
-        <v>-154.619250096637</v>
+        <v>-86.97332817935833</v>
       </c>
       <c r="AF21">
-        <v>3.22703713225094</v>
+        <v>2.7</v>
       </c>
       <c r="AG21">
         <v>71</v>
@@ -3691,7 +3691,7 @@
         <v>214</v>
       </c>
       <c r="C22">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="AB22">
-        <v>2.813637868255545</v>
+        <v>3.806686527639854</v>
       </c>
       <c r="AC22">
         <v>0</v>
@@ -3775,10 +3775,10 @@
         <v>0</v>
       </c>
       <c r="AE22">
-        <v>-115.8556769281695</v>
+        <v>-33.101621979477</v>
       </c>
       <c r="AF22">
-        <v>7.055655595571561</v>
+        <v>5</v>
       </c>
       <c r="AG22">
         <v>59</v>
@@ -3798,7 +3798,7 @@
         <v>215</v>
       </c>
       <c r="C23">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D23">
         <v>2</v>
@@ -3870,22 +3870,22 @@
         <v>0</v>
       </c>
       <c r="AA23">
-        <v>95.23809523809523</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="AB23">
-        <v>1.131404557944076</v>
+        <v>1.185280965465223</v>
       </c>
       <c r="AC23">
-        <v>2.380952380952381</v>
+        <v>1.886792452830189</v>
       </c>
       <c r="AD23">
         <v>-5.387640752114649</v>
       </c>
       <c r="AE23">
-        <v>-43.10112601691719</v>
+        <v>-21.5505630084586</v>
       </c>
       <c r="AF23">
-        <v>7.53531117391135</v>
+        <v>2.3</v>
       </c>
       <c r="AG23">
         <v>312</v>
@@ -3905,7 +3905,7 @@
         <v>216</v>
       </c>
       <c r="C24">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -3980,7 +3980,7 @@
         <v>0</v>
       </c>
       <c r="AB24">
-        <v>1.282215668675471</v>
+        <v>1.538658802410566</v>
       </c>
       <c r="AC24">
         <v>0</v>
@@ -3989,10 +3989,10 @@
         <v>0</v>
       </c>
       <c r="AE24">
-        <v>0</v>
+        <v>12.82215668675471</v>
       </c>
       <c r="AF24">
-        <v>0.7936507936507941</v>
+        <v>2.2</v>
       </c>
       <c r="AG24">
         <v>146</v>
@@ -4012,10 +4012,10 @@
         <v>217</v>
       </c>
       <c r="C25">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="D25">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E25">
         <v>8846</v>
@@ -4084,22 +4084,22 @@
         <v>0</v>
       </c>
       <c r="AA25">
-        <v>88.23529411764706</v>
+        <v>10.22727272727273</v>
       </c>
       <c r="AB25">
-        <v>7.687090210264526</v>
+        <v>9.947999095636446</v>
       </c>
       <c r="AC25">
-        <v>14.28571428571428</v>
+        <v>16.9811320754717</v>
       </c>
       <c r="AD25">
-        <v>22.6090888537192</v>
+        <v>-33.91363328057879</v>
       </c>
       <c r="AE25">
-        <v>-124.3499886954556</v>
+        <v>180.8727108297536</v>
       </c>
       <c r="AF25">
-        <v>7.96728859007718</v>
+        <v>7.3</v>
       </c>
       <c r="AG25">
         <v>48</v>
@@ -4119,10 +4119,10 @@
         <v>218</v>
       </c>
       <c r="C26">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E26">
         <v>19164</v>
@@ -4191,22 +4191,22 @@
         <v>0</v>
       </c>
       <c r="AA26">
-        <v>38.46153846153847</v>
+        <v>5.555555555555555</v>
       </c>
       <c r="AB26">
-        <v>2.713420997704028</v>
+        <v>2.817783343769568</v>
       </c>
       <c r="AC26">
-        <v>0</v>
+        <v>1.886792452830189</v>
       </c>
       <c r="AD26">
-        <v>0</v>
+        <v>5.218117303276977</v>
       </c>
       <c r="AE26">
-        <v>-26.09058651638489</v>
+        <v>0</v>
       </c>
       <c r="AF26">
-        <v>1.049846737073755</v>
+        <v>0.7</v>
       </c>
       <c r="AG26">
         <v>265</v>
@@ -4226,7 +4226,7 @@
         <v>219</v>
       </c>
       <c r="C27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -4301,7 +4301,7 @@
         <v>0</v>
       </c>
       <c r="AB27">
-        <v>2.225819506272764</v>
+        <v>2.428166734115742</v>
       </c>
       <c r="AC27">
         <v>0</v>
@@ -4310,10 +4310,10 @@
         <v>0</v>
       </c>
       <c r="AE27">
-        <v>40.46944556859571</v>
+        <v>-91.05625252934034</v>
       </c>
       <c r="AF27">
-        <v>10.40066345517474</v>
+        <v>6.3</v>
       </c>
       <c r="AG27">
         <v>94</v>
@@ -4333,7 +4333,7 @@
         <v>220</v>
       </c>
       <c r="C28">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -4405,22 +4405,22 @@
         <v>27.64705882352941</v>
       </c>
       <c r="AA28">
-        <v>47.61904761904761</v>
+        <v>4.545454545454546</v>
       </c>
       <c r="AB28">
-        <v>1.870324189526184</v>
+        <v>1.959387246170289</v>
       </c>
       <c r="AC28">
-        <v>2.380952380952381</v>
+        <v>1.886792452830189</v>
       </c>
       <c r="AD28">
         <v>-8.906305664410402</v>
       </c>
       <c r="AE28">
-        <v>-8.906305664410402</v>
+        <v>-35.62522265764161</v>
       </c>
       <c r="AF28">
-        <v>3.080688415717164</v>
+        <v>1.9</v>
       </c>
       <c r="AG28">
         <v>151</v>
@@ -4440,7 +4440,7 @@
         <v>221</v>
       </c>
       <c r="C29">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -4512,22 +4512,22 @@
         <v>0</v>
       </c>
       <c r="AA29">
-        <v>26.31578947368421</v>
+        <v>2.439024390243902</v>
       </c>
       <c r="AB29">
-        <v>4.479019330504479</v>
+        <v>4.832626119754832</v>
       </c>
       <c r="AC29">
-        <v>2.380952380952381</v>
+        <v>1.886792452830189</v>
       </c>
       <c r="AD29">
         <v>-11.78689297501179</v>
       </c>
       <c r="AE29">
-        <v>-47.14757190004715</v>
+        <v>-94.29514380009429</v>
       </c>
       <c r="AF29">
-        <v>10.75572428151391</v>
+        <v>5.5</v>
       </c>
       <c r="AG29">
         <v>88</v>
@@ -4547,7 +4547,7 @@
         <v>222</v>
       </c>
       <c r="C30">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="D30">
         <v>3</v>
@@ -4619,22 +4619,22 @@
         <v>14.02852466682254</v>
       </c>
       <c r="AA30">
-        <v>62.5</v>
+        <v>4.761904761904762</v>
       </c>
       <c r="AB30">
-        <v>1.925700072213753</v>
+        <v>2.52748134478055</v>
       </c>
       <c r="AC30">
-        <v>7.142857142857142</v>
+        <v>3.773584905660377</v>
       </c>
       <c r="AD30">
-        <v>4.011875150445318</v>
+        <v>0</v>
       </c>
       <c r="AE30">
-        <v>36.10687635400787</v>
+        <v>24.07125090267191</v>
       </c>
       <c r="AF30">
-        <v>8.873418987050785</v>
+        <v>6.7</v>
       </c>
       <c r="AG30">
         <v>311</v>
@@ -4726,22 +4726,22 @@
         <v>19.67592592592593</v>
       </c>
       <c r="AA31">
-        <v>66.66666666666667</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="AB31">
         <v>1.618472162278809</v>
       </c>
       <c r="AC31">
-        <v>2.380952380952381</v>
+        <v>1.886792452830189</v>
       </c>
       <c r="AD31">
-        <v>10.78981441519206</v>
+        <v>-10.78981441519206</v>
       </c>
       <c r="AE31">
-        <v>-43.15925766076823</v>
+        <v>-32.36944324557618</v>
       </c>
       <c r="AF31">
-        <v>2.455534661417012</v>
+        <v>1.1</v>
       </c>
       <c r="AG31">
         <v>71</v>
@@ -4761,10 +4761,10 @@
         <v>224</v>
       </c>
       <c r="C32">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D32">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E32">
         <v>6428</v>
@@ -4833,22 +4833,22 @@
         <v>26.76659528907923</v>
       </c>
       <c r="AA32">
-        <v>34.88372093023256</v>
+        <v>4.395604395604396</v>
       </c>
       <c r="AB32">
-        <v>13.3789670192906</v>
+        <v>14.1568139390168</v>
       </c>
       <c r="AC32">
-        <v>2.380952380952381</v>
+        <v>3.773584905660377</v>
       </c>
       <c r="AD32">
-        <v>15.55693839452396</v>
+        <v>0</v>
       </c>
       <c r="AE32">
-        <v>202.2401991288115</v>
+        <v>-62.22775357809583</v>
       </c>
       <c r="AF32">
-        <v>4.938985154496093</v>
+        <v>3.5</v>
       </c>
       <c r="AG32">
         <v>114</v>
@@ -4868,7 +4868,7 @@
         <v>225</v>
       </c>
       <c r="C33">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -4940,10 +4940,10 @@
         <v>0</v>
       </c>
       <c r="AA33">
-        <v>47.61904761904761</v>
+        <v>4.166666666666666</v>
       </c>
       <c r="AB33">
-        <v>3.292568203198495</v>
+        <v>3.762935089369709</v>
       </c>
       <c r="AC33">
         <v>0</v>
@@ -4952,10 +4952,10 @@
         <v>0</v>
       </c>
       <c r="AE33">
-        <v>-31.35779241141423</v>
+        <v>-78.39448102853559</v>
       </c>
       <c r="AF33">
-        <v>6.583967932652143</v>
+        <v>3.5</v>
       </c>
       <c r="AG33">
         <v>102</v>
@@ -5059,10 +5059,10 @@
         <v>0</v>
       </c>
       <c r="AE34">
-        <v>9.236168837166343</v>
+        <v>-27.70850651149903</v>
       </c>
       <c r="AF34">
-        <v>4.642857142857143</v>
+        <v>4.6</v>
       </c>
       <c r="AG34">
         <v>186</v>
@@ -5082,7 +5082,7 @@
         <v>227</v>
       </c>
       <c r="C35">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D35">
         <v>2</v>
@@ -5154,22 +5154,22 @@
         <v>0</v>
       </c>
       <c r="AA35">
-        <v>66.66666666666667</v>
+        <v>5.714285714285714</v>
       </c>
       <c r="AB35">
-        <v>3.304692663582287</v>
+        <v>3.855474774179334</v>
       </c>
       <c r="AC35">
-        <v>2.380952380952381</v>
+        <v>1.886792452830189</v>
       </c>
       <c r="AD35">
-        <v>11.01564221194096</v>
+        <v>-11.01564221194096</v>
       </c>
       <c r="AE35">
-        <v>0</v>
+        <v>55.07821105970478</v>
       </c>
       <c r="AF35">
-        <v>7.787362245490328</v>
+        <v>5</v>
       </c>
       <c r="AG35">
         <v>127</v>
@@ -5189,7 +5189,7 @@
         <v>228</v>
       </c>
       <c r="C36">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -5264,7 +5264,7 @@
         <v>0</v>
       </c>
       <c r="AB36">
-        <v>0.2951158329644386</v>
+        <v>0.4426737494466578</v>
       </c>
       <c r="AC36">
         <v>0</v>
@@ -5273,10 +5273,10 @@
         <v>0</v>
       </c>
       <c r="AE36">
-        <v>14.75579164822193</v>
+        <v>0</v>
       </c>
       <c r="AF36">
-        <v>7.142857142857143</v>
+        <v>10.7</v>
       </c>
       <c r="AG36">
         <v>72</v>
@@ -5380,10 +5380,10 @@
         <v>0</v>
       </c>
       <c r="AE37">
-        <v>-37.41114852225963</v>
+        <v>0</v>
       </c>
       <c r="AF37">
-        <v>4.234693877551019</v>
+        <v>1.4</v>
       </c>
       <c r="AG37">
         <v>98</v>
@@ -5403,7 +5403,7 @@
         <v>230</v>
       </c>
       <c r="C38">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="D38">
         <v>19</v>
@@ -5475,22 +5475,22 @@
         <v>16.67778519012675</v>
       </c>
       <c r="AA38">
-        <v>124.1830065359477</v>
+        <v>11.94968553459119</v>
       </c>
       <c r="AB38">
-        <v>21.58882460843799</v>
+        <v>22.43544518131791</v>
       </c>
       <c r="AC38">
-        <v>33.33333333333333</v>
+        <v>22.64150943396227</v>
       </c>
       <c r="AD38">
-        <v>-28.22068576266404</v>
+        <v>-112.8827430506561</v>
       </c>
       <c r="AE38">
-        <v>-366.8689149146325</v>
+        <v>-84.6620572879921</v>
       </c>
       <c r="AF38">
-        <v>2.356214218504693</v>
+        <v>1.2</v>
       </c>
       <c r="AG38">
         <v>156</v>
@@ -5510,7 +5510,7 @@
         <v>231</v>
       </c>
       <c r="C39">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D39">
         <v>2</v>
@@ -5582,10 +5582,10 @@
         <v>53.48988910632746</v>
       </c>
       <c r="AA39">
-        <v>125</v>
+        <v>11.76470588235294</v>
       </c>
       <c r="AB39">
-        <v>1.952886610521177</v>
+        <v>2.07494202367875</v>
       </c>
       <c r="AC39">
         <v>0</v>
@@ -5594,10 +5594,10 @@
         <v>0</v>
       </c>
       <c r="AE39">
-        <v>36.61662394727206</v>
+        <v>0</v>
       </c>
       <c r="AF39">
-        <v>6.417312845884275</v>
+        <v>4</v>
       </c>
       <c r="AG39">
         <v>97</v>
@@ -5701,10 +5701,10 @@
         <v>0</v>
       </c>
       <c r="AE40">
-        <v>0</v>
+        <v>-18.64454181038501</v>
       </c>
       <c r="AF40">
-        <v>13.09523809523809</v>
+        <v>6</v>
       </c>
       <c r="AG40">
         <v>115</v>
@@ -5724,10 +5724,10 @@
         <v>233</v>
       </c>
       <c r="C41">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D41">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E41">
         <v>7962</v>
@@ -5796,22 +5796,22 @@
         <v>0</v>
       </c>
       <c r="AA41">
-        <v>96.77419354838709</v>
+        <v>11.94029850746269</v>
       </c>
       <c r="AB41">
-        <v>7.786988193921125</v>
+        <v>8.414971112785732</v>
       </c>
       <c r="AC41">
-        <v>14.28571428571428</v>
+        <v>13.20754716981132</v>
       </c>
       <c r="AD41">
-        <v>25.11931675458428</v>
+        <v>-12.55965837729214</v>
       </c>
       <c r="AE41">
         <v>-62.7982918864607</v>
       </c>
       <c r="AF41">
-        <v>3.848957481479014</v>
+        <v>2.3</v>
       </c>
       <c r="AG41">
         <v>212</v>
@@ -5831,7 +5831,7 @@
         <v>234</v>
       </c>
       <c r="C42">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D42">
         <v>2</v>
@@ -5903,22 +5903,22 @@
         <v>0</v>
       </c>
       <c r="AA42">
-        <v>55.55555555555555</v>
+        <v>5.128205128205128</v>
       </c>
       <c r="AB42">
-        <v>3.699897225077081</v>
+        <v>4.008221993833504</v>
       </c>
       <c r="AC42">
-        <v>2.380952380952381</v>
+        <v>1.886792452830189</v>
       </c>
       <c r="AD42">
         <v>10.27749229188078</v>
       </c>
       <c r="AE42">
-        <v>-154.1623843782117</v>
+        <v>-123.3299075025694</v>
       </c>
       <c r="AF42">
-        <v>5.466523218624056</v>
+        <v>1.2</v>
       </c>
       <c r="AG42">
         <v>103</v>
@@ -5938,10 +5938,10 @@
         <v>235</v>
       </c>
       <c r="C43">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D43">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E43">
         <v>21503</v>
@@ -6010,22 +6010,22 @@
         <v>5.058680696074464</v>
       </c>
       <c r="AA43">
-        <v>96.77419354838709</v>
+        <v>13.51351351351351</v>
       </c>
       <c r="AB43">
-        <v>1.441659303353021</v>
+        <v>1.720690136260057</v>
       </c>
       <c r="AC43">
-        <v>7.142857142857142</v>
+        <v>9.433962264150944</v>
       </c>
       <c r="AD43">
         <v>4.650513881783938</v>
       </c>
       <c r="AE43">
-        <v>-9.301027763567875</v>
+        <v>-23.25256940891968</v>
       </c>
       <c r="AF43">
-        <v>13.53793802650732</v>
+        <v>7.4</v>
       </c>
       <c r="AG43">
         <v>667</v>
@@ -6045,7 +6045,7 @@
         <v>236</v>
       </c>
       <c r="C44">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -6120,7 +6120,7 @@
         <v>0</v>
       </c>
       <c r="AB44">
-        <v>1.134154244977317</v>
+        <v>1.215165262475697</v>
       </c>
       <c r="AC44">
         <v>0</v>
@@ -6129,10 +6129,10 @@
         <v>0</v>
       </c>
       <c r="AE44">
-        <v>-72.90991574854181</v>
+        <v>-24.30330524951393</v>
       </c>
       <c r="AF44">
-        <v>17.65262515262515</v>
+        <v>1.7</v>
       </c>
       <c r="AG44">
         <v>199</v>
@@ -6152,7 +6152,7 @@
         <v>237</v>
       </c>
       <c r="C45">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -6227,7 +6227,7 @@
         <v>0</v>
       </c>
       <c r="AB45">
-        <v>0.8409986859395532</v>
+        <v>0.9461235216819974</v>
       </c>
       <c r="AC45">
         <v>0</v>
@@ -6236,10 +6236,10 @@
         <v>0</v>
       </c>
       <c r="AE45">
-        <v>10.51248357424442</v>
+        <v>31.53745072273324</v>
       </c>
       <c r="AF45">
-        <v>7.806122448979592</v>
+        <v>4.6</v>
       </c>
       <c r="AG45">
         <v>261</v>
@@ -6259,10 +6259,10 @@
         <v>238</v>
       </c>
       <c r="C46">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E46">
         <v>20919</v>
@@ -6331,22 +6331,22 @@
         <v>26.55367231638418</v>
       </c>
       <c r="AA46">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AB46">
-        <v>1.099478942588078</v>
+        <v>1.195085807160954</v>
       </c>
       <c r="AC46">
-        <v>0</v>
+        <v>1.886792452830189</v>
       </c>
       <c r="AD46">
-        <v>0</v>
+        <v>4.780343228643817</v>
       </c>
       <c r="AE46">
-        <v>-19.12137291457527</v>
+        <v>4.780343228643817</v>
       </c>
       <c r="AF46">
-        <v>4.284966593679553</v>
+        <v>2</v>
       </c>
       <c r="AG46">
         <v>149</v>
@@ -6366,7 +6366,7 @@
         <v>239</v>
       </c>
       <c r="C47">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -6441,7 +6441,7 @@
         <v>0</v>
       </c>
       <c r="AB47">
-        <v>1.485803819866548</v>
+        <v>1.593862279493206</v>
       </c>
       <c r="AC47">
         <v>0</v>
@@ -6450,10 +6450,10 @@
         <v>0</v>
       </c>
       <c r="AE47">
-        <v>-13.50730745333225</v>
+        <v>-8.104384471999351</v>
       </c>
       <c r="AF47">
-        <v>2.703718924269609</v>
+        <v>2</v>
       </c>
       <c r="AG47">
         <v>893</v>
@@ -6473,7 +6473,7 @@
         <v>240</v>
       </c>
       <c r="C48">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -6548,7 +6548,7 @@
         <v>0</v>
       </c>
       <c r="AB48">
-        <v>1.316150260488072</v>
+        <v>1.535508637236084</v>
       </c>
       <c r="AC48">
         <v>0</v>
@@ -6557,10 +6557,10 @@
         <v>0</v>
       </c>
       <c r="AE48">
-        <v>-10.9679188374006</v>
+        <v>5.483959418700302</v>
       </c>
       <c r="AF48">
-        <v>4.05322578376056</v>
+        <v>2.9</v>
       </c>
       <c r="AG48">
         <v>572</v>
@@ -6580,7 +6580,7 @@
         <v>241</v>
       </c>
       <c r="C49">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -6655,7 +6655,7 @@
         <v>0</v>
       </c>
       <c r="AB49">
-        <v>0.546879747220028</v>
+        <v>0.7291729962933706</v>
       </c>
       <c r="AC49">
         <v>0</v>
@@ -6667,7 +6667,7 @@
         <v>6.076441635778088</v>
       </c>
       <c r="AF49">
-        <v>3.10374149659864</v>
+        <v>4.1</v>
       </c>
       <c r="AG49">
         <v>634</v>
@@ -6774,7 +6774,7 @@
         <v>-7.082152974504249</v>
       </c>
       <c r="AF50">
-        <v>2.38095238095238</v>
+        <v>0</v>
       </c>
       <c r="AG50">
         <v>350</v>
@@ -6878,10 +6878,10 @@
         <v>0</v>
       </c>
       <c r="AE51">
-        <v>24.14292612264606</v>
+        <v>-12.07146306132303</v>
       </c>
       <c r="AF51">
-        <v>11.73469387755102</v>
+        <v>5.8</v>
       </c>
       <c r="AG51">
         <v>95</v>
@@ -6901,7 +6901,7 @@
         <v>244</v>
       </c>
       <c r="C52">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -6976,7 +6976,7 @@
         <v>0</v>
       </c>
       <c r="AB52">
-        <v>0.2366583836232398</v>
+        <v>0.3944306393720665</v>
       </c>
       <c r="AC52">
         <v>0</v>
@@ -6985,10 +6985,10 @@
         <v>0</v>
       </c>
       <c r="AE52">
-        <v>-3.944306393720664</v>
+        <v>11.83291918116199</v>
       </c>
       <c r="AF52">
-        <v>1.428571428571428</v>
+        <v>5.4</v>
       </c>
       <c r="AG52">
         <v>175</v>
@@ -7115,7 +7115,7 @@
         <v>246</v>
       </c>
       <c r="C54">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -7190,7 +7190,7 @@
         <v>0</v>
       </c>
       <c r="AB54">
-        <v>0.1652346331791143</v>
+        <v>0.2203128442388191</v>
       </c>
       <c r="AC54">
         <v>0</v>
@@ -7199,10 +7199,10 @@
         <v>0</v>
       </c>
       <c r="AE54">
-        <v>0</v>
+        <v>11.01564221194096</v>
       </c>
       <c r="AF54">
-        <v>10.71428571428571</v>
+        <v>6</v>
       </c>
       <c r="AG54">
         <v>204</v>
@@ -7222,7 +7222,7 @@
         <v>247</v>
       </c>
       <c r="C55">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -7297,7 +7297,7 @@
         <v>0</v>
       </c>
       <c r="AB55">
-        <v>1.340795149819284</v>
+        <v>1.457386032412265</v>
       </c>
       <c r="AC55">
         <v>0</v>
@@ -7306,10 +7306,10 @@
         <v>0</v>
       </c>
       <c r="AE55">
-        <v>29.14772064824531</v>
+        <v>-29.14772064824531</v>
       </c>
       <c r="AF55">
-        <v>8.246382898638537</v>
+        <v>7.2</v>
       </c>
       <c r="AG55">
         <v>163</v>
@@ -7329,7 +7329,7 @@
         <v>248</v>
       </c>
       <c r="C56">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -7404,7 +7404,7 @@
         <v>0</v>
       </c>
       <c r="AB56">
-        <v>0.9724473257698542</v>
+        <v>1.080497028633171</v>
       </c>
       <c r="AC56">
         <v>0</v>
@@ -7413,10 +7413,10 @@
         <v>0</v>
       </c>
       <c r="AE56">
-        <v>-5.402485143165856</v>
+        <v>-16.20745542949757</v>
       </c>
       <c r="AF56">
-        <v>7.490310226654764</v>
+        <v>3.2</v>
       </c>
       <c r="AG56">
         <v>355</v>
@@ -7436,7 +7436,7 @@
         <v>249</v>
       </c>
       <c r="C57">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D57">
         <v>1</v>
@@ -7508,22 +7508,22 @@
         <v>22.5140712945591</v>
       </c>
       <c r="AA57">
-        <v>62.5</v>
+        <v>4.545454545454546</v>
       </c>
       <c r="AB57">
-        <v>0.931098696461825</v>
+        <v>1.280260707635009</v>
       </c>
       <c r="AC57">
-        <v>2.380952380952381</v>
+        <v>1.886792452830189</v>
       </c>
       <c r="AD57">
         <v>-5.819366852886406</v>
       </c>
       <c r="AE57">
-        <v>-11.63873370577281</v>
+        <v>5.819366852886406</v>
       </c>
       <c r="AF57">
-        <v>6.447798233512519</v>
+        <v>5.2</v>
       </c>
       <c r="AG57">
         <v>354</v>
@@ -7615,7 +7615,7 @@
         <v>16.84636118598383</v>
       </c>
       <c r="AA58">
-        <v>62.5</v>
+        <v>6.25</v>
       </c>
       <c r="AB58">
         <v>1.8126203693214</v>
@@ -7627,10 +7627,10 @@
         <v>0</v>
       </c>
       <c r="AE58">
-        <v>11.32887730825875</v>
+        <v>0</v>
       </c>
       <c r="AF58">
-        <v>4.367735439164009</v>
+        <v>2.1</v>
       </c>
       <c r="AG58">
         <v>99</v>
@@ -7650,7 +7650,7 @@
         <v>251</v>
       </c>
       <c r="C59">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D59">
         <v>1</v>
@@ -7722,22 +7722,22 @@
         <v>10.8837614279495</v>
       </c>
       <c r="AA59">
-        <v>90.90909090909091</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="AB59">
-        <v>0.7337735974918285</v>
+        <v>1.00060036021613</v>
       </c>
       <c r="AC59">
-        <v>2.380952380952381</v>
+        <v>1.886792452830189</v>
       </c>
       <c r="AD59">
-        <v>6.670669068107531</v>
+        <v>-6.670669068107531</v>
       </c>
       <c r="AE59">
-        <v>13.34133813621506</v>
+        <v>20.01200720432259</v>
       </c>
       <c r="AF59">
-        <v>21.88208616780046</v>
+        <v>13.6</v>
       </c>
       <c r="AG59">
         <v>111</v>
@@ -7829,22 +7829,22 @@
         <v>0</v>
       </c>
       <c r="AA60">
-        <v>51.28205128205128</v>
+        <v>5.128205128205128</v>
       </c>
       <c r="AB60">
         <v>2.156841057405154</v>
       </c>
       <c r="AC60">
-        <v>4.761904761904762</v>
+        <v>1.886792452830189</v>
       </c>
       <c r="AD60">
-        <v>0</v>
+        <v>-5.530361685654242</v>
       </c>
       <c r="AE60">
-        <v>-27.65180842827121</v>
+        <v>-33.18217011392545</v>
       </c>
       <c r="AF60">
-        <v>6.740716340982856</v>
+        <v>2.4</v>
       </c>
       <c r="AG60">
         <v>351</v>
@@ -7948,10 +7948,10 @@
         <v>0</v>
       </c>
       <c r="AE61">
-        <v>4.441680731988984</v>
+        <v>-8.883361463977968</v>
       </c>
       <c r="AF61">
-        <v>11.82267137624281</v>
+        <v>4.1</v>
       </c>
       <c r="AG61">
         <v>498</v>
@@ -7971,7 +7971,7 @@
         <v>254</v>
       </c>
       <c r="C62">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -8046,7 +8046,7 @@
         <v>0</v>
       </c>
       <c r="AB62">
-        <v>1.450957632037144</v>
+        <v>1.596053395240859</v>
       </c>
       <c r="AC62">
         <v>0</v>
@@ -8058,7 +8058,7 @@
         <v>-29.01915264074289</v>
       </c>
       <c r="AF62">
-        <v>7.199169141340747</v>
+        <v>6.2</v>
       </c>
       <c r="AG62">
         <v>300</v>
@@ -8078,7 +8078,7 @@
         <v>255</v>
       </c>
       <c r="C63">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D63">
         <v>1</v>
@@ -8150,22 +8150,22 @@
         <v>33.87850467289719</v>
       </c>
       <c r="AA63">
-        <v>29.41176470588235</v>
+        <v>2.631578947368421</v>
       </c>
       <c r="AB63">
-        <v>1.66169786422951</v>
+        <v>1.857191730609452</v>
       </c>
       <c r="AC63">
-        <v>2.380952380952381</v>
+        <v>1.886792452830189</v>
       </c>
       <c r="AD63">
         <v>-4.887346659498558</v>
       </c>
       <c r="AE63">
-        <v>24.43673329749279</v>
+        <v>19.54938663799423</v>
       </c>
       <c r="AF63">
-        <v>3.28195665618026</v>
+        <v>3.8</v>
       </c>
       <c r="AG63">
         <v>203</v>
@@ -8185,7 +8185,7 @@
         <v>256</v>
       </c>
       <c r="C64">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D64">
         <v>1</v>
@@ -8257,22 +8257,22 @@
         <v>10.11326860841424</v>
       </c>
       <c r="AA64">
-        <v>71.42857142857143</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="AB64">
-        <v>1.000714796283059</v>
+        <v>1.072194424588992</v>
       </c>
       <c r="AC64">
-        <v>2.380952380952381</v>
+        <v>0</v>
       </c>
       <c r="AD64">
-        <v>-7.147962830593281</v>
+        <v>0</v>
       </c>
       <c r="AE64">
-        <v>-21.44388849177984</v>
+        <v>-28.59185132237312</v>
       </c>
       <c r="AF64">
-        <v>5.576169861884148</v>
+        <v>2.5</v>
       </c>
       <c r="AG64">
         <v>207</v>
@@ -8292,7 +8292,7 @@
         <v>257</v>
       </c>
       <c r="C65">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D65">
         <v>0</v>
@@ -8367,7 +8367,7 @@
         <v>0</v>
       </c>
       <c r="AB65">
-        <v>1.613403661185231</v>
+        <v>1.551349674216568</v>
       </c>
       <c r="AC65">
         <v>0</v>
@@ -8376,10 +8376,10 @@
         <v>0</v>
       </c>
       <c r="AE65">
-        <v>43.43779087806391</v>
+        <v>24.82159478746509</v>
       </c>
       <c r="AF65">
-        <v>8.406441830811579</v>
+        <v>5.1</v>
       </c>
       <c r="AG65">
         <v>87</v>
@@ -8399,7 +8399,7 @@
         <v>258</v>
       </c>
       <c r="C66">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -8474,7 +8474,7 @@
         <v>0</v>
       </c>
       <c r="AB66">
-        <v>0.7045009784735812</v>
+        <v>0.939334637964775</v>
       </c>
       <c r="AC66">
         <v>0</v>
@@ -8483,10 +8483,10 @@
         <v>0</v>
       </c>
       <c r="AE66">
-        <v>0</v>
+        <v>39.13894324853229</v>
       </c>
       <c r="AF66">
-        <v>23.94557823129252</v>
+        <v>12</v>
       </c>
       <c r="AG66">
         <v>185</v>
@@ -8506,10 +8506,10 @@
         <v>259</v>
       </c>
       <c r="C67">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E67">
         <v>24817</v>
@@ -8578,22 +8578,22 @@
         <v>7.379195429659605</v>
       </c>
       <c r="AA67">
-        <v>76.92307692307693</v>
+        <v>12.5</v>
       </c>
       <c r="AB67">
-        <v>0.5238344683080147</v>
+        <v>0.6447193456098642</v>
       </c>
       <c r="AC67">
-        <v>0</v>
+        <v>1.886792452830189</v>
       </c>
       <c r="AD67">
-        <v>0</v>
+        <v>4.029495910061651</v>
       </c>
       <c r="AE67">
-        <v>4.029495910061651</v>
+        <v>12.08848773018495</v>
       </c>
       <c r="AF67">
-        <v>4.719903112760256</v>
+        <v>4.4</v>
       </c>
       <c r="AG67">
         <v>68</v>
@@ -8613,7 +8613,7 @@
         <v>260</v>
       </c>
       <c r="C68">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="D68">
         <v>6</v>
@@ -8685,22 +8685,22 @@
         <v>8.392077878482713</v>
       </c>
       <c r="AA68">
-        <v>153.8461538461539</v>
+        <v>10.90909090909091</v>
       </c>
       <c r="AB68">
-        <v>2.496479324030214</v>
+        <v>3.520675969786199</v>
       </c>
       <c r="AC68">
-        <v>11.9047619047619</v>
+        <v>7.547169811320755</v>
       </c>
       <c r="AD68">
-        <v>-19.20368710792472</v>
+        <v>-25.60491614389963</v>
       </c>
       <c r="AE68">
-        <v>70.41351939572398</v>
+        <v>25.60491614389963</v>
       </c>
       <c r="AF68">
-        <v>5.737347881839542</v>
+        <v>7.5</v>
       </c>
       <c r="AG68">
         <v>179</v>
@@ -8720,10 +8720,10 @@
         <v>261</v>
       </c>
       <c r="C69">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="D69">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E69">
         <v>8859</v>
@@ -8792,22 +8792,22 @@
         <v>0</v>
       </c>
       <c r="AA69">
-        <v>103.030303030303</v>
+        <v>10.16949152542373</v>
       </c>
       <c r="AB69">
-        <v>18.6251269895022</v>
+        <v>19.97968167964781</v>
       </c>
       <c r="AC69">
-        <v>16.66666666666666</v>
+        <v>13.20754716981132</v>
       </c>
       <c r="AD69">
-        <v>-11.28795575121345</v>
+        <v>-56.43977875606727</v>
       </c>
       <c r="AE69">
-        <v>-237.0470707754826</v>
+        <v>-45.15182300485382</v>
       </c>
       <c r="AF69">
-        <v>3.064605769696325</v>
+        <v>1.9</v>
       </c>
       <c r="AG69">
         <v>121</v>
@@ -8827,7 +8827,7 @@
         <v>262</v>
       </c>
       <c r="C70">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D70">
         <v>1</v>
@@ -8899,22 +8899,22 @@
         <v>22.90790088826555</v>
       </c>
       <c r="AA70">
-        <v>50</v>
+        <v>3.703703703703703</v>
       </c>
       <c r="AB70">
-        <v>1.770694997786631</v>
+        <v>2.390438247011952</v>
       </c>
       <c r="AC70">
-        <v>2.380952380952381</v>
+        <v>0</v>
       </c>
       <c r="AD70">
-        <v>-8.853474988933156</v>
+        <v>0</v>
       </c>
       <c r="AE70">
-        <v>-26.56042496679947</v>
+        <v>35.41389995573262</v>
       </c>
       <c r="AF70">
-        <v>6.540987607164079</v>
+        <v>4</v>
       </c>
       <c r="AG70">
         <v>87</v>
@@ -8934,10 +8934,10 @@
         <v>263</v>
       </c>
       <c r="C71">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E71">
         <v>22775</v>
@@ -9006,22 +9006,22 @@
         <v>6.163539241199835</v>
       </c>
       <c r="AA71">
-        <v>71.42857142857143</v>
+        <v>3.03030303030303</v>
       </c>
       <c r="AB71">
-        <v>1.229418221734358</v>
+        <v>1.448957189901207</v>
       </c>
       <c r="AC71">
-        <v>2.380952380952381</v>
+        <v>0</v>
       </c>
       <c r="AD71">
-        <v>4.390779363336993</v>
+        <v>0</v>
       </c>
       <c r="AE71">
-        <v>48.29857299670692</v>
+        <v>21.95389681668496</v>
       </c>
       <c r="AF71">
-        <v>10.97770219198791</v>
+        <v>11.2</v>
       </c>
       <c r="AG71">
         <v>679</v>
@@ -9041,10 +9041,10 @@
         <v>264</v>
       </c>
       <c r="C72">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="D72">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72">
         <v>20656</v>
@@ -9113,22 +9113,22 @@
         <v>6.677350427350427</v>
       </c>
       <c r="AA72">
-        <v>64.28571428571428</v>
+        <v>6.711409395973154</v>
       </c>
       <c r="AB72">
-        <v>6.777691711851278</v>
+        <v>7.213400464756003</v>
       </c>
       <c r="AC72">
-        <v>11.9047619047619</v>
+        <v>11.32075471698113</v>
       </c>
       <c r="AD72">
-        <v>24.20604182804028</v>
+        <v>-9.682416731216112</v>
       </c>
       <c r="AE72">
-        <v>-87.14175058094501</v>
+        <v>-77.45933384972889</v>
       </c>
       <c r="AF72">
-        <v>3.536380131733706</v>
+        <v>2</v>
       </c>
       <c r="AG72">
         <v>322</v>
@@ -9148,7 +9148,7 @@
         <v>265</v>
       </c>
       <c r="C73">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="D73">
         <v>1</v>
@@ -9220,10 +9220,10 @@
         <v>0</v>
       </c>
       <c r="AA73">
-        <v>19.6078431372549</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="AB73">
-        <v>2.137378986630904</v>
+        <v>2.514563513683417</v>
       </c>
       <c r="AC73">
         <v>0</v>
@@ -9232,10 +9232,10 @@
         <v>0</v>
       </c>
       <c r="AE73">
-        <v>-41.9093918947236</v>
+        <v>-4.190939189472361</v>
       </c>
       <c r="AF73">
-        <v>5.097241444061566</v>
+        <v>3.2</v>
       </c>
       <c r="AG73">
         <v>877</v>
@@ -9255,7 +9255,7 @@
         <v>266</v>
       </c>
       <c r="C74">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D74">
         <v>1</v>
@@ -9327,22 +9327,22 @@
         <v>6.215040397762586</v>
       </c>
       <c r="AA74">
-        <v>35.71428571428572</v>
+        <v>3.125</v>
       </c>
       <c r="AB74">
-        <v>0.5311681906134992</v>
+        <v>0.607049360701142</v>
       </c>
       <c r="AC74">
-        <v>2.380952380952381</v>
+        <v>1.886792452830189</v>
       </c>
       <c r="AD74">
         <v>1.897029252191069</v>
       </c>
       <c r="AE74">
-        <v>-11.38217551314641</v>
+        <v>3.794058504382138</v>
       </c>
       <c r="AF74">
-        <v>2.124000338286052</v>
+        <v>1.5</v>
       </c>
       <c r="AG74">
         <v>961</v>
@@ -9362,10 +9362,10 @@
         <v>267</v>
       </c>
       <c r="C75">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="D75">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E75">
         <v>31951</v>
@@ -9434,22 +9434,22 @@
         <v>9.18118793329586</v>
       </c>
       <c r="AA75">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AB75">
-        <v>0.9076398234797033</v>
+        <v>1.251916997903039</v>
       </c>
       <c r="AC75">
-        <v>0</v>
+        <v>3.773584905660377</v>
       </c>
       <c r="AD75">
-        <v>0</v>
+        <v>6.259584989515195</v>
       </c>
       <c r="AE75">
-        <v>-18.77875496854559</v>
+        <v>-3.129792494757598</v>
       </c>
       <c r="AF75">
-        <v>9.865586268005361</v>
+        <v>5.6</v>
       </c>
       <c r="AG75">
         <v>1003</v>
@@ -9469,10 +9469,10 @@
         <v>268</v>
       </c>
       <c r="C76">
-        <v>287</v>
+        <v>304</v>
       </c>
       <c r="D76">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E76">
         <v>22432</v>
@@ -9541,22 +9541,22 @@
         <v>6.539664486778505</v>
       </c>
       <c r="AA76">
-        <v>87.10801393728224</v>
+        <v>9.868421052631579</v>
       </c>
       <c r="AB76">
-        <v>12.79422253922967</v>
+        <v>13.55206847360913</v>
       </c>
       <c r="AC76">
-        <v>28.57142857142857</v>
+        <v>18.86792452830189</v>
       </c>
       <c r="AD76">
-        <v>-35.66333808844508</v>
+        <v>17.83166904422254</v>
       </c>
       <c r="AE76">
-        <v>75.7845934379458</v>
+        <v>-356.6333808844508</v>
       </c>
       <c r="AF76">
-        <v>5.525566085786537</v>
+        <v>3.4</v>
       </c>
       <c r="AG76">
         <v>246</v>
@@ -9576,10 +9576,10 @@
         <v>269</v>
       </c>
       <c r="C77">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D77">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E77">
         <v>16976</v>
@@ -9648,22 +9648,22 @@
         <v>15.69792108612643</v>
       </c>
       <c r="AA77">
-        <v>18.86792452830188</v>
+        <v>3.703703703703703</v>
       </c>
       <c r="AB77">
-        <v>3.122054665409991</v>
+        <v>3.180961357210179</v>
       </c>
       <c r="AC77">
-        <v>0</v>
+        <v>1.886792452830189</v>
       </c>
       <c r="AD77">
-        <v>0</v>
+        <v>5.89066918001885</v>
       </c>
       <c r="AE77">
-        <v>-35.3440150801131</v>
+        <v>-58.9066918001885</v>
       </c>
       <c r="AF77">
-        <v>5.370632461399303</v>
+        <v>2.2</v>
       </c>
       <c r="AG77">
         <v>445</v>
@@ -9683,7 +9683,7 @@
         <v>270</v>
       </c>
       <c r="C78">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="D78">
         <v>1</v>
@@ -9755,22 +9755,22 @@
         <v>18.9528547737503</v>
       </c>
       <c r="AA78">
-        <v>16.66666666666667</v>
+        <v>1.234567901234568</v>
       </c>
       <c r="AB78">
-        <v>2.236052621771699</v>
+        <v>3.018671039391794</v>
       </c>
       <c r="AC78">
-        <v>2.380952380952381</v>
+        <v>1.886792452830189</v>
       </c>
       <c r="AD78">
-        <v>3.726754369619499</v>
+        <v>-3.726754369619499</v>
       </c>
       <c r="AE78">
-        <v>-44.72105243543398</v>
+        <v>115.5293854582044</v>
       </c>
       <c r="AF78">
-        <v>5.824525390926269</v>
+        <v>3.7</v>
       </c>
       <c r="AG78">
         <v>365</v>
@@ -9790,7 +9790,7 @@
         <v>271</v>
       </c>
       <c r="C79">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="D79">
         <v>2</v>
@@ -9862,10 +9862,10 @@
         <v>32.43243243243244</v>
       </c>
       <c r="AA79">
-        <v>54.05405405405406</v>
+        <v>4.444444444444445</v>
       </c>
       <c r="AB79">
-        <v>1.372098197730475</v>
+        <v>1.668768078320849</v>
       </c>
       <c r="AC79">
         <v>0</v>
@@ -9874,10 +9874,10 @@
         <v>0</v>
       </c>
       <c r="AE79">
-        <v>-18.54186753689832</v>
+        <v>0</v>
       </c>
       <c r="AF79">
-        <v>3.585077146800747</v>
+        <v>3</v>
       </c>
       <c r="AG79">
         <v>672</v>
@@ -9897,7 +9897,7 @@
         <v>272</v>
       </c>
       <c r="C80">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D80">
         <v>0</v>
@@ -9972,7 +9972,7 @@
         <v>0</v>
       </c>
       <c r="AB80">
-        <v>0.9107468123861566</v>
+        <v>0.980804259492784</v>
       </c>
       <c r="AC80">
         <v>0</v>
@@ -9981,10 +9981,10 @@
         <v>0</v>
       </c>
       <c r="AE80">
-        <v>17.51436177665686</v>
+        <v>-3.502872355331372</v>
       </c>
       <c r="AF80">
-        <v>5.825671177561935</v>
+        <v>4.7</v>
       </c>
       <c r="AG80">
         <v>460</v>
@@ -10007,7 +10007,7 @@
         <v>7</v>
       </c>
       <c r="D81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E81">
         <v>8265</v>
@@ -10076,22 +10076,22 @@
         <v>0</v>
       </c>
       <c r="AA81">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="AB81">
         <v>0.8469449485783423</v>
       </c>
       <c r="AC81">
-        <v>0</v>
+        <v>1.886792452830189</v>
       </c>
       <c r="AD81">
-        <v>0</v>
+        <v>12.09921355111918</v>
       </c>
       <c r="AE81">
         <v>-12.09921355111918</v>
       </c>
       <c r="AF81">
-        <v>11.78571428571429</v>
+        <v>4.6</v>
       </c>
       <c r="AG81">
         <v>121</v>
@@ -10183,7 +10183,7 @@
         <v>0</v>
       </c>
       <c r="AA82">
-        <v>111.1111111111111</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="AB82">
         <v>0.7707459107647513</v>
@@ -10195,10 +10195,10 @@
         <v>0</v>
       </c>
       <c r="AE82">
-        <v>-8.563843452941679</v>
+        <v>-17.12768690588336</v>
       </c>
       <c r="AF82">
-        <v>6.556122448979592</v>
+        <v>4.8</v>
       </c>
       <c r="AG82">
         <v>219</v>
@@ -10218,7 +10218,7 @@
         <v>275</v>
       </c>
       <c r="C83">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="D83">
         <v>1</v>
@@ -10290,22 +10290,22 @@
         <v>19.6238757154538</v>
       </c>
       <c r="AA83">
-        <v>17.85714285714286</v>
+        <v>1.36986301369863</v>
       </c>
       <c r="AB83">
-        <v>2.18102508178844</v>
+        <v>2.843121981617074</v>
       </c>
       <c r="AC83">
-        <v>2.380952380952381</v>
+        <v>1.886792452830189</v>
       </c>
       <c r="AD83">
         <v>-3.894687646050786</v>
       </c>
       <c r="AE83">
-        <v>42.84156410655866</v>
+        <v>50.63093939866022</v>
       </c>
       <c r="AF83">
-        <v>9.114650706144699</v>
+        <v>7.3</v>
       </c>
       <c r="AG83">
         <v>548</v>
@@ -10325,7 +10325,7 @@
         <v>276</v>
       </c>
       <c r="C84">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D84">
         <v>2</v>
@@ -10397,10 +10397,10 @@
         <v>7.48013090229079</v>
       </c>
       <c r="AA84">
-        <v>100</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="AB84">
-        <v>0.6486766995329528</v>
+        <v>0.8432797093928386</v>
       </c>
       <c r="AC84">
         <v>0</v>
@@ -10409,10 +10409,10 @@
         <v>0</v>
       </c>
       <c r="AE84">
-        <v>-16.21691748832382</v>
+        <v>12.97353399065905</v>
       </c>
       <c r="AF84">
-        <v>4.500168795281576</v>
+        <v>4.2</v>
       </c>
       <c r="AG84">
         <v>899</v>
@@ -10432,7 +10432,7 @@
         <v>277</v>
       </c>
       <c r="C85">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D85">
         <v>1</v>
@@ -10504,22 +10504,22 @@
         <v>5.528527200353825</v>
       </c>
       <c r="AA85">
-        <v>38.46153846153847</v>
+        <v>3.571428571428571</v>
       </c>
       <c r="AB85">
-        <v>0.8979140765299074</v>
+        <v>0.9669843901091312</v>
       </c>
       <c r="AC85">
-        <v>2.380952380952381</v>
+        <v>0</v>
       </c>
       <c r="AD85">
-        <v>-3.453515678961183</v>
+        <v>0</v>
       </c>
       <c r="AE85">
-        <v>6.907031357922365</v>
+        <v>-10.36054703688355</v>
       </c>
       <c r="AF85">
-        <v>3.639648363332575</v>
+        <v>2.9</v>
       </c>
       <c r="AG85">
         <v>819</v>
@@ -10539,7 +10539,7 @@
         <v>278</v>
       </c>
       <c r="C86">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D86">
         <v>0</v>
@@ -10614,7 +10614,7 @@
         <v>0</v>
       </c>
       <c r="AB86">
-        <v>0.8328128253175099</v>
+        <v>1.145117634811576</v>
       </c>
       <c r="AC86">
         <v>0</v>
@@ -10623,10 +10623,10 @@
         <v>0</v>
       </c>
       <c r="AE86">
-        <v>26.02540079117218</v>
+        <v>46.84572142410993</v>
       </c>
       <c r="AF86">
-        <v>15.23809523809524</v>
+        <v>9.4</v>
       </c>
       <c r="AG86">
         <v>250</v>
@@ -10646,10 +10646,10 @@
         <v>279</v>
       </c>
       <c r="C87">
-        <v>157</v>
+        <v>178</v>
       </c>
       <c r="D87">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E87">
         <v>44730</v>
@@ -10718,22 +10718,22 @@
         <v>86.49211931744171</v>
       </c>
       <c r="AA87">
-        <v>101.9108280254777</v>
+        <v>10.67415730337079</v>
       </c>
       <c r="AB87">
-        <v>3.509948580371116</v>
+        <v>3.979432148446233</v>
       </c>
       <c r="AC87">
-        <v>30.95238095238095</v>
+        <v>18.86792452830189</v>
       </c>
       <c r="AD87">
-        <v>-15.64945226917058</v>
+        <v>0</v>
       </c>
       <c r="AE87">
-        <v>6.70690811535882</v>
+        <v>-20.12072434607646</v>
       </c>
       <c r="AF87">
-        <v>5.422293217643555</v>
+        <v>3.4</v>
       </c>
       <c r="AG87">
         <v>870</v>
@@ -10753,7 +10753,7 @@
         <v>280</v>
       </c>
       <c r="C88">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D88">
         <v>1</v>
@@ -10825,10 +10825,10 @@
         <v>13.47414420975965</v>
       </c>
       <c r="AA88">
-        <v>76.92307692307693</v>
+        <v>7.142857142857142</v>
       </c>
       <c r="AB88">
-        <v>0.824245498351509</v>
+        <v>0.887648998224702</v>
       </c>
       <c r="AC88">
         <v>0</v>
@@ -10837,10 +10837,10 @@
         <v>0</v>
       </c>
       <c r="AE88">
-        <v>-19.0210499619579</v>
+        <v>6.3403499873193</v>
       </c>
       <c r="AF88">
-        <v>6.063182848897135</v>
+        <v>1.8</v>
       </c>
       <c r="AG88">
         <v>216</v>
@@ -10860,10 +10860,10 @@
         <v>281</v>
       </c>
       <c r="C89">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="D89">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E89">
         <v>23750</v>
@@ -10932,22 +10932,22 @@
         <v>6.985191394244202</v>
       </c>
       <c r="AA89">
-        <v>16</v>
+        <v>2.985074626865671</v>
       </c>
       <c r="AB89">
-        <v>5.263157894736842</v>
+        <v>5.642105263157895</v>
       </c>
       <c r="AC89">
-        <v>4.761904761904762</v>
+        <v>7.547169811320755</v>
       </c>
       <c r="AD89">
         <v>8.421052631578947</v>
       </c>
       <c r="AE89">
-        <v>298.9473684210526</v>
+        <v>-336.8421052631579</v>
       </c>
       <c r="AF89">
-        <v>12.41566822921687</v>
+        <v>10.9</v>
       </c>
       <c r="AG89">
         <v>582</v>
@@ -10967,10 +10967,10 @@
         <v>282</v>
       </c>
       <c r="C90">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E90">
         <v>24925</v>
@@ -11039,22 +11039,22 @@
         <v>7.187005893344833</v>
       </c>
       <c r="AA90">
-        <v>0</v>
+        <v>3.571428571428571</v>
       </c>
       <c r="AB90">
-        <v>0.8425275827482448</v>
+        <v>1.123370110330993</v>
       </c>
       <c r="AC90">
-        <v>0</v>
+        <v>1.886792452830189</v>
       </c>
       <c r="AD90">
-        <v>0</v>
+        <v>4.012036108324975</v>
       </c>
       <c r="AE90">
-        <v>0</v>
+        <v>8.02407221664995</v>
       </c>
       <c r="AF90">
-        <v>6.584404004516784</v>
+        <v>5.2</v>
       </c>
       <c r="AG90">
         <v>853</v>
@@ -11074,10 +11074,10 @@
         <v>283</v>
       </c>
       <c r="C91">
-        <v>299</v>
+        <v>314</v>
       </c>
       <c r="D91">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E91">
         <v>29348</v>
@@ -11146,22 +11146,22 @@
         <v>0</v>
       </c>
       <c r="AA91">
-        <v>60.20066889632107</v>
+        <v>6.369426751592357</v>
       </c>
       <c r="AB91">
-        <v>10.18808777429467</v>
+        <v>10.69919585661714</v>
       </c>
       <c r="AC91">
-        <v>7.142857142857142</v>
+        <v>9.433962264150944</v>
       </c>
       <c r="AD91">
-        <v>10.2221616464495</v>
+        <v>3.407387215483168</v>
       </c>
       <c r="AE91">
-        <v>-30.66648493934851</v>
+        <v>-34.07387215483168</v>
       </c>
       <c r="AF91">
-        <v>1.476715439264112</v>
+        <v>1.2</v>
       </c>
       <c r="AG91">
         <v>1347</v>
@@ -11181,10 +11181,10 @@
         <v>284</v>
       </c>
       <c r="C92">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="D92">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E92">
         <v>35599</v>
@@ -11253,22 +11253,22 @@
         <v>48.17642069550467</v>
       </c>
       <c r="AA92">
-        <v>76.1904761904762</v>
+        <v>8.695652173913043</v>
       </c>
       <c r="AB92">
-        <v>2.94952105396219</v>
+        <v>3.230427821006208</v>
       </c>
       <c r="AC92">
-        <v>9.523809523809524</v>
+        <v>9.433962264150944</v>
       </c>
       <c r="AD92">
-        <v>5.618135340880362</v>
+        <v>2.809067670440181</v>
       </c>
       <c r="AE92">
-        <v>-19.66347369308127</v>
+        <v>-22.47254136352145</v>
       </c>
       <c r="AF92">
-        <v>4.922774833450005</v>
+        <v>3</v>
       </c>
       <c r="AG92">
         <v>569</v>
@@ -11288,10 +11288,10 @@
         <v>285</v>
       </c>
       <c r="C93">
-        <v>180</v>
+        <v>210</v>
       </c>
       <c r="D93">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E93">
         <v>45286</v>
@@ -11360,22 +11360,22 @@
         <v>50.17709563164109</v>
       </c>
       <c r="AA93">
-        <v>33.33333333333334</v>
+        <v>3.80952380952381</v>
       </c>
       <c r="AB93">
-        <v>3.974738329726626</v>
+        <v>4.637194718014398</v>
       </c>
       <c r="AC93">
-        <v>11.9047619047619</v>
+        <v>11.32075471698113</v>
       </c>
       <c r="AD93">
-        <v>6.624563882877711</v>
+        <v>4.416375921918474</v>
       </c>
       <c r="AE93">
-        <v>24.29006757055161</v>
+        <v>-15.45731572671466</v>
       </c>
       <c r="AF93">
-        <v>9.554210654553611</v>
+        <v>5.5</v>
       </c>
       <c r="AG93">
         <v>1101</v>
@@ -11395,7 +11395,7 @@
         <v>286</v>
       </c>
       <c r="C94">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D94">
         <v>3</v>
@@ -11467,22 +11467,22 @@
         <v>22.74837511606314</v>
       </c>
       <c r="AA94">
-        <v>44.11764705882353</v>
+        <v>4.054054054054054</v>
       </c>
       <c r="AB94">
-        <v>5.044510385756677</v>
+        <v>5.489614243323443</v>
       </c>
       <c r="AC94">
-        <v>7.142857142857142</v>
+        <v>5.660377358490567</v>
       </c>
       <c r="AD94">
-        <v>22.25519287833828</v>
+        <v>-7.41839762611276</v>
       </c>
       <c r="AE94">
-        <v>-66.76557863501483</v>
+        <v>-51.92878338278931</v>
       </c>
       <c r="AF94">
-        <v>8.367384785419294</v>
+        <v>4.2</v>
       </c>
       <c r="AG94">
         <v>238</v>
@@ -11502,7 +11502,7 @@
         <v>287</v>
       </c>
       <c r="C95">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="D95">
         <v>0</v>
@@ -11577,7 +11577,7 @@
         <v>0</v>
       </c>
       <c r="AB95">
-        <v>1.20312813314618</v>
+        <v>2.17231468484727</v>
       </c>
       <c r="AC95">
         <v>0</v>
@@ -11586,10 +11586,10 @@
         <v>0</v>
       </c>
       <c r="AE95">
-        <v>66.84045184145445</v>
+        <v>106.9447229463271</v>
       </c>
       <c r="AF95">
-        <v>13.01069756502693</v>
+        <v>16.6</v>
       </c>
       <c r="AG95">
         <v>695</v>
@@ -11609,10 +11609,10 @@
         <v>288</v>
       </c>
       <c r="C96">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D96">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E96">
         <v>27010</v>
@@ -11681,22 +11681,22 @@
         <v>5.278716216216216</v>
       </c>
       <c r="AA96">
-        <v>52.63157894736842</v>
+        <v>13.04347826086956</v>
       </c>
       <c r="AB96">
-        <v>0.7034431691965939</v>
+        <v>0.8515364679748241</v>
       </c>
       <c r="AC96">
-        <v>0</v>
+        <v>3.773584905660377</v>
       </c>
       <c r="AD96">
-        <v>0</v>
+        <v>7.404664938911514</v>
       </c>
       <c r="AE96">
-        <v>3.702332469455757</v>
+        <v>25.9163272861903</v>
       </c>
       <c r="AF96">
-        <v>3.480289551718122</v>
+        <v>3.2</v>
       </c>
       <c r="AG96">
         <v>576</v>
@@ -11800,10 +11800,10 @@
         <v>0</v>
       </c>
       <c r="AE97">
-        <v>30.16636751685546</v>
+        <v>-40.72459614775487</v>
       </c>
       <c r="AF97">
-        <v>10.36390382005058</v>
+        <v>7.9</v>
       </c>
       <c r="AG97">
         <v>749</v>
@@ -11823,10 +11823,10 @@
         <v>290</v>
       </c>
       <c r="C98">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="D98">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E98">
         <v>40510</v>
@@ -11895,22 +11895,22 @@
         <v>33.0564209068882</v>
       </c>
       <c r="AA98">
-        <v>30</v>
+        <v>4.545454545454546</v>
       </c>
       <c r="AB98">
+        <v>2.715378918785485</v>
+      </c>
+      <c r="AC98">
+        <v>5.660377358490567</v>
+      </c>
+      <c r="AD98">
         <v>2.468526289804986</v>
       </c>
-      <c r="AC98">
-        <v>4.761904761904762</v>
-      </c>
-      <c r="AD98">
-        <v>-4.937052579609973</v>
-      </c>
       <c r="AE98">
-        <v>-12.34263144902493</v>
+        <v>0</v>
       </c>
       <c r="AF98">
-        <v>3.912445490835571</v>
+        <v>2.5</v>
       </c>
       <c r="AG98">
         <v>1138</v>
@@ -11930,10 +11930,10 @@
         <v>291</v>
       </c>
       <c r="C99">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="D99">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E99">
         <v>18454</v>
@@ -12002,22 +12002,22 @@
         <v>16.05504587155963</v>
       </c>
       <c r="AA99">
-        <v>74.07407407407408</v>
+        <v>9.230769230769232</v>
       </c>
       <c r="AB99">
-        <v>2.926194862902352</v>
+        <v>3.522271594234312</v>
       </c>
       <c r="AC99">
-        <v>9.523809523809524</v>
+        <v>11.32075471698113</v>
       </c>
       <c r="AD99">
-        <v>21.67551750298038</v>
+        <v>10.83775875149019</v>
       </c>
       <c r="AE99">
-        <v>124.6342256421372</v>
+        <v>-81.28319063617644</v>
       </c>
       <c r="AF99">
-        <v>15.65923170646995</v>
+        <v>12.8</v>
       </c>
       <c r="AG99">
         <v>420</v>
@@ -12037,7 +12037,7 @@
         <v>292</v>
       </c>
       <c r="C100">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D100">
         <v>0</v>
@@ -12112,7 +12112,7 @@
         <v>0</v>
       </c>
       <c r="AB100">
-        <v>0.3695367353109147</v>
+        <v>0.4031309839755434</v>
       </c>
       <c r="AC100">
         <v>0</v>
@@ -12121,10 +12121,10 @@
         <v>0</v>
       </c>
       <c r="AE100">
-        <v>3.359424866462861</v>
+        <v>-6.718849732925722</v>
       </c>
       <c r="AF100">
-        <v>7.825963718820863</v>
+        <v>4.1</v>
       </c>
       <c r="AG100">
         <v>416</v>
@@ -12144,7 +12144,7 @@
         <v>293</v>
       </c>
       <c r="C101">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D101">
         <v>1</v>
@@ -12216,10 +12216,10 @@
         <v>0</v>
       </c>
       <c r="AA101">
-        <v>43.47826086956522</v>
+        <v>4.166666666666666</v>
       </c>
       <c r="AB101">
-        <v>0.7958477508650519</v>
+        <v>0.8304498269896194</v>
       </c>
       <c r="AC101">
         <v>0</v>
@@ -12228,10 +12228,10 @@
         <v>0</v>
       </c>
       <c r="AE101">
-        <v>17.30103806228374</v>
+        <v>3.460207612456748</v>
       </c>
       <c r="AF101">
-        <v>6.220055314482559</v>
+        <v>4</v>
       </c>
       <c r="AG101">
         <v>796</v>
@@ -12251,7 +12251,7 @@
         <v>294</v>
       </c>
       <c r="C102">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D102">
         <v>2</v>
@@ -12323,22 +12323,22 @@
         <v>0</v>
       </c>
       <c r="AA102">
-        <v>42.5531914893617</v>
+        <v>3.92156862745098</v>
       </c>
       <c r="AB102">
-        <v>1.309739445450745</v>
+        <v>1.421206632297617</v>
       </c>
       <c r="AC102">
-        <v>2.380952380952381</v>
+        <v>0</v>
       </c>
       <c r="AD102">
-        <v>-2.786679671171799</v>
+        <v>0</v>
       </c>
       <c r="AE102">
-        <v>30.65347638288979</v>
+        <v>19.50675769820259</v>
       </c>
       <c r="AF102">
-        <v>3.607484991906749</v>
+        <v>4</v>
       </c>
       <c r="AG102">
         <v>1135</v>
@@ -12358,10 +12358,10 @@
         <v>295</v>
       </c>
       <c r="C103">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="D103">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E103">
         <v>13905</v>
@@ -12430,22 +12430,22 @@
         <v>18.38091513492374</v>
       </c>
       <c r="AA103">
-        <v>64.81481481481481</v>
+        <v>7.317073170731707</v>
       </c>
       <c r="AB103">
-        <v>7.766990291262136</v>
+        <v>8.845738942826321</v>
       </c>
       <c r="AC103">
-        <v>14.28571428571428</v>
+        <v>9.433962264150944</v>
       </c>
       <c r="AD103">
-        <v>0</v>
+        <v>7.191657677094571</v>
       </c>
       <c r="AE103">
-        <v>71.9165767709457</v>
+        <v>215.7497303128371</v>
       </c>
       <c r="AF103">
-        <v>6.943101798844476</v>
+        <v>5</v>
       </c>
       <c r="AG103">
         <v>108</v>
@@ -12465,7 +12465,7 @@
         <v>296</v>
       </c>
       <c r="C104">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D104">
         <v>3</v>
@@ -12537,22 +12537,22 @@
         <v>13.00479123887748</v>
       </c>
       <c r="AA104">
-        <v>111.1111111111111</v>
+        <v>10</v>
       </c>
       <c r="AB104">
-        <v>0.9982253771073646</v>
+        <v>1.109139307897072</v>
       </c>
       <c r="AC104">
-        <v>4.761904761904762</v>
+        <v>3.773584905660377</v>
       </c>
       <c r="AD104">
-        <v>0</v>
+        <v>-7.394262052647145</v>
       </c>
       <c r="AE104">
-        <v>-7.394262052647145</v>
+        <v>18.48565513161786</v>
       </c>
       <c r="AF104">
-        <v>6.847539130868937</v>
+        <v>4.2</v>
       </c>
       <c r="AG104">
         <v>389</v>
@@ -12572,10 +12572,10 @@
         <v>297</v>
       </c>
       <c r="C105">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E105">
         <v>21113</v>
@@ -12644,22 +12644,22 @@
         <v>46.05585497305243</v>
       </c>
       <c r="AA105">
-        <v>0</v>
+        <v>1.851851851851852</v>
       </c>
       <c r="AB105">
-        <v>2.320844977028371</v>
+        <v>2.557665893051674</v>
       </c>
       <c r="AC105">
-        <v>0</v>
+        <v>1.886792452830189</v>
       </c>
       <c r="AD105">
-        <v>0</v>
+        <v>4.736418320466063</v>
       </c>
       <c r="AE105">
-        <v>-37.8913465637285</v>
+        <v>-66.30985648652488</v>
       </c>
       <c r="AF105">
-        <v>5.800637322459049</v>
+        <v>3.2</v>
       </c>
       <c r="AG105">
         <v>447</v>
@@ -12751,7 +12751,7 @@
         <v>16.41356036201871</v>
       </c>
       <c r="AA106">
-        <v>29.41176470588235</v>
+        <v>2.941176470588235</v>
       </c>
       <c r="AB106">
         <v>0.579324916083082</v>
@@ -12763,10 +12763,10 @@
         <v>0</v>
       </c>
       <c r="AE106">
-        <v>6.815587248036259</v>
+        <v>-3.407793624018129</v>
       </c>
       <c r="AF106">
-        <v>3.199434817500787</v>
+        <v>2.6</v>
       </c>
       <c r="AG106">
         <v>1485</v>
@@ -12786,7 +12786,7 @@
         <v>299</v>
       </c>
       <c r="C107">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D107">
         <v>0</v>
@@ -12861,7 +12861,7 @@
         <v>0</v>
       </c>
       <c r="AB107">
-        <v>0.8444819769767545</v>
+        <v>0.9333748166585182</v>
       </c>
       <c r="AC107">
         <v>0</v>
@@ -12870,10 +12870,10 @@
         <v>0</v>
       </c>
       <c r="AE107">
-        <v>8.889283968176363</v>
+        <v>0</v>
       </c>
       <c r="AF107">
-        <v>6.721419336965554</v>
+        <v>4.2</v>
       </c>
       <c r="AG107">
         <v>232</v>
@@ -12893,7 +12893,7 @@
         <v>300</v>
       </c>
       <c r="C108">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="D108">
         <v>0</v>
@@ -12968,7 +12968,7 @@
         <v>0</v>
       </c>
       <c r="AB108">
-        <v>1.313606194690266</v>
+        <v>2.039546460176991</v>
       </c>
       <c r="AC108">
         <v>0</v>
@@ -12977,10 +12977,10 @@
         <v>0</v>
       </c>
       <c r="AE108">
-        <v>31.11172566371681</v>
+        <v>24.19800884955752</v>
       </c>
       <c r="AF108">
-        <v>10.32628581735725</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG108">
         <v>954</v>
@@ -13000,7 +13000,7 @@
         <v>301</v>
       </c>
       <c r="C109">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D109">
         <v>2</v>
@@ -13072,22 +13072,22 @@
         <v>0</v>
       </c>
       <c r="AA109">
-        <v>36.36363636363636</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="AB109">
-        <v>1.637392080976481</v>
+        <v>1.756475141411134</v>
       </c>
       <c r="AC109">
-        <v>2.380952380952381</v>
+        <v>1.886792452830189</v>
       </c>
       <c r="AD109">
         <v>-2.977076510866329</v>
       </c>
       <c r="AE109">
-        <v>-11.90830604346532</v>
+        <v>-35.72491813039595</v>
       </c>
       <c r="AF109">
-        <v>7.724365562196347</v>
+        <v>4.1</v>
       </c>
       <c r="AG109">
         <v>902</v>
@@ -13107,10 +13107,10 @@
         <v>302</v>
       </c>
       <c r="C110">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D110">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E110">
         <v>18513</v>
@@ -13179,22 +13179,22 @@
         <v>0</v>
       </c>
       <c r="AA110">
-        <v>0</v>
+        <v>5.405405405405405</v>
       </c>
       <c r="AB110">
-        <v>1.7825311942959</v>
+        <v>1.998595581483282</v>
       </c>
       <c r="AC110">
-        <v>0</v>
+        <v>3.773584905660377</v>
       </c>
       <c r="AD110">
-        <v>0</v>
+        <v>10.80321935936909</v>
       </c>
       <c r="AE110">
-        <v>0</v>
+        <v>10.80321935936909</v>
       </c>
       <c r="AF110">
-        <v>4.920181920927382</v>
+        <v>4.2</v>
       </c>
       <c r="AG110">
         <v>371</v>
@@ -13214,7 +13214,7 @@
         <v>303</v>
       </c>
       <c r="C111">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D111">
         <v>0</v>
@@ -13289,7 +13289,7 @@
         <v>0</v>
       </c>
       <c r="AB111">
-        <v>0.8572590956643031</v>
+        <v>0.8717889108450541</v>
       </c>
       <c r="AC111">
         <v>0</v>
@@ -13298,10 +13298,10 @@
         <v>0</v>
       </c>
       <c r="AE111">
-        <v>53.76031616877834</v>
+        <v>-62.47820527722887</v>
       </c>
       <c r="AF111">
-        <v>20.31344386607544</v>
+        <v>14</v>
       </c>
       <c r="AG111">
         <v>810</v>
@@ -13321,7 +13321,7 @@
         <v>304</v>
       </c>
       <c r="C112">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D112">
         <v>0</v>
@@ -13396,7 +13396,7 @@
         <v>0</v>
       </c>
       <c r="AB112">
-        <v>0.5635344883106846</v>
+        <v>0.5796354736909899</v>
       </c>
       <c r="AC112">
         <v>0</v>
@@ -13405,10 +13405,10 @@
         <v>0</v>
       </c>
       <c r="AE112">
-        <v>-20.93128099439686</v>
+        <v>-9.660591228183165</v>
       </c>
       <c r="AF112">
-        <v>5.623191584326038</v>
+        <v>2.5</v>
       </c>
       <c r="AG112">
         <v>1237</v>
@@ -13428,7 +13428,7 @@
         <v>305</v>
       </c>
       <c r="C113">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D113">
         <v>0</v>
@@ -13503,7 +13503,7 @@
         <v>0</v>
       </c>
       <c r="AB113">
-        <v>0.2340915297881472</v>
+        <v>0.3901525496469119</v>
       </c>
       <c r="AC113">
         <v>0</v>
@@ -13512,10 +13512,10 @@
         <v>0</v>
       </c>
       <c r="AE113">
-        <v>-3.90152549646912</v>
+        <v>11.70457648940736</v>
       </c>
       <c r="AF113">
-        <v>6.190476190476191</v>
+        <v>5.8</v>
       </c>
       <c r="AG113">
         <v>342</v>
@@ -13535,7 +13535,7 @@
         <v>306</v>
       </c>
       <c r="C114">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="D114">
         <v>6</v>
@@ -13607,22 +13607,22 @@
         <v>23.56801909307876</v>
       </c>
       <c r="AA114">
-        <v>36.36363636363636</v>
+        <v>3.314917127071823</v>
       </c>
       <c r="AB114">
-        <v>3.61794500723589</v>
+        <v>3.968776038240582</v>
       </c>
       <c r="AC114">
-        <v>2.380952380952381</v>
+        <v>1.886792452830189</v>
       </c>
       <c r="AD114">
-        <v>2.192693943779327</v>
+        <v>-2.192693943779327</v>
       </c>
       <c r="AE114">
-        <v>19.73424549401394</v>
+        <v>-98.67122747006974</v>
       </c>
       <c r="AF114">
-        <v>4.820253490523562</v>
+        <v>4.1</v>
       </c>
       <c r="AG114">
         <v>790</v>
@@ -13642,7 +13642,7 @@
         <v>307</v>
       </c>
       <c r="C115">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D115">
         <v>4</v>
@@ -13714,22 +13714,22 @@
         <v>20.0222469410456</v>
       </c>
       <c r="AA115">
-        <v>93.02325581395348</v>
+        <v>8.888888888888889</v>
       </c>
       <c r="AB115">
-        <v>2.00018606381989</v>
+        <v>2.093217973765002</v>
       </c>
       <c r="AC115">
-        <v>4.761904761904762</v>
+        <v>3.773584905660377</v>
       </c>
       <c r="AD115">
+        <v>-9.303190994511118</v>
+      </c>
+      <c r="AE115">
         <v>9.303190994511118</v>
       </c>
-      <c r="AE115">
-        <v>-51.16755046981115</v>
-      </c>
       <c r="AF115">
-        <v>4.74961772096615</v>
+        <v>1.9</v>
       </c>
       <c r="AG115">
         <v>431</v>
@@ -13749,10 +13749,10 @@
         <v>308</v>
       </c>
       <c r="C116">
-        <v>350</v>
+        <v>378</v>
       </c>
       <c r="D116">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E116">
         <v>30352</v>
@@ -13821,22 +13821,22 @@
         <v>45.26663910706904</v>
       </c>
       <c r="AA116">
-        <v>60</v>
+        <v>7.407407407407407</v>
       </c>
       <c r="AB116">
-        <v>11.53136531365314</v>
+        <v>12.45387453874539</v>
       </c>
       <c r="AC116">
-        <v>28.57142857142857</v>
+        <v>28.30188679245283</v>
       </c>
       <c r="AD116">
-        <v>6.589351607801793</v>
+        <v>3.294675803900896</v>
       </c>
       <c r="AE116">
-        <v>-177.9124934106484</v>
+        <v>-92.25092250922509</v>
       </c>
       <c r="AF116">
-        <v>2.789174117432502</v>
+        <v>1.9</v>
       </c>
       <c r="AG116">
         <v>373</v>
@@ -13856,7 +13856,7 @@
         <v>309</v>
       </c>
       <c r="C117">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D117">
         <v>1</v>
@@ -13928,22 +13928,22 @@
         <v>25.38938837533241</v>
       </c>
       <c r="AA117">
-        <v>19.6078431372549</v>
+        <v>1.818181818181818</v>
       </c>
       <c r="AB117">
-        <v>0.6073308404982495</v>
+        <v>0.6549646319098769</v>
       </c>
       <c r="AC117">
-        <v>2.380952380952381</v>
+        <v>1.886792452830189</v>
       </c>
       <c r="AD117">
         <v>1.190844785290685</v>
       </c>
       <c r="AE117">
-        <v>-16.67182699406959</v>
+        <v>-4.763379141162741</v>
       </c>
       <c r="AF117">
-        <v>3.244938373808318</v>
+        <v>1.5</v>
       </c>
       <c r="AG117">
         <v>3342</v>
@@ -13963,7 +13963,7 @@
         <v>310</v>
       </c>
       <c r="C118">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="D118">
         <v>1</v>
@@ -14035,10 +14035,10 @@
         <v>27.12401055408971</v>
       </c>
       <c r="AA118">
-        <v>13.33333333333333</v>
+        <v>1.176470588235294</v>
       </c>
       <c r="AB118">
-        <v>1.140597673180747</v>
+        <v>1.29267736293818</v>
       </c>
       <c r="AC118">
         <v>0</v>
@@ -14047,10 +14047,10 @@
         <v>0</v>
       </c>
       <c r="AE118">
-        <v>10.6455782830203</v>
+        <v>-9.124781385445974</v>
       </c>
       <c r="AF118">
-        <v>7.730583507974518</v>
+        <v>5.1</v>
       </c>
       <c r="AG118">
         <v>1818</v>
@@ -14070,7 +14070,7 @@
         <v>311</v>
       </c>
       <c r="C119">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="D119">
         <v>3</v>
@@ -14142,22 +14142,22 @@
         <v>12.12488632919066</v>
       </c>
       <c r="AA119">
-        <v>42.25352112676056</v>
+        <v>3.571428571428571</v>
       </c>
       <c r="AB119">
-        <v>3.148558758314856</v>
+        <v>3.725055432372506</v>
       </c>
       <c r="AC119">
-        <v>4.761904761904762</v>
+        <v>1.886792452830189</v>
       </c>
       <c r="AD119">
-        <v>0</v>
+        <v>-4.434589800443459</v>
       </c>
       <c r="AE119">
-        <v>22.17294900221729</v>
+        <v>26.60753880266076</v>
       </c>
       <c r="AF119">
-        <v>7.221124843057721</v>
+        <v>6.7</v>
       </c>
       <c r="AG119">
         <v>318</v>
@@ -14177,10 +14177,10 @@
         <v>312</v>
       </c>
       <c r="C120">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="D120">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E120">
         <v>26216</v>
@@ -14249,22 +14249,22 @@
         <v>24.43169747185044</v>
       </c>
       <c r="AA120">
-        <v>71.42857142857143</v>
+        <v>8.018867924528301</v>
       </c>
       <c r="AB120">
-        <v>7.476350320415014</v>
+        <v>8.086664632285627</v>
       </c>
       <c r="AC120">
-        <v>30.95238095238095</v>
+        <v>22.64150943396227</v>
       </c>
       <c r="AD120">
-        <v>-3.814464449191334</v>
+        <v>-7.628928898382667</v>
       </c>
       <c r="AE120">
-        <v>-354.745193774794</v>
+        <v>-72.47482453463533</v>
       </c>
       <c r="AF120">
-        <v>11.92792417464569</v>
+        <v>2.9</v>
       </c>
       <c r="AG120">
         <v>499</v>
@@ -14284,7 +14284,7 @@
         <v>313</v>
       </c>
       <c r="C121">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="D121">
         <v>3</v>
@@ -14356,22 +14356,22 @@
         <v>14.20328450954283</v>
       </c>
       <c r="AA121">
-        <v>30.92783505154639</v>
+        <v>2.479338842975207</v>
       </c>
       <c r="AB121">
-        <v>1.076199352061421</v>
+        <v>1.342475480406515</v>
       </c>
       <c r="AC121">
-        <v>2.380952380952381</v>
+        <v>1.886792452830189</v>
       </c>
       <c r="AD121">
-        <v>-1.109483868104558</v>
+        <v>1.109483868104558</v>
       </c>
       <c r="AE121">
-        <v>18.86122575777748</v>
+        <v>32.17503217503217</v>
       </c>
       <c r="AF121">
-        <v>6.289950377762776</v>
+        <v>5.8</v>
       </c>
       <c r="AG121">
         <v>2770</v>
@@ -14391,10 +14391,10 @@
         <v>314</v>
       </c>
       <c r="C122">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="D122">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E122">
         <v>111369</v>
@@ -14463,22 +14463,22 @@
         <v>8.224631987008225</v>
       </c>
       <c r="AA122">
-        <v>49.68944099378881</v>
+        <v>5.681818181818182</v>
       </c>
       <c r="AB122">
-        <v>1.445644658747048</v>
+        <v>1.580332049313543</v>
       </c>
       <c r="AC122">
-        <v>9.523809523809524</v>
+        <v>9.433962264150944</v>
       </c>
       <c r="AD122">
-        <v>1.795831874219936</v>
+        <v>-0.8979159371099678</v>
       </c>
       <c r="AE122">
-        <v>-10.77499124531961</v>
+        <v>5.387495622659807</v>
       </c>
       <c r="AF122">
-        <v>3.492844646951527</v>
+        <v>2.4</v>
       </c>
       <c r="AG122">
         <v>2954</v>
@@ -14498,7 +14498,7 @@
         <v>315</v>
       </c>
       <c r="C123">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D123">
         <v>1</v>
@@ -14570,10 +14570,10 @@
         <v>46.09218436873747</v>
       </c>
       <c r="AA123">
-        <v>19.23076923076923</v>
+        <v>1.851851851851852</v>
       </c>
       <c r="AB123">
-        <v>1.096629971740689</v>
+        <v>1.13880804757687</v>
       </c>
       <c r="AC123">
         <v>0</v>
@@ -14585,7 +14585,7 @@
         <v>2.108903791809018</v>
       </c>
       <c r="AF123">
-        <v>3.122651858056756</v>
+        <v>2.6</v>
       </c>
       <c r="AG123">
         <v>1155</v>
@@ -14605,10 +14605,10 @@
         <v>316</v>
       </c>
       <c r="C124">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="D124">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E124">
         <v>76887</v>
@@ -14677,22 +14677,22 @@
         <v>6.095569826929357</v>
       </c>
       <c r="AA124">
-        <v>27.02702702702703</v>
+        <v>3.053435114503817</v>
       </c>
       <c r="AB124">
-        <v>1.443677084552655</v>
+        <v>1.70379908176935</v>
       </c>
       <c r="AC124">
-        <v>0</v>
+        <v>1.886792452830189</v>
       </c>
       <c r="AD124">
-        <v>0</v>
+        <v>1.300609986083473</v>
       </c>
       <c r="AE124">
-        <v>-15.60731983300168</v>
+        <v>-9.104269902584312</v>
       </c>
       <c r="AF124">
-        <v>5.263518289672597</v>
+        <v>3.5</v>
       </c>
       <c r="AG124">
         <v>2184</v>
@@ -14712,7 +14712,7 @@
         <v>317</v>
       </c>
       <c r="C125">
-        <v>122</v>
+        <v>145</v>
       </c>
       <c r="D125">
         <v>4</v>
@@ -14784,22 +14784,22 @@
         <v>27.89851410087941</v>
       </c>
       <c r="AA125">
-        <v>32.78688524590164</v>
+        <v>2.758620689655173</v>
       </c>
       <c r="AB125">
-        <v>1.748502307449767</v>
+        <v>2.078137988362427</v>
       </c>
       <c r="AC125">
-        <v>2.380952380952381</v>
+        <v>0</v>
       </c>
       <c r="AD125">
+        <v>0</v>
+      </c>
+      <c r="AE125">
         <v>-1.433198612663743</v>
       </c>
-      <c r="AE125">
-        <v>10.0323902886462</v>
-      </c>
       <c r="AF125">
-        <v>5.244422889341469</v>
+        <v>4.7</v>
       </c>
       <c r="AG125">
         <v>1783</v>
@@ -14819,10 +14819,10 @@
         <v>318</v>
       </c>
       <c r="C126">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="D126">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E126">
         <v>22846</v>
@@ -14891,22 +14891,22 @@
         <v>18.18634778276034</v>
       </c>
       <c r="AA126">
-        <v>13.24503311258278</v>
+        <v>1.840490797546012</v>
       </c>
       <c r="AB126">
-        <v>6.609472117657358</v>
+        <v>7.134728179987745</v>
       </c>
       <c r="AC126">
-        <v>4.761904761904762</v>
+        <v>3.773584905660377</v>
       </c>
       <c r="AD126">
-        <v>-8.754267705506434</v>
+        <v>0</v>
       </c>
       <c r="AE126">
-        <v>-43.77133852753217</v>
+        <v>-17.50853541101287</v>
       </c>
       <c r="AF126">
-        <v>5.849253639603964</v>
+        <v>3.3</v>
       </c>
       <c r="AG126">
         <v>460</v>
@@ -14926,7 +14926,7 @@
         <v>319</v>
       </c>
       <c r="C127">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="D127">
         <v>0</v>
@@ -15001,7 +15001,7 @@
         <v>0</v>
       </c>
       <c r="AB127">
-        <v>1.081184978736695</v>
+        <v>1.369500973066481</v>
       </c>
       <c r="AC127">
         <v>0</v>
@@ -15010,10 +15010,10 @@
         <v>0</v>
       </c>
       <c r="AE127">
-        <v>21.62369957473391</v>
+        <v>28.83159943297854</v>
       </c>
       <c r="AF127">
-        <v>4.466637996194648</v>
+        <v>5.4</v>
       </c>
       <c r="AG127">
         <v>1562</v>
@@ -15033,10 +15033,10 @@
         <v>320</v>
       </c>
       <c r="C128">
-        <v>170</v>
+        <v>245</v>
       </c>
       <c r="D128">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E128">
         <v>44289</v>
@@ -15105,22 +15105,22 @@
         <v>6.569976447254246</v>
       </c>
       <c r="AA128">
-        <v>17.64705882352941</v>
+        <v>2.857142857142857</v>
       </c>
       <c r="AB128">
-        <v>3.83842489105647</v>
+        <v>5.531847637110795</v>
       </c>
       <c r="AC128">
-        <v>4.761904761904762</v>
+        <v>9.433962264150944</v>
       </c>
       <c r="AD128">
-        <v>0</v>
+        <v>6.7736909842173</v>
       </c>
       <c r="AE128">
-        <v>85.8000858000858</v>
+        <v>65.47901284743389</v>
       </c>
       <c r="AF128">
-        <v>20.70015051622755</v>
+        <v>11.3</v>
       </c>
       <c r="AG128">
         <v>1076</v>
@@ -15140,10 +15140,10 @@
         <v>321</v>
       </c>
       <c r="C129">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="D129">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E129">
         <v>147295</v>
@@ -15212,22 +15212,22 @@
         <v>0</v>
       </c>
       <c r="AA129">
-        <v>14.49275362318841</v>
+        <v>2.564102564102564</v>
       </c>
       <c r="AB129">
-        <v>0.9368953460742049</v>
+        <v>1.059099086866492</v>
       </c>
       <c r="AC129">
-        <v>4.761904761904762</v>
+        <v>7.547169811320755</v>
       </c>
       <c r="AD129">
         <v>0</v>
       </c>
       <c r="AE129">
-        <v>4.073458026409586</v>
+        <v>-8.825825723887437</v>
       </c>
       <c r="AF129">
-        <v>5.150504204015307</v>
+        <v>4.3</v>
       </c>
       <c r="AG129">
         <v>3091</v>
@@ -15247,7 +15247,7 @@
         <v>322</v>
       </c>
       <c r="C130">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c r="D130">
         <v>13</v>
@@ -15319,22 +15319,22 @@
         <v>44.81923947841025</v>
       </c>
       <c r="AA130">
-        <v>102.3622047244095</v>
+        <v>9.027777777777777</v>
       </c>
       <c r="AB130">
-        <v>1.019245276961847</v>
+        <v>1.15567968411422</v>
       </c>
       <c r="AC130">
-        <v>4.761904761904762</v>
+        <v>1.886792452830189</v>
       </c>
       <c r="AD130">
-        <v>-1.605110672380861</v>
+        <v>-0.8025553361904303</v>
       </c>
       <c r="AE130">
-        <v>-2.407666008571291</v>
+        <v>8.025553361904302</v>
       </c>
       <c r="AF130">
-        <v>3.02736453562256</v>
+        <v>2.5</v>
       </c>
       <c r="AG130">
         <v>4868</v>
@@ -15354,10 +15354,10 @@
         <v>323</v>
       </c>
       <c r="C131">
-        <v>103</v>
+        <v>127</v>
       </c>
       <c r="D131">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E131">
         <v>42961</v>
@@ -15426,22 +15426,22 @@
         <v>15.36312849162011</v>
       </c>
       <c r="AA131">
-        <v>38.83495145631068</v>
+        <v>4.724409448818897</v>
       </c>
       <c r="AB131">
-        <v>2.397523335117898</v>
+        <v>2.956169549125951</v>
       </c>
       <c r="AC131">
-        <v>4.761904761904762</v>
+        <v>5.660377358490567</v>
       </c>
       <c r="AD131">
-        <v>0</v>
+        <v>2.327692558366891</v>
       </c>
       <c r="AE131">
-        <v>9.310770233467563</v>
+        <v>55.86462140080538</v>
       </c>
       <c r="AF131">
-        <v>4.240433988520834</v>
+        <v>4.2</v>
       </c>
       <c r="AG131">
         <v>546</v>
@@ -15461,7 +15461,7 @@
         <v>324</v>
       </c>
       <c r="C132">
-        <v>131</v>
+        <v>153</v>
       </c>
       <c r="D132">
         <v>4</v>
@@ -15533,22 +15533,22 @@
         <v>35.99030156084255</v>
       </c>
       <c r="AA132">
-        <v>30.53435114503817</v>
+        <v>2.61437908496732</v>
       </c>
       <c r="AB132">
-        <v>1.143286030964724</v>
+        <v>1.33528826517254</v>
       </c>
       <c r="AC132">
-        <v>4.761904761904762</v>
+        <v>1.886792452830189</v>
       </c>
       <c r="AD132">
-        <v>0</v>
+        <v>-0.8727374282173466</v>
       </c>
       <c r="AE132">
-        <v>10.47284913860816</v>
+        <v>-13.96379885147755</v>
       </c>
       <c r="AF132">
-        <v>5.915864705005217</v>
+        <v>4.9</v>
       </c>
       <c r="AG132">
         <v>2512</v>
@@ -15568,7 +15568,7 @@
         <v>325</v>
       </c>
       <c r="C133">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="D133">
         <v>4</v>
@@ -15640,22 +15640,22 @@
         <v>11.41589568792945</v>
       </c>
       <c r="AA133">
-        <v>21.3903743315508</v>
+        <v>2.051282051282051</v>
       </c>
       <c r="AB133">
-        <v>1.330809302855191</v>
+        <v>1.387742321159156</v>
       </c>
       <c r="AC133">
-        <v>4.761904761904762</v>
+        <v>1.886792452830189</v>
       </c>
       <c r="AD133">
-        <v>0</v>
+        <v>-0.7116627287995673</v>
       </c>
       <c r="AE133">
-        <v>-22.77320732158615</v>
+        <v>-2.134988186398702</v>
       </c>
       <c r="AF133">
-        <v>4.222106522172421</v>
+        <v>2.3</v>
       </c>
       <c r="AG133">
         <v>4496</v>
@@ -15675,7 +15675,7 @@
         <v>326</v>
       </c>
       <c r="C134">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D134">
         <v>2</v>
@@ -15747,22 +15747,22 @@
         <v>23.24159021406728</v>
       </c>
       <c r="AA134">
-        <v>58.8235294117647</v>
+        <v>5.555555555555555</v>
       </c>
       <c r="AB134">
-        <v>0.4546548634698189</v>
+        <v>0.4813992672033377</v>
       </c>
       <c r="AC134">
-        <v>2.380952380952381</v>
+        <v>1.886792452830189</v>
       </c>
       <c r="AD134">
-        <v>1.337220186675938</v>
+        <v>-1.337220186675938</v>
       </c>
       <c r="AE134">
-        <v>-5.348880746703752</v>
+        <v>-10.6977614934075</v>
       </c>
       <c r="AF134">
-        <v>5.149791517735435</v>
+        <v>3.3</v>
       </c>
       <c r="AG134">
         <v>2160</v>
@@ -15782,10 +15782,10 @@
         <v>327</v>
       </c>
       <c r="C135">
-        <v>249</v>
+        <v>292</v>
       </c>
       <c r="D135">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E135">
         <v>219880</v>
@@ -15854,22 +15854,22 @@
         <v>7.473722073458295</v>
       </c>
       <c r="AA135">
-        <v>32.12851405622489</v>
+        <v>3.082191780821918</v>
       </c>
       <c r="AB135">
-        <v>1.132435874113153</v>
+        <v>1.327997089321448</v>
       </c>
       <c r="AC135">
-        <v>7.142857142857142</v>
+        <v>7.547169811320755</v>
       </c>
       <c r="AD135">
-        <v>-0.454793523740222</v>
+        <v>-0.9095870474804439</v>
       </c>
       <c r="AE135">
-        <v>-7.731489903583773</v>
+        <v>-2.27396761870111</v>
       </c>
       <c r="AF135">
-        <v>4.612581240619813</v>
+        <v>4</v>
       </c>
       <c r="AG135">
         <v>5395</v>
@@ -15889,7 +15889,7 @@
         <v>328</v>
       </c>
       <c r="C136">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D136">
         <v>0</v>
@@ -15964,7 +15964,7 @@
         <v>0</v>
       </c>
       <c r="AB136">
-        <v>0.6067194175493592</v>
+        <v>0.758399271936699</v>
       </c>
       <c r="AC136">
         <v>0</v>
@@ -15973,10 +15973,10 @@
         <v>0</v>
       </c>
       <c r="AE136">
-        <v>5.05599514624466</v>
+        <v>22.75197815810097</v>
       </c>
       <c r="AF136">
-        <v>4.026986791526817</v>
+        <v>4.3</v>
       </c>
       <c r="AG136">
         <v>848</v>
@@ -15996,10 +15996,10 @@
         <v>329</v>
       </c>
       <c r="C137">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="D137">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E137">
         <v>56790</v>
@@ -16068,22 +16068,22 @@
         <v>9.962640099626402</v>
       </c>
       <c r="AA137">
-        <v>123.4567901234568</v>
+        <v>13.18681318681319</v>
       </c>
       <c r="AB137">
-        <v>1.426307448494453</v>
+        <v>1.602394787814756</v>
       </c>
       <c r="AC137">
-        <v>16.66666666666666</v>
+        <v>13.20754716981132</v>
       </c>
       <c r="AD137">
-        <v>5.282620179609086</v>
+        <v>1.760873393203029</v>
       </c>
       <c r="AE137">
-        <v>-3.521746786406057</v>
+        <v>-1.760873393203029</v>
       </c>
       <c r="AF137">
-        <v>5.605292359326904</v>
+        <v>4.4</v>
       </c>
       <c r="AG137">
         <v>1418</v>
@@ -16103,10 +16103,10 @@
         <v>330</v>
       </c>
       <c r="C138">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="D138">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E138">
         <v>64719</v>
@@ -16175,22 +16175,22 @@
         <v>14.47701773434672</v>
       </c>
       <c r="AA138">
-        <v>42.32804232804233</v>
+        <v>4.390243902439024</v>
       </c>
       <c r="AB138">
-        <v>2.920317062995411</v>
+        <v>3.167539671502959</v>
       </c>
       <c r="AC138">
-        <v>9.523809523809524</v>
+        <v>7.547169811320755</v>
       </c>
       <c r="AD138">
         <v>-3.09028260634435</v>
       </c>
       <c r="AE138">
-        <v>9.270847819033051</v>
+        <v>44.80909779199308</v>
       </c>
       <c r="AF138">
-        <v>7.435922468454817</v>
+        <v>4</v>
       </c>
       <c r="AG138">
         <v>1513</v>
@@ -16210,10 +16210,10 @@
         <v>331</v>
       </c>
       <c r="C139">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="D139">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E139">
         <v>155840</v>
@@ -16282,22 +16282,22 @@
         <v>18.96486109349232</v>
       </c>
       <c r="AA139">
-        <v>44.0251572327044</v>
+        <v>4.545454545454546</v>
       </c>
       <c r="AB139">
-        <v>1.020277207392197</v>
+        <v>1.129363449691992</v>
       </c>
       <c r="AC139">
-        <v>11.9047619047619</v>
+        <v>5.660377358490567</v>
       </c>
       <c r="AD139">
-        <v>-1.925051334702259</v>
+        <v>-0.6416837782340862</v>
       </c>
       <c r="AE139">
-        <v>-17.96714579055442</v>
+        <v>2.566735112936345</v>
       </c>
       <c r="AF139">
-        <v>4.794986133445073</v>
+        <v>2.6</v>
       </c>
       <c r="AG139">
         <v>4507</v>
@@ -16317,7 +16317,7 @@
         <v>332</v>
       </c>
       <c r="C140">
-        <v>206</v>
+        <v>220</v>
       </c>
       <c r="D140">
         <v>13</v>
@@ -16389,22 +16389,22 @@
         <v>14.9286023366508</v>
       </c>
       <c r="AA140">
-        <v>63.10679611650485</v>
+        <v>5.909090909090909</v>
       </c>
       <c r="AB140">
-        <v>1.358104455373742</v>
+        <v>1.45040281641856</v>
       </c>
       <c r="AC140">
-        <v>14.28571428571428</v>
+        <v>7.547169811320755</v>
       </c>
       <c r="AD140">
-        <v>0</v>
+        <v>-2.637096029851927</v>
       </c>
       <c r="AE140">
-        <v>-7.252014082092799</v>
+        <v>-11.86693213433367</v>
       </c>
       <c r="AF140">
-        <v>3.929026801533859</v>
+        <v>2.4</v>
       </c>
       <c r="AG140">
         <v>3816</v>
@@ -16424,10 +16424,10 @@
         <v>333</v>
       </c>
       <c r="C141">
-        <v>1470</v>
+        <v>1500</v>
       </c>
       <c r="D141">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="E141">
         <v>91049</v>
@@ -16496,22 +16496,22 @@
         <v>70.49020343818032</v>
       </c>
       <c r="AA141">
-        <v>73.46938775510205</v>
+        <v>7.933333333333334</v>
       </c>
       <c r="AB141">
-        <v>16.14515261013301</v>
+        <v>16.47464552054388</v>
       </c>
       <c r="AC141">
-        <v>85.71428571428571</v>
+        <v>66.0377358490566</v>
       </c>
       <c r="AD141">
-        <v>0</v>
+        <v>-9.884787312326329</v>
       </c>
       <c r="AE141">
-        <v>-270.1841865369197</v>
+        <v>-120.8140671506551</v>
       </c>
       <c r="AF141">
-        <v>1.607966104667768</v>
+        <v>0.7</v>
       </c>
       <c r="AG141">
         <v>2663</v>
@@ -16531,10 +16531,10 @@
         <v>334</v>
       </c>
       <c r="C142">
-        <v>1032</v>
+        <v>1261</v>
       </c>
       <c r="D142">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E142">
         <v>195961</v>
@@ -16603,22 +16603,22 @@
         <v>23.02039051804885</v>
       </c>
       <c r="AA142">
-        <v>8.720930232558139</v>
+        <v>1.586042823156225</v>
       </c>
       <c r="AB142">
-        <v>5.266354019422232</v>
+        <v>6.434953893887049</v>
       </c>
       <c r="AC142">
-        <v>21.42857142857143</v>
+        <v>28.30188679245283</v>
       </c>
       <c r="AD142">
-        <v>-1.530916866111114</v>
+        <v>3.572139354259266</v>
       </c>
       <c r="AE142">
-        <v>47.96872847148157</v>
+        <v>-77.05614892759274</v>
       </c>
       <c r="AF142">
-        <v>10.00596082204591</v>
+        <v>6.6</v>
       </c>
       <c r="AG142">
         <v>4826</v>
@@ -16638,7 +16638,7 @@
         <v>335</v>
       </c>
       <c r="C143">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="D143">
         <v>6</v>
@@ -16710,22 +16710,22 @@
         <v>12.21144195383071</v>
       </c>
       <c r="AA143">
-        <v>37.03703703703704</v>
+        <v>3.370786516853932</v>
       </c>
       <c r="AB143">
-        <v>1.81999977530867</v>
+        <v>1.999752839536686</v>
       </c>
       <c r="AC143">
-        <v>9.523809523809524</v>
+        <v>0</v>
       </c>
       <c r="AD143">
-        <v>-4.493826605700419</v>
+        <v>0</v>
       </c>
       <c r="AE143">
-        <v>17.97530642280168</v>
+        <v>-3.370369954275314</v>
       </c>
       <c r="AF143">
-        <v>3.763960976279342</v>
+        <v>3.5</v>
       </c>
       <c r="AG143">
         <v>2768</v>
@@ -16745,10 +16745,10 @@
         <v>336</v>
       </c>
       <c r="C144">
-        <v>283</v>
+        <v>309</v>
       </c>
       <c r="D144">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E144">
         <v>103620</v>
@@ -16817,22 +16817,22 @@
         <v>5.775756263085698</v>
       </c>
       <c r="AA144">
-        <v>98.9399293286219</v>
+        <v>9.708737864077669</v>
       </c>
       <c r="AB144">
-        <v>2.731132985910056</v>
+        <v>2.982049797336421</v>
       </c>
       <c r="AC144">
-        <v>30.95238095238095</v>
+        <v>18.86792452830189</v>
       </c>
       <c r="AD144">
-        <v>-0.9650646593321752</v>
+        <v>-3.860258637328701</v>
       </c>
       <c r="AE144">
-        <v>1.93012931866435</v>
+        <v>27.02181046130091</v>
       </c>
       <c r="AF144">
-        <v>2.059092243106383</v>
+        <v>1.8</v>
       </c>
       <c r="AG144">
         <v>3848</v>
@@ -16852,10 +16852,10 @@
         <v>337</v>
       </c>
       <c r="C145">
-        <v>325</v>
+        <v>348</v>
       </c>
       <c r="D145">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E145">
         <v>116022</v>
@@ -16924,22 +16924,22 @@
         <v>22.70327349524815</v>
       </c>
       <c r="AA145">
-        <v>33.84615384615385</v>
+        <v>4.022988505747127</v>
       </c>
       <c r="AB145">
-        <v>2.801192877212943</v>
+        <v>2.99943114236955</v>
       </c>
       <c r="AC145">
-        <v>14.28571428571428</v>
+        <v>13.20754716981132</v>
       </c>
       <c r="AD145">
-        <v>-1.72381100136181</v>
+        <v>-0.8619055006809052</v>
       </c>
       <c r="AE145">
-        <v>-11.20477150885177</v>
+        <v>-15.5142990122563</v>
       </c>
       <c r="AF145">
-        <v>3.205390649861337</v>
+        <v>2.2</v>
       </c>
       <c r="AG145">
         <v>3655</v>
@@ -16959,10 +16959,10 @@
         <v>338</v>
       </c>
       <c r="C146">
-        <v>276</v>
+        <v>311</v>
       </c>
       <c r="D146">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E146">
         <v>141840</v>
@@ -17031,22 +17031,22 @@
         <v>12.31953801732435</v>
       </c>
       <c r="AA146">
-        <v>28.98550724637681</v>
+        <v>3.536977491961415</v>
       </c>
       <c r="AB146">
-        <v>1.94585448392555</v>
+        <v>2.192611393119007</v>
       </c>
       <c r="AC146">
-        <v>7.142857142857142</v>
+        <v>9.433962264150944</v>
       </c>
       <c r="AD146">
         <v>0.7050197405527354</v>
       </c>
       <c r="AE146">
-        <v>-21.8556119571348</v>
+        <v>-4.230118443316413</v>
       </c>
       <c r="AF146">
-        <v>4.061783433429906</v>
+        <v>2.9</v>
       </c>
       <c r="AG146">
         <v>4793</v>
@@ -17066,10 +17066,10 @@
         <v>339</v>
       </c>
       <c r="C147">
-        <v>166</v>
+        <v>193</v>
       </c>
       <c r="D147">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E147">
         <v>106497</v>
@@ -17138,22 +17138,22 @@
         <v>7.394419881079433</v>
       </c>
       <c r="AA147">
-        <v>36.14457831325301</v>
+        <v>3.626943005181347</v>
       </c>
       <c r="AB147">
-        <v>1.558729353878513</v>
+        <v>1.81225762228044</v>
       </c>
       <c r="AC147">
-        <v>7.142857142857142</v>
+        <v>7.547169811320755</v>
       </c>
       <c r="AD147">
-        <v>2.816980760021409</v>
+        <v>0</v>
       </c>
       <c r="AE147">
-        <v>1.877987173347606</v>
+        <v>13.14591021343324</v>
       </c>
       <c r="AF147">
-        <v>5.242205175763373</v>
+        <v>3.8</v>
       </c>
       <c r="AG147">
         <v>3326</v>
@@ -17173,10 +17173,10 @@
         <v>340</v>
       </c>
       <c r="C148">
-        <v>368</v>
+        <v>457</v>
       </c>
       <c r="D148">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E148">
         <v>241910</v>
@@ -17245,22 +17245,22 @@
         <v>2.540192926045016</v>
       </c>
       <c r="AA148">
-        <v>27.17391304347826</v>
+        <v>2.407002188183808</v>
       </c>
       <c r="AB148">
-        <v>1.52122690256707</v>
+        <v>1.889132321937911</v>
       </c>
       <c r="AC148">
-        <v>7.142857142857142</v>
+        <v>5.660377358490567</v>
       </c>
       <c r="AD148">
-        <v>0.4133768756975734</v>
+        <v>-0.4133768756975734</v>
       </c>
       <c r="AE148">
-        <v>-6.614030011161175</v>
+        <v>3.720391881278161</v>
       </c>
       <c r="AF148">
-        <v>5.006026345835358</v>
+        <v>4.6</v>
       </c>
       <c r="AG148">
         <v>9092</v>
@@ -17280,10 +17280,10 @@
         <v>341</v>
       </c>
       <c r="C149">
-        <v>247</v>
+        <v>302</v>
       </c>
       <c r="D149">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E149">
         <v>153490</v>
@@ -17352,22 +17352,22 @@
         <v>56.86162499450718</v>
       </c>
       <c r="AA149">
-        <v>24.2914979757085</v>
+        <v>3.311258278145695</v>
       </c>
       <c r="AB149">
-        <v>1.609225356700762</v>
+        <v>1.967554889569353</v>
       </c>
       <c r="AC149">
-        <v>11.9047619047619</v>
+        <v>16.9811320754717</v>
       </c>
       <c r="AD149">
-        <v>3.25754120789628</v>
+        <v>1.954524724737768</v>
       </c>
       <c r="AE149">
-        <v>-50.16613460160271</v>
+        <v>-24.75731318001173</v>
       </c>
       <c r="AF149">
-        <v>10.45610710356232</v>
+        <v>3.9</v>
       </c>
       <c r="AG149">
         <v>4321</v>
@@ -17387,10 +17387,10 @@
         <v>342</v>
       </c>
       <c r="C150">
-        <v>270</v>
+        <v>299</v>
       </c>
       <c r="D150">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E150">
         <v>196670</v>
@@ -17459,22 +17459,22 @@
         <v>58.91874393007446</v>
       </c>
       <c r="AA150">
-        <v>14.81481481481481</v>
+        <v>2.341137123745819</v>
       </c>
       <c r="AB150">
-        <v>1.372858087151065</v>
+        <v>1.520313215030254</v>
       </c>
       <c r="AC150">
-        <v>0</v>
+        <v>5.660377358490567</v>
       </c>
       <c r="AD150">
-        <v>0</v>
+        <v>1.525397874612295</v>
       </c>
       <c r="AE150">
-        <v>-11.18625108049016</v>
+        <v>-3.559261707428688</v>
       </c>
       <c r="AF150">
-        <v>4.02233271085668</v>
+        <v>2.9</v>
       </c>
       <c r="AG150">
         <v>5446</v>
@@ -17494,10 +17494,10 @@
         <v>343</v>
       </c>
       <c r="C151">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="D151">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E151">
         <v>96824</v>
@@ -17566,22 +17566,22 @@
         <v>58.19902788436941</v>
       </c>
       <c r="AA151">
-        <v>75.18796992481202</v>
+        <v>7.913669064748201</v>
       </c>
       <c r="AB151">
-        <v>1.373626373626374</v>
+        <v>1.435594480707263</v>
       </c>
       <c r="AC151">
-        <v>11.9047619047619</v>
+        <v>9.433962264150944</v>
       </c>
       <c r="AD151">
-        <v>-1.032801784681484</v>
+        <v>1.032801784681484</v>
       </c>
       <c r="AE151">
-        <v>-4.131207138725935</v>
+        <v>3.098405354044452</v>
       </c>
       <c r="AF151">
-        <v>1.524583041294116</v>
+        <v>1</v>
       </c>
       <c r="AG151">
         <v>3764</v>
@@ -17601,7 +17601,7 @@
         <v>344</v>
       </c>
       <c r="C152">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="D152">
         <v>4</v>
@@ -17673,22 +17673,22 @@
         <v>20.15581445214781</v>
       </c>
       <c r="AA152">
-        <v>63.49206349206349</v>
+        <v>5.063291139240507</v>
       </c>
       <c r="AB152">
-        <v>0.6066500399618677</v>
+        <v>0.7607198913807548</v>
       </c>
       <c r="AC152">
-        <v>2.380952380952381</v>
+        <v>1.886792452830189</v>
       </c>
       <c r="AD152">
-        <v>0.9629365713680439</v>
+        <v>-0.9629365713680439</v>
       </c>
       <c r="AE152">
-        <v>0.9629365713680439</v>
+        <v>4.81468285684022</v>
       </c>
       <c r="AF152">
-        <v>7.314884780119627</v>
+        <v>6.4</v>
       </c>
       <c r="AG152">
         <v>2661</v>
@@ -17708,10 +17708,10 @@
         <v>345</v>
       </c>
       <c r="C153">
-        <v>436</v>
+        <v>495</v>
       </c>
       <c r="D153">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E153">
         <v>221307</v>
@@ -17780,22 +17780,22 @@
         <v>10.90176073720586</v>
       </c>
       <c r="AA153">
-        <v>22.93577981651376</v>
+        <v>2.424242424242424</v>
       </c>
       <c r="AB153">
-        <v>1.970113914155449</v>
+        <v>2.236711897951714</v>
       </c>
       <c r="AC153">
-        <v>16.66666666666666</v>
+        <v>13.20754716981132</v>
       </c>
       <c r="AD153">
-        <v>-0.4518609894851947</v>
+        <v>-1.355582968455584</v>
       </c>
       <c r="AE153">
-        <v>-9.037219789703896</v>
+        <v>23.04491046374493</v>
       </c>
       <c r="AF153">
-        <v>3.719859880591474</v>
+        <v>3</v>
       </c>
       <c r="AG153">
         <v>7343</v>
@@ -17815,10 +17815,10 @@
         <v>346</v>
       </c>
       <c r="C154">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="D154">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E154">
         <v>287049</v>
@@ -17887,22 +17887,22 @@
         <v>41.47042484844093</v>
       </c>
       <c r="AA154">
-        <v>29.12621359223301</v>
+        <v>4.072398190045249</v>
       </c>
       <c r="AB154">
-        <v>0.7176475096586297</v>
+        <v>0.7699033962842581</v>
       </c>
       <c r="AC154">
-        <v>2.380952380952381</v>
+        <v>7.547169811320755</v>
       </c>
       <c r="AD154">
-        <v>0.3483725775041892</v>
+        <v>0.6967451550083784</v>
       </c>
       <c r="AE154">
-        <v>-1.393490310016757</v>
+        <v>-1.741862887520946</v>
       </c>
       <c r="AF154">
-        <v>2.404643101850243</v>
+        <v>1.9</v>
       </c>
       <c r="AG154">
         <v>14925</v>
@@ -17922,7 +17922,7 @@
         <v>347</v>
       </c>
       <c r="C155">
-        <v>355</v>
+        <v>390</v>
       </c>
       <c r="D155">
         <v>14</v>
@@ -17994,22 +17994,22 @@
         <v>99.01883387842562</v>
       </c>
       <c r="AA155">
-        <v>39.43661971830986</v>
+        <v>3.589743589743589</v>
       </c>
       <c r="AB155">
-        <v>1.762110164149248</v>
+        <v>1.935839335262554</v>
       </c>
       <c r="AC155">
-        <v>26.19047619047619</v>
+        <v>11.32075471698113</v>
       </c>
       <c r="AD155">
-        <v>-1.489107180971196</v>
+        <v>-1.985476241294927</v>
       </c>
       <c r="AE155">
-        <v>-15.38744087003569</v>
+        <v>-33.25672704169004</v>
       </c>
       <c r="AF155">
-        <v>6.961624054650033</v>
+        <v>3.8</v>
       </c>
       <c r="AG155">
         <v>5203</v>
@@ -18029,10 +18029,10 @@
         <v>348</v>
       </c>
       <c r="C156">
-        <v>642</v>
+        <v>693</v>
       </c>
       <c r="D156">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E156">
         <v>278666</v>
@@ -18101,22 +18101,22 @@
         <v>22.92240069013679</v>
       </c>
       <c r="AA156">
-        <v>32.71028037383177</v>
+        <v>3.896103896103896</v>
       </c>
       <c r="AB156">
-        <v>2.303833262759002</v>
+        <v>2.486848054660418</v>
       </c>
       <c r="AC156">
-        <v>23.80952380952381</v>
+        <v>26.41509433962264</v>
       </c>
       <c r="AD156">
         <v>-0.7177050662800628</v>
       </c>
       <c r="AE156">
-        <v>-10.40672346106091</v>
+        <v>20.45459438898179</v>
       </c>
       <c r="AF156">
-        <v>4.031909120225297</v>
+        <v>2.8</v>
       </c>
       <c r="AG156">
         <v>10024</v>
@@ -18136,10 +18136,10 @@
         <v>349</v>
       </c>
       <c r="C157">
-        <v>1395</v>
+        <v>1581</v>
       </c>
       <c r="D157">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="E157">
         <v>745057</v>
@@ -18208,22 +18208,22 @@
         <v>14.96763278780972</v>
       </c>
       <c r="AA157">
-        <v>53.04659498207885</v>
+        <v>5.566097406704618</v>
       </c>
       <c r="AB157">
-        <v>1.872339968619851</v>
+        <v>2.121985297769164</v>
       </c>
       <c r="AC157">
-        <v>100</v>
+        <v>83.01886792452831</v>
       </c>
       <c r="AD157">
-        <v>0.5368716755899213</v>
+        <v>0.8053075133848819</v>
       </c>
       <c r="AE157">
-        <v>-14.49553524092788</v>
+        <v>-1.744832945667244</v>
       </c>
       <c r="AF157">
-        <v>4.80107329066383</v>
+        <v>3.2</v>
       </c>
       <c r="AG157">
         <v>26415</v>
@@ -18243,10 +18243,10 @@
         <v>350</v>
       </c>
       <c r="C158">
-        <v>1460</v>
+        <v>1744</v>
       </c>
       <c r="D158">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E158">
         <v>902298</v>
@@ -18315,22 +18315,22 @@
         <v>11.13348193955082</v>
       </c>
       <c r="AA158">
-        <v>31.5068493150685</v>
+        <v>3.153669724770642</v>
       </c>
       <c r="AB158">
-        <v>1.618090697308428</v>
+        <v>1.932842586373903</v>
       </c>
       <c r="AC158">
-        <v>66.66666666666666</v>
+        <v>43.39622641509434</v>
       </c>
       <c r="AD158">
-        <v>-0.8866250396210564</v>
+        <v>-0.5541406497631604</v>
       </c>
       <c r="AE158">
-        <v>2.549046988910537</v>
+        <v>9.19873478606846</v>
       </c>
       <c r="AF158">
-        <v>5.429301015463818</v>
+        <v>4.7</v>
       </c>
       <c r="AG158">
         <v>29768</v>
@@ -18350,10 +18350,10 @@
         <v>351</v>
       </c>
       <c r="C159">
-        <v>1788</v>
+        <v>1980</v>
       </c>
       <c r="D159">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="E159">
         <v>743187</v>
@@ -18422,22 +18422,22 @@
         <v>31.38913884376716</v>
       </c>
       <c r="AA159">
-        <v>20.13422818791946</v>
+        <v>2.323232323232323</v>
       </c>
       <c r="AB159">
-        <v>2.405854784865721</v>
+        <v>2.664201607401636</v>
       </c>
       <c r="AC159">
-        <v>52.38095238095239</v>
+        <v>56.60377358490566</v>
       </c>
       <c r="AD159">
-        <v>0.2691112734749128</v>
+        <v>0</v>
       </c>
       <c r="AE159">
-        <v>-24.22001461274215</v>
+        <v>-1.749223277586933</v>
       </c>
       <c r="AF159">
-        <v>5.152541468344857</v>
+        <v>3.3</v>
       </c>
       <c r="AG159">
         <v>27027</v>
@@ -18457,10 +18457,10 @@
         <v>352</v>
       </c>
       <c r="C160">
-        <v>2543</v>
+        <v>2785</v>
       </c>
       <c r="D160">
-        <v>91</v>
+        <v>116</v>
       </c>
       <c r="E160">
         <v>1021902</v>
@@ -18529,22 +18529,22 @@
         <v>43.94984215445936</v>
       </c>
       <c r="AA160">
-        <v>35.78450648839953</v>
+        <v>4.165170556552962</v>
       </c>
       <c r="AB160">
-        <v>2.488496940019689</v>
+        <v>2.725310254799384</v>
       </c>
       <c r="AC160">
-        <v>97.61904761904762</v>
+        <v>100</v>
       </c>
       <c r="AD160">
-        <v>-0.6849971915115147</v>
+        <v>0.8807106748005191</v>
       </c>
       <c r="AE160">
-        <v>-13.7978005718748</v>
+        <v>17.32064327107688</v>
       </c>
       <c r="AF160">
-        <v>3.915841918514023</v>
+        <v>2.6</v>
       </c>
       <c r="AG160">
         <v>44097</v>

--- a/data/countyData.xlsx
+++ b/data/countyData.xlsx
@@ -1644,10 +1644,10 @@
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>-50.1</v>
+        <v>-25</v>
       </c>
       <c r="AG2">
-        <v>4.2</v>
+        <v>0.4</v>
       </c>
       <c r="AH2">
         <v>28</v>
@@ -1667,7 +1667,7 @@
         <v>196</v>
       </c>
       <c r="C3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -1739,13 +1739,13 @@
         <v>0</v>
       </c>
       <c r="AA3">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AB3">
         <v>0.4</v>
       </c>
       <c r="AC3">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="AD3">
         <v>0</v>
@@ -1754,10 +1754,10 @@
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>43.9</v>
+        <v>87.90000000000001</v>
       </c>
       <c r="AG3">
-        <v>2.4</v>
+        <v>1.3</v>
       </c>
       <c r="AH3">
         <v>9</v>
@@ -1867,7 +1867,7 @@
         <v>14.8</v>
       </c>
       <c r="AG4">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="AH4">
         <v>29</v>
@@ -1968,16 +1968,16 @@
         <v>3.8</v>
       </c>
       <c r="AD5">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="AE5">
         <v>76.5</v>
       </c>
       <c r="AF5">
-        <v>-38.3</v>
+        <v>38.3</v>
       </c>
       <c r="AG5">
-        <v>7.2</v>
+        <v>1.9</v>
       </c>
       <c r="AH5">
         <v>15</v>
@@ -2107,7 +2107,7 @@
         <v>200</v>
       </c>
       <c r="C7">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -2179,13 +2179,13 @@
         <v>0</v>
       </c>
       <c r="AA7">
-        <v>9.1</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AB7">
         <v>0.6</v>
       </c>
       <c r="AC7">
-        <v>6.9</v>
+        <v>7.2</v>
       </c>
       <c r="AD7">
         <v>0</v>
@@ -2194,10 +2194,10 @@
         <v>0</v>
       </c>
       <c r="AF7">
-        <v>62.7</v>
+        <v>31.4</v>
       </c>
       <c r="AG7">
-        <v>2.4</v>
+        <v>0.2</v>
       </c>
       <c r="AH7">
         <v>39</v>
@@ -2298,16 +2298,16 @@
         <v>3.6</v>
       </c>
       <c r="AD8">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="AE8">
-        <v>-11.9</v>
+        <v>0</v>
       </c>
       <c r="AF8">
-        <v>-59.3</v>
+        <v>-47.4</v>
       </c>
       <c r="AG8">
-        <v>3</v>
+        <v>0.9</v>
       </c>
       <c r="AH8">
         <v>109</v>
@@ -2327,7 +2327,7 @@
         <v>202</v>
       </c>
       <c r="C9">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -2399,13 +2399,13 @@
         <v>4.4</v>
       </c>
       <c r="AA9">
-        <v>7.1</v>
+        <v>6.2</v>
       </c>
       <c r="AB9">
         <v>0.1</v>
       </c>
       <c r="AC9">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AD9">
         <v>0</v>
@@ -2414,10 +2414,10 @@
         <v>0</v>
       </c>
       <c r="AF9">
-        <v>-49.3</v>
+        <v>-24.7</v>
       </c>
       <c r="AG9">
-        <v>5.5</v>
+        <v>1.9</v>
       </c>
       <c r="AH9">
         <v>181</v>
@@ -2437,7 +2437,7 @@
         <v>203</v>
       </c>
       <c r="C10">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -2515,7 +2515,7 @@
         <v>0</v>
       </c>
       <c r="AC10">
-        <v>5.3</v>
+        <v>5.7</v>
       </c>
       <c r="AD10">
         <v>0</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="AF10">
-        <v>34.3</v>
+        <v>85.7</v>
       </c>
       <c r="AG10">
-        <v>3.3</v>
+        <v>0.5</v>
       </c>
       <c r="AH10">
         <v>72</v>
@@ -2634,10 +2634,10 @@
         <v>0</v>
       </c>
       <c r="AF11">
-        <v>-57.6</v>
+        <v>-19.2</v>
       </c>
       <c r="AG11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH11">
         <v>48</v>
@@ -2767,7 +2767,7 @@
         <v>206</v>
       </c>
       <c r="C13">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -2845,7 +2845,7 @@
         <v>0</v>
       </c>
       <c r="AC13">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="AD13">
         <v>0</v>
@@ -2854,10 +2854,10 @@
         <v>0</v>
       </c>
       <c r="AF13">
-        <v>-7.7</v>
+        <v>15.4</v>
       </c>
       <c r="AG13">
-        <v>3.6</v>
+        <v>2.4</v>
       </c>
       <c r="AH13">
         <v>93</v>
@@ -2877,7 +2877,7 @@
         <v>207</v>
       </c>
       <c r="C14">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -2955,7 +2955,7 @@
         <v>0</v>
       </c>
       <c r="AC14">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AD14">
         <v>0</v>
@@ -2964,10 +2964,10 @@
         <v>0</v>
       </c>
       <c r="AF14">
-        <v>0</v>
+        <v>18.6</v>
       </c>
       <c r="AG14">
-        <v>4.7</v>
+        <v>1.1</v>
       </c>
       <c r="AH14">
         <v>21</v>
@@ -2987,7 +2987,7 @@
         <v>208</v>
       </c>
       <c r="C15">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -3059,25 +3059,25 @@
         <v>6.4</v>
       </c>
       <c r="AA15">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="AB15">
         <v>0.1</v>
       </c>
       <c r="AC15">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="AD15">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="AE15">
         <v>8.800000000000001</v>
       </c>
       <c r="AF15">
-        <v>-78.8</v>
+        <v>-70.09999999999999</v>
       </c>
       <c r="AG15">
-        <v>5.8</v>
+        <v>1.4</v>
       </c>
       <c r="AH15">
         <v>302</v>
@@ -3097,7 +3097,7 @@
         <v>209</v>
       </c>
       <c r="C16">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -3169,13 +3169,13 @@
         <v>19</v>
       </c>
       <c r="AA16">
-        <v>12.5</v>
+        <v>11.1</v>
       </c>
       <c r="AB16">
         <v>0.1</v>
       </c>
       <c r="AC16">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="AD16">
         <v>0</v>
@@ -3187,7 +3187,7 @@
         <v>-9.6</v>
       </c>
       <c r="AG16">
-        <v>2.2</v>
+        <v>0.7</v>
       </c>
       <c r="AH16">
         <v>99</v>
@@ -3207,10 +3207,10 @@
         <v>210</v>
       </c>
       <c r="C17">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E17">
         <v>3001</v>
@@ -3279,25 +3279,25 @@
         <v>0</v>
       </c>
       <c r="AA17">
-        <v>9.5</v>
+        <v>13</v>
       </c>
       <c r="AB17">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="AC17">
-        <v>7</v>
+        <v>7.7</v>
       </c>
       <c r="AD17">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AE17">
-        <v>0</v>
+        <v>33.3</v>
       </c>
       <c r="AF17">
-        <v>-66.59999999999999</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="AG17">
-        <v>0.7</v>
+        <v>-0.2</v>
       </c>
       <c r="AH17">
         <v>115</v>
@@ -3317,10 +3317,10 @@
         <v>211</v>
       </c>
       <c r="C18">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E18">
         <v>8535</v>
@@ -3389,25 +3389,25 @@
         <v>0</v>
       </c>
       <c r="AA18">
-        <v>2.5</v>
+        <v>3.9</v>
       </c>
       <c r="AB18">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="AC18">
-        <v>4.7</v>
+        <v>6</v>
       </c>
       <c r="AD18">
-        <v>1.9</v>
+        <v>4.2</v>
       </c>
       <c r="AE18">
-        <v>11.7</v>
+        <v>23.4</v>
       </c>
       <c r="AF18">
-        <v>281.2</v>
+        <v>292.9</v>
       </c>
       <c r="AG18">
-        <v>15.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AH18">
         <v>102</v>
@@ -3508,16 +3508,16 @@
         <v>3.3</v>
       </c>
       <c r="AD19">
-        <v>3.8</v>
+        <v>2.1</v>
       </c>
       <c r="AE19">
-        <v>-13.5</v>
+        <v>-6.8</v>
       </c>
       <c r="AF19">
-        <v>81.2</v>
+        <v>-87.90000000000001</v>
       </c>
       <c r="AG19">
-        <v>3.3</v>
+        <v>1</v>
       </c>
       <c r="AH19">
         <v>242</v>
@@ -3537,7 +3537,7 @@
         <v>213</v>
       </c>
       <c r="C20">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -3615,7 +3615,7 @@
         <v>0</v>
       </c>
       <c r="AC20">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AD20">
         <v>0</v>
@@ -3624,10 +3624,10 @@
         <v>0</v>
       </c>
       <c r="AF20">
-        <v>12.6</v>
+        <v>25.2</v>
       </c>
       <c r="AG20">
-        <v>2.4</v>
+        <v>1.3</v>
       </c>
       <c r="AH20">
         <v>24</v>
@@ -3650,7 +3650,7 @@
         <v>214</v>
       </c>
       <c r="D21">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E21">
         <v>10348</v>
@@ -3719,25 +3719,25 @@
         <v>13</v>
       </c>
       <c r="AA21">
-        <v>9.800000000000001</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AB21">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AC21">
         <v>20.7</v>
       </c>
       <c r="AD21">
-        <v>28.3</v>
+        <v>25</v>
       </c>
       <c r="AE21">
-        <v>29</v>
+        <v>-19.3</v>
       </c>
       <c r="AF21">
-        <v>-87</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="AG21">
-        <v>2.7</v>
+        <v>0.3</v>
       </c>
       <c r="AH21">
         <v>71</v>
@@ -3757,7 +3757,7 @@
         <v>215</v>
       </c>
       <c r="C22">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -3835,7 +3835,7 @@
         <v>0</v>
       </c>
       <c r="AC22">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="AD22">
         <v>0</v>
@@ -3844,10 +3844,10 @@
         <v>0</v>
       </c>
       <c r="AF22">
-        <v>-33.1</v>
+        <v>99.3</v>
       </c>
       <c r="AG22">
-        <v>5</v>
+        <v>0.7</v>
       </c>
       <c r="AH22">
         <v>59</v>
@@ -3867,7 +3867,7 @@
         <v>216</v>
       </c>
       <c r="C23">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D23">
         <v>2</v>
@@ -3939,7 +3939,7 @@
         <v>0</v>
       </c>
       <c r="AA23">
-        <v>9.1</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AB23">
         <v>0.1</v>
@@ -3948,16 +3948,16 @@
         <v>1.2</v>
       </c>
       <c r="AD23">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="AE23">
-        <v>-5.4</v>
+        <v>0</v>
       </c>
       <c r="AF23">
-        <v>-21.6</v>
+        <v>0</v>
       </c>
       <c r="AG23">
-        <v>2.3</v>
+        <v>-0.1</v>
       </c>
       <c r="AH23">
         <v>312</v>
@@ -4067,7 +4067,7 @@
         <v>12.8</v>
       </c>
       <c r="AG24">
-        <v>2.2</v>
+        <v>0.4</v>
       </c>
       <c r="AH24">
         <v>146</v>
@@ -4087,7 +4087,7 @@
         <v>218</v>
       </c>
       <c r="C25">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D25">
         <v>9</v>
@@ -4159,25 +4159,25 @@
         <v>0</v>
       </c>
       <c r="AA25">
-        <v>10.2</v>
+        <v>10</v>
       </c>
       <c r="AB25">
         <v>1</v>
       </c>
       <c r="AC25">
-        <v>9.9</v>
+        <v>10.2</v>
       </c>
       <c r="AD25">
-        <v>17</v>
+        <v>18.8</v>
       </c>
       <c r="AE25">
         <v>-33.9</v>
       </c>
       <c r="AF25">
-        <v>180.9</v>
+        <v>-90.40000000000001</v>
       </c>
       <c r="AG25">
-        <v>7.3</v>
+        <v>1.9</v>
       </c>
       <c r="AH25">
         <v>48</v>
@@ -4197,7 +4197,7 @@
         <v>219</v>
       </c>
       <c r="C26">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D26">
         <v>3</v>
@@ -4269,16 +4269,16 @@
         <v>0</v>
       </c>
       <c r="AA26">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="AB26">
         <v>0.2</v>
       </c>
       <c r="AC26">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="AD26">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="AE26">
         <v>5.2</v>
@@ -4287,7 +4287,7 @@
         <v>0</v>
       </c>
       <c r="AG26">
-        <v>0.7</v>
+        <v>-0.1</v>
       </c>
       <c r="AH26">
         <v>265</v>
@@ -4307,7 +4307,7 @@
         <v>220</v>
       </c>
       <c r="C27">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -4385,7 +4385,7 @@
         <v>0</v>
       </c>
       <c r="AC27">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AD27">
         <v>0</v>
@@ -4394,10 +4394,10 @@
         <v>0</v>
       </c>
       <c r="AF27">
-        <v>-91.09999999999999</v>
+        <v>-80.90000000000001</v>
       </c>
       <c r="AG27">
-        <v>6.3</v>
+        <v>2</v>
       </c>
       <c r="AH27">
         <v>94</v>
@@ -4417,7 +4417,7 @@
         <v>221</v>
       </c>
       <c r="C28">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -4489,25 +4489,25 @@
         <v>27.6</v>
       </c>
       <c r="AA28">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="AB28">
         <v>0.1</v>
       </c>
       <c r="AC28">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AD28">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="AE28">
-        <v>-8.9</v>
+        <v>0</v>
       </c>
       <c r="AF28">
-        <v>-35.6</v>
+        <v>17.8</v>
       </c>
       <c r="AG28">
-        <v>1.9</v>
+        <v>-0.2</v>
       </c>
       <c r="AH28">
         <v>151</v>
@@ -4527,7 +4527,7 @@
         <v>222</v>
       </c>
       <c r="C29">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -4605,19 +4605,19 @@
         <v>0.1</v>
       </c>
       <c r="AC29">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="AD29">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="AE29">
-        <v>-11.8</v>
+        <v>0</v>
       </c>
       <c r="AF29">
-        <v>-94.3</v>
+        <v>-23.6</v>
       </c>
       <c r="AG29">
-        <v>5.5</v>
+        <v>0.7</v>
       </c>
       <c r="AH29">
         <v>88</v>
@@ -4637,10 +4637,10 @@
         <v>223</v>
       </c>
       <c r="C30">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D30">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E30">
         <v>24926</v>
@@ -4709,25 +4709,25 @@
         <v>14</v>
       </c>
       <c r="AA30">
-        <v>4.8</v>
+        <v>6.2</v>
       </c>
       <c r="AB30">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="AC30">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AD30">
-        <v>3.8</v>
+        <v>6.2</v>
       </c>
       <c r="AE30">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="AF30">
-        <v>24.1</v>
+        <v>-20.1</v>
       </c>
       <c r="AG30">
-        <v>6.7</v>
+        <v>2.4</v>
       </c>
       <c r="AH30">
         <v>311</v>
@@ -4828,16 +4828,16 @@
         <v>1.6</v>
       </c>
       <c r="AD31">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="AE31">
         <v>-10.8</v>
       </c>
       <c r="AF31">
-        <v>-32.4</v>
+        <v>0</v>
       </c>
       <c r="AG31">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="AH31">
         <v>71</v>
@@ -4857,7 +4857,7 @@
         <v>225</v>
       </c>
       <c r="C32">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="D32">
         <v>4</v>
@@ -4929,25 +4929,25 @@
         <v>26.8</v>
       </c>
       <c r="AA32">
-        <v>4.4</v>
+        <v>3.9</v>
       </c>
       <c r="AB32">
         <v>0.6</v>
       </c>
       <c r="AC32">
-        <v>14.2</v>
+        <v>16</v>
       </c>
       <c r="AD32">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="AE32">
         <v>0</v>
       </c>
       <c r="AF32">
-        <v>-62.2</v>
+        <v>-124.5</v>
       </c>
       <c r="AG32">
-        <v>3.5</v>
+        <v>0.2</v>
       </c>
       <c r="AH32">
         <v>114</v>
@@ -4967,7 +4967,7 @@
         <v>226</v>
       </c>
       <c r="C33">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -5039,13 +5039,13 @@
         <v>0</v>
       </c>
       <c r="AA33">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="AB33">
         <v>0.2</v>
       </c>
       <c r="AC33">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="AD33">
         <v>0</v>
@@ -5054,10 +5054,10 @@
         <v>0</v>
       </c>
       <c r="AF33">
-        <v>-78.40000000000001</v>
+        <v>0</v>
       </c>
       <c r="AG33">
-        <v>3.5</v>
+        <v>0.3</v>
       </c>
       <c r="AH33">
         <v>102</v>
@@ -5167,7 +5167,7 @@
         <v>-27.7</v>
       </c>
       <c r="AG34">
-        <v>4.6</v>
+        <v>0.8</v>
       </c>
       <c r="AH34">
         <v>186</v>
@@ -5268,16 +5268,16 @@
         <v>3.9</v>
       </c>
       <c r="AD35">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="AE35">
         <v>-11</v>
       </c>
       <c r="AF35">
-        <v>55.1</v>
+        <v>-33</v>
       </c>
       <c r="AG35">
-        <v>5</v>
+        <v>1.2</v>
       </c>
       <c r="AH35">
         <v>127</v>
@@ -5387,7 +5387,7 @@
         <v>0</v>
       </c>
       <c r="AG36">
-        <v>10.7</v>
+        <v>6</v>
       </c>
       <c r="AH36">
         <v>72</v>
@@ -5494,10 +5494,10 @@
         <v>0</v>
       </c>
       <c r="AF37">
-        <v>0</v>
+        <v>-37.4</v>
       </c>
       <c r="AG37">
-        <v>1.4</v>
+        <v>0.2</v>
       </c>
       <c r="AH37">
         <v>98</v>
@@ -5517,7 +5517,7 @@
         <v>231</v>
       </c>
       <c r="C38">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D38">
         <v>19</v>
@@ -5589,25 +5589,25 @@
         <v>16.7</v>
       </c>
       <c r="AA38">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="AB38">
         <v>2.7</v>
       </c>
       <c r="AC38">
-        <v>22.4</v>
+        <v>22.9</v>
       </c>
       <c r="AD38">
-        <v>22.6</v>
+        <v>14.6</v>
       </c>
       <c r="AE38">
-        <v>-112.9</v>
+        <v>-70.59999999999999</v>
       </c>
       <c r="AF38">
-        <v>-84.7</v>
+        <v>-28.2</v>
       </c>
       <c r="AG38">
-        <v>1.2</v>
+        <v>0.1</v>
       </c>
       <c r="AH38">
         <v>156</v>
@@ -5714,10 +5714,10 @@
         <v>0</v>
       </c>
       <c r="AF39">
-        <v>0</v>
+        <v>-12.2</v>
       </c>
       <c r="AG39">
-        <v>4</v>
+        <v>1.1</v>
       </c>
       <c r="AH39">
         <v>97</v>
@@ -5737,7 +5737,7 @@
         <v>233</v>
       </c>
       <c r="C40">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -5815,7 +5815,7 @@
         <v>0</v>
       </c>
       <c r="AC40">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AD40">
         <v>0</v>
@@ -5824,10 +5824,10 @@
         <v>0</v>
       </c>
       <c r="AF40">
-        <v>-18.6</v>
+        <v>-9.300000000000001</v>
       </c>
       <c r="AG40">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="AH40">
         <v>115</v>
@@ -5847,7 +5847,7 @@
         <v>234</v>
       </c>
       <c r="C41">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D41">
         <v>8</v>
@@ -5919,25 +5919,25 @@
         <v>0</v>
       </c>
       <c r="AA41">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="AB41">
         <v>1</v>
       </c>
       <c r="AC41">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="AD41">
-        <v>13.2</v>
+        <v>12.5</v>
       </c>
       <c r="AE41">
-        <v>-12.6</v>
+        <v>-25.1</v>
       </c>
       <c r="AF41">
         <v>-62.8</v>
       </c>
       <c r="AG41">
-        <v>2.3</v>
+        <v>0.2</v>
       </c>
       <c r="AH41">
         <v>212</v>
@@ -5957,7 +5957,7 @@
         <v>235</v>
       </c>
       <c r="C42">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="D42">
         <v>2</v>
@@ -6029,25 +6029,25 @@
         <v>0</v>
       </c>
       <c r="AA42">
-        <v>5.1</v>
+        <v>3.9</v>
       </c>
       <c r="AB42">
         <v>0.2</v>
       </c>
       <c r="AC42">
-        <v>4</v>
+        <v>5.2</v>
       </c>
       <c r="AD42">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="AE42">
         <v>10.3</v>
       </c>
       <c r="AF42">
-        <v>-123.3</v>
+        <v>123.3</v>
       </c>
       <c r="AG42">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="AH42">
         <v>103</v>
@@ -6067,7 +6067,7 @@
         <v>236</v>
       </c>
       <c r="C43">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D43">
         <v>5</v>
@@ -6139,25 +6139,25 @@
         <v>5.1</v>
       </c>
       <c r="AA43">
-        <v>13.5</v>
+        <v>11.9</v>
       </c>
       <c r="AB43">
         <v>0.2</v>
       </c>
       <c r="AC43">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="AD43">
-        <v>9.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AE43">
-        <v>4.7</v>
+        <v>0</v>
       </c>
       <c r="AF43">
-        <v>-23.3</v>
+        <v>-14</v>
       </c>
       <c r="AG43">
-        <v>7.4</v>
+        <v>1.5</v>
       </c>
       <c r="AH43">
         <v>667</v>
@@ -6177,7 +6177,7 @@
         <v>237</v>
       </c>
       <c r="C44">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -6255,7 +6255,7 @@
         <v>0</v>
       </c>
       <c r="AC44">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="AD44">
         <v>0</v>
@@ -6264,10 +6264,10 @@
         <v>0</v>
       </c>
       <c r="AF44">
-        <v>-24.3</v>
+        <v>16.2</v>
       </c>
       <c r="AG44">
-        <v>1.7</v>
+        <v>0.3</v>
       </c>
       <c r="AH44">
         <v>199</v>
@@ -6287,7 +6287,7 @@
         <v>238</v>
       </c>
       <c r="C45">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -6374,10 +6374,10 @@
         <v>0</v>
       </c>
       <c r="AF45">
-        <v>31.5</v>
+        <v>-5.3</v>
       </c>
       <c r="AG45">
-        <v>4.6</v>
+        <v>1.6</v>
       </c>
       <c r="AH45">
         <v>261</v>
@@ -6397,7 +6397,7 @@
         <v>239</v>
       </c>
       <c r="C46">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D46">
         <v>1</v>
@@ -6469,25 +6469,25 @@
         <v>26.6</v>
       </c>
       <c r="AA46">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="AB46">
         <v>0</v>
       </c>
       <c r="AC46">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="AD46">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="AE46">
         <v>4.8</v>
       </c>
       <c r="AF46">
-        <v>4.8</v>
+        <v>14.3</v>
       </c>
       <c r="AG46">
-        <v>2</v>
+        <v>0.3</v>
       </c>
       <c r="AH46">
         <v>149</v>
@@ -6507,7 +6507,7 @@
         <v>240</v>
       </c>
       <c r="C47">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -6585,7 +6585,7 @@
         <v>0</v>
       </c>
       <c r="AC47">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="AD47">
         <v>0</v>
@@ -6594,10 +6594,10 @@
         <v>0</v>
       </c>
       <c r="AF47">
-        <v>-8.1</v>
+        <v>21.6</v>
       </c>
       <c r="AG47">
-        <v>2</v>
+        <v>-0.2</v>
       </c>
       <c r="AH47">
         <v>893</v>
@@ -6617,7 +6617,7 @@
         <v>241</v>
       </c>
       <c r="C48">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -6704,10 +6704,10 @@
         <v>0</v>
       </c>
       <c r="AF48">
-        <v>5.5</v>
+        <v>11</v>
       </c>
       <c r="AG48">
-        <v>2.9</v>
+        <v>0.4</v>
       </c>
       <c r="AH48">
         <v>572</v>
@@ -6727,7 +6727,7 @@
         <v>242</v>
       </c>
       <c r="C49">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -6805,7 +6805,7 @@
         <v>0</v>
       </c>
       <c r="AC49">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="AD49">
         <v>0</v>
@@ -6814,10 +6814,10 @@
         <v>0</v>
       </c>
       <c r="AF49">
-        <v>6.1</v>
+        <v>18.2</v>
       </c>
       <c r="AG49">
-        <v>4.1</v>
+        <v>1.1</v>
       </c>
       <c r="AH49">
         <v>634</v>
@@ -6837,7 +6837,7 @@
         <v>243</v>
       </c>
       <c r="C50">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -6915,7 +6915,7 @@
         <v>0</v>
       </c>
       <c r="AC50">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AD50">
         <v>0</v>
@@ -6924,10 +6924,10 @@
         <v>0</v>
       </c>
       <c r="AF50">
-        <v>-7.1</v>
+        <v>14.2</v>
       </c>
       <c r="AG50">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AH50">
         <v>350</v>
@@ -7034,10 +7034,10 @@
         <v>0</v>
       </c>
       <c r="AF51">
-        <v>-12.1</v>
+        <v>-24.1</v>
       </c>
       <c r="AG51">
-        <v>5.8</v>
+        <v>2.2</v>
       </c>
       <c r="AH51">
         <v>95</v>
@@ -7057,7 +7057,7 @@
         <v>245</v>
       </c>
       <c r="C52">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -7144,10 +7144,10 @@
         <v>0</v>
       </c>
       <c r="AF52">
-        <v>11.8</v>
+        <v>7.9</v>
       </c>
       <c r="AG52">
-        <v>5.4</v>
+        <v>1.5</v>
       </c>
       <c r="AH52">
         <v>175</v>
@@ -7167,7 +7167,7 @@
         <v>246</v>
       </c>
       <c r="C53">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -7245,7 +7245,7 @@
         <v>0</v>
       </c>
       <c r="AC53">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="AD53">
         <v>0</v>
@@ -7254,10 +7254,10 @@
         <v>0</v>
       </c>
       <c r="AF53">
-        <v>0</v>
+        <v>11.1</v>
       </c>
       <c r="AG53">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AH53">
         <v>136</v>
@@ -7277,7 +7277,7 @@
         <v>247</v>
       </c>
       <c r="C54">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -7355,7 +7355,7 @@
         <v>0</v>
       </c>
       <c r="AC54">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="AD54">
         <v>0</v>
@@ -7364,10 +7364,10 @@
         <v>0</v>
       </c>
       <c r="AF54">
-        <v>11</v>
+        <v>16.5</v>
       </c>
       <c r="AG54">
-        <v>6</v>
+        <v>1.7</v>
       </c>
       <c r="AH54">
         <v>204</v>
@@ -7387,7 +7387,7 @@
         <v>248</v>
       </c>
       <c r="C55">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -7474,10 +7474,10 @@
         <v>0</v>
       </c>
       <c r="AF55">
-        <v>-29.1</v>
+        <v>-17.5</v>
       </c>
       <c r="AG55">
-        <v>7.2</v>
+        <v>1.7</v>
       </c>
       <c r="AH55">
         <v>163</v>
@@ -7497,7 +7497,7 @@
         <v>249</v>
       </c>
       <c r="C56">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -7575,7 +7575,7 @@
         <v>0</v>
       </c>
       <c r="AC56">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="AD56">
         <v>0</v>
@@ -7584,10 +7584,10 @@
         <v>0</v>
       </c>
       <c r="AF56">
-        <v>-16.2</v>
+        <v>21.6</v>
       </c>
       <c r="AG56">
-        <v>3.2</v>
+        <v>0.1</v>
       </c>
       <c r="AH56">
         <v>355</v>
@@ -7607,7 +7607,7 @@
         <v>250</v>
       </c>
       <c r="C57">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D57">
         <v>1</v>
@@ -7679,25 +7679,25 @@
         <v>22.5</v>
       </c>
       <c r="AA57">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="AB57">
         <v>0.1</v>
       </c>
       <c r="AC57">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="AD57">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="AE57">
-        <v>-5.8</v>
+        <v>0</v>
       </c>
       <c r="AF57">
-        <v>5.8</v>
+        <v>40.7</v>
       </c>
       <c r="AG57">
-        <v>5.2</v>
+        <v>1.5</v>
       </c>
       <c r="AH57">
         <v>354</v>
@@ -7804,10 +7804,10 @@
         <v>0</v>
       </c>
       <c r="AF58">
-        <v>0</v>
+        <v>-22.7</v>
       </c>
       <c r="AG58">
-        <v>2.1</v>
+        <v>0.3</v>
       </c>
       <c r="AH58">
         <v>99</v>
@@ -7827,7 +7827,7 @@
         <v>252</v>
       </c>
       <c r="C59">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D59">
         <v>1</v>
@@ -7899,25 +7899,25 @@
         <v>10.9</v>
       </c>
       <c r="AA59">
-        <v>6.7</v>
+        <v>5</v>
       </c>
       <c r="AB59">
         <v>0.1</v>
       </c>
       <c r="AC59">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="AD59">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="AE59">
         <v>-6.7</v>
       </c>
       <c r="AF59">
-        <v>20</v>
+        <v>33.4</v>
       </c>
       <c r="AG59">
-        <v>13.6</v>
+        <v>4.8</v>
       </c>
       <c r="AH59">
         <v>111</v>
@@ -7937,7 +7937,7 @@
         <v>253</v>
       </c>
       <c r="C60">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D60">
         <v>2</v>
@@ -8009,7 +8009,7 @@
         <v>0</v>
       </c>
       <c r="AA60">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="AB60">
         <v>0.1</v>
@@ -8018,16 +8018,16 @@
         <v>2.2</v>
       </c>
       <c r="AD60">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="AE60">
         <v>-5.5</v>
       </c>
       <c r="AF60">
-        <v>-33.2</v>
+        <v>-38.7</v>
       </c>
       <c r="AG60">
-        <v>2.4</v>
+        <v>0.2</v>
       </c>
       <c r="AH60">
         <v>351</v>
@@ -8047,10 +8047,10 @@
         <v>254</v>
       </c>
       <c r="C61">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E61">
         <v>22514</v>
@@ -8119,7 +8119,7 @@
         <v>62.1</v>
       </c>
       <c r="AA61">
-        <v>0</v>
+        <v>5.3</v>
       </c>
       <c r="AB61">
         <v>0</v>
@@ -8128,16 +8128,16 @@
         <v>0.8</v>
       </c>
       <c r="AD61">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AE61">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="AF61">
-        <v>-8.9</v>
+        <v>-13.3</v>
       </c>
       <c r="AG61">
-        <v>4.1</v>
+        <v>1.1</v>
       </c>
       <c r="AH61">
         <v>498</v>
@@ -8247,7 +8247,7 @@
         <v>-29</v>
       </c>
       <c r="AG62">
-        <v>6.2</v>
+        <v>0.9</v>
       </c>
       <c r="AH62">
         <v>300</v>
@@ -8267,7 +8267,7 @@
         <v>256</v>
       </c>
       <c r="C63">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D63">
         <v>1</v>
@@ -8339,25 +8339,25 @@
         <v>33.9</v>
       </c>
       <c r="AA63">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="AB63">
         <v>0</v>
       </c>
       <c r="AC63">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="AD63">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="AE63">
-        <v>-4.9</v>
+        <v>0</v>
       </c>
       <c r="AF63">
-        <v>19.5</v>
+        <v>4.9</v>
       </c>
       <c r="AG63">
-        <v>3.8</v>
+        <v>0.4</v>
       </c>
       <c r="AH63">
         <v>203</v>
@@ -8464,10 +8464,10 @@
         <v>0</v>
       </c>
       <c r="AF64">
-        <v>-28.6</v>
+        <v>-14.3</v>
       </c>
       <c r="AG64">
-        <v>2.5</v>
+        <v>0.6</v>
       </c>
       <c r="AH64">
         <v>207</v>
@@ -8487,7 +8487,7 @@
         <v>258</v>
       </c>
       <c r="C65">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D65">
         <v>0</v>
@@ -8565,7 +8565,7 @@
         <v>0</v>
       </c>
       <c r="AC65">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="AD65">
         <v>0</v>
@@ -8574,10 +8574,10 @@
         <v>0</v>
       </c>
       <c r="AF65">
-        <v>24.8</v>
+        <v>12.4</v>
       </c>
       <c r="AG65">
-        <v>5.1</v>
+        <v>1.3</v>
       </c>
       <c r="AH65">
         <v>87</v>
@@ -8597,7 +8597,7 @@
         <v>259</v>
       </c>
       <c r="C66">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -8675,7 +8675,7 @@
         <v>0</v>
       </c>
       <c r="AC66">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="AD66">
         <v>0</v>
@@ -8684,10 +8684,10 @@
         <v>0</v>
       </c>
       <c r="AF66">
-        <v>39.1</v>
+        <v>47</v>
       </c>
       <c r="AG66">
-        <v>12</v>
+        <v>2.9</v>
       </c>
       <c r="AH66">
         <v>185</v>
@@ -8788,16 +8788,16 @@
         <v>0.6</v>
       </c>
       <c r="AD67">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="AE67">
         <v>4</v>
       </c>
       <c r="AF67">
-        <v>12.1</v>
+        <v>-4</v>
       </c>
       <c r="AG67">
-        <v>4.4</v>
+        <v>1.3</v>
       </c>
       <c r="AH67">
         <v>68</v>
@@ -8817,7 +8817,7 @@
         <v>261</v>
       </c>
       <c r="C68">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D68">
         <v>6</v>
@@ -8889,25 +8889,25 @@
         <v>8.4</v>
       </c>
       <c r="AA68">
-        <v>10.9</v>
+        <v>10.2</v>
       </c>
       <c r="AB68">
         <v>0.4</v>
       </c>
       <c r="AC68">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="AD68">
-        <v>7.5</v>
+        <v>2.1</v>
       </c>
       <c r="AE68">
-        <v>-25.6</v>
+        <v>-6.4</v>
       </c>
       <c r="AF68">
         <v>25.6</v>
       </c>
       <c r="AG68">
-        <v>7.5</v>
+        <v>2.8</v>
       </c>
       <c r="AH68">
         <v>179</v>
@@ -8927,10 +8927,10 @@
         <v>262</v>
       </c>
       <c r="C69">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="D69">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E69">
         <v>8859</v>
@@ -8999,25 +8999,25 @@
         <v>0</v>
       </c>
       <c r="AA69">
-        <v>10.2</v>
+        <v>10.3</v>
       </c>
       <c r="AB69">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AC69">
-        <v>20</v>
+        <v>20.8</v>
       </c>
       <c r="AD69">
-        <v>13.2</v>
+        <v>10.4</v>
       </c>
       <c r="AE69">
-        <v>-56.4</v>
+        <v>-11.3</v>
       </c>
       <c r="AF69">
         <v>-45.2</v>
       </c>
       <c r="AG69">
-        <v>1.9</v>
+        <v>-0</v>
       </c>
       <c r="AH69">
         <v>121</v>
@@ -9037,7 +9037,7 @@
         <v>263</v>
       </c>
       <c r="C70">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D70">
         <v>1</v>
@@ -9109,13 +9109,13 @@
         <v>22.9</v>
       </c>
       <c r="AA70">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="AB70">
         <v>0.1</v>
       </c>
       <c r="AC70">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="AD70">
         <v>0</v>
@@ -9124,10 +9124,10 @@
         <v>0</v>
       </c>
       <c r="AF70">
-        <v>35.4</v>
+        <v>62</v>
       </c>
       <c r="AG70">
-        <v>4</v>
+        <v>0.8</v>
       </c>
       <c r="AH70">
         <v>87</v>
@@ -9234,10 +9234,10 @@
         <v>0</v>
       </c>
       <c r="AF71">
-        <v>22</v>
+        <v>-48.3</v>
       </c>
       <c r="AG71">
-        <v>11.2</v>
+        <v>3.4</v>
       </c>
       <c r="AH71">
         <v>679</v>
@@ -9257,10 +9257,10 @@
         <v>265</v>
       </c>
       <c r="C72">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="D72">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72">
         <v>20656</v>
@@ -9329,25 +9329,25 @@
         <v>6.7</v>
       </c>
       <c r="AA72">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="AB72">
         <v>0.5</v>
       </c>
       <c r="AC72">
-        <v>7.2</v>
+        <v>7.7</v>
       </c>
       <c r="AD72">
-        <v>11.3</v>
+        <v>14.6</v>
       </c>
       <c r="AE72">
-        <v>-9.699999999999999</v>
+        <v>-4.8</v>
       </c>
       <c r="AF72">
-        <v>-77.5</v>
+        <v>-4.8</v>
       </c>
       <c r="AG72">
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="AH72">
         <v>322</v>
@@ -9367,7 +9367,7 @@
         <v>266</v>
       </c>
       <c r="C73">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D73">
         <v>1</v>
@@ -9439,13 +9439,13 @@
         <v>0</v>
       </c>
       <c r="AA73">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="AB73">
         <v>0</v>
       </c>
       <c r="AC73">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AD73">
         <v>0</v>
@@ -9454,10 +9454,10 @@
         <v>0</v>
       </c>
       <c r="AF73">
-        <v>-4.2</v>
+        <v>4.2</v>
       </c>
       <c r="AG73">
-        <v>3.2</v>
+        <v>0.3</v>
       </c>
       <c r="AH73">
         <v>877</v>
@@ -9477,7 +9477,7 @@
         <v>267</v>
       </c>
       <c r="C74">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D74">
         <v>1</v>
@@ -9549,7 +9549,7 @@
         <v>6.2</v>
       </c>
       <c r="AA74">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="AB74">
         <v>0</v>
@@ -9558,16 +9558,16 @@
         <v>0.6</v>
       </c>
       <c r="AD74">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="AE74">
-        <v>1.9</v>
+        <v>-1.9</v>
       </c>
       <c r="AF74">
-        <v>3.8</v>
+        <v>7.6</v>
       </c>
       <c r="AG74">
-        <v>1.5</v>
+        <v>-0.1</v>
       </c>
       <c r="AH74">
         <v>961</v>
@@ -9587,7 +9587,7 @@
         <v>268</v>
       </c>
       <c r="C75">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D75">
         <v>2</v>
@@ -9659,25 +9659,25 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AA75">
-        <v>5</v>
+        <v>4.3</v>
       </c>
       <c r="AB75">
         <v>0.1</v>
       </c>
       <c r="AC75">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="AD75">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="AE75">
         <v>6.3</v>
       </c>
       <c r="AF75">
-        <v>-3.1</v>
+        <v>31.3</v>
       </c>
       <c r="AG75">
-        <v>5.6</v>
+        <v>0.9</v>
       </c>
       <c r="AH75">
         <v>1003</v>
@@ -9697,10 +9697,10 @@
         <v>269</v>
       </c>
       <c r="C76">
-        <v>304</v>
+        <v>318</v>
       </c>
       <c r="D76">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E76">
         <v>22432</v>
@@ -9769,25 +9769,25 @@
         <v>6.5</v>
       </c>
       <c r="AA76">
-        <v>9.9</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="AB76">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="AC76">
-        <v>13.6</v>
+        <v>14.2</v>
       </c>
       <c r="AD76">
-        <v>18.9</v>
+        <v>16.7</v>
       </c>
       <c r="AE76">
-        <v>17.8</v>
+        <v>26.7</v>
       </c>
       <c r="AF76">
-        <v>-356.6</v>
+        <v>-236.3</v>
       </c>
       <c r="AG76">
-        <v>3.4</v>
+        <v>0.7</v>
       </c>
       <c r="AH76">
         <v>246</v>
@@ -9807,7 +9807,7 @@
         <v>270</v>
       </c>
       <c r="C77">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D77">
         <v>2</v>
@@ -9879,7 +9879,7 @@
         <v>15.7</v>
       </c>
       <c r="AA77">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="AB77">
         <v>0.1</v>
@@ -9888,16 +9888,16 @@
         <v>3.2</v>
       </c>
       <c r="AD77">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="AE77">
         <v>5.9</v>
       </c>
       <c r="AF77">
-        <v>-58.9</v>
+        <v>-41.2</v>
       </c>
       <c r="AG77">
-        <v>2.2</v>
+        <v>0.3</v>
       </c>
       <c r="AH77">
         <v>445</v>
@@ -9917,7 +9917,7 @@
         <v>271</v>
       </c>
       <c r="C78">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="D78">
         <v>1</v>
@@ -9989,25 +9989,25 @@
         <v>19</v>
       </c>
       <c r="AA78">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="AB78">
         <v>0</v>
       </c>
       <c r="AC78">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="AD78">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="AE78">
         <v>-3.7</v>
       </c>
       <c r="AF78">
-        <v>115.5</v>
+        <v>70.8</v>
       </c>
       <c r="AG78">
-        <v>3.7</v>
+        <v>1</v>
       </c>
       <c r="AH78">
         <v>365</v>
@@ -10027,7 +10027,7 @@
         <v>272</v>
       </c>
       <c r="C79">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="D79">
         <v>2</v>
@@ -10099,13 +10099,13 @@
         <v>32.4</v>
       </c>
       <c r="AA79">
-        <v>4.4</v>
+        <v>3.8</v>
       </c>
       <c r="AB79">
         <v>0.1</v>
       </c>
       <c r="AC79">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="AD79">
         <v>0</v>
@@ -10114,10 +10114,10 @@
         <v>0</v>
       </c>
       <c r="AF79">
-        <v>0</v>
+        <v>37.1</v>
       </c>
       <c r="AG79">
-        <v>3</v>
+        <v>0.7</v>
       </c>
       <c r="AH79">
         <v>672</v>
@@ -10137,7 +10137,7 @@
         <v>273</v>
       </c>
       <c r="C80">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D80">
         <v>0</v>
@@ -10224,10 +10224,10 @@
         <v>0</v>
       </c>
       <c r="AF80">
-        <v>-3.5</v>
+        <v>-10.5</v>
       </c>
       <c r="AG80">
-        <v>4.7</v>
+        <v>1.2</v>
       </c>
       <c r="AH80">
         <v>460</v>
@@ -10247,7 +10247,7 @@
         <v>274</v>
       </c>
       <c r="C81">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D81">
         <v>1</v>
@@ -10319,25 +10319,25 @@
         <v>0</v>
       </c>
       <c r="AA81">
-        <v>14.3</v>
+        <v>11.1</v>
       </c>
       <c r="AB81">
         <v>0.1</v>
       </c>
       <c r="AC81">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="AD81">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="AE81">
         <v>12.1</v>
       </c>
       <c r="AF81">
-        <v>-12.1</v>
+        <v>0</v>
       </c>
       <c r="AG81">
-        <v>4.6</v>
+        <v>0.6</v>
       </c>
       <c r="AH81">
         <v>121</v>
@@ -10357,7 +10357,7 @@
         <v>275</v>
       </c>
       <c r="C82">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D82">
         <v>1</v>
@@ -10429,13 +10429,13 @@
         <v>0</v>
       </c>
       <c r="AA82">
-        <v>11.1</v>
+        <v>9.1</v>
       </c>
       <c r="AB82">
         <v>0.1</v>
       </c>
       <c r="AC82">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="AD82">
         <v>0</v>
@@ -10447,7 +10447,7 @@
         <v>-17.1</v>
       </c>
       <c r="AG82">
-        <v>4.8</v>
+        <v>0</v>
       </c>
       <c r="AH82">
         <v>219</v>
@@ -10467,7 +10467,7 @@
         <v>276</v>
       </c>
       <c r="C83">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="D83">
         <v>1</v>
@@ -10539,25 +10539,25 @@
         <v>19.6</v>
       </c>
       <c r="AA83">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="AB83">
         <v>0</v>
       </c>
       <c r="AC83">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="AD83">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="AE83">
-        <v>-3.9</v>
+        <v>0</v>
       </c>
       <c r="AF83">
-        <v>50.6</v>
+        <v>3.9</v>
       </c>
       <c r="AG83">
-        <v>7.3</v>
+        <v>2.3</v>
       </c>
       <c r="AH83">
         <v>548</v>
@@ -10577,7 +10577,7 @@
         <v>277</v>
       </c>
       <c r="C84">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D84">
         <v>2</v>
@@ -10649,7 +10649,7 @@
         <v>7.5</v>
       </c>
       <c r="AA84">
-        <v>7.7</v>
+        <v>8</v>
       </c>
       <c r="AB84">
         <v>0.1</v>
@@ -10664,10 +10664,10 @@
         <v>0</v>
       </c>
       <c r="AF84">
-        <v>13</v>
+        <v>3.2</v>
       </c>
       <c r="AG84">
-        <v>4.2</v>
+        <v>0.6</v>
       </c>
       <c r="AH84">
         <v>899</v>
@@ -10687,7 +10687,7 @@
         <v>278</v>
       </c>
       <c r="C85">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D85">
         <v>1</v>
@@ -10759,7 +10759,7 @@
         <v>5.5</v>
       </c>
       <c r="AA85">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="AB85">
         <v>0</v>
@@ -10777,7 +10777,7 @@
         <v>-10.4</v>
       </c>
       <c r="AG85">
-        <v>2.9</v>
+        <v>0.8</v>
       </c>
       <c r="AH85">
         <v>819</v>
@@ -10797,7 +10797,7 @@
         <v>279</v>
       </c>
       <c r="C86">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D86">
         <v>0</v>
@@ -10875,7 +10875,7 @@
         <v>0</v>
       </c>
       <c r="AC86">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="AD86">
         <v>0</v>
@@ -10884,10 +10884,10 @@
         <v>0</v>
       </c>
       <c r="AF86">
-        <v>46.8</v>
+        <v>20.8</v>
       </c>
       <c r="AG86">
-        <v>9.4</v>
+        <v>5.3</v>
       </c>
       <c r="AH86">
         <v>250</v>
@@ -10907,7 +10907,7 @@
         <v>280</v>
       </c>
       <c r="C87">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="D87">
         <v>19</v>
@@ -10979,16 +10979,16 @@
         <v>86.5</v>
       </c>
       <c r="AA87">
-        <v>10.7</v>
+        <v>10</v>
       </c>
       <c r="AB87">
         <v>0.4</v>
       </c>
       <c r="AC87">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="AD87">
-        <v>18.9</v>
+        <v>12.5</v>
       </c>
       <c r="AE87">
         <v>0</v>
@@ -10997,7 +10997,7 @@
         <v>-20.1</v>
       </c>
       <c r="AG87">
-        <v>3.4</v>
+        <v>0.6</v>
       </c>
       <c r="AH87">
         <v>870</v>
@@ -11104,10 +11104,10 @@
         <v>0</v>
       </c>
       <c r="AF88">
-        <v>6.3</v>
+        <v>-6.3</v>
       </c>
       <c r="AG88">
-        <v>1.8</v>
+        <v>0.3</v>
       </c>
       <c r="AH88">
         <v>216</v>
@@ -11127,10 +11127,10 @@
         <v>282</v>
       </c>
       <c r="C89">
-        <v>134</v>
+        <v>153</v>
       </c>
       <c r="D89">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="E89">
         <v>23750</v>
@@ -11199,25 +11199,25 @@
         <v>7</v>
       </c>
       <c r="AA89">
-        <v>3</v>
+        <v>10.5</v>
       </c>
       <c r="AB89">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="AC89">
-        <v>5.6</v>
+        <v>6.4</v>
       </c>
       <c r="AD89">
-        <v>7.5</v>
+        <v>33.3</v>
       </c>
       <c r="AE89">
-        <v>8.4</v>
+        <v>50.5</v>
       </c>
       <c r="AF89">
-        <v>-336.8</v>
+        <v>-240</v>
       </c>
       <c r="AG89">
-        <v>10.9</v>
+        <v>5.5</v>
       </c>
       <c r="AH89">
         <v>582</v>
@@ -11237,7 +11237,7 @@
         <v>283</v>
       </c>
       <c r="C90">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D90">
         <v>1</v>
@@ -11309,25 +11309,25 @@
         <v>7.2</v>
       </c>
       <c r="AA90">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="AB90">
         <v>0</v>
       </c>
       <c r="AC90">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="AD90">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="AE90">
         <v>4</v>
       </c>
       <c r="AF90">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AG90">
-        <v>5.2</v>
+        <v>1.4</v>
       </c>
       <c r="AH90">
         <v>853</v>
@@ -11347,7 +11347,7 @@
         <v>284</v>
       </c>
       <c r="C91">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="D91">
         <v>20</v>
@@ -11419,25 +11419,25 @@
         <v>0</v>
       </c>
       <c r="AA91">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="AB91">
         <v>0.7</v>
       </c>
       <c r="AC91">
-        <v>10.7</v>
+        <v>11</v>
       </c>
       <c r="AD91">
-        <v>9.4</v>
+        <v>10.4</v>
       </c>
       <c r="AE91">
-        <v>3.4</v>
+        <v>-3.4</v>
       </c>
       <c r="AF91">
-        <v>-34.1</v>
+        <v>-10.2</v>
       </c>
       <c r="AG91">
-        <v>1.2</v>
+        <v>-0</v>
       </c>
       <c r="AH91">
         <v>1347</v>
@@ -11457,10 +11457,10 @@
         <v>285</v>
       </c>
       <c r="C92">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="D92">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92">
         <v>35599</v>
@@ -11529,25 +11529,25 @@
         <v>48.2</v>
       </c>
       <c r="AA92">
-        <v>8.699999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="AB92">
         <v>0.3</v>
       </c>
       <c r="AC92">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="AD92">
-        <v>9.4</v>
+        <v>12.5</v>
       </c>
       <c r="AE92">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="AF92">
-        <v>-22.5</v>
+        <v>-2.8</v>
       </c>
       <c r="AG92">
-        <v>3</v>
+        <v>0.3</v>
       </c>
       <c r="AH92">
         <v>569</v>
@@ -11567,7 +11567,7 @@
         <v>286</v>
       </c>
       <c r="C93">
-        <v>210</v>
+        <v>226</v>
       </c>
       <c r="D93">
         <v>8</v>
@@ -11639,25 +11639,25 @@
         <v>50.2</v>
       </c>
       <c r="AA93">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="AB93">
         <v>0.2</v>
       </c>
       <c r="AC93">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="AD93">
-        <v>11.3</v>
+        <v>12.5</v>
       </c>
       <c r="AE93">
-        <v>4.4</v>
+        <v>0</v>
       </c>
       <c r="AF93">
-        <v>-15.5</v>
+        <v>-8.800000000000001</v>
       </c>
       <c r="AG93">
-        <v>5.5</v>
+        <v>1.6</v>
       </c>
       <c r="AH93">
         <v>1101</v>
@@ -11677,7 +11677,7 @@
         <v>287</v>
       </c>
       <c r="C94">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="D94">
         <v>3</v>
@@ -11749,25 +11749,25 @@
         <v>22.7</v>
       </c>
       <c r="AA94">
-        <v>4.1</v>
+        <v>3.7</v>
       </c>
       <c r="AB94">
         <v>0.2</v>
       </c>
       <c r="AC94">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AD94">
-        <v>5.7</v>
+        <v>6.2</v>
       </c>
       <c r="AE94">
-        <v>-7.4</v>
+        <v>-22.3</v>
       </c>
       <c r="AF94">
         <v>-51.9</v>
       </c>
       <c r="AG94">
-        <v>4.2</v>
+        <v>0.5</v>
       </c>
       <c r="AH94">
         <v>238</v>
@@ -11787,7 +11787,7 @@
         <v>288</v>
       </c>
       <c r="C95">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D95">
         <v>0</v>
@@ -11865,7 +11865,7 @@
         <v>0</v>
       </c>
       <c r="AC95">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="AD95">
         <v>0</v>
@@ -11874,10 +11874,10 @@
         <v>0</v>
       </c>
       <c r="AF95">
-        <v>106.9</v>
+        <v>56.8</v>
       </c>
       <c r="AG95">
-        <v>16.6</v>
+        <v>8.1</v>
       </c>
       <c r="AH95">
         <v>695</v>
@@ -11897,7 +11897,7 @@
         <v>289</v>
       </c>
       <c r="C96">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D96">
         <v>3</v>
@@ -11969,7 +11969,7 @@
         <v>5.3</v>
       </c>
       <c r="AA96">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AB96">
         <v>0.1</v>
@@ -11978,16 +11978,16 @@
         <v>0.9</v>
       </c>
       <c r="AD96">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="AE96">
         <v>7.4</v>
       </c>
       <c r="AF96">
-        <v>25.9</v>
+        <v>3.7</v>
       </c>
       <c r="AG96">
-        <v>3.2</v>
+        <v>0.9</v>
       </c>
       <c r="AH96">
         <v>576</v>
@@ -12007,7 +12007,7 @@
         <v>290</v>
       </c>
       <c r="C97">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D97">
         <v>0</v>
@@ -12094,10 +12094,10 @@
         <v>0</v>
       </c>
       <c r="AF97">
-        <v>-40.7</v>
+        <v>-37.7</v>
       </c>
       <c r="AG97">
-        <v>7.9</v>
+        <v>3.3</v>
       </c>
       <c r="AH97">
         <v>749</v>
@@ -12117,7 +12117,7 @@
         <v>291</v>
       </c>
       <c r="C98">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="D98">
         <v>5</v>
@@ -12189,25 +12189,25 @@
         <v>33.1</v>
       </c>
       <c r="AA98">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="AB98">
         <v>0.1</v>
       </c>
       <c r="AC98">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="AD98">
-        <v>5.7</v>
+        <v>4.2</v>
       </c>
       <c r="AE98">
-        <v>2.5</v>
+        <v>4.9</v>
       </c>
       <c r="AF98">
-        <v>0</v>
+        <v>19.7</v>
       </c>
       <c r="AG98">
-        <v>2.5</v>
+        <v>0.1</v>
       </c>
       <c r="AH98">
         <v>1138</v>
@@ -12227,7 +12227,7 @@
         <v>292</v>
       </c>
       <c r="C99">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="D99">
         <v>6</v>
@@ -12299,25 +12299,25 @@
         <v>16.1</v>
       </c>
       <c r="AA99">
-        <v>9.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AB99">
         <v>0.3</v>
       </c>
       <c r="AC99">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="AD99">
-        <v>11.3</v>
+        <v>12.5</v>
       </c>
       <c r="AE99">
-        <v>10.8</v>
+        <v>-10.8</v>
       </c>
       <c r="AF99">
-        <v>-81.3</v>
+        <v>-86.7</v>
       </c>
       <c r="AG99">
-        <v>12.8</v>
+        <v>6.6</v>
       </c>
       <c r="AH99">
         <v>420</v>
@@ -12337,7 +12337,7 @@
         <v>293</v>
       </c>
       <c r="C100">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D100">
         <v>0</v>
@@ -12427,7 +12427,7 @@
         <v>-6.7</v>
       </c>
       <c r="AG100">
-        <v>4.1</v>
+        <v>0.8</v>
       </c>
       <c r="AH100">
         <v>416</v>
@@ -12534,10 +12534,10 @@
         <v>0</v>
       </c>
       <c r="AF101">
-        <v>3.5</v>
+        <v>-13.8</v>
       </c>
       <c r="AG101">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AH101">
         <v>796</v>
@@ -12557,10 +12557,10 @@
         <v>295</v>
       </c>
       <c r="C102">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D102">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E102">
         <v>35885</v>
@@ -12629,25 +12629,25 @@
         <v>0</v>
       </c>
       <c r="AA102">
-        <v>3.9</v>
+        <v>5.6</v>
       </c>
       <c r="AB102">
         <v>0.1</v>
       </c>
       <c r="AC102">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AD102">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AE102">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="AF102">
-        <v>19.5</v>
+        <v>-25.1</v>
       </c>
       <c r="AG102">
-        <v>4</v>
+        <v>0.8</v>
       </c>
       <c r="AH102">
         <v>1135</v>
@@ -12667,7 +12667,7 @@
         <v>296</v>
       </c>
       <c r="C103">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="D103">
         <v>9</v>
@@ -12739,25 +12739,25 @@
         <v>18.4</v>
       </c>
       <c r="AA103">
-        <v>7.3</v>
+        <v>7</v>
       </c>
       <c r="AB103">
         <v>0.6</v>
       </c>
       <c r="AC103">
-        <v>8.800000000000001</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AD103">
-        <v>9.4</v>
+        <v>10.4</v>
       </c>
       <c r="AE103">
-        <v>7.2</v>
+        <v>-7.2</v>
       </c>
       <c r="AF103">
-        <v>215.7</v>
+        <v>-100.7</v>
       </c>
       <c r="AG103">
-        <v>5</v>
+        <v>1.1</v>
       </c>
       <c r="AH103">
         <v>108</v>
@@ -12777,7 +12777,7 @@
         <v>297</v>
       </c>
       <c r="C104">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D104">
         <v>3</v>
@@ -12849,7 +12849,7 @@
         <v>13</v>
       </c>
       <c r="AA104">
-        <v>10</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="AB104">
         <v>0.1</v>
@@ -12858,16 +12858,16 @@
         <v>1.1</v>
       </c>
       <c r="AD104">
-        <v>3.8</v>
+        <v>2.1</v>
       </c>
       <c r="AE104">
+        <v>-3.7</v>
+      </c>
+      <c r="AF104">
         <v>-7.4</v>
       </c>
-      <c r="AF104">
-        <v>18.5</v>
-      </c>
       <c r="AG104">
-        <v>4.2</v>
+        <v>0.5</v>
       </c>
       <c r="AH104">
         <v>389</v>
@@ -12890,7 +12890,7 @@
         <v>54</v>
       </c>
       <c r="D105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E105">
         <v>21113</v>
@@ -12959,7 +12959,7 @@
         <v>46.1</v>
       </c>
       <c r="AA105">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="AB105">
         <v>0</v>
@@ -12968,16 +12968,16 @@
         <v>2.6</v>
       </c>
       <c r="AD105">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="AE105">
-        <v>4.7</v>
+        <v>0</v>
       </c>
       <c r="AF105">
-        <v>-66.3</v>
+        <v>-18.9</v>
       </c>
       <c r="AG105">
-        <v>3.2</v>
+        <v>0.4</v>
       </c>
       <c r="AH105">
         <v>447</v>
@@ -12997,7 +12997,7 @@
         <v>299</v>
       </c>
       <c r="C106">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D106">
         <v>1</v>
@@ -13069,7 +13069,7 @@
         <v>16.4</v>
       </c>
       <c r="AA106">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="AB106">
         <v>0</v>
@@ -13084,10 +13084,10 @@
         <v>0</v>
       </c>
       <c r="AF106">
-        <v>-3.4</v>
+        <v>-11.9</v>
       </c>
       <c r="AG106">
-        <v>2.6</v>
+        <v>0.3</v>
       </c>
       <c r="AH106">
         <v>1485</v>
@@ -13194,10 +13194,10 @@
         <v>0</v>
       </c>
       <c r="AF107">
-        <v>0</v>
+        <v>-22.2</v>
       </c>
       <c r="AG107">
-        <v>4.2</v>
+        <v>1.1</v>
       </c>
       <c r="AH107">
         <v>232</v>
@@ -13217,7 +13217,7 @@
         <v>301</v>
       </c>
       <c r="C108">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D108">
         <v>0</v>
@@ -13295,7 +13295,7 @@
         <v>0</v>
       </c>
       <c r="AC108">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AD108">
         <v>0</v>
@@ -13307,7 +13307,7 @@
         <v>24.2</v>
       </c>
       <c r="AG108">
-        <v>8.800000000000001</v>
+        <v>4.1</v>
       </c>
       <c r="AH108">
         <v>954</v>
@@ -13327,7 +13327,7 @@
         <v>302</v>
       </c>
       <c r="C109">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D109">
         <v>2</v>
@@ -13399,7 +13399,7 @@
         <v>0</v>
       </c>
       <c r="AA109">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="AB109">
         <v>0.1</v>
@@ -13408,16 +13408,16 @@
         <v>1.8</v>
       </c>
       <c r="AD109">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="AE109">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="AF109">
-        <v>-35.7</v>
+        <v>-38.7</v>
       </c>
       <c r="AG109">
-        <v>4.1</v>
+        <v>0.6</v>
       </c>
       <c r="AH109">
         <v>902</v>
@@ -13437,10 +13437,10 @@
         <v>303</v>
       </c>
       <c r="C110">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D110">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E110">
         <v>18513</v>
@@ -13509,25 +13509,25 @@
         <v>0</v>
       </c>
       <c r="AA110">
-        <v>5.4</v>
+        <v>2.6</v>
       </c>
       <c r="AB110">
         <v>0.1</v>
       </c>
       <c r="AC110">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AD110">
-        <v>3.8</v>
+        <v>2.1</v>
       </c>
       <c r="AE110">
-        <v>10.8</v>
+        <v>5.4</v>
       </c>
       <c r="AF110">
-        <v>10.8</v>
+        <v>-5.4</v>
       </c>
       <c r="AG110">
-        <v>4.2</v>
+        <v>0.6</v>
       </c>
       <c r="AH110">
         <v>371</v>
@@ -13637,7 +13637,7 @@
         <v>-62.5</v>
       </c>
       <c r="AG111">
-        <v>14</v>
+        <v>7.8</v>
       </c>
       <c r="AH111">
         <v>810</v>
@@ -13657,7 +13657,7 @@
         <v>305</v>
       </c>
       <c r="C112">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D112">
         <v>0</v>
@@ -13744,10 +13744,10 @@
         <v>0</v>
       </c>
       <c r="AF112">
-        <v>-9.699999999999999</v>
+        <v>-1.6</v>
       </c>
       <c r="AG112">
-        <v>2.5</v>
+        <v>-0.1</v>
       </c>
       <c r="AH112">
         <v>1237</v>
@@ -13767,7 +13767,7 @@
         <v>306</v>
       </c>
       <c r="C113">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D113">
         <v>0</v>
@@ -13854,10 +13854,10 @@
         <v>0</v>
       </c>
       <c r="AF113">
-        <v>11.7</v>
+        <v>15.6</v>
       </c>
       <c r="AG113">
-        <v>5.8</v>
+        <v>2.6</v>
       </c>
       <c r="AH113">
         <v>342</v>
@@ -13877,10 +13877,10 @@
         <v>307</v>
       </c>
       <c r="C114">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="D114">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E114">
         <v>45606</v>
@@ -13949,25 +13949,25 @@
         <v>23.6</v>
       </c>
       <c r="AA114">
-        <v>3.3</v>
+        <v>4.8</v>
       </c>
       <c r="AB114">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="AC114">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="AD114">
-        <v>1.9</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AE114">
-        <v>-2.2</v>
+        <v>4.4</v>
       </c>
       <c r="AF114">
-        <v>-98.7</v>
+        <v>-76.7</v>
       </c>
       <c r="AG114">
-        <v>4.1</v>
+        <v>0.6</v>
       </c>
       <c r="AH114">
         <v>790</v>
@@ -14068,7 +14068,7 @@
         <v>2.1</v>
       </c>
       <c r="AD115">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="AE115">
         <v>-9.300000000000001</v>
@@ -14077,7 +14077,7 @@
         <v>9.300000000000001</v>
       </c>
       <c r="AG115">
-        <v>1.9</v>
+        <v>0.2</v>
       </c>
       <c r="AH115">
         <v>431</v>
@@ -14097,7 +14097,7 @@
         <v>309</v>
       </c>
       <c r="C116">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="D116">
         <v>28</v>
@@ -14169,25 +14169,25 @@
         <v>45.3</v>
       </c>
       <c r="AA116">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="AB116">
         <v>0.9</v>
       </c>
       <c r="AC116">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="AD116">
-        <v>28.3</v>
+        <v>29.2</v>
       </c>
       <c r="AE116">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="AF116">
-        <v>-92.3</v>
+        <v>-26.4</v>
       </c>
       <c r="AG116">
-        <v>1.9</v>
+        <v>0.1</v>
       </c>
       <c r="AH116">
         <v>373</v>
@@ -14207,7 +14207,7 @@
         <v>310</v>
       </c>
       <c r="C117">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D117">
         <v>1</v>
@@ -14279,7 +14279,7 @@
         <v>25.4</v>
       </c>
       <c r="AA117">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="AB117">
         <v>0</v>
@@ -14288,16 +14288,16 @@
         <v>0.7</v>
       </c>
       <c r="AD117">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="AE117">
-        <v>1.2</v>
+        <v>-1.2</v>
       </c>
       <c r="AF117">
-        <v>-4.8</v>
+        <v>2.4</v>
       </c>
       <c r="AG117">
-        <v>1.5</v>
+        <v>0.1</v>
       </c>
       <c r="AH117">
         <v>3342</v>
@@ -14317,10 +14317,10 @@
         <v>311</v>
       </c>
       <c r="C118">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="D118">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E118">
         <v>65755</v>
@@ -14389,25 +14389,25 @@
         <v>27.1</v>
       </c>
       <c r="AA118">
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
       <c r="AB118">
         <v>0</v>
       </c>
       <c r="AC118">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="AD118">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AE118">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AF118">
-        <v>-9.1</v>
+        <v>-4.6</v>
       </c>
       <c r="AG118">
-        <v>5.1</v>
+        <v>1</v>
       </c>
       <c r="AH118">
         <v>1818</v>
@@ -14427,7 +14427,7 @@
         <v>312</v>
       </c>
       <c r="C119">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D119">
         <v>3</v>
@@ -14499,25 +14499,25 @@
         <v>12.1</v>
       </c>
       <c r="AA119">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AB119">
         <v>0.1</v>
       </c>
       <c r="AC119">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="AD119">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="AE119">
         <v>-4.4</v>
       </c>
       <c r="AF119">
-        <v>26.6</v>
+        <v>-79.8</v>
       </c>
       <c r="AG119">
-        <v>6.7</v>
+        <v>1.2</v>
       </c>
       <c r="AH119">
         <v>318</v>
@@ -14537,10 +14537,10 @@
         <v>313</v>
       </c>
       <c r="C120">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="D120">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E120">
         <v>26216</v>
@@ -14612,22 +14612,22 @@
         <v>8</v>
       </c>
       <c r="AB120">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="AC120">
-        <v>8.1</v>
+        <v>8.5</v>
       </c>
       <c r="AD120">
-        <v>22.6</v>
+        <v>20.8</v>
       </c>
       <c r="AE120">
         <v>-7.6</v>
       </c>
       <c r="AF120">
-        <v>-72.5</v>
+        <v>7.6</v>
       </c>
       <c r="AG120">
-        <v>2.9</v>
+        <v>0.1</v>
       </c>
       <c r="AH120">
         <v>499</v>
@@ -14647,10 +14647,10 @@
         <v>314</v>
       </c>
       <c r="C121">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="D121">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E121">
         <v>90132</v>
@@ -14719,25 +14719,25 @@
         <v>14.2</v>
       </c>
       <c r="AA121">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="AB121">
         <v>0</v>
       </c>
       <c r="AC121">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="AD121">
-        <v>1.9</v>
+        <v>4.2</v>
       </c>
       <c r="AE121">
-        <v>1.1</v>
+        <v>2.2</v>
       </c>
       <c r="AF121">
-        <v>32.2</v>
+        <v>3.3</v>
       </c>
       <c r="AG121">
-        <v>5.8</v>
+        <v>1.7</v>
       </c>
       <c r="AH121">
         <v>2770</v>
@@ -14757,7 +14757,7 @@
         <v>315</v>
       </c>
       <c r="C122">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D122">
         <v>10</v>
@@ -14829,7 +14829,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AA122">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="AB122">
         <v>0.1</v>
@@ -14838,16 +14838,16 @@
         <v>1.6</v>
       </c>
       <c r="AD122">
-        <v>9.4</v>
+        <v>10.4</v>
       </c>
       <c r="AE122">
         <v>-0.9</v>
       </c>
       <c r="AF122">
-        <v>5.4</v>
+        <v>-3.6</v>
       </c>
       <c r="AG122">
-        <v>2.4</v>
+        <v>0.3</v>
       </c>
       <c r="AH122">
         <v>2954</v>
@@ -14867,7 +14867,7 @@
         <v>316</v>
       </c>
       <c r="C123">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="D123">
         <v>1</v>
@@ -14939,13 +14939,13 @@
         <v>46.1</v>
       </c>
       <c r="AA123">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="AB123">
         <v>0</v>
       </c>
       <c r="AC123">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="AD123">
         <v>0</v>
@@ -14957,7 +14957,7 @@
         <v>2.1</v>
       </c>
       <c r="AG123">
-        <v>2.6</v>
+        <v>-0.2</v>
       </c>
       <c r="AH123">
         <v>1155</v>
@@ -14977,7 +14977,7 @@
         <v>317</v>
       </c>
       <c r="C124">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="D124">
         <v>4</v>
@@ -15049,25 +15049,25 @@
         <v>6.1</v>
       </c>
       <c r="AA124">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="AB124">
         <v>0.1</v>
       </c>
       <c r="AC124">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="AD124">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="AE124">
         <v>1.3</v>
       </c>
       <c r="AF124">
-        <v>-9.1</v>
+        <v>13</v>
       </c>
       <c r="AG124">
-        <v>3.5</v>
+        <v>0.7</v>
       </c>
       <c r="AH124">
         <v>2184</v>
@@ -15087,7 +15087,7 @@
         <v>318</v>
       </c>
       <c r="C125">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="D125">
         <v>4</v>
@@ -15159,7 +15159,7 @@
         <v>27.9</v>
       </c>
       <c r="AA125">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="AB125">
         <v>0.1</v>
@@ -15174,10 +15174,10 @@
         <v>0</v>
       </c>
       <c r="AF125">
-        <v>-1.4</v>
+        <v>-20.1</v>
       </c>
       <c r="AG125">
-        <v>4.7</v>
+        <v>0.9</v>
       </c>
       <c r="AH125">
         <v>1783</v>
@@ -15197,7 +15197,7 @@
         <v>319</v>
       </c>
       <c r="C126">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="D126">
         <v>3</v>
@@ -15275,19 +15275,19 @@
         <v>0.1</v>
       </c>
       <c r="AC126">
-        <v>7.1</v>
+        <v>7.3</v>
       </c>
       <c r="AD126">
-        <v>3.8</v>
+        <v>2.1</v>
       </c>
       <c r="AE126">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="AF126">
-        <v>-17.5</v>
+        <v>-78.8</v>
       </c>
       <c r="AG126">
-        <v>3.3</v>
+        <v>0.4</v>
       </c>
       <c r="AH126">
         <v>460</v>
@@ -15307,7 +15307,7 @@
         <v>320</v>
       </c>
       <c r="C127">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D127">
         <v>0</v>
@@ -15394,10 +15394,10 @@
         <v>0</v>
       </c>
       <c r="AF127">
-        <v>28.8</v>
+        <v>9.6</v>
       </c>
       <c r="AG127">
-        <v>5.4</v>
+        <v>1.7</v>
       </c>
       <c r="AH127">
         <v>1562</v>
@@ -15417,10 +15417,10 @@
         <v>321</v>
       </c>
       <c r="C128">
-        <v>245</v>
+        <v>327</v>
       </c>
       <c r="D128">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E128">
         <v>44289</v>
@@ -15489,25 +15489,25 @@
         <v>6.6</v>
       </c>
       <c r="AA128">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="AB128">
         <v>0.2</v>
       </c>
       <c r="AC128">
-        <v>5.5</v>
+        <v>7.4</v>
       </c>
       <c r="AD128">
-        <v>9.4</v>
+        <v>12.5</v>
       </c>
       <c r="AE128">
-        <v>6.8</v>
+        <v>9</v>
       </c>
       <c r="AF128">
-        <v>65.5</v>
+        <v>155.8</v>
       </c>
       <c r="AG128">
-        <v>11.3</v>
+        <v>4.4</v>
       </c>
       <c r="AH128">
         <v>1076</v>
@@ -15527,7 +15527,7 @@
         <v>322</v>
       </c>
       <c r="C129">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="D129">
         <v>4</v>
@@ -15599,7 +15599,7 @@
         <v>0</v>
       </c>
       <c r="AA129">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="AB129">
         <v>0</v>
@@ -15608,16 +15608,16 @@
         <v>1.1</v>
       </c>
       <c r="AD129">
-        <v>7.5</v>
+        <v>6.2</v>
       </c>
       <c r="AE129">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="AF129">
-        <v>-8.800000000000001</v>
+        <v>-14.3</v>
       </c>
       <c r="AG129">
-        <v>4.3</v>
+        <v>0.6</v>
       </c>
       <c r="AH129">
         <v>3091</v>
@@ -15637,7 +15637,7 @@
         <v>323</v>
       </c>
       <c r="C130">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="D130">
         <v>13</v>
@@ -15709,7 +15709,7 @@
         <v>44.8</v>
       </c>
       <c r="AA130">
-        <v>9</v>
+        <v>8.4</v>
       </c>
       <c r="AB130">
         <v>0.1</v>
@@ -15718,16 +15718,16 @@
         <v>1.2</v>
       </c>
       <c r="AD130">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="AE130">
-        <v>-0.8</v>
+        <v>0</v>
       </c>
       <c r="AF130">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AG130">
-        <v>2.5</v>
+        <v>0.2</v>
       </c>
       <c r="AH130">
         <v>4868</v>
@@ -15747,10 +15747,10 @@
         <v>324</v>
       </c>
       <c r="C131">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="D131">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E131">
         <v>42961</v>
@@ -15819,25 +15819,25 @@
         <v>15.4</v>
       </c>
       <c r="AA131">
+        <v>5</v>
+      </c>
+      <c r="AB131">
+        <v>0.2</v>
+      </c>
+      <c r="AC131">
+        <v>3.3</v>
+      </c>
+      <c r="AD131">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AE131">
         <v>4.7</v>
       </c>
-      <c r="AB131">
-        <v>0.1</v>
-      </c>
-      <c r="AC131">
-        <v>3</v>
-      </c>
-      <c r="AD131">
-        <v>5.7</v>
-      </c>
-      <c r="AE131">
-        <v>2.3</v>
-      </c>
       <c r="AF131">
-        <v>55.9</v>
+        <v>34.9</v>
       </c>
       <c r="AG131">
-        <v>4.2</v>
+        <v>0.7</v>
       </c>
       <c r="AH131">
         <v>546</v>
@@ -15857,7 +15857,7 @@
         <v>325</v>
       </c>
       <c r="C132">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D132">
         <v>4</v>
@@ -15935,19 +15935,19 @@
         <v>0</v>
       </c>
       <c r="AC132">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="AD132">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="AE132">
         <v>-0.9</v>
       </c>
       <c r="AF132">
-        <v>-14</v>
+        <v>-16.6</v>
       </c>
       <c r="AG132">
-        <v>4.9</v>
+        <v>1</v>
       </c>
       <c r="AH132">
         <v>2512</v>
@@ -15967,7 +15967,7 @@
         <v>326</v>
       </c>
       <c r="C133">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="D133">
         <v>4</v>
@@ -16039,25 +16039,25 @@
         <v>11.4</v>
       </c>
       <c r="AA133">
+        <v>1.9</v>
+      </c>
+      <c r="AB133">
+        <v>0</v>
+      </c>
+      <c r="AC133">
+        <v>1.5</v>
+      </c>
+      <c r="AD133">
         <v>2.1</v>
-      </c>
-      <c r="AB133">
-        <v>0</v>
-      </c>
-      <c r="AC133">
-        <v>1.4</v>
-      </c>
-      <c r="AD133">
-        <v>1.9</v>
       </c>
       <c r="AE133">
         <v>-0.7</v>
       </c>
       <c r="AF133">
-        <v>-2.1</v>
+        <v>-7.1</v>
       </c>
       <c r="AG133">
-        <v>2.3</v>
+        <v>0.3</v>
       </c>
       <c r="AH133">
         <v>4496</v>
@@ -16077,7 +16077,7 @@
         <v>327</v>
       </c>
       <c r="C134">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D134">
         <v>2</v>
@@ -16149,7 +16149,7 @@
         <v>23.2</v>
       </c>
       <c r="AA134">
-        <v>5.6</v>
+        <v>5</v>
       </c>
       <c r="AB134">
         <v>0</v>
@@ -16158,16 +16158,16 @@
         <v>0.5</v>
       </c>
       <c r="AD134">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="AE134">
         <v>-1.3</v>
       </c>
       <c r="AF134">
-        <v>-10.7</v>
+        <v>-2.7</v>
       </c>
       <c r="AG134">
-        <v>3.3</v>
+        <v>0.2</v>
       </c>
       <c r="AH134">
         <v>2160</v>
@@ -16187,10 +16187,10 @@
         <v>328</v>
       </c>
       <c r="C135">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="D135">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E135">
         <v>219880</v>
@@ -16259,25 +16259,25 @@
         <v>7.5</v>
       </c>
       <c r="AA135">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="AB135">
         <v>0</v>
       </c>
       <c r="AC135">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="AD135">
-        <v>7.5</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AE135">
-        <v>-0.9</v>
+        <v>0</v>
       </c>
       <c r="AF135">
-        <v>-2.3</v>
+        <v>5.5</v>
       </c>
       <c r="AG135">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="AH135">
         <v>5395</v>
@@ -16297,10 +16297,10 @@
         <v>329</v>
       </c>
       <c r="C136">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E136">
         <v>39557</v>
@@ -16369,7 +16369,7 @@
         <v>7.5</v>
       </c>
       <c r="AA136">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="AB136">
         <v>0</v>
@@ -16378,16 +16378,16 @@
         <v>0.8</v>
       </c>
       <c r="AD136">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AE136">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AF136">
-        <v>22.8</v>
+        <v>15.2</v>
       </c>
       <c r="AG136">
-        <v>4.3</v>
+        <v>0.9</v>
       </c>
       <c r="AH136">
         <v>848</v>
@@ -16407,7 +16407,7 @@
         <v>330</v>
       </c>
       <c r="C137">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="D137">
         <v>12</v>
@@ -16479,25 +16479,25 @@
         <v>10</v>
       </c>
       <c r="AA137">
-        <v>13.2</v>
+        <v>10.6</v>
       </c>
       <c r="AB137">
         <v>0.2</v>
       </c>
       <c r="AC137">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="AD137">
-        <v>13.2</v>
+        <v>14.6</v>
       </c>
       <c r="AE137">
-        <v>1.8</v>
+        <v>-5.3</v>
       </c>
       <c r="AF137">
-        <v>-1.8</v>
+        <v>31.7</v>
       </c>
       <c r="AG137">
-        <v>4.4</v>
+        <v>1.5</v>
       </c>
       <c r="AH137">
         <v>1418</v>
@@ -16517,10 +16517,10 @@
         <v>331</v>
       </c>
       <c r="C138">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="D138">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E138">
         <v>64719</v>
@@ -16589,25 +16589,25 @@
         <v>14.5</v>
       </c>
       <c r="AA138">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="AB138">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="AC138">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="AD138">
-        <v>7.5</v>
+        <v>6.2</v>
       </c>
       <c r="AE138">
-        <v>-3.1</v>
+        <v>1.5</v>
       </c>
       <c r="AF138">
-        <v>44.8</v>
+        <v>77.3</v>
       </c>
       <c r="AG138">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AH138">
         <v>1513</v>
@@ -16627,7 +16627,7 @@
         <v>332</v>
       </c>
       <c r="C139">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="D139">
         <v>8</v>
@@ -16699,25 +16699,25 @@
         <v>19</v>
       </c>
       <c r="AA139">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="AB139">
         <v>0.1</v>
       </c>
       <c r="AC139">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="AD139">
-        <v>5.7</v>
+        <v>6.2</v>
       </c>
       <c r="AE139">
         <v>-0.6</v>
       </c>
       <c r="AF139">
-        <v>2.6</v>
+        <v>6.4</v>
       </c>
       <c r="AG139">
-        <v>2.6</v>
+        <v>-0.1</v>
       </c>
       <c r="AH139">
         <v>4507</v>
@@ -16737,10 +16737,10 @@
         <v>333</v>
       </c>
       <c r="C140">
-        <v>220</v>
+        <v>234</v>
       </c>
       <c r="D140">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E140">
         <v>151682</v>
@@ -16809,7 +16809,7 @@
         <v>14.9</v>
       </c>
       <c r="AA140">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AB140">
         <v>0.1</v>
@@ -16818,16 +16818,16 @@
         <v>1.5</v>
       </c>
       <c r="AD140">
-        <v>7.5</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AE140">
-        <v>-2.6</v>
+        <v>-1.3</v>
       </c>
       <c r="AF140">
-        <v>-11.9</v>
+        <v>-6.6</v>
       </c>
       <c r="AG140">
-        <v>2.4</v>
+        <v>0.4</v>
       </c>
       <c r="AH140">
         <v>3816</v>
@@ -16847,10 +16847,10 @@
         <v>334</v>
       </c>
       <c r="C141">
-        <v>1500</v>
+        <v>1531</v>
       </c>
       <c r="D141">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E141">
         <v>91049</v>
@@ -16919,25 +16919,25 @@
         <v>70.5</v>
       </c>
       <c r="AA141">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AB141">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="AC141">
-        <v>16.5</v>
+        <v>16.8</v>
       </c>
       <c r="AD141">
-        <v>66</v>
+        <v>68.8</v>
       </c>
       <c r="AE141">
-        <v>-9.9</v>
+        <v>-3.3</v>
       </c>
       <c r="AF141">
-        <v>-120.8</v>
+        <v>-15.4</v>
       </c>
       <c r="AG141">
-        <v>0.7</v>
+        <v>-0</v>
       </c>
       <c r="AH141">
         <v>2663</v>
@@ -16957,10 +16957,10 @@
         <v>335</v>
       </c>
       <c r="C142">
-        <v>1261</v>
+        <v>1482</v>
       </c>
       <c r="D142">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E142">
         <v>195961</v>
@@ -17029,25 +17029,25 @@
         <v>23</v>
       </c>
       <c r="AA142">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AB142">
         <v>0.1</v>
       </c>
       <c r="AC142">
-        <v>6.4</v>
+        <v>7.6</v>
       </c>
       <c r="AD142">
-        <v>28.3</v>
+        <v>33.3</v>
       </c>
       <c r="AE142">
-        <v>3.6</v>
+        <v>5.1</v>
       </c>
       <c r="AF142">
-        <v>-77.09999999999999</v>
+        <v>21.9</v>
       </c>
       <c r="AG142">
-        <v>6.6</v>
+        <v>2</v>
       </c>
       <c r="AH142">
         <v>4826</v>
@@ -17067,7 +17067,7 @@
         <v>336</v>
       </c>
       <c r="C143">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="D143">
         <v>6</v>
@@ -17139,13 +17139,13 @@
         <v>12.2</v>
       </c>
       <c r="AA143">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="AB143">
         <v>0.1</v>
       </c>
       <c r="AC143">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AD143">
         <v>0</v>
@@ -17154,10 +17154,10 @@
         <v>0</v>
       </c>
       <c r="AF143">
-        <v>-3.4</v>
+        <v>-9</v>
       </c>
       <c r="AG143">
-        <v>3.5</v>
+        <v>0.3</v>
       </c>
       <c r="AH143">
         <v>2768</v>
@@ -17177,10 +17177,10 @@
         <v>337</v>
       </c>
       <c r="C144">
-        <v>309</v>
+        <v>323</v>
       </c>
       <c r="D144">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E144">
         <v>103620</v>
@@ -17249,25 +17249,25 @@
         <v>5.8</v>
       </c>
       <c r="AA144">
-        <v>9.699999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="AB144">
         <v>0.3</v>
       </c>
       <c r="AC144">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="AD144">
-        <v>18.9</v>
+        <v>18.8</v>
       </c>
       <c r="AE144">
-        <v>-3.9</v>
+        <v>-2.9</v>
       </c>
       <c r="AF144">
-        <v>27</v>
+        <v>21.2</v>
       </c>
       <c r="AG144">
-        <v>1.8</v>
+        <v>0.1</v>
       </c>
       <c r="AH144">
         <v>3848</v>
@@ -17287,7 +17287,7 @@
         <v>338</v>
       </c>
       <c r="C145">
-        <v>348</v>
+        <v>375</v>
       </c>
       <c r="D145">
         <v>14</v>
@@ -17359,25 +17359,25 @@
         <v>22.7</v>
       </c>
       <c r="AA145">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="AB145">
         <v>0.1</v>
       </c>
       <c r="AC145">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="AD145">
-        <v>13.2</v>
+        <v>12.5</v>
       </c>
       <c r="AE145">
-        <v>-0.9</v>
+        <v>0</v>
       </c>
       <c r="AF145">
-        <v>-15.5</v>
+        <v>-3.4</v>
       </c>
       <c r="AG145">
-        <v>2.2</v>
+        <v>0.2</v>
       </c>
       <c r="AH145">
         <v>3655</v>
@@ -17397,7 +17397,7 @@
         <v>339</v>
       </c>
       <c r="C146">
-        <v>311</v>
+        <v>329</v>
       </c>
       <c r="D146">
         <v>11</v>
@@ -17469,25 +17469,25 @@
         <v>12.3</v>
       </c>
       <c r="AA146">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="AB146">
         <v>0.1</v>
       </c>
       <c r="AC146">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="AD146">
-        <v>9.4</v>
+        <v>10.4</v>
       </c>
       <c r="AE146">
         <v>0.7</v>
       </c>
       <c r="AF146">
-        <v>-4.2</v>
+        <v>-0.7</v>
       </c>
       <c r="AG146">
-        <v>2.9</v>
+        <v>0.3</v>
       </c>
       <c r="AH146">
         <v>4793</v>
@@ -17507,7 +17507,7 @@
         <v>340</v>
       </c>
       <c r="C147">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="D147">
         <v>7</v>
@@ -17579,25 +17579,25 @@
         <v>7.4</v>
       </c>
       <c r="AA147">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AB147">
         <v>0.1</v>
       </c>
       <c r="AC147">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="AD147">
-        <v>7.5</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AE147">
-        <v>0</v>
+        <v>-1.9</v>
       </c>
       <c r="AF147">
-        <v>13.1</v>
+        <v>4.7</v>
       </c>
       <c r="AG147">
-        <v>3.8</v>
+        <v>0.7</v>
       </c>
       <c r="AH147">
         <v>3326</v>
@@ -17617,10 +17617,10 @@
         <v>341</v>
       </c>
       <c r="C148">
-        <v>457</v>
+        <v>474</v>
       </c>
       <c r="D148">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E148">
         <v>241910</v>
@@ -17689,25 +17689,25 @@
         <v>2.5</v>
       </c>
       <c r="AA148">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="AB148">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AC148">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AD148">
-        <v>5.7</v>
+        <v>10.4</v>
       </c>
       <c r="AE148">
-        <v>-0.4</v>
+        <v>0.4</v>
       </c>
       <c r="AF148">
-        <v>3.7</v>
+        <v>5.8</v>
       </c>
       <c r="AG148">
-        <v>4.6</v>
+        <v>0.7</v>
       </c>
       <c r="AH148">
         <v>9092</v>
@@ -17727,7 +17727,7 @@
         <v>342</v>
       </c>
       <c r="C149">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="D149">
         <v>10</v>
@@ -17799,7 +17799,7 @@
         <v>56.9</v>
       </c>
       <c r="AA149">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="AB149">
         <v>0.1</v>
@@ -17808,16 +17808,16 @@
         <v>2</v>
       </c>
       <c r="AD149">
-        <v>17</v>
+        <v>18.8</v>
       </c>
       <c r="AE149">
-        <v>2</v>
+        <v>0.7</v>
       </c>
       <c r="AF149">
-        <v>-24.8</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG149">
-        <v>3.9</v>
+        <v>0.7</v>
       </c>
       <c r="AH149">
         <v>4321</v>
@@ -17837,7 +17837,7 @@
         <v>343</v>
       </c>
       <c r="C150">
-        <v>299</v>
+        <v>316</v>
       </c>
       <c r="D150">
         <v>7</v>
@@ -17909,25 +17909,25 @@
         <v>58.9</v>
       </c>
       <c r="AA150">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="AB150">
         <v>0</v>
       </c>
       <c r="AC150">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AD150">
-        <v>5.7</v>
+        <v>6.2</v>
       </c>
       <c r="AE150">
         <v>1.5</v>
       </c>
       <c r="AF150">
-        <v>-3.6</v>
+        <v>4.1</v>
       </c>
       <c r="AG150">
-        <v>2.9</v>
+        <v>0.4</v>
       </c>
       <c r="AH150">
         <v>5446</v>
@@ -17947,7 +17947,7 @@
         <v>344</v>
       </c>
       <c r="C151">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="D151">
         <v>11</v>
@@ -18019,25 +18019,25 @@
         <v>58.2</v>
       </c>
       <c r="AA151">
-        <v>7.9</v>
+        <v>7.6</v>
       </c>
       <c r="AB151">
         <v>0.1</v>
       </c>
       <c r="AC151">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AD151">
-        <v>9.4</v>
+        <v>6.2</v>
       </c>
       <c r="AE151">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AF151">
-        <v>3.1</v>
+        <v>4.1</v>
       </c>
       <c r="AG151">
-        <v>1</v>
+        <v>-0.1</v>
       </c>
       <c r="AH151">
         <v>3764</v>
@@ -18057,7 +18057,7 @@
         <v>345</v>
       </c>
       <c r="C152">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="D152">
         <v>4</v>
@@ -18129,25 +18129,25 @@
         <v>20.2</v>
       </c>
       <c r="AA152">
-        <v>5.1</v>
+        <v>3.6</v>
       </c>
       <c r="AB152">
         <v>0</v>
       </c>
       <c r="AC152">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="AD152">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="AE152">
         <v>-1</v>
       </c>
       <c r="AF152">
-        <v>4.8</v>
+        <v>27</v>
       </c>
       <c r="AG152">
-        <v>6.4</v>
+        <v>0.5</v>
       </c>
       <c r="AH152">
         <v>2661</v>
@@ -18167,10 +18167,10 @@
         <v>346</v>
       </c>
       <c r="C153">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="D153">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E153">
         <v>221307</v>
@@ -18239,7 +18239,7 @@
         <v>10.9</v>
       </c>
       <c r="AA153">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="AB153">
         <v>0.1</v>
@@ -18248,16 +18248,16 @@
         <v>2.2</v>
       </c>
       <c r="AD153">
-        <v>13.2</v>
+        <v>12.5</v>
       </c>
       <c r="AE153">
-        <v>-1.4</v>
+        <v>0</v>
       </c>
       <c r="AF153">
-        <v>23</v>
+        <v>1.8</v>
       </c>
       <c r="AG153">
-        <v>3</v>
+        <v>0.4</v>
       </c>
       <c r="AH153">
         <v>7343</v>
@@ -18277,7 +18277,7 @@
         <v>347</v>
       </c>
       <c r="C154">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="D154">
         <v>9</v>
@@ -18349,7 +18349,7 @@
         <v>41.5</v>
       </c>
       <c r="AA154">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="AB154">
         <v>0</v>
@@ -18358,16 +18358,16 @@
         <v>0.8</v>
       </c>
       <c r="AD154">
-        <v>7.5</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AE154">
         <v>0.7</v>
       </c>
       <c r="AF154">
-        <v>-1.7</v>
+        <v>-2.1</v>
       </c>
       <c r="AG154">
-        <v>1.9</v>
+        <v>0.1</v>
       </c>
       <c r="AH154">
         <v>14925</v>
@@ -18387,10 +18387,10 @@
         <v>348</v>
       </c>
       <c r="C155">
-        <v>390</v>
+        <v>412</v>
       </c>
       <c r="D155">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E155">
         <v>201463</v>
@@ -18465,19 +18465,19 @@
         <v>0.1</v>
       </c>
       <c r="AC155">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AD155">
-        <v>11.3</v>
+        <v>10.4</v>
       </c>
       <c r="AE155">
-        <v>-2</v>
+        <v>-1.5</v>
       </c>
       <c r="AF155">
-        <v>-33.3</v>
+        <v>-23.8</v>
       </c>
       <c r="AG155">
-        <v>3.8</v>
+        <v>0.4</v>
       </c>
       <c r="AH155">
         <v>5203</v>
@@ -18497,10 +18497,10 @@
         <v>349</v>
       </c>
       <c r="C156">
-        <v>693</v>
+        <v>733</v>
       </c>
       <c r="D156">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E156">
         <v>278666</v>
@@ -18569,25 +18569,25 @@
         <v>22.9</v>
       </c>
       <c r="AA156">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="AB156">
         <v>0.1</v>
       </c>
       <c r="AC156">
+        <v>2.6</v>
+      </c>
+      <c r="AD156">
+        <v>35.4</v>
+      </c>
+      <c r="AE156">
         <v>2.5</v>
       </c>
-      <c r="AD156">
-        <v>26.4</v>
-      </c>
-      <c r="AE156">
-        <v>-0.7</v>
-      </c>
       <c r="AF156">
-        <v>20.5</v>
+        <v>-9.300000000000001</v>
       </c>
       <c r="AG156">
-        <v>2.8</v>
+        <v>0.3</v>
       </c>
       <c r="AH156">
         <v>10024</v>
@@ -18607,10 +18607,10 @@
         <v>350</v>
       </c>
       <c r="C157">
-        <v>1581</v>
+        <v>1679</v>
       </c>
       <c r="D157">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E157">
         <v>745057</v>
@@ -18679,25 +18679,25 @@
         <v>15</v>
       </c>
       <c r="AA157">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="AB157">
         <v>0.1</v>
       </c>
       <c r="AC157">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="AD157">
-        <v>83</v>
+        <v>93.8</v>
       </c>
       <c r="AE157">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="AF157">
-        <v>-1.7</v>
+        <v>3.8</v>
       </c>
       <c r="AG157">
-        <v>3.2</v>
+        <v>0.4</v>
       </c>
       <c r="AH157">
         <v>26415</v>
@@ -18717,10 +18717,10 @@
         <v>351</v>
       </c>
       <c r="C158">
-        <v>1744</v>
+        <v>1848</v>
       </c>
       <c r="D158">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E158">
         <v>902298</v>
@@ -18789,25 +18789,25 @@
         <v>11.1</v>
       </c>
       <c r="AA158">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="AB158">
         <v>0.1</v>
       </c>
       <c r="AC158">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AD158">
-        <v>43.4</v>
+        <v>45.8</v>
       </c>
       <c r="AE158">
-        <v>-0.6</v>
+        <v>0.2</v>
       </c>
       <c r="AF158">
-        <v>9.199999999999999</v>
+        <v>13.4</v>
       </c>
       <c r="AG158">
-        <v>4.7</v>
+        <v>0.8</v>
       </c>
       <c r="AH158">
         <v>29768</v>
@@ -18827,10 +18827,10 @@
         <v>352</v>
       </c>
       <c r="C159">
-        <v>1980</v>
+        <v>2073</v>
       </c>
       <c r="D159">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E159">
         <v>743187</v>
@@ -18899,25 +18899,25 @@
         <v>31.4</v>
       </c>
       <c r="AA159">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="AB159">
         <v>0.1</v>
       </c>
       <c r="AC159">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="AD159">
-        <v>56.6</v>
+        <v>54.2</v>
       </c>
       <c r="AE159">
         <v>0</v>
       </c>
       <c r="AF159">
-        <v>-1.7</v>
+        <v>-0.4</v>
       </c>
       <c r="AG159">
-        <v>3.3</v>
+        <v>0.3</v>
       </c>
       <c r="AH159">
         <v>27027</v>
@@ -18937,10 +18937,10 @@
         <v>353</v>
       </c>
       <c r="C160">
-        <v>2785</v>
+        <v>2880</v>
       </c>
       <c r="D160">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E160">
         <v>1021902</v>
@@ -19015,19 +19015,19 @@
         <v>0.1</v>
       </c>
       <c r="AC160">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="AD160">
         <v>100</v>
       </c>
       <c r="AE160">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="AF160">
-        <v>17.3</v>
+        <v>-8.1</v>
       </c>
       <c r="AG160">
-        <v>2.6</v>
+        <v>0.3</v>
       </c>
       <c r="AH160">
         <v>44097</v>

--- a/data/countyData.xlsx
+++ b/data/countyData.xlsx
@@ -1777,7 +1777,7 @@
         <v>197</v>
       </c>
       <c r="C4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -1855,7 +1855,7 @@
         <v>0</v>
       </c>
       <c r="AC4">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="AD4">
         <v>0</v>
@@ -1864,10 +1864,10 @@
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>14.8</v>
+        <v>29.7</v>
       </c>
       <c r="AG4">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="AH4">
         <v>29</v>
@@ -2197,7 +2197,7 @@
         <v>31.4</v>
       </c>
       <c r="AG7">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AH7">
         <v>39</v>
@@ -2307,7 +2307,7 @@
         <v>-47.4</v>
       </c>
       <c r="AG8">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="AH8">
         <v>109</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="AF10">
-        <v>85.7</v>
+        <v>-51.4</v>
       </c>
       <c r="AG10">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="AH10">
         <v>72</v>
@@ -2857,7 +2857,7 @@
         <v>15.4</v>
       </c>
       <c r="AG13">
-        <v>2.4</v>
+        <v>1.6</v>
       </c>
       <c r="AH13">
         <v>93</v>
@@ -2987,7 +2987,7 @@
         <v>208</v>
       </c>
       <c r="C15">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -3059,13 +3059,13 @@
         <v>6.4</v>
       </c>
       <c r="AA15">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="AB15">
         <v>0.1</v>
       </c>
       <c r="AC15">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="AD15">
         <v>2.1</v>
@@ -3077,7 +3077,7 @@
         <v>-70.09999999999999</v>
       </c>
       <c r="AG15">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="AH15">
         <v>302</v>
@@ -3207,7 +3207,7 @@
         <v>210</v>
       </c>
       <c r="C17">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D17">
         <v>3</v>
@@ -3279,13 +3279,13 @@
         <v>0</v>
       </c>
       <c r="AA17">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB17">
         <v>1</v>
       </c>
       <c r="AC17">
-        <v>7.7</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AD17">
         <v>2.1</v>
@@ -3294,10 +3294,10 @@
         <v>33.3</v>
       </c>
       <c r="AF17">
-        <v>66.59999999999999</v>
+        <v>166.6</v>
       </c>
       <c r="AG17">
-        <v>-0.2</v>
+        <v>-0.1</v>
       </c>
       <c r="AH17">
         <v>115</v>
@@ -3317,7 +3317,7 @@
         <v>211</v>
       </c>
       <c r="C18">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="D18">
         <v>2</v>
@@ -3389,13 +3389,13 @@
         <v>0</v>
       </c>
       <c r="AA18">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="AB18">
         <v>0.2</v>
       </c>
       <c r="AC18">
-        <v>6</v>
+        <v>6.8</v>
       </c>
       <c r="AD18">
         <v>4.2</v>
@@ -3404,10 +3404,10 @@
         <v>23.4</v>
       </c>
       <c r="AF18">
-        <v>292.9</v>
+        <v>363.2</v>
       </c>
       <c r="AG18">
-        <v>8.800000000000001</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="AH18">
         <v>102</v>
@@ -3427,7 +3427,7 @@
         <v>212</v>
       </c>
       <c r="C19">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D19">
         <v>3</v>
@@ -3499,13 +3499,13 @@
         <v>0</v>
       </c>
       <c r="AA19">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="AB19">
         <v>0.2</v>
       </c>
       <c r="AC19">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="AD19">
         <v>2.1</v>
@@ -3514,7 +3514,7 @@
         <v>-6.8</v>
       </c>
       <c r="AF19">
-        <v>-87.90000000000001</v>
+        <v>-81.2</v>
       </c>
       <c r="AG19">
         <v>1</v>
@@ -3734,10 +3734,10 @@
         <v>-19.3</v>
       </c>
       <c r="AF21">
-        <v>9.699999999999999</v>
+        <v>-87</v>
       </c>
       <c r="AG21">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="AH21">
         <v>71</v>
@@ -3954,10 +3954,10 @@
         <v>0</v>
       </c>
       <c r="AF23">
-        <v>0</v>
+        <v>-5.4</v>
       </c>
       <c r="AG23">
-        <v>-0.1</v>
+        <v>-0.2</v>
       </c>
       <c r="AH23">
         <v>312</v>
@@ -4168,16 +4168,16 @@
         <v>10.2</v>
       </c>
       <c r="AD25">
-        <v>18.8</v>
+        <v>14.6</v>
       </c>
       <c r="AE25">
-        <v>-33.9</v>
+        <v>-11.3</v>
       </c>
       <c r="AF25">
-        <v>-90.40000000000001</v>
+        <v>-45.2</v>
       </c>
       <c r="AG25">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="AH25">
         <v>48</v>
@@ -4197,7 +4197,7 @@
         <v>219</v>
       </c>
       <c r="C26">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D26">
         <v>3</v>
@@ -4269,13 +4269,13 @@
         <v>0</v>
       </c>
       <c r="AA26">
-        <v>5.5</v>
+        <v>5.8</v>
       </c>
       <c r="AB26">
         <v>0.2</v>
       </c>
       <c r="AC26">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="AD26">
         <v>2.1</v>
@@ -4284,7 +4284,7 @@
         <v>5.2</v>
       </c>
       <c r="AF26">
-        <v>0</v>
+        <v>-5.2</v>
       </c>
       <c r="AG26">
         <v>-0.1</v>
@@ -4394,10 +4394,10 @@
         <v>0</v>
       </c>
       <c r="AF27">
-        <v>-80.90000000000001</v>
+        <v>-70.8</v>
       </c>
       <c r="AG27">
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="AH27">
         <v>94</v>
@@ -4417,7 +4417,7 @@
         <v>221</v>
       </c>
       <c r="C28">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -4489,13 +4489,13 @@
         <v>27.6</v>
       </c>
       <c r="AA28">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="AB28">
         <v>0.1</v>
       </c>
       <c r="AC28">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="AD28">
         <v>0</v>
@@ -4507,7 +4507,7 @@
         <v>17.8</v>
       </c>
       <c r="AG28">
-        <v>-0.2</v>
+        <v>-0.1</v>
       </c>
       <c r="AH28">
         <v>151</v>
@@ -4614,10 +4614,10 @@
         <v>0</v>
       </c>
       <c r="AF29">
-        <v>-23.6</v>
+        <v>-94.3</v>
       </c>
       <c r="AG29">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="AH29">
         <v>88</v>
@@ -4727,7 +4727,7 @@
         <v>-20.1</v>
       </c>
       <c r="AG30">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="AH30">
         <v>311</v>
@@ -4747,7 +4747,7 @@
         <v>224</v>
       </c>
       <c r="C31">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D31">
         <v>1</v>
@@ -4819,13 +4819,13 @@
         <v>19.7</v>
       </c>
       <c r="AA31">
-        <v>6.7</v>
+        <v>6.2</v>
       </c>
       <c r="AB31">
         <v>0.1</v>
       </c>
       <c r="AC31">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="AD31">
         <v>2.1</v>
@@ -4834,7 +4834,7 @@
         <v>-10.8</v>
       </c>
       <c r="AF31">
-        <v>0</v>
+        <v>10.8</v>
       </c>
       <c r="AG31">
         <v>0</v>
@@ -4944,10 +4944,10 @@
         <v>0</v>
       </c>
       <c r="AF32">
-        <v>-124.5</v>
+        <v>-155.6</v>
       </c>
       <c r="AG32">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="AH32">
         <v>114</v>
@@ -5164,10 +5164,10 @@
         <v>0</v>
       </c>
       <c r="AF34">
-        <v>-27.7</v>
+        <v>-18.5</v>
       </c>
       <c r="AG34">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AH34">
         <v>186</v>
@@ -5274,7 +5274,7 @@
         <v>-11</v>
       </c>
       <c r="AF35">
-        <v>-33</v>
+        <v>-55.1</v>
       </c>
       <c r="AG35">
         <v>1.2</v>
@@ -5407,7 +5407,7 @@
         <v>230</v>
       </c>
       <c r="C37">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -5485,7 +5485,7 @@
         <v>0</v>
       </c>
       <c r="AC37">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="AD37">
         <v>0</v>
@@ -5494,10 +5494,10 @@
         <v>0</v>
       </c>
       <c r="AF37">
-        <v>-37.4</v>
+        <v>-18.7</v>
       </c>
       <c r="AG37">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="AH37">
         <v>98</v>
@@ -5517,7 +5517,7 @@
         <v>231</v>
       </c>
       <c r="C38">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D38">
         <v>19</v>
@@ -5595,13 +5595,13 @@
         <v>2.7</v>
       </c>
       <c r="AC38">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="AD38">
-        <v>14.6</v>
+        <v>12.5</v>
       </c>
       <c r="AE38">
-        <v>-70.59999999999999</v>
+        <v>-84.7</v>
       </c>
       <c r="AF38">
         <v>-28.2</v>
@@ -5627,7 +5627,7 @@
         <v>232</v>
       </c>
       <c r="C39">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D39">
         <v>2</v>
@@ -5699,13 +5699,13 @@
         <v>53.5</v>
       </c>
       <c r="AA39">
-        <v>11.8</v>
+        <v>11.1</v>
       </c>
       <c r="AB39">
         <v>0.2</v>
       </c>
       <c r="AC39">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AD39">
         <v>0</v>
@@ -5714,10 +5714,10 @@
         <v>0</v>
       </c>
       <c r="AF39">
-        <v>-12.2</v>
+        <v>-48.8</v>
       </c>
       <c r="AG39">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AH39">
         <v>97</v>
@@ -5847,7 +5847,7 @@
         <v>234</v>
       </c>
       <c r="C41">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D41">
         <v>8</v>
@@ -5919,13 +5919,13 @@
         <v>0</v>
       </c>
       <c r="AA41">
-        <v>11.8</v>
+        <v>11.6</v>
       </c>
       <c r="AB41">
         <v>1</v>
       </c>
       <c r="AC41">
-        <v>8.5</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AD41">
         <v>12.5</v>
@@ -5934,10 +5934,10 @@
         <v>-25.1</v>
       </c>
       <c r="AF41">
-        <v>-62.8</v>
+        <v>-50.2</v>
       </c>
       <c r="AG41">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AH41">
         <v>212</v>
@@ -5957,7 +5957,7 @@
         <v>235</v>
       </c>
       <c r="C42">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="D42">
         <v>2</v>
@@ -6029,25 +6029,25 @@
         <v>0</v>
       </c>
       <c r="AA42">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="AB42">
         <v>0.2</v>
       </c>
       <c r="AC42">
-        <v>5.2</v>
+        <v>6.1</v>
       </c>
       <c r="AD42">
         <v>2.1</v>
       </c>
       <c r="AE42">
-        <v>10.3</v>
+        <v>-10.3</v>
       </c>
       <c r="AF42">
-        <v>123.3</v>
+        <v>205.5</v>
       </c>
       <c r="AG42">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AH42">
         <v>103</v>
@@ -6154,10 +6154,10 @@
         <v>0</v>
       </c>
       <c r="AF43">
-        <v>-14</v>
+        <v>-4.7</v>
       </c>
       <c r="AG43">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="AH43">
         <v>667</v>
@@ -6177,7 +6177,7 @@
         <v>237</v>
       </c>
       <c r="C44">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -6255,7 +6255,7 @@
         <v>0</v>
       </c>
       <c r="AC44">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AD44">
         <v>0</v>
@@ -6264,10 +6264,10 @@
         <v>0</v>
       </c>
       <c r="AF44">
-        <v>16.2</v>
+        <v>24.3</v>
       </c>
       <c r="AG44">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AH44">
         <v>199</v>
@@ -6374,7 +6374,7 @@
         <v>0</v>
       </c>
       <c r="AF45">
-        <v>-5.3</v>
+        <v>-15.8</v>
       </c>
       <c r="AG45">
         <v>1.6</v>
@@ -6397,7 +6397,7 @@
         <v>239</v>
       </c>
       <c r="C46">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D46">
         <v>1</v>
@@ -6469,13 +6469,13 @@
         <v>26.6</v>
       </c>
       <c r="AA46">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="AB46">
         <v>0</v>
       </c>
       <c r="AC46">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="AD46">
         <v>2.1</v>
@@ -6484,10 +6484,10 @@
         <v>4.8</v>
       </c>
       <c r="AF46">
-        <v>14.3</v>
+        <v>9.6</v>
       </c>
       <c r="AG46">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AH46">
         <v>149</v>
@@ -6507,7 +6507,7 @@
         <v>240</v>
       </c>
       <c r="C47">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -6585,7 +6585,7 @@
         <v>0</v>
       </c>
       <c r="AC47">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="AD47">
         <v>0</v>
@@ -6594,10 +6594,10 @@
         <v>0</v>
       </c>
       <c r="AF47">
-        <v>21.6</v>
+        <v>16.2</v>
       </c>
       <c r="AG47">
-        <v>-0.2</v>
+        <v>-0.3</v>
       </c>
       <c r="AH47">
         <v>893</v>
@@ -6704,10 +6704,10 @@
         <v>0</v>
       </c>
       <c r="AF48">
-        <v>11</v>
+        <v>16.5</v>
       </c>
       <c r="AG48">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="AH48">
         <v>572</v>
@@ -6727,7 +6727,7 @@
         <v>242</v>
       </c>
       <c r="C49">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -6805,19 +6805,19 @@
         <v>0</v>
       </c>
       <c r="AC49">
+        <v>0.8</v>
+      </c>
+      <c r="AD49">
+        <v>0</v>
+      </c>
+      <c r="AE49">
+        <v>0</v>
+      </c>
+      <c r="AF49">
+        <v>12.2</v>
+      </c>
+      <c r="AG49">
         <v>0.9</v>
-      </c>
-      <c r="AD49">
-        <v>0</v>
-      </c>
-      <c r="AE49">
-        <v>0</v>
-      </c>
-      <c r="AF49">
-        <v>18.2</v>
-      </c>
-      <c r="AG49">
-        <v>1.1</v>
       </c>
       <c r="AH49">
         <v>634</v>
@@ -7167,7 +7167,7 @@
         <v>246</v>
       </c>
       <c r="C53">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -7245,7 +7245,7 @@
         <v>0</v>
       </c>
       <c r="AC53">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="AD53">
         <v>0</v>
@@ -7254,7 +7254,7 @@
         <v>0</v>
       </c>
       <c r="AF53">
-        <v>11.1</v>
+        <v>0</v>
       </c>
       <c r="AG53">
         <v>1.2</v>
@@ -7364,7 +7364,7 @@
         <v>0</v>
       </c>
       <c r="AF54">
-        <v>16.5</v>
+        <v>5.5</v>
       </c>
       <c r="AG54">
         <v>1.7</v>
@@ -7387,7 +7387,7 @@
         <v>248</v>
       </c>
       <c r="C55">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -7465,7 +7465,7 @@
         <v>0</v>
       </c>
       <c r="AC55">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AD55">
         <v>0</v>
@@ -7474,10 +7474,10 @@
         <v>0</v>
       </c>
       <c r="AF55">
-        <v>-17.5</v>
+        <v>-29.1</v>
       </c>
       <c r="AG55">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="AH55">
         <v>163</v>
@@ -7497,7 +7497,7 @@
         <v>249</v>
       </c>
       <c r="C56">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -7575,7 +7575,7 @@
         <v>0</v>
       </c>
       <c r="AC56">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="AD56">
         <v>0</v>
@@ -7584,10 +7584,10 @@
         <v>0</v>
       </c>
       <c r="AF56">
-        <v>21.6</v>
+        <v>54</v>
       </c>
       <c r="AG56">
-        <v>0.1</v>
+        <v>0.7</v>
       </c>
       <c r="AH56">
         <v>355</v>
@@ -7694,7 +7694,7 @@
         <v>0</v>
       </c>
       <c r="AF57">
-        <v>40.7</v>
+        <v>29.1</v>
       </c>
       <c r="AG57">
         <v>1.5</v>
@@ -7804,7 +7804,7 @@
         <v>0</v>
       </c>
       <c r="AF58">
-        <v>-22.7</v>
+        <v>-45.3</v>
       </c>
       <c r="AG58">
         <v>0.3</v>
@@ -7914,10 +7914,10 @@
         <v>-6.7</v>
       </c>
       <c r="AF59">
-        <v>33.4</v>
+        <v>20</v>
       </c>
       <c r="AG59">
-        <v>4.8</v>
+        <v>2.6</v>
       </c>
       <c r="AH59">
         <v>111</v>
@@ -8024,10 +8024,10 @@
         <v>-5.5</v>
       </c>
       <c r="AF60">
-        <v>-38.7</v>
+        <v>-33.2</v>
       </c>
       <c r="AG60">
-        <v>0.2</v>
+        <v>-0</v>
       </c>
       <c r="AH60">
         <v>351</v>
@@ -8047,7 +8047,7 @@
         <v>254</v>
       </c>
       <c r="C61">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D61">
         <v>1</v>
@@ -8119,13 +8119,13 @@
         <v>62.1</v>
       </c>
       <c r="AA61">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="AB61">
         <v>0</v>
       </c>
       <c r="AC61">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="AD61">
         <v>2.1</v>
@@ -8134,10 +8134,10 @@
         <v>4.4</v>
       </c>
       <c r="AF61">
-        <v>-13.3</v>
+        <v>-17.8</v>
       </c>
       <c r="AG61">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="AH61">
         <v>498</v>
@@ -8157,7 +8157,7 @@
         <v>255</v>
       </c>
       <c r="C62">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -8235,7 +8235,7 @@
         <v>0</v>
       </c>
       <c r="AC62">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="AD62">
         <v>0</v>
@@ -8244,10 +8244,10 @@
         <v>0</v>
       </c>
       <c r="AF62">
-        <v>-29</v>
+        <v>-14.5</v>
       </c>
       <c r="AG62">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="AH62">
         <v>300</v>
@@ -8267,10 +8267,10 @@
         <v>256</v>
       </c>
       <c r="C63">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E63">
         <v>20461</v>
@@ -8339,19 +8339,19 @@
         <v>33.9</v>
       </c>
       <c r="AA63">
-        <v>2.3</v>
+        <v>4.5</v>
       </c>
       <c r="AB63">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AC63">
+        <v>2.2</v>
+      </c>
+      <c r="AD63">
         <v>2.1</v>
       </c>
-      <c r="AD63">
-        <v>0</v>
-      </c>
       <c r="AE63">
-        <v>0</v>
+        <v>4.9</v>
       </c>
       <c r="AF63">
         <v>4.9</v>
@@ -8574,7 +8574,7 @@
         <v>0</v>
       </c>
       <c r="AF65">
-        <v>12.4</v>
+        <v>-49.6</v>
       </c>
       <c r="AG65">
         <v>1.3</v>
@@ -8597,7 +8597,7 @@
         <v>259</v>
       </c>
       <c r="C66">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -8675,7 +8675,7 @@
         <v>0</v>
       </c>
       <c r="AC66">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AD66">
         <v>0</v>
@@ -8684,10 +8684,10 @@
         <v>0</v>
       </c>
       <c r="AF66">
-        <v>47</v>
+        <v>54.8</v>
       </c>
       <c r="AG66">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="AH66">
         <v>185</v>
@@ -8927,7 +8927,7 @@
         <v>262</v>
       </c>
       <c r="C69">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D69">
         <v>19</v>
@@ -9005,7 +9005,7 @@
         <v>2.1</v>
       </c>
       <c r="AC69">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="AD69">
         <v>10.4</v>
@@ -9014,10 +9014,10 @@
         <v>-11.3</v>
       </c>
       <c r="AF69">
-        <v>-45.2</v>
+        <v>11.3</v>
       </c>
       <c r="AG69">
-        <v>-0</v>
+        <v>-0.1</v>
       </c>
       <c r="AH69">
         <v>121</v>
@@ -9127,7 +9127,7 @@
         <v>62</v>
       </c>
       <c r="AG70">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="AH70">
         <v>87</v>
@@ -9147,7 +9147,7 @@
         <v>264</v>
       </c>
       <c r="C71">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D71">
         <v>1</v>
@@ -9219,7 +9219,7 @@
         <v>6.2</v>
       </c>
       <c r="AA71">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="AB71">
         <v>0</v>
@@ -9234,10 +9234,10 @@
         <v>0</v>
       </c>
       <c r="AF71">
-        <v>-48.3</v>
+        <v>-57.1</v>
       </c>
       <c r="AG71">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="AH71">
         <v>679</v>
@@ -9257,7 +9257,7 @@
         <v>265</v>
       </c>
       <c r="C72">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D72">
         <v>11</v>
@@ -9329,13 +9329,13 @@
         <v>6.7</v>
       </c>
       <c r="AA72">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="AB72">
         <v>0.5</v>
       </c>
       <c r="AC72">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="AD72">
         <v>14.6</v>
@@ -9344,7 +9344,7 @@
         <v>-4.8</v>
       </c>
       <c r="AF72">
-        <v>-4.8</v>
+        <v>4.8</v>
       </c>
       <c r="AG72">
         <v>0.1</v>
@@ -9367,7 +9367,7 @@
         <v>266</v>
       </c>
       <c r="C73">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D73">
         <v>1</v>
@@ -9439,13 +9439,13 @@
         <v>0</v>
       </c>
       <c r="AA73">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AB73">
         <v>0</v>
       </c>
       <c r="AC73">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="AD73">
         <v>0</v>
@@ -9454,10 +9454,10 @@
         <v>0</v>
       </c>
       <c r="AF73">
-        <v>4.2</v>
+        <v>29.3</v>
       </c>
       <c r="AG73">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="AH73">
         <v>877</v>
@@ -9477,7 +9477,7 @@
         <v>267</v>
       </c>
       <c r="C74">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D74">
         <v>1</v>
@@ -9549,7 +9549,7 @@
         <v>6.2</v>
       </c>
       <c r="AA74">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="AB74">
         <v>0</v>
@@ -9564,10 +9564,10 @@
         <v>-1.9</v>
       </c>
       <c r="AF74">
-        <v>7.6</v>
+        <v>9.5</v>
       </c>
       <c r="AG74">
-        <v>-0.1</v>
+        <v>-0</v>
       </c>
       <c r="AH74">
         <v>961</v>
@@ -9587,7 +9587,7 @@
         <v>268</v>
       </c>
       <c r="C75">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="D75">
         <v>2</v>
@@ -9659,13 +9659,13 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AA75">
-        <v>4.3</v>
+        <v>3.2</v>
       </c>
       <c r="AB75">
         <v>0.1</v>
       </c>
       <c r="AC75">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="AD75">
         <v>4.2</v>
@@ -9674,10 +9674,10 @@
         <v>6.3</v>
       </c>
       <c r="AF75">
-        <v>31.3</v>
+        <v>84.5</v>
       </c>
       <c r="AG75">
-        <v>0.9</v>
+        <v>2.4</v>
       </c>
       <c r="AH75">
         <v>1003</v>
@@ -9697,7 +9697,7 @@
         <v>269</v>
       </c>
       <c r="C76">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D76">
         <v>31</v>
@@ -9781,10 +9781,10 @@
         <v>16.7</v>
       </c>
       <c r="AE76">
-        <v>26.7</v>
+        <v>17.8</v>
       </c>
       <c r="AF76">
-        <v>-236.3</v>
+        <v>-231.8</v>
       </c>
       <c r="AG76">
         <v>0.7</v>
@@ -9897,7 +9897,7 @@
         <v>-41.2</v>
       </c>
       <c r="AG77">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="AH77">
         <v>445</v>
@@ -9917,7 +9917,7 @@
         <v>271</v>
       </c>
       <c r="C78">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D78">
         <v>1</v>
@@ -9995,7 +9995,7 @@
         <v>0</v>
       </c>
       <c r="AC78">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="AD78">
         <v>2.1</v>
@@ -10004,10 +10004,10 @@
         <v>-3.7</v>
       </c>
       <c r="AF78">
-        <v>70.8</v>
+        <v>74.5</v>
       </c>
       <c r="AG78">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AH78">
         <v>365</v>
@@ -10027,7 +10027,7 @@
         <v>272</v>
       </c>
       <c r="C79">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D79">
         <v>2</v>
@@ -10099,13 +10099,13 @@
         <v>32.4</v>
       </c>
       <c r="AA79">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="AB79">
         <v>0.1</v>
       </c>
       <c r="AC79">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="AD79">
         <v>0</v>
@@ -10114,10 +10114,10 @@
         <v>0</v>
       </c>
       <c r="AF79">
-        <v>37.1</v>
+        <v>51.9</v>
       </c>
       <c r="AG79">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="AH79">
         <v>672</v>
@@ -10224,10 +10224,10 @@
         <v>0</v>
       </c>
       <c r="AF80">
-        <v>-10.5</v>
+        <v>-24.5</v>
       </c>
       <c r="AG80">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AH80">
         <v>460</v>
@@ -10247,7 +10247,7 @@
         <v>274</v>
       </c>
       <c r="C81">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D81">
         <v>1</v>
@@ -10319,13 +10319,13 @@
         <v>0</v>
       </c>
       <c r="AA81">
-        <v>11.1</v>
+        <v>9.1</v>
       </c>
       <c r="AB81">
         <v>0.1</v>
       </c>
       <c r="AC81">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="AD81">
         <v>2.1</v>
@@ -10334,10 +10334,10 @@
         <v>12.1</v>
       </c>
       <c r="AF81">
-        <v>0</v>
+        <v>24.2</v>
       </c>
       <c r="AG81">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="AH81">
         <v>121</v>
@@ -10444,7 +10444,7 @@
         <v>0</v>
       </c>
       <c r="AF82">
-        <v>-17.1</v>
+        <v>0</v>
       </c>
       <c r="AG82">
         <v>0</v>
@@ -10467,7 +10467,7 @@
         <v>276</v>
       </c>
       <c r="C83">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="D83">
         <v>1</v>
@@ -10539,13 +10539,13 @@
         <v>19.6</v>
       </c>
       <c r="AA83">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="AB83">
         <v>0</v>
       </c>
       <c r="AC83">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="AD83">
         <v>0</v>
@@ -10554,10 +10554,10 @@
         <v>0</v>
       </c>
       <c r="AF83">
-        <v>3.9</v>
+        <v>23.4</v>
       </c>
       <c r="AG83">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="AH83">
         <v>548</v>
@@ -10577,7 +10577,7 @@
         <v>277</v>
       </c>
       <c r="C84">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D84">
         <v>2</v>
@@ -10649,13 +10649,13 @@
         <v>7.5</v>
       </c>
       <c r="AA84">
-        <v>8</v>
+        <v>7.4</v>
       </c>
       <c r="AB84">
         <v>0.1</v>
       </c>
       <c r="AC84">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="AD84">
         <v>0</v>
@@ -10664,10 +10664,10 @@
         <v>0</v>
       </c>
       <c r="AF84">
-        <v>3.2</v>
+        <v>16.2</v>
       </c>
       <c r="AG84">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="AH84">
         <v>899</v>
@@ -10797,7 +10797,7 @@
         <v>279</v>
       </c>
       <c r="C86">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D86">
         <v>0</v>
@@ -10875,7 +10875,7 @@
         <v>0</v>
       </c>
       <c r="AC86">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AD86">
         <v>0</v>
@@ -10887,7 +10887,7 @@
         <v>20.8</v>
       </c>
       <c r="AG86">
-        <v>5.3</v>
+        <v>5.7</v>
       </c>
       <c r="AH86">
         <v>250</v>
@@ -10907,7 +10907,7 @@
         <v>280</v>
       </c>
       <c r="C87">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D87">
         <v>19</v>
@@ -10979,13 +10979,13 @@
         <v>86.5</v>
       </c>
       <c r="AA87">
-        <v>10</v>
+        <v>9.9</v>
       </c>
       <c r="AB87">
         <v>0.4</v>
       </c>
       <c r="AC87">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="AD87">
         <v>12.5</v>
@@ -10994,10 +10994,10 @@
         <v>0</v>
       </c>
       <c r="AF87">
-        <v>-20.1</v>
+        <v>-17.9</v>
       </c>
       <c r="AG87">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="AH87">
         <v>870</v>
@@ -11017,7 +11017,7 @@
         <v>281</v>
       </c>
       <c r="C88">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D88">
         <v>1</v>
@@ -11089,13 +11089,13 @@
         <v>13.5</v>
       </c>
       <c r="AA88">
-        <v>7.1</v>
+        <v>6.7</v>
       </c>
       <c r="AB88">
         <v>0.1</v>
       </c>
       <c r="AC88">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AD88">
         <v>0</v>
@@ -11104,10 +11104,10 @@
         <v>0</v>
       </c>
       <c r="AF88">
-        <v>-6.3</v>
+        <v>0</v>
       </c>
       <c r="AG88">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AH88">
         <v>216</v>
@@ -11127,7 +11127,7 @@
         <v>282</v>
       </c>
       <c r="C89">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D89">
         <v>16</v>
@@ -11199,7 +11199,7 @@
         <v>7</v>
       </c>
       <c r="AA89">
-        <v>10.5</v>
+        <v>10.6</v>
       </c>
       <c r="AB89">
         <v>0.7</v>
@@ -11214,10 +11214,10 @@
         <v>50.5</v>
       </c>
       <c r="AF89">
-        <v>-240</v>
+        <v>-244.2</v>
       </c>
       <c r="AG89">
-        <v>5.5</v>
+        <v>4.3</v>
       </c>
       <c r="AH89">
         <v>582</v>
@@ -11237,7 +11237,7 @@
         <v>283</v>
       </c>
       <c r="C90">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D90">
         <v>1</v>
@@ -11309,7 +11309,7 @@
         <v>7.2</v>
       </c>
       <c r="AA90">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="AB90">
         <v>0</v>
@@ -11324,10 +11324,10 @@
         <v>4</v>
       </c>
       <c r="AF90">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AG90">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="AH90">
         <v>853</v>
@@ -11347,7 +11347,7 @@
         <v>284</v>
       </c>
       <c r="C91">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="D91">
         <v>20</v>
@@ -11419,13 +11419,13 @@
         <v>0</v>
       </c>
       <c r="AA91">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="AB91">
         <v>0.7</v>
       </c>
       <c r="AC91">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="AD91">
         <v>10.4</v>
@@ -11434,10 +11434,10 @@
         <v>-3.4</v>
       </c>
       <c r="AF91">
-        <v>-10.2</v>
+        <v>3.4</v>
       </c>
       <c r="AG91">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AH91">
         <v>1347</v>
@@ -11457,7 +11457,7 @@
         <v>285</v>
       </c>
       <c r="C92">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D92">
         <v>11</v>
@@ -11529,7 +11529,7 @@
         <v>48.2</v>
       </c>
       <c r="AA92">
-        <v>8.6</v>
+        <v>8.5</v>
       </c>
       <c r="AB92">
         <v>0.3</v>
@@ -11544,10 +11544,10 @@
         <v>0</v>
       </c>
       <c r="AF92">
-        <v>-2.8</v>
+        <v>0</v>
       </c>
       <c r="AG92">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="AH92">
         <v>569</v>
@@ -11567,7 +11567,7 @@
         <v>286</v>
       </c>
       <c r="C93">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D93">
         <v>8</v>
@@ -11645,19 +11645,19 @@
         <v>0.2</v>
       </c>
       <c r="AC93">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="AD93">
         <v>12.5</v>
       </c>
       <c r="AE93">
-        <v>0</v>
+        <v>-4.4</v>
       </c>
       <c r="AF93">
-        <v>-8.800000000000001</v>
+        <v>-50.8</v>
       </c>
       <c r="AG93">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AH93">
         <v>1101</v>
@@ -11767,7 +11767,7 @@
         <v>-51.9</v>
       </c>
       <c r="AG94">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AH94">
         <v>238</v>
@@ -11787,7 +11787,7 @@
         <v>288</v>
       </c>
       <c r="C95">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D95">
         <v>0</v>
@@ -11865,7 +11865,7 @@
         <v>0</v>
       </c>
       <c r="AC95">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="AD95">
         <v>0</v>
@@ -11874,10 +11874,10 @@
         <v>0</v>
       </c>
       <c r="AF95">
-        <v>56.8</v>
+        <v>40.1</v>
       </c>
       <c r="AG95">
-        <v>8.1</v>
+        <v>7.9</v>
       </c>
       <c r="AH95">
         <v>695</v>
@@ -12007,7 +12007,7 @@
         <v>290</v>
       </c>
       <c r="C97">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D97">
         <v>0</v>
@@ -12085,7 +12085,7 @@
         <v>0</v>
       </c>
       <c r="AC97">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="AD97">
         <v>0</v>
@@ -12094,10 +12094,10 @@
         <v>0</v>
       </c>
       <c r="AF97">
-        <v>-37.7</v>
+        <v>-33.2</v>
       </c>
       <c r="AG97">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="AH97">
         <v>749</v>
@@ -12117,7 +12117,7 @@
         <v>291</v>
       </c>
       <c r="C98">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D98">
         <v>5</v>
@@ -12189,13 +12189,13 @@
         <v>33.1</v>
       </c>
       <c r="AA98">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="AB98">
         <v>0.1</v>
       </c>
       <c r="AC98">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="AD98">
         <v>4.2</v>
@@ -12204,10 +12204,10 @@
         <v>4.9</v>
       </c>
       <c r="AF98">
-        <v>19.7</v>
+        <v>34.6</v>
       </c>
       <c r="AG98">
-        <v>0.1</v>
+        <v>-0.1</v>
       </c>
       <c r="AH98">
         <v>1138</v>
@@ -12534,7 +12534,7 @@
         <v>0</v>
       </c>
       <c r="AF101">
-        <v>-13.8</v>
+        <v>-20.8</v>
       </c>
       <c r="AG101">
         <v>1</v>
@@ -12644,7 +12644,7 @@
         <v>2.8</v>
       </c>
       <c r="AF102">
-        <v>-25.1</v>
+        <v>-22.3</v>
       </c>
       <c r="AG102">
         <v>0.8</v>
@@ -12667,7 +12667,7 @@
         <v>296</v>
       </c>
       <c r="C103">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D103">
         <v>9</v>
@@ -12739,13 +12739,13 @@
         <v>18.4</v>
       </c>
       <c r="AA103">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AB103">
         <v>0.6</v>
       </c>
       <c r="AC103">
-        <v>9.300000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AD103">
         <v>10.4</v>
@@ -12754,10 +12754,10 @@
         <v>-7.2</v>
       </c>
       <c r="AF103">
-        <v>-100.7</v>
+        <v>-115.1</v>
       </c>
       <c r="AG103">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="AH103">
         <v>108</v>
@@ -12777,7 +12777,7 @@
         <v>297</v>
       </c>
       <c r="C104">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D104">
         <v>3</v>
@@ -12849,13 +12849,13 @@
         <v>13</v>
       </c>
       <c r="AA104">
-        <v>9.699999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AB104">
         <v>0.1</v>
       </c>
       <c r="AC104">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="AD104">
         <v>2.1</v>
@@ -12867,7 +12867,7 @@
         <v>-7.4</v>
       </c>
       <c r="AG104">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AH104">
         <v>389</v>
@@ -12977,7 +12977,7 @@
         <v>-18.9</v>
       </c>
       <c r="AG105">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="AH105">
         <v>447</v>
@@ -13087,7 +13087,7 @@
         <v>-11.9</v>
       </c>
       <c r="AG106">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="AH106">
         <v>1485</v>
@@ -13197,7 +13197,7 @@
         <v>-22.2</v>
       </c>
       <c r="AG107">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="AH107">
         <v>232</v>
@@ -13217,7 +13217,7 @@
         <v>301</v>
       </c>
       <c r="C108">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="D108">
         <v>0</v>
@@ -13295,7 +13295,7 @@
         <v>0</v>
       </c>
       <c r="AC108">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="AD108">
         <v>0</v>
@@ -13304,10 +13304,10 @@
         <v>0</v>
       </c>
       <c r="AF108">
-        <v>24.2</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="AG108">
-        <v>4.1</v>
+        <v>5.4</v>
       </c>
       <c r="AH108">
         <v>954</v>
@@ -13414,10 +13414,10 @@
         <v>0</v>
       </c>
       <c r="AF109">
-        <v>-38.7</v>
+        <v>-29.8</v>
       </c>
       <c r="AG109">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="AH109">
         <v>902</v>
@@ -13437,7 +13437,7 @@
         <v>303</v>
       </c>
       <c r="C110">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D110">
         <v>1</v>
@@ -13509,13 +13509,13 @@
         <v>0</v>
       </c>
       <c r="AA110">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="AB110">
         <v>0.1</v>
       </c>
       <c r="AC110">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AD110">
         <v>2.1</v>
@@ -13524,7 +13524,7 @@
         <v>5.4</v>
       </c>
       <c r="AF110">
-        <v>-5.4</v>
+        <v>-10.8</v>
       </c>
       <c r="AG110">
         <v>0.6</v>
@@ -13634,10 +13634,10 @@
         <v>0</v>
       </c>
       <c r="AF111">
-        <v>-62.5</v>
+        <v>-61</v>
       </c>
       <c r="AG111">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="AH111">
         <v>810</v>
@@ -13857,7 +13857,7 @@
         <v>15.6</v>
       </c>
       <c r="AG113">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="AH113">
         <v>342</v>
@@ -13877,10 +13877,10 @@
         <v>307</v>
       </c>
       <c r="C114">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D114">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E114">
         <v>45606</v>
@@ -13949,7 +13949,7 @@
         <v>23.6</v>
       </c>
       <c r="AA114">
-        <v>4.8</v>
+        <v>5.3</v>
       </c>
       <c r="AB114">
         <v>0.2</v>
@@ -13958,16 +13958,16 @@
         <v>4.1</v>
       </c>
       <c r="AD114">
-        <v>8.300000000000001</v>
+        <v>10.4</v>
       </c>
       <c r="AE114">
-        <v>4.4</v>
+        <v>6.6</v>
       </c>
       <c r="AF114">
-        <v>-76.7</v>
+        <v>-48.2</v>
       </c>
       <c r="AG114">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AH114">
         <v>790</v>
@@ -14074,7 +14074,7 @@
         <v>-9.300000000000001</v>
       </c>
       <c r="AF115">
-        <v>9.300000000000001</v>
+        <v>-18.6</v>
       </c>
       <c r="AG115">
         <v>0.2</v>
@@ -14097,7 +14097,7 @@
         <v>309</v>
       </c>
       <c r="C116">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="D116">
         <v>28</v>
@@ -14175,7 +14175,7 @@
         <v>0.9</v>
       </c>
       <c r="AC116">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="AD116">
         <v>29.2</v>
@@ -14184,10 +14184,10 @@
         <v>0</v>
       </c>
       <c r="AF116">
-        <v>-26.4</v>
+        <v>-3.3</v>
       </c>
       <c r="AG116">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AH116">
         <v>373</v>
@@ -14207,7 +14207,7 @@
         <v>310</v>
       </c>
       <c r="C117">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D117">
         <v>1</v>
@@ -14294,10 +14294,10 @@
         <v>-1.2</v>
       </c>
       <c r="AF117">
-        <v>2.4</v>
+        <v>7.1</v>
       </c>
       <c r="AG117">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="AH117">
         <v>3342</v>
@@ -14317,7 +14317,7 @@
         <v>311</v>
       </c>
       <c r="C118">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="D118">
         <v>2</v>
@@ -14389,13 +14389,13 @@
         <v>27.1</v>
       </c>
       <c r="AA118">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="AB118">
         <v>0</v>
       </c>
       <c r="AC118">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AD118">
         <v>2.1</v>
@@ -14404,10 +14404,10 @@
         <v>1.5</v>
       </c>
       <c r="AF118">
-        <v>-4.6</v>
+        <v>13.7</v>
       </c>
       <c r="AG118">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="AH118">
         <v>1818</v>
@@ -14514,7 +14514,7 @@
         <v>-4.4</v>
       </c>
       <c r="AF119">
-        <v>-79.8</v>
+        <v>-39.9</v>
       </c>
       <c r="AG119">
         <v>1.2</v>
@@ -14537,7 +14537,7 @@
         <v>313</v>
       </c>
       <c r="C120">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D120">
         <v>18</v>
@@ -14615,7 +14615,7 @@
         <v>0.7</v>
       </c>
       <c r="AC120">
-        <v>8.5</v>
+        <v>8.6</v>
       </c>
       <c r="AD120">
         <v>20.8</v>
@@ -14624,7 +14624,7 @@
         <v>-7.6</v>
       </c>
       <c r="AF120">
-        <v>7.6</v>
+        <v>11.4</v>
       </c>
       <c r="AG120">
         <v>0.1</v>
@@ -14647,7 +14647,7 @@
         <v>314</v>
       </c>
       <c r="C121">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D121">
         <v>4</v>
@@ -14719,13 +14719,13 @@
         <v>14.2</v>
       </c>
       <c r="AA121">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="AB121">
         <v>0</v>
       </c>
       <c r="AC121">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AD121">
         <v>4.2</v>
@@ -14734,7 +14734,7 @@
         <v>2.2</v>
       </c>
       <c r="AF121">
-        <v>3.3</v>
+        <v>1.1</v>
       </c>
       <c r="AG121">
         <v>1.7</v>
@@ -14757,7 +14757,7 @@
         <v>315</v>
       </c>
       <c r="C122">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D122">
         <v>10</v>
@@ -14829,7 +14829,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AA122">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="AB122">
         <v>0.1</v>
@@ -14844,7 +14844,7 @@
         <v>-0.9</v>
       </c>
       <c r="AF122">
-        <v>-3.6</v>
+        <v>-4.5</v>
       </c>
       <c r="AG122">
         <v>0.3</v>
@@ -14867,7 +14867,7 @@
         <v>316</v>
       </c>
       <c r="C123">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D123">
         <v>1</v>
@@ -14977,7 +14977,7 @@
         <v>317</v>
       </c>
       <c r="C124">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="D124">
         <v>4</v>
@@ -15049,13 +15049,13 @@
         <v>6.1</v>
       </c>
       <c r="AA124">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="AB124">
         <v>0.1</v>
       </c>
       <c r="AC124">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AD124">
         <v>2.1</v>
@@ -15064,10 +15064,10 @@
         <v>1.3</v>
       </c>
       <c r="AF124">
-        <v>13</v>
+        <v>33.8</v>
       </c>
       <c r="AG124">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="AH124">
         <v>2184</v>
@@ -15087,7 +15087,7 @@
         <v>318</v>
       </c>
       <c r="C125">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="D125">
         <v>4</v>
@@ -15159,13 +15159,13 @@
         <v>27.9</v>
       </c>
       <c r="AA125">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="AB125">
         <v>0.1</v>
       </c>
       <c r="AC125">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AD125">
         <v>0</v>
@@ -15174,10 +15174,10 @@
         <v>0</v>
       </c>
       <c r="AF125">
-        <v>-20.1</v>
+        <v>-5.7</v>
       </c>
       <c r="AG125">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="AH125">
         <v>1783</v>
@@ -15284,7 +15284,7 @@
         <v>4.4</v>
       </c>
       <c r="AF126">
-        <v>-78.8</v>
+        <v>-91.90000000000001</v>
       </c>
       <c r="AG126">
         <v>0.4</v>
@@ -15394,10 +15394,10 @@
         <v>0</v>
       </c>
       <c r="AF127">
-        <v>9.6</v>
+        <v>-4.8</v>
       </c>
       <c r="AG127">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="AH127">
         <v>1562</v>
@@ -15417,7 +15417,7 @@
         <v>321</v>
       </c>
       <c r="C128">
-        <v>327</v>
+        <v>344</v>
       </c>
       <c r="D128">
         <v>8</v>
@@ -15489,13 +15489,13 @@
         <v>6.6</v>
       </c>
       <c r="AA128">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="AB128">
         <v>0.2</v>
       </c>
       <c r="AC128">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="AD128">
         <v>12.5</v>
@@ -15504,10 +15504,10 @@
         <v>9</v>
       </c>
       <c r="AF128">
-        <v>155.8</v>
+        <v>173.9</v>
       </c>
       <c r="AG128">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="AH128">
         <v>1076</v>
@@ -15527,7 +15527,7 @@
         <v>322</v>
       </c>
       <c r="C129">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D129">
         <v>4</v>
@@ -15614,7 +15614,7 @@
         <v>0.7</v>
       </c>
       <c r="AF129">
-        <v>-14.3</v>
+        <v>-8.800000000000001</v>
       </c>
       <c r="AG129">
         <v>0.6</v>
@@ -15637,7 +15637,7 @@
         <v>323</v>
       </c>
       <c r="C130">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D130">
         <v>13</v>
@@ -15709,13 +15709,13 @@
         <v>44.8</v>
       </c>
       <c r="AA130">
-        <v>8.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AB130">
         <v>0.1</v>
       </c>
       <c r="AC130">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="AD130">
         <v>0</v>
@@ -15724,7 +15724,7 @@
         <v>0</v>
       </c>
       <c r="AF130">
-        <v>12</v>
+        <v>12.8</v>
       </c>
       <c r="AG130">
         <v>0.2</v>
@@ -15747,7 +15747,7 @@
         <v>324</v>
       </c>
       <c r="C131">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D131">
         <v>7</v>
@@ -15819,13 +15819,13 @@
         <v>15.4</v>
       </c>
       <c r="AA131">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="AB131">
         <v>0.2</v>
       </c>
       <c r="AC131">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="AD131">
         <v>8.300000000000001</v>
@@ -15834,10 +15834,10 @@
         <v>4.7</v>
       </c>
       <c r="AF131">
-        <v>34.9</v>
+        <v>32.6</v>
       </c>
       <c r="AG131">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="AH131">
         <v>546</v>
@@ -15857,7 +15857,7 @@
         <v>325</v>
       </c>
       <c r="C132">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D132">
         <v>4</v>
@@ -15929,7 +15929,7 @@
         <v>36</v>
       </c>
       <c r="AA132">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="AB132">
         <v>0</v>
@@ -15944,10 +15944,10 @@
         <v>-0.9</v>
       </c>
       <c r="AF132">
-        <v>-16.6</v>
+        <v>-13.1</v>
       </c>
       <c r="AG132">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AH132">
         <v>2512</v>
@@ -15967,7 +15967,7 @@
         <v>326</v>
       </c>
       <c r="C133">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D133">
         <v>4</v>
@@ -16054,7 +16054,7 @@
         <v>-0.7</v>
       </c>
       <c r="AF133">
-        <v>-7.1</v>
+        <v>-0.7</v>
       </c>
       <c r="AG133">
         <v>0.3</v>
@@ -16077,7 +16077,7 @@
         <v>327</v>
       </c>
       <c r="C134">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D134">
         <v>2</v>
@@ -16149,13 +16149,13 @@
         <v>23.2</v>
       </c>
       <c r="AA134">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="AB134">
         <v>0</v>
       </c>
       <c r="AC134">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AD134">
         <v>2.1</v>
@@ -16164,7 +16164,7 @@
         <v>-1.3</v>
       </c>
       <c r="AF134">
-        <v>-2.7</v>
+        <v>1.3</v>
       </c>
       <c r="AG134">
         <v>0.2</v>
@@ -16187,7 +16187,7 @@
         <v>328</v>
       </c>
       <c r="C135">
-        <v>309</v>
+        <v>331</v>
       </c>
       <c r="D135">
         <v>10</v>
@@ -16259,25 +16259,25 @@
         <v>7.5</v>
       </c>
       <c r="AA135">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="AB135">
         <v>0</v>
       </c>
       <c r="AC135">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AD135">
-        <v>8.300000000000001</v>
+        <v>6.2</v>
       </c>
       <c r="AE135">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AF135">
-        <v>5.5</v>
+        <v>13.6</v>
       </c>
       <c r="AG135">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="AH135">
         <v>5395</v>
@@ -16297,7 +16297,7 @@
         <v>329</v>
       </c>
       <c r="C136">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D136">
         <v>1</v>
@@ -16369,7 +16369,7 @@
         <v>7.5</v>
       </c>
       <c r="AA136">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="AB136">
         <v>0</v>
@@ -16384,10 +16384,10 @@
         <v>2.5</v>
       </c>
       <c r="AF136">
-        <v>15.2</v>
+        <v>7.6</v>
       </c>
       <c r="AG136">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AH136">
         <v>848</v>
@@ -16494,10 +16494,10 @@
         <v>-5.3</v>
       </c>
       <c r="AF137">
-        <v>31.7</v>
+        <v>15.8</v>
       </c>
       <c r="AG137">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="AH137">
         <v>1418</v>
@@ -16517,7 +16517,7 @@
         <v>331</v>
       </c>
       <c r="C138">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D138">
         <v>10</v>
@@ -16604,7 +16604,7 @@
         <v>1.5</v>
       </c>
       <c r="AF138">
-        <v>77.3</v>
+        <v>-57.2</v>
       </c>
       <c r="AG138">
         <v>1</v>
@@ -16627,7 +16627,7 @@
         <v>332</v>
       </c>
       <c r="C139">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="D139">
         <v>8</v>
@@ -16699,7 +16699,7 @@
         <v>19</v>
       </c>
       <c r="AA139">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="AB139">
         <v>0.1</v>
@@ -16708,13 +16708,13 @@
         <v>1.2</v>
       </c>
       <c r="AD139">
-        <v>6.2</v>
+        <v>4.2</v>
       </c>
       <c r="AE139">
-        <v>-0.6</v>
+        <v>0</v>
       </c>
       <c r="AF139">
-        <v>6.4</v>
+        <v>5.8</v>
       </c>
       <c r="AG139">
         <v>-0.1</v>
@@ -16737,7 +16737,7 @@
         <v>333</v>
       </c>
       <c r="C140">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D140">
         <v>14</v>
@@ -16809,13 +16809,13 @@
         <v>14.9</v>
       </c>
       <c r="AA140">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AB140">
         <v>0.1</v>
       </c>
       <c r="AC140">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AD140">
         <v>8.300000000000001</v>
@@ -16847,10 +16847,10 @@
         <v>334</v>
       </c>
       <c r="C141">
-        <v>1531</v>
+        <v>1534</v>
       </c>
       <c r="D141">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E141">
         <v>91049</v>
@@ -16919,7 +16919,7 @@
         <v>70.5</v>
       </c>
       <c r="AA141">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="AB141">
         <v>1.4</v>
@@ -16928,13 +16928,13 @@
         <v>16.8</v>
       </c>
       <c r="AD141">
-        <v>68.8</v>
+        <v>70.8</v>
       </c>
       <c r="AE141">
-        <v>-3.3</v>
+        <v>-2.2</v>
       </c>
       <c r="AF141">
-        <v>-15.4</v>
+        <v>3.3</v>
       </c>
       <c r="AG141">
         <v>-0</v>
@@ -16957,7 +16957,7 @@
         <v>335</v>
       </c>
       <c r="C142">
-        <v>1482</v>
+        <v>1694</v>
       </c>
       <c r="D142">
         <v>22</v>
@@ -17029,13 +17029,13 @@
         <v>23</v>
       </c>
       <c r="AA142">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="AB142">
         <v>0.1</v>
       </c>
       <c r="AC142">
-        <v>7.6</v>
+        <v>8.6</v>
       </c>
       <c r="AD142">
         <v>33.3</v>
@@ -17044,10 +17044,10 @@
         <v>5.1</v>
       </c>
       <c r="AF142">
-        <v>21.9</v>
+        <v>120.9</v>
       </c>
       <c r="AG142">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="AH142">
         <v>4826</v>
@@ -17067,7 +17067,7 @@
         <v>336</v>
       </c>
       <c r="C143">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="D143">
         <v>6</v>
@@ -17145,7 +17145,7 @@
         <v>0.1</v>
       </c>
       <c r="AC143">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AD143">
         <v>0</v>
@@ -17154,10 +17154,10 @@
         <v>0</v>
       </c>
       <c r="AF143">
-        <v>-9</v>
+        <v>-10.1</v>
       </c>
       <c r="AG143">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="AH143">
         <v>2768</v>
@@ -17177,7 +17177,7 @@
         <v>337</v>
       </c>
       <c r="C144">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D144">
         <v>31</v>
@@ -17264,7 +17264,7 @@
         <v>-2.9</v>
       </c>
       <c r="AF144">
-        <v>21.2</v>
+        <v>3.9</v>
       </c>
       <c r="AG144">
         <v>0.1</v>
@@ -17287,7 +17287,7 @@
         <v>338</v>
       </c>
       <c r="C145">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="D145">
         <v>14</v>
@@ -17365,19 +17365,19 @@
         <v>0.1</v>
       </c>
       <c r="AC145">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="AD145">
-        <v>12.5</v>
+        <v>10.4</v>
       </c>
       <c r="AE145">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="AF145">
-        <v>-3.4</v>
+        <v>3.4</v>
       </c>
       <c r="AG145">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="AH145">
         <v>3655</v>
@@ -17397,7 +17397,7 @@
         <v>339</v>
       </c>
       <c r="C146">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="D146">
         <v>11</v>
@@ -17475,7 +17475,7 @@
         <v>0.1</v>
       </c>
       <c r="AC146">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="AD146">
         <v>10.4</v>
@@ -17484,7 +17484,7 @@
         <v>0.7</v>
       </c>
       <c r="AF146">
-        <v>-0.7</v>
+        <v>8.5</v>
       </c>
       <c r="AG146">
         <v>0.3</v>
@@ -17507,7 +17507,7 @@
         <v>340</v>
       </c>
       <c r="C147">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="D147">
         <v>7</v>
@@ -17579,7 +17579,7 @@
         <v>7.4</v>
       </c>
       <c r="AA147">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AB147">
         <v>0.1</v>
@@ -17594,10 +17594,10 @@
         <v>-1.9</v>
       </c>
       <c r="AF147">
-        <v>4.7</v>
+        <v>-5.6</v>
       </c>
       <c r="AG147">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="AH147">
         <v>3326</v>
@@ -17617,7 +17617,7 @@
         <v>341</v>
       </c>
       <c r="C148">
-        <v>474</v>
+        <v>482</v>
       </c>
       <c r="D148">
         <v>13</v>
@@ -17704,10 +17704,10 @@
         <v>0.4</v>
       </c>
       <c r="AF148">
-        <v>5.8</v>
+        <v>12.8</v>
       </c>
       <c r="AG148">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="AH148">
         <v>9092</v>
@@ -17727,10 +17727,10 @@
         <v>342</v>
       </c>
       <c r="C149">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="D149">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E149">
         <v>153490</v>
@@ -17799,22 +17799,22 @@
         <v>56.9</v>
       </c>
       <c r="AA149">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="AB149">
         <v>0.1</v>
       </c>
       <c r="AC149">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AD149">
-        <v>18.8</v>
+        <v>20.8</v>
       </c>
       <c r="AE149">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="AF149">
-        <v>9.800000000000001</v>
+        <v>11.7</v>
       </c>
       <c r="AG149">
         <v>0.7</v>
@@ -17837,7 +17837,7 @@
         <v>343</v>
       </c>
       <c r="C150">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="D150">
         <v>7</v>
@@ -17924,7 +17924,7 @@
         <v>1.5</v>
       </c>
       <c r="AF150">
-        <v>4.1</v>
+        <v>-1</v>
       </c>
       <c r="AG150">
         <v>0.4</v>
@@ -18034,7 +18034,7 @@
         <v>-1</v>
       </c>
       <c r="AF151">
-        <v>4.1</v>
+        <v>1</v>
       </c>
       <c r="AG151">
         <v>-0.1</v>
@@ -18057,7 +18057,7 @@
         <v>345</v>
       </c>
       <c r="C152">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="D152">
         <v>4</v>
@@ -18129,7 +18129,7 @@
         <v>20.2</v>
       </c>
       <c r="AA152">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="AB152">
         <v>0</v>
@@ -18144,10 +18144,10 @@
         <v>-1</v>
       </c>
       <c r="AF152">
-        <v>27</v>
+        <v>33.7</v>
       </c>
       <c r="AG152">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AH152">
         <v>2661</v>
@@ -18167,7 +18167,7 @@
         <v>346</v>
       </c>
       <c r="C153">
-        <v>492</v>
+        <v>512</v>
       </c>
       <c r="D153">
         <v>13</v>
@@ -18239,13 +18239,13 @@
         <v>10.9</v>
       </c>
       <c r="AA153">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="AB153">
         <v>0.1</v>
       </c>
       <c r="AC153">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="AD153">
         <v>12.5</v>
@@ -18254,7 +18254,7 @@
         <v>0</v>
       </c>
       <c r="AF153">
-        <v>1.8</v>
+        <v>-2.3</v>
       </c>
       <c r="AG153">
         <v>0.4</v>
@@ -18364,7 +18364,7 @@
         <v>0.7</v>
       </c>
       <c r="AF154">
-        <v>-2.1</v>
+        <v>-1.4</v>
       </c>
       <c r="AG154">
         <v>0.1</v>
@@ -18387,10 +18387,10 @@
         <v>348</v>
       </c>
       <c r="C155">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="D155">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E155">
         <v>201463</v>
@@ -18459,22 +18459,22 @@
         <v>99</v>
       </c>
       <c r="AA155">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="AB155">
         <v>0.1</v>
       </c>
       <c r="AC155">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AD155">
-        <v>10.4</v>
+        <v>12.5</v>
       </c>
       <c r="AE155">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="AF155">
-        <v>-23.8</v>
+        <v>-16.4</v>
       </c>
       <c r="AG155">
         <v>0.4</v>
@@ -18497,7 +18497,7 @@
         <v>349</v>
       </c>
       <c r="C156">
-        <v>733</v>
+        <v>777</v>
       </c>
       <c r="D156">
         <v>33</v>
@@ -18569,25 +18569,25 @@
         <v>22.9</v>
       </c>
       <c r="AA156">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="AB156">
         <v>0.1</v>
       </c>
       <c r="AC156">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="AD156">
-        <v>35.4</v>
+        <v>33.3</v>
       </c>
       <c r="AE156">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="AF156">
-        <v>-9.300000000000001</v>
+        <v>0</v>
       </c>
       <c r="AG156">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AH156">
         <v>10024</v>
@@ -18607,7 +18607,7 @@
         <v>350</v>
       </c>
       <c r="C157">
-        <v>1679</v>
+        <v>1749</v>
       </c>
       <c r="D157">
         <v>96</v>
@@ -18679,7 +18679,7 @@
         <v>15</v>
       </c>
       <c r="AA157">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="AB157">
         <v>0.1</v>
@@ -18691,10 +18691,10 @@
         <v>93.8</v>
       </c>
       <c r="AE157">
-        <v>0.4</v>
+        <v>-0.1</v>
       </c>
       <c r="AF157">
-        <v>3.8</v>
+        <v>8.5</v>
       </c>
       <c r="AG157">
         <v>0.4</v>
@@ -18717,7 +18717,7 @@
         <v>351</v>
       </c>
       <c r="C158">
-        <v>1848</v>
+        <v>1934</v>
       </c>
       <c r="D158">
         <v>58</v>
@@ -18789,13 +18789,13 @@
         <v>11.1</v>
       </c>
       <c r="AA158">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="AB158">
         <v>0.1</v>
       </c>
       <c r="AC158">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AD158">
         <v>45.8</v>
@@ -18804,7 +18804,7 @@
         <v>0.2</v>
       </c>
       <c r="AF158">
-        <v>13.4</v>
+        <v>8.1</v>
       </c>
       <c r="AG158">
         <v>0.8</v>
@@ -18827,10 +18827,10 @@
         <v>352</v>
       </c>
       <c r="C159">
-        <v>2073</v>
+        <v>2148</v>
       </c>
       <c r="D159">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E159">
         <v>743187</v>
@@ -18905,16 +18905,16 @@
         <v>0.1</v>
       </c>
       <c r="AC159">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="AD159">
-        <v>54.2</v>
+        <v>58.3</v>
       </c>
       <c r="AE159">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AF159">
-        <v>-0.4</v>
+        <v>-2.7</v>
       </c>
       <c r="AG159">
         <v>0.3</v>
@@ -18937,7 +18937,7 @@
         <v>353</v>
       </c>
       <c r="C160">
-        <v>2880</v>
+        <v>2928</v>
       </c>
       <c r="D160">
         <v>122</v>
@@ -19015,7 +19015,7 @@
         <v>0.1</v>
       </c>
       <c r="AC160">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="AD160">
         <v>100</v>
@@ -19024,7 +19024,7 @@
         <v>1.4</v>
       </c>
       <c r="AF160">
-        <v>-8.1</v>
+        <v>-9.1</v>
       </c>
       <c r="AG160">
         <v>0.3</v>

--- a/data/countyData.xlsx
+++ b/data/countyData.xlsx
@@ -1647,7 +1647,7 @@
         <v>-25</v>
       </c>
       <c r="AG2">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AH2">
         <v>28</v>
@@ -1667,7 +1667,7 @@
         <v>196</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -1739,13 +1739,13 @@
         <v>0</v>
       </c>
       <c r="AA3">
-        <v>20</v>
+        <v>16.7</v>
       </c>
       <c r="AB3">
         <v>0.4</v>
       </c>
       <c r="AC3">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="AD3">
         <v>0</v>
@@ -1754,10 +1754,10 @@
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>87.90000000000001</v>
+        <v>43.9</v>
       </c>
       <c r="AG3">
-        <v>1.3</v>
+        <v>3.1</v>
       </c>
       <c r="AH3">
         <v>9</v>
@@ -1968,16 +1968,16 @@
         <v>3.8</v>
       </c>
       <c r="AD5">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="AE5">
-        <v>76.5</v>
+        <v>-76.5</v>
       </c>
       <c r="AF5">
-        <v>38.3</v>
+        <v>-153.1</v>
       </c>
       <c r="AG5">
-        <v>1.9</v>
+        <v>0.7</v>
       </c>
       <c r="AH5">
         <v>15</v>
@@ -1997,7 +1997,7 @@
         <v>199</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -2075,7 +2075,7 @@
         <v>0</v>
       </c>
       <c r="AC6">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AD6">
         <v>0</v>
@@ -2107,7 +2107,7 @@
         <v>200</v>
       </c>
       <c r="C7">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -2179,13 +2179,13 @@
         <v>0</v>
       </c>
       <c r="AA7">
-        <v>8.699999999999999</v>
+        <v>7.7</v>
       </c>
       <c r="AB7">
         <v>0.6</v>
       </c>
       <c r="AC7">
-        <v>7.2</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD7">
         <v>0</v>
@@ -2194,10 +2194,10 @@
         <v>0</v>
       </c>
       <c r="AF7">
-        <v>31.4</v>
+        <v>62.7</v>
       </c>
       <c r="AG7">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AH7">
         <v>39</v>
@@ -2217,7 +2217,7 @@
         <v>201</v>
       </c>
       <c r="C8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -2289,13 +2289,13 @@
         <v>34.8</v>
       </c>
       <c r="AA8">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="AB8">
         <v>0.2</v>
       </c>
       <c r="AC8">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="AD8">
         <v>0</v>
@@ -2304,10 +2304,10 @@
         <v>0</v>
       </c>
       <c r="AF8">
-        <v>-47.4</v>
+        <v>-23.7</v>
       </c>
       <c r="AG8">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="AH8">
         <v>109</v>
@@ -2414,10 +2414,10 @@
         <v>0</v>
       </c>
       <c r="AF9">
-        <v>-24.7</v>
+        <v>-12.3</v>
       </c>
       <c r="AG9">
-        <v>1.9</v>
+        <v>0.3</v>
       </c>
       <c r="AH9">
         <v>181</v>
@@ -2437,7 +2437,7 @@
         <v>203</v>
       </c>
       <c r="C10">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -2515,7 +2515,7 @@
         <v>0</v>
       </c>
       <c r="AC10">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="AD10">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>-51.4</v>
       </c>
       <c r="AG10">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AH10">
         <v>72</v>
@@ -2634,7 +2634,7 @@
         <v>0</v>
       </c>
       <c r="AF11">
-        <v>-19.2</v>
+        <v>0</v>
       </c>
       <c r="AG11">
         <v>0</v>
@@ -2767,7 +2767,7 @@
         <v>206</v>
       </c>
       <c r="C13">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -2845,7 +2845,7 @@
         <v>0</v>
       </c>
       <c r="AC13">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="AD13">
         <v>0</v>
@@ -2857,7 +2857,7 @@
         <v>15.4</v>
       </c>
       <c r="AG13">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="AH13">
         <v>93</v>
@@ -2877,7 +2877,7 @@
         <v>207</v>
       </c>
       <c r="C14">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -2955,7 +2955,7 @@
         <v>0</v>
       </c>
       <c r="AC14">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="AD14">
         <v>0</v>
@@ -2967,7 +2967,7 @@
         <v>18.6</v>
       </c>
       <c r="AG14">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="AH14">
         <v>21</v>
@@ -3068,16 +3068,16 @@
         <v>1.8</v>
       </c>
       <c r="AD15">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AE15">
         <v>8.800000000000001</v>
       </c>
       <c r="AF15">
-        <v>-70.09999999999999</v>
+        <v>-43.8</v>
       </c>
       <c r="AG15">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="AH15">
         <v>302</v>
@@ -3097,7 +3097,7 @@
         <v>209</v>
       </c>
       <c r="C16">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -3169,13 +3169,13 @@
         <v>19</v>
       </c>
       <c r="AA16">
-        <v>11.1</v>
+        <v>10</v>
       </c>
       <c r="AB16">
         <v>0.1</v>
       </c>
       <c r="AC16">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AD16">
         <v>0</v>
@@ -3184,10 +3184,10 @@
         <v>0</v>
       </c>
       <c r="AF16">
-        <v>-9.6</v>
+        <v>9.6</v>
       </c>
       <c r="AG16">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="AH16">
         <v>99</v>
@@ -3288,7 +3288,7 @@
         <v>8.300000000000001</v>
       </c>
       <c r="AD17">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AE17">
         <v>33.3</v>
@@ -3317,7 +3317,7 @@
         <v>211</v>
       </c>
       <c r="C18">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="D18">
         <v>2</v>
@@ -3389,25 +3389,25 @@
         <v>0</v>
       </c>
       <c r="AA18">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="AB18">
         <v>0.2</v>
       </c>
       <c r="AC18">
-        <v>6.8</v>
+        <v>7.5</v>
       </c>
       <c r="AD18">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="AE18">
         <v>23.4</v>
       </c>
       <c r="AF18">
-        <v>363.2</v>
+        <v>281.2</v>
       </c>
       <c r="AG18">
-        <v>9.699999999999999</v>
+        <v>7.6</v>
       </c>
       <c r="AH18">
         <v>102</v>
@@ -3508,7 +3508,7 @@
         <v>3.4</v>
       </c>
       <c r="AD19">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AE19">
         <v>-6.8</v>
@@ -3517,7 +3517,7 @@
         <v>-81.2</v>
       </c>
       <c r="AG19">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AH19">
         <v>242</v>
@@ -3624,7 +3624,7 @@
         <v>0</v>
       </c>
       <c r="AF20">
-        <v>25.2</v>
+        <v>0</v>
       </c>
       <c r="AG20">
         <v>1.3</v>
@@ -3647,10 +3647,10 @@
         <v>214</v>
       </c>
       <c r="C21">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="D21">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E21">
         <v>10348</v>
@@ -3719,22 +3719,22 @@
         <v>13</v>
       </c>
       <c r="AA21">
-        <v>9.300000000000001</v>
+        <v>10.9</v>
       </c>
       <c r="AB21">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="AC21">
-        <v>20.7</v>
+        <v>21.4</v>
       </c>
       <c r="AD21">
-        <v>25</v>
+        <v>28.6</v>
       </c>
       <c r="AE21">
-        <v>-19.3</v>
+        <v>38.7</v>
       </c>
       <c r="AF21">
-        <v>-87</v>
+        <v>-96.59999999999999</v>
       </c>
       <c r="AG21">
         <v>0.2</v>
@@ -3847,7 +3847,7 @@
         <v>99.3</v>
       </c>
       <c r="AG22">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="AH22">
         <v>59</v>
@@ -3867,7 +3867,7 @@
         <v>216</v>
       </c>
       <c r="C23">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D23">
         <v>2</v>
@@ -3939,7 +3939,7 @@
         <v>0</v>
       </c>
       <c r="AA23">
-        <v>8.699999999999999</v>
+        <v>9.1</v>
       </c>
       <c r="AB23">
         <v>0.1</v>
@@ -3954,10 +3954,10 @@
         <v>0</v>
       </c>
       <c r="AF23">
-        <v>-5.4</v>
+        <v>0</v>
       </c>
       <c r="AG23">
-        <v>-0.2</v>
+        <v>-0.3</v>
       </c>
       <c r="AH23">
         <v>312</v>
@@ -4067,7 +4067,7 @@
         <v>12.8</v>
       </c>
       <c r="AG24">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AH24">
         <v>146</v>
@@ -4090,7 +4090,7 @@
         <v>90</v>
       </c>
       <c r="D25">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25">
         <v>8846</v>
@@ -4159,22 +4159,22 @@
         <v>0</v>
       </c>
       <c r="AA25">
-        <v>10</v>
+        <v>11.1</v>
       </c>
       <c r="AB25">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AC25">
         <v>10.2</v>
       </c>
       <c r="AD25">
-        <v>14.6</v>
+        <v>12.2</v>
       </c>
       <c r="AE25">
-        <v>-11.3</v>
+        <v>0</v>
       </c>
       <c r="AF25">
-        <v>-45.2</v>
+        <v>-113</v>
       </c>
       <c r="AG25">
         <v>1.7</v>
@@ -4197,7 +4197,7 @@
         <v>219</v>
       </c>
       <c r="C26">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D26">
         <v>3</v>
@@ -4269,22 +4269,22 @@
         <v>0</v>
       </c>
       <c r="AA26">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="AB26">
         <v>0.2</v>
       </c>
       <c r="AC26">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="AD26">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AE26">
         <v>5.2</v>
       </c>
       <c r="AF26">
-        <v>-5.2</v>
+        <v>-20.9</v>
       </c>
       <c r="AG26">
         <v>-0.1</v>
@@ -4394,10 +4394,10 @@
         <v>0</v>
       </c>
       <c r="AF27">
-        <v>-70.8</v>
+        <v>-30.4</v>
       </c>
       <c r="AG27">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AH27">
         <v>94</v>
@@ -4417,7 +4417,7 @@
         <v>221</v>
       </c>
       <c r="C28">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -4489,13 +4489,13 @@
         <v>27.6</v>
       </c>
       <c r="AA28">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="AB28">
         <v>0.1</v>
       </c>
       <c r="AC28">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="AD28">
         <v>0</v>
@@ -4504,7 +4504,7 @@
         <v>0</v>
       </c>
       <c r="AF28">
-        <v>17.8</v>
+        <v>26.7</v>
       </c>
       <c r="AG28">
         <v>-0.1</v>
@@ -4527,7 +4527,7 @@
         <v>222</v>
       </c>
       <c r="C29">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -4599,13 +4599,13 @@
         <v>0</v>
       </c>
       <c r="AA29">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="AB29">
         <v>0.1</v>
       </c>
       <c r="AC29">
-        <v>5</v>
+        <v>4.6</v>
       </c>
       <c r="AD29">
         <v>0</v>
@@ -4614,10 +4614,10 @@
         <v>0</v>
       </c>
       <c r="AF29">
-        <v>-94.3</v>
+        <v>-141.4</v>
       </c>
       <c r="AG29">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="AH29">
         <v>88</v>
@@ -4637,10 +4637,10 @@
         <v>223</v>
       </c>
       <c r="C30">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D30">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E30">
         <v>24926</v>
@@ -4709,25 +4709,25 @@
         <v>14</v>
       </c>
       <c r="AA30">
-        <v>6.2</v>
+        <v>4.8</v>
       </c>
       <c r="AB30">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="AC30">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="AD30">
-        <v>6.2</v>
+        <v>4.1</v>
       </c>
       <c r="AE30">
-        <v>-4</v>
+        <v>-8</v>
       </c>
       <c r="AF30">
-        <v>-20.1</v>
+        <v>-44.1</v>
       </c>
       <c r="AG30">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="AH30">
         <v>311</v>
@@ -4747,7 +4747,7 @@
         <v>224</v>
       </c>
       <c r="C31">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D31">
         <v>1</v>
@@ -4819,25 +4819,25 @@
         <v>19.7</v>
       </c>
       <c r="AA31">
-        <v>6.2</v>
+        <v>5.6</v>
       </c>
       <c r="AB31">
         <v>0.1</v>
       </c>
       <c r="AC31">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="AD31">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AE31">
         <v>-10.8</v>
       </c>
       <c r="AF31">
-        <v>10.8</v>
+        <v>32.4</v>
       </c>
       <c r="AG31">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AH31">
         <v>71</v>
@@ -4857,7 +4857,7 @@
         <v>225</v>
       </c>
       <c r="C32">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D32">
         <v>4</v>
@@ -4929,25 +4929,25 @@
         <v>26.8</v>
       </c>
       <c r="AA32">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="AB32">
         <v>0.6</v>
       </c>
       <c r="AC32">
-        <v>16</v>
+        <v>16.6</v>
       </c>
       <c r="AD32">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="AE32">
         <v>0</v>
       </c>
       <c r="AF32">
-        <v>-155.6</v>
+        <v>-93.3</v>
       </c>
       <c r="AG32">
-        <v>0.1</v>
+        <v>-0.6</v>
       </c>
       <c r="AH32">
         <v>114</v>
@@ -4967,7 +4967,7 @@
         <v>226</v>
       </c>
       <c r="C33">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -5039,13 +5039,13 @@
         <v>0</v>
       </c>
       <c r="AA33">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="AB33">
         <v>0.2</v>
       </c>
       <c r="AC33">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="AD33">
         <v>0</v>
@@ -5054,10 +5054,10 @@
         <v>0</v>
       </c>
       <c r="AF33">
-        <v>0</v>
+        <v>31.4</v>
       </c>
       <c r="AG33">
-        <v>0.3</v>
+        <v>-0.4</v>
       </c>
       <c r="AH33">
         <v>102</v>
@@ -5164,7 +5164,7 @@
         <v>0</v>
       </c>
       <c r="AF34">
-        <v>-18.5</v>
+        <v>0</v>
       </c>
       <c r="AG34">
         <v>0</v>
@@ -5187,7 +5187,7 @@
         <v>228</v>
       </c>
       <c r="C35">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D35">
         <v>2</v>
@@ -5259,25 +5259,25 @@
         <v>0</v>
       </c>
       <c r="AA35">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="AB35">
         <v>0.2</v>
       </c>
       <c r="AC35">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="AD35">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="AE35">
-        <v>-11</v>
+        <v>0</v>
       </c>
       <c r="AF35">
-        <v>-55.1</v>
+        <v>-66.09999999999999</v>
       </c>
       <c r="AG35">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AH35">
         <v>127</v>
@@ -5384,10 +5384,10 @@
         <v>0</v>
       </c>
       <c r="AF36">
-        <v>0</v>
+        <v>14.8</v>
       </c>
       <c r="AG36">
-        <v>6</v>
+        <v>1.2</v>
       </c>
       <c r="AH36">
         <v>72</v>
@@ -5517,7 +5517,7 @@
         <v>231</v>
       </c>
       <c r="C38">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D38">
         <v>19</v>
@@ -5589,22 +5589,22 @@
         <v>16.7</v>
       </c>
       <c r="AA38">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="AB38">
         <v>2.7</v>
       </c>
       <c r="AC38">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="AD38">
-        <v>12.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AE38">
-        <v>-84.7</v>
+        <v>-56.4</v>
       </c>
       <c r="AF38">
-        <v>-28.2</v>
+        <v>-42.3</v>
       </c>
       <c r="AG38">
         <v>0.1</v>
@@ -5714,10 +5714,10 @@
         <v>0</v>
       </c>
       <c r="AF39">
-        <v>-48.8</v>
+        <v>-36.6</v>
       </c>
       <c r="AG39">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AH39">
         <v>97</v>
@@ -5824,10 +5824,10 @@
         <v>0</v>
       </c>
       <c r="AF40">
-        <v>-9.300000000000001</v>
+        <v>0</v>
       </c>
       <c r="AG40">
-        <v>3.5</v>
+        <v>0.4</v>
       </c>
       <c r="AH40">
         <v>115</v>
@@ -5850,7 +5850,7 @@
         <v>69</v>
       </c>
       <c r="D41">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E41">
         <v>7962</v>
@@ -5919,22 +5919,22 @@
         <v>0</v>
       </c>
       <c r="AA41">
-        <v>11.6</v>
+        <v>14.5</v>
       </c>
       <c r="AB41">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="AC41">
         <v>8.699999999999999</v>
       </c>
       <c r="AD41">
-        <v>12.5</v>
+        <v>12.2</v>
       </c>
       <c r="AE41">
         <v>-25.1</v>
       </c>
       <c r="AF41">
-        <v>-50.2</v>
+        <v>-12.6</v>
       </c>
       <c r="AG41">
         <v>0</v>
@@ -5957,7 +5957,7 @@
         <v>235</v>
       </c>
       <c r="C42">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D42">
         <v>2</v>
@@ -6029,22 +6029,22 @@
         <v>0</v>
       </c>
       <c r="AA42">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="AB42">
         <v>0.2</v>
       </c>
       <c r="AC42">
-        <v>6.1</v>
+        <v>6.5</v>
       </c>
       <c r="AD42">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AE42">
         <v>-10.3</v>
       </c>
       <c r="AF42">
-        <v>205.5</v>
+        <v>195.3</v>
       </c>
       <c r="AG42">
         <v>-0.5</v>
@@ -6067,7 +6067,7 @@
         <v>236</v>
       </c>
       <c r="C43">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D43">
         <v>5</v>
@@ -6139,25 +6139,25 @@
         <v>5.1</v>
       </c>
       <c r="AA43">
-        <v>11.9</v>
+        <v>10.9</v>
       </c>
       <c r="AB43">
         <v>0.2</v>
       </c>
       <c r="AC43">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AD43">
-        <v>8.300000000000001</v>
+        <v>6.1</v>
       </c>
       <c r="AE43">
-        <v>0</v>
+        <v>-14</v>
       </c>
       <c r="AF43">
-        <v>-4.7</v>
+        <v>-14</v>
       </c>
       <c r="AG43">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="AH43">
         <v>667</v>
@@ -6264,10 +6264,10 @@
         <v>0</v>
       </c>
       <c r="AF44">
-        <v>24.3</v>
+        <v>32.4</v>
       </c>
       <c r="AG44">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="AH44">
         <v>199</v>
@@ -6397,7 +6397,7 @@
         <v>239</v>
       </c>
       <c r="C46">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D46">
         <v>1</v>
@@ -6469,7 +6469,7 @@
         <v>26.6</v>
       </c>
       <c r="AA46">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="AB46">
         <v>0</v>
@@ -6478,16 +6478,16 @@
         <v>1.4</v>
       </c>
       <c r="AD46">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AE46">
+        <v>-4.8</v>
+      </c>
+      <c r="AF46">
         <v>4.8</v>
       </c>
-      <c r="AF46">
-        <v>9.6</v>
-      </c>
       <c r="AG46">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AH46">
         <v>149</v>
@@ -6507,7 +6507,7 @@
         <v>240</v>
       </c>
       <c r="C47">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -6585,7 +6585,7 @@
         <v>0</v>
       </c>
       <c r="AC47">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="AD47">
         <v>0</v>
@@ -6594,10 +6594,10 @@
         <v>0</v>
       </c>
       <c r="AF47">
-        <v>16.2</v>
+        <v>5.4</v>
       </c>
       <c r="AG47">
-        <v>-0.3</v>
+        <v>-0.4</v>
       </c>
       <c r="AH47">
         <v>893</v>
@@ -6617,7 +6617,7 @@
         <v>241</v>
       </c>
       <c r="C48">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -6695,7 +6695,7 @@
         <v>0</v>
       </c>
       <c r="AC48">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AD48">
         <v>0</v>
@@ -6707,7 +6707,7 @@
         <v>16.5</v>
       </c>
       <c r="AG48">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AH48">
         <v>572</v>
@@ -6730,7 +6730,7 @@
         <v>13</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E49">
         <v>16457</v>
@@ -6799,25 +6799,25 @@
         <v>5.6</v>
       </c>
       <c r="AA49">
-        <v>0</v>
+        <v>7.7</v>
       </c>
       <c r="AB49">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AC49">
         <v>0.8</v>
       </c>
       <c r="AD49">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE49">
-        <v>0</v>
+        <v>6.1</v>
       </c>
       <c r="AF49">
-        <v>12.2</v>
+        <v>6.1</v>
       </c>
       <c r="AG49">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="AH49">
         <v>634</v>
@@ -7144,7 +7144,7 @@
         <v>0</v>
       </c>
       <c r="AF52">
-        <v>7.9</v>
+        <v>0</v>
       </c>
       <c r="AG52">
         <v>1.5</v>
@@ -7364,7 +7364,7 @@
         <v>0</v>
       </c>
       <c r="AF54">
-        <v>5.5</v>
+        <v>-5.5</v>
       </c>
       <c r="AG54">
         <v>1.7</v>
@@ -7387,7 +7387,7 @@
         <v>248</v>
       </c>
       <c r="C55">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -7465,7 +7465,7 @@
         <v>0</v>
       </c>
       <c r="AC55">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="AD55">
         <v>0</v>
@@ -7474,10 +7474,10 @@
         <v>0</v>
       </c>
       <c r="AF55">
-        <v>-29.1</v>
+        <v>-23.3</v>
       </c>
       <c r="AG55">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="AH55">
         <v>163</v>
@@ -7497,7 +7497,7 @@
         <v>249</v>
       </c>
       <c r="C56">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -7575,7 +7575,7 @@
         <v>0</v>
       </c>
       <c r="AC56">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="AD56">
         <v>0</v>
@@ -7587,7 +7587,7 @@
         <v>54</v>
       </c>
       <c r="AG56">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="AH56">
         <v>355</v>
@@ -7607,7 +7607,7 @@
         <v>250</v>
       </c>
       <c r="C57">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D57">
         <v>1</v>
@@ -7679,13 +7679,13 @@
         <v>22.5</v>
       </c>
       <c r="AA57">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="AB57">
         <v>0.1</v>
       </c>
       <c r="AC57">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AD57">
         <v>0</v>
@@ -7694,10 +7694,10 @@
         <v>0</v>
       </c>
       <c r="AF57">
-        <v>29.1</v>
+        <v>40.7</v>
       </c>
       <c r="AG57">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AH57">
         <v>354</v>
@@ -7717,7 +7717,7 @@
         <v>251</v>
       </c>
       <c r="C58">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D58">
         <v>1</v>
@@ -7789,13 +7789,13 @@
         <v>16.8</v>
       </c>
       <c r="AA58">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="AB58">
         <v>0.1</v>
       </c>
       <c r="AC58">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="AD58">
         <v>0</v>
@@ -7804,7 +7804,7 @@
         <v>0</v>
       </c>
       <c r="AF58">
-        <v>-45.3</v>
+        <v>-22.7</v>
       </c>
       <c r="AG58">
         <v>0.3</v>
@@ -7827,7 +7827,7 @@
         <v>252</v>
       </c>
       <c r="C59">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D59">
         <v>1</v>
@@ -7899,25 +7899,25 @@
         <v>10.9</v>
       </c>
       <c r="AA59">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="AB59">
         <v>0.1</v>
       </c>
       <c r="AC59">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="AD59">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="AE59">
-        <v>-6.7</v>
+        <v>0</v>
       </c>
       <c r="AF59">
-        <v>20</v>
+        <v>6.7</v>
       </c>
       <c r="AG59">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="AH59">
         <v>111</v>
@@ -8018,16 +8018,16 @@
         <v>2.2</v>
       </c>
       <c r="AD60">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="AE60">
-        <v>-5.5</v>
+        <v>0</v>
       </c>
       <c r="AF60">
-        <v>-33.2</v>
+        <v>-16.6</v>
       </c>
       <c r="AG60">
-        <v>-0</v>
+        <v>-0.1</v>
       </c>
       <c r="AH60">
         <v>351</v>
@@ -8047,7 +8047,7 @@
         <v>254</v>
       </c>
       <c r="C61">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D61">
         <v>1</v>
@@ -8119,25 +8119,25 @@
         <v>62.1</v>
       </c>
       <c r="AA61">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="AB61">
         <v>0</v>
       </c>
       <c r="AC61">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AD61">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AE61">
         <v>4.4</v>
       </c>
       <c r="AF61">
-        <v>-17.8</v>
+        <v>0</v>
       </c>
       <c r="AG61">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="AH61">
         <v>498</v>
@@ -8157,7 +8157,7 @@
         <v>255</v>
       </c>
       <c r="C62">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -8235,7 +8235,7 @@
         <v>0</v>
       </c>
       <c r="AC62">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="AD62">
         <v>0</v>
@@ -8244,10 +8244,10 @@
         <v>0</v>
       </c>
       <c r="AF62">
-        <v>-14.5</v>
+        <v>14.5</v>
       </c>
       <c r="AG62">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="AH62">
         <v>300</v>
@@ -8267,10 +8267,10 @@
         <v>256</v>
       </c>
       <c r="C63">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E63">
         <v>20461</v>
@@ -8339,25 +8339,25 @@
         <v>33.9</v>
       </c>
       <c r="AA63">
-        <v>4.5</v>
+        <v>2.3</v>
       </c>
       <c r="AB63">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AC63">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AD63">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="AE63">
-        <v>4.9</v>
+        <v>0</v>
       </c>
       <c r="AF63">
-        <v>4.9</v>
+        <v>-29.3</v>
       </c>
       <c r="AG63">
-        <v>0.4</v>
+        <v>-0</v>
       </c>
       <c r="AH63">
         <v>203</v>
@@ -8467,7 +8467,7 @@
         <v>-14.3</v>
       </c>
       <c r="AG64">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="AH64">
         <v>207</v>
@@ -8574,10 +8574,10 @@
         <v>0</v>
       </c>
       <c r="AF65">
-        <v>-49.6</v>
+        <v>-43.4</v>
       </c>
       <c r="AG65">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="AH65">
         <v>87</v>
@@ -8597,7 +8597,7 @@
         <v>259</v>
       </c>
       <c r="C66">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -8684,10 +8684,10 @@
         <v>0</v>
       </c>
       <c r="AF66">
-        <v>54.8</v>
+        <v>62.6</v>
       </c>
       <c r="AG66">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="AH66">
         <v>185</v>
@@ -8707,7 +8707,7 @@
         <v>260</v>
       </c>
       <c r="C67">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D67">
         <v>2</v>
@@ -8779,7 +8779,7 @@
         <v>7.4</v>
       </c>
       <c r="AA67">
-        <v>12.5</v>
+        <v>13.3</v>
       </c>
       <c r="AB67">
         <v>0.1</v>
@@ -8788,16 +8788,16 @@
         <v>0.6</v>
       </c>
       <c r="AD67">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AE67">
         <v>4</v>
       </c>
       <c r="AF67">
-        <v>-4</v>
+        <v>-16.1</v>
       </c>
       <c r="AG67">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="AH67">
         <v>68</v>
@@ -8817,10 +8817,10 @@
         <v>261</v>
       </c>
       <c r="C68">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D68">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E68">
         <v>15622</v>
@@ -8889,25 +8889,25 @@
         <v>8.4</v>
       </c>
       <c r="AA68">
-        <v>10.2</v>
+        <v>11.5</v>
       </c>
       <c r="AB68">
         <v>0.4</v>
       </c>
       <c r="AC68">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="AD68">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AE68">
-        <v>-6.4</v>
+        <v>6.4</v>
       </c>
       <c r="AF68">
-        <v>25.6</v>
+        <v>-128</v>
       </c>
       <c r="AG68">
-        <v>2.8</v>
+        <v>1</v>
       </c>
       <c r="AH68">
         <v>179</v>
@@ -8927,10 +8927,10 @@
         <v>262</v>
       </c>
       <c r="C69">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D69">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E69">
         <v>8859</v>
@@ -8999,22 +8999,22 @@
         <v>0</v>
       </c>
       <c r="AA69">
-        <v>10.3</v>
+        <v>11.1</v>
       </c>
       <c r="AB69">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="AC69">
-        <v>20.9</v>
+        <v>21.3</v>
       </c>
       <c r="AD69">
-        <v>10.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AE69">
-        <v>-11.3</v>
+        <v>22.6</v>
       </c>
       <c r="AF69">
-        <v>11.3</v>
+        <v>56.4</v>
       </c>
       <c r="AG69">
         <v>-0.1</v>
@@ -9037,7 +9037,7 @@
         <v>263</v>
       </c>
       <c r="C70">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D70">
         <v>1</v>
@@ -9109,13 +9109,13 @@
         <v>22.9</v>
       </c>
       <c r="AA70">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="AB70">
         <v>0.1</v>
       </c>
       <c r="AC70">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="AD70">
         <v>0</v>
@@ -9124,10 +9124,10 @@
         <v>0</v>
       </c>
       <c r="AF70">
-        <v>62</v>
+        <v>17.7</v>
       </c>
       <c r="AG70">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="AH70">
         <v>87</v>
@@ -9234,10 +9234,10 @@
         <v>0</v>
       </c>
       <c r="AF71">
-        <v>-57.1</v>
+        <v>-79</v>
       </c>
       <c r="AG71">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="AH71">
         <v>679</v>
@@ -9257,7 +9257,7 @@
         <v>265</v>
       </c>
       <c r="C72">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="D72">
         <v>11</v>
@@ -9329,25 +9329,25 @@
         <v>6.7</v>
       </c>
       <c r="AA72">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AB72">
         <v>0.5</v>
       </c>
       <c r="AC72">
-        <v>7.8</v>
+        <v>8.1</v>
       </c>
       <c r="AD72">
-        <v>14.6</v>
+        <v>6.1</v>
       </c>
       <c r="AE72">
-        <v>-4.8</v>
+        <v>14.5</v>
       </c>
       <c r="AF72">
-        <v>4.8</v>
+        <v>43.6</v>
       </c>
       <c r="AG72">
-        <v>0.1</v>
+        <v>-0.1</v>
       </c>
       <c r="AH72">
         <v>322</v>
@@ -9367,7 +9367,7 @@
         <v>266</v>
       </c>
       <c r="C73">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D73">
         <v>1</v>
@@ -9454,7 +9454,7 @@
         <v>0</v>
       </c>
       <c r="AF73">
-        <v>29.3</v>
+        <v>25.1</v>
       </c>
       <c r="AG73">
         <v>0.5</v>
@@ -9477,7 +9477,7 @@
         <v>267</v>
       </c>
       <c r="C74">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D74">
         <v>1</v>
@@ -9549,7 +9549,7 @@
         <v>6.2</v>
       </c>
       <c r="AA74">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="AB74">
         <v>0</v>
@@ -9558,13 +9558,13 @@
         <v>0.6</v>
       </c>
       <c r="AD74">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AE74">
         <v>-1.9</v>
       </c>
       <c r="AF74">
-        <v>9.5</v>
+        <v>0</v>
       </c>
       <c r="AG74">
         <v>-0</v>
@@ -9587,7 +9587,7 @@
         <v>268</v>
       </c>
       <c r="C75">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D75">
         <v>2</v>
@@ -9659,25 +9659,25 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AA75">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="AB75">
         <v>0.1</v>
       </c>
       <c r="AC75">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AD75">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="AE75">
-        <v>6.3</v>
+        <v>0</v>
       </c>
       <c r="AF75">
         <v>84.5</v>
       </c>
       <c r="AG75">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="AH75">
         <v>1003</v>
@@ -9697,10 +9697,10 @@
         <v>269</v>
       </c>
       <c r="C76">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="D76">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E76">
         <v>22432</v>
@@ -9769,25 +9769,25 @@
         <v>6.5</v>
       </c>
       <c r="AA76">
-        <v>9.699999999999999</v>
+        <v>10.1</v>
       </c>
       <c r="AB76">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AC76">
-        <v>14.2</v>
+        <v>14.5</v>
       </c>
       <c r="AD76">
-        <v>16.7</v>
+        <v>20.4</v>
       </c>
       <c r="AE76">
-        <v>17.8</v>
+        <v>0</v>
       </c>
       <c r="AF76">
-        <v>-231.8</v>
+        <v>-196.1</v>
       </c>
       <c r="AG76">
-        <v>0.7</v>
+        <v>0.1</v>
       </c>
       <c r="AH76">
         <v>246</v>
@@ -9807,10 +9807,10 @@
         <v>270</v>
       </c>
       <c r="C77">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D77">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E77">
         <v>16976</v>
@@ -9879,25 +9879,25 @@
         <v>15.7</v>
       </c>
       <c r="AA77">
-        <v>3.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AB77">
+        <v>0.3</v>
+      </c>
+      <c r="AC77">
+        <v>3.4</v>
+      </c>
+      <c r="AD77">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AE77">
+        <v>23.6</v>
+      </c>
+      <c r="AF77">
+        <v>-11.8</v>
+      </c>
+      <c r="AG77">
         <v>0.1</v>
-      </c>
-      <c r="AC77">
-        <v>3.2</v>
-      </c>
-      <c r="AD77">
-        <v>2.1</v>
-      </c>
-      <c r="AE77">
-        <v>5.9</v>
-      </c>
-      <c r="AF77">
-        <v>-41.2</v>
-      </c>
-      <c r="AG77">
-        <v>0.2</v>
       </c>
       <c r="AH77">
         <v>445</v>
@@ -9917,7 +9917,7 @@
         <v>271</v>
       </c>
       <c r="C78">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D78">
         <v>1</v>
@@ -9995,19 +9995,19 @@
         <v>0</v>
       </c>
       <c r="AC78">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AD78">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="AE78">
-        <v>-3.7</v>
+        <v>0</v>
       </c>
       <c r="AF78">
-        <v>74.5</v>
+        <v>59.6</v>
       </c>
       <c r="AG78">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="AH78">
         <v>365</v>
@@ -10027,7 +10027,7 @@
         <v>272</v>
       </c>
       <c r="C79">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D79">
         <v>2</v>
@@ -10099,13 +10099,13 @@
         <v>32.4</v>
       </c>
       <c r="AA79">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="AB79">
         <v>0.1</v>
       </c>
       <c r="AC79">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AD79">
         <v>0</v>
@@ -10114,10 +10114,10 @@
         <v>0</v>
       </c>
       <c r="AF79">
-        <v>51.9</v>
+        <v>59.3</v>
       </c>
       <c r="AG79">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AH79">
         <v>672</v>
@@ -10224,10 +10224,10 @@
         <v>0</v>
       </c>
       <c r="AF80">
-        <v>-24.5</v>
+        <v>-17.5</v>
       </c>
       <c r="AG80">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="AH80">
         <v>460</v>
@@ -10247,7 +10247,7 @@
         <v>274</v>
       </c>
       <c r="C81">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D81">
         <v>1</v>
@@ -10319,25 +10319,25 @@
         <v>0</v>
       </c>
       <c r="AA81">
-        <v>9.1</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AB81">
         <v>0.1</v>
       </c>
       <c r="AC81">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="AD81">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AE81">
         <v>12.1</v>
       </c>
       <c r="AF81">
-        <v>24.2</v>
+        <v>36.3</v>
       </c>
       <c r="AG81">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="AH81">
         <v>121</v>
@@ -10357,7 +10357,7 @@
         <v>275</v>
       </c>
       <c r="C82">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D82">
         <v>1</v>
@@ -10429,13 +10429,13 @@
         <v>0</v>
       </c>
       <c r="AA82">
-        <v>9.1</v>
+        <v>7.7</v>
       </c>
       <c r="AB82">
         <v>0.1</v>
       </c>
       <c r="AC82">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="AD82">
         <v>0</v>
@@ -10444,10 +10444,10 @@
         <v>0</v>
       </c>
       <c r="AF82">
-        <v>0</v>
+        <v>17.1</v>
       </c>
       <c r="AG82">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="AH82">
         <v>219</v>
@@ -10467,7 +10467,7 @@
         <v>276</v>
       </c>
       <c r="C83">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D83">
         <v>1</v>
@@ -10554,10 +10554,10 @@
         <v>0</v>
       </c>
       <c r="AF83">
-        <v>23.4</v>
+        <v>-54.5</v>
       </c>
       <c r="AG83">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="AH83">
         <v>548</v>
@@ -10577,7 +10577,7 @@
         <v>277</v>
       </c>
       <c r="C84">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D84">
         <v>2</v>
@@ -10649,7 +10649,7 @@
         <v>7.5</v>
       </c>
       <c r="AA84">
-        <v>7.4</v>
+        <v>6.9</v>
       </c>
       <c r="AB84">
         <v>0.1</v>
@@ -10667,7 +10667,7 @@
         <v>16.2</v>
       </c>
       <c r="AG84">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="AH84">
         <v>899</v>
@@ -10777,7 +10777,7 @@
         <v>-10.4</v>
       </c>
       <c r="AG85">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="AH85">
         <v>819</v>
@@ -10797,7 +10797,7 @@
         <v>279</v>
       </c>
       <c r="C86">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D86">
         <v>0</v>
@@ -10875,7 +10875,7 @@
         <v>0</v>
       </c>
       <c r="AC86">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AD86">
         <v>0</v>
@@ -10884,10 +10884,10 @@
         <v>0</v>
       </c>
       <c r="AF86">
-        <v>20.8</v>
+        <v>0</v>
       </c>
       <c r="AG86">
-        <v>5.7</v>
+        <v>6.1</v>
       </c>
       <c r="AH86">
         <v>250</v>
@@ -10907,10 +10907,10 @@
         <v>280</v>
       </c>
       <c r="C87">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="D87">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E87">
         <v>44730</v>
@@ -10979,25 +10979,25 @@
         <v>86.5</v>
       </c>
       <c r="AA87">
-        <v>9.9</v>
+        <v>10.2</v>
       </c>
       <c r="AB87">
         <v>0.4</v>
       </c>
       <c r="AC87">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="AD87">
-        <v>12.5</v>
+        <v>14.3</v>
       </c>
       <c r="AE87">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AF87">
-        <v>-17.9</v>
+        <v>-4.5</v>
       </c>
       <c r="AG87">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="AH87">
         <v>870</v>
@@ -11104,7 +11104,7 @@
         <v>0</v>
       </c>
       <c r="AF88">
-        <v>0</v>
+        <v>-12.7</v>
       </c>
       <c r="AG88">
         <v>0.4</v>
@@ -11127,10 +11127,10 @@
         <v>282</v>
       </c>
       <c r="C89">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D89">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E89">
         <v>23750</v>
@@ -11199,7 +11199,7 @@
         <v>7</v>
       </c>
       <c r="AA89">
-        <v>10.6</v>
+        <v>11.2</v>
       </c>
       <c r="AB89">
         <v>0.7</v>
@@ -11208,16 +11208,16 @@
         <v>6.4</v>
       </c>
       <c r="AD89">
-        <v>33.3</v>
+        <v>32.7</v>
       </c>
       <c r="AE89">
         <v>50.5</v>
       </c>
       <c r="AF89">
-        <v>-244.2</v>
+        <v>-84.2</v>
       </c>
       <c r="AG89">
-        <v>4.3</v>
+        <v>1.4</v>
       </c>
       <c r="AH89">
         <v>582</v>
@@ -11237,7 +11237,7 @@
         <v>283</v>
       </c>
       <c r="C90">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D90">
         <v>1</v>
@@ -11309,25 +11309,25 @@
         <v>7.2</v>
       </c>
       <c r="AA90">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="AB90">
         <v>0</v>
       </c>
       <c r="AC90">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="AD90">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AE90">
         <v>4</v>
       </c>
       <c r="AF90">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AG90">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="AH90">
         <v>853</v>
@@ -11347,7 +11347,7 @@
         <v>284</v>
       </c>
       <c r="C91">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D91">
         <v>20</v>
@@ -11425,16 +11425,16 @@
         <v>0.7</v>
       </c>
       <c r="AC91">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="AD91">
-        <v>10.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AE91">
-        <v>-3.4</v>
+        <v>-6.8</v>
       </c>
       <c r="AF91">
-        <v>3.4</v>
+        <v>-30.7</v>
       </c>
       <c r="AG91">
         <v>0</v>
@@ -11457,10 +11457,10 @@
         <v>285</v>
       </c>
       <c r="C92">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="D92">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E92">
         <v>35599</v>
@@ -11529,25 +11529,25 @@
         <v>48.2</v>
       </c>
       <c r="AA92">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB92">
         <v>0.3</v>
       </c>
       <c r="AC92">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="AD92">
-        <v>12.5</v>
+        <v>12.2</v>
       </c>
       <c r="AE92">
-        <v>0</v>
+        <v>5.6</v>
       </c>
       <c r="AF92">
-        <v>0</v>
+        <v>-8.4</v>
       </c>
       <c r="AG92">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="AH92">
         <v>569</v>
@@ -11567,10 +11567,10 @@
         <v>286</v>
       </c>
       <c r="C93">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="D93">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E93">
         <v>45286</v>
@@ -11639,25 +11639,25 @@
         <v>50.2</v>
       </c>
       <c r="AA93">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="AB93">
         <v>0.2</v>
       </c>
       <c r="AC93">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="AD93">
-        <v>12.5</v>
+        <v>10.2</v>
       </c>
       <c r="AE93">
-        <v>-4.4</v>
+        <v>2.2</v>
       </c>
       <c r="AF93">
-        <v>-50.8</v>
+        <v>-37.5</v>
       </c>
       <c r="AG93">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="AH93">
         <v>1101</v>
@@ -11758,16 +11758,16 @@
         <v>6</v>
       </c>
       <c r="AD94">
-        <v>6.2</v>
+        <v>4.1</v>
       </c>
       <c r="AE94">
-        <v>-22.3</v>
+        <v>-14.8</v>
       </c>
       <c r="AF94">
-        <v>-51.9</v>
+        <v>-89</v>
       </c>
       <c r="AG94">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="AH94">
         <v>238</v>
@@ -11787,7 +11787,7 @@
         <v>288</v>
       </c>
       <c r="C95">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D95">
         <v>0</v>
@@ -11865,7 +11865,7 @@
         <v>0</v>
       </c>
       <c r="AC95">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="AD95">
         <v>0</v>
@@ -11874,10 +11874,10 @@
         <v>0</v>
       </c>
       <c r="AF95">
-        <v>40.1</v>
+        <v>-53.5</v>
       </c>
       <c r="AG95">
-        <v>7.9</v>
+        <v>5.2</v>
       </c>
       <c r="AH95">
         <v>695</v>
@@ -11897,7 +11897,7 @@
         <v>289</v>
       </c>
       <c r="C96">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D96">
         <v>3</v>
@@ -11969,7 +11969,7 @@
         <v>5.3</v>
       </c>
       <c r="AA96">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AB96">
         <v>0.1</v>
@@ -11978,16 +11978,16 @@
         <v>0.9</v>
       </c>
       <c r="AD96">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="AE96">
         <v>7.4</v>
       </c>
       <c r="AF96">
-        <v>3.7</v>
+        <v>-7.4</v>
       </c>
       <c r="AG96">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AH96">
         <v>576</v>
@@ -12094,10 +12094,10 @@
         <v>0</v>
       </c>
       <c r="AF97">
-        <v>-33.2</v>
+        <v>-27.1</v>
       </c>
       <c r="AG97">
-        <v>3.4</v>
+        <v>1.9</v>
       </c>
       <c r="AH97">
         <v>749</v>
@@ -12117,7 +12117,7 @@
         <v>291</v>
       </c>
       <c r="C98">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="D98">
         <v>5</v>
@@ -12189,25 +12189,25 @@
         <v>33.1</v>
       </c>
       <c r="AA98">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="AB98">
         <v>0.1</v>
       </c>
       <c r="AC98">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="AD98">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="AE98">
-        <v>4.9</v>
+        <v>-4.9</v>
       </c>
       <c r="AF98">
-        <v>34.6</v>
+        <v>74.09999999999999</v>
       </c>
       <c r="AG98">
-        <v>-0.1</v>
+        <v>-0</v>
       </c>
       <c r="AH98">
         <v>1138</v>
@@ -12227,10 +12227,10 @@
         <v>292</v>
       </c>
       <c r="C99">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D99">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E99">
         <v>18454</v>
@@ -12299,25 +12299,25 @@
         <v>16.1</v>
       </c>
       <c r="AA99">
-        <v>8.300000000000001</v>
+        <v>9.5</v>
       </c>
       <c r="AB99">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AC99">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="AD99">
-        <v>12.5</v>
+        <v>14.3</v>
       </c>
       <c r="AE99">
-        <v>-10.8</v>
+        <v>-16.3</v>
       </c>
       <c r="AF99">
-        <v>-86.7</v>
+        <v>-135.5</v>
       </c>
       <c r="AG99">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AH99">
         <v>420</v>
@@ -12424,10 +12424,10 @@
         <v>0</v>
       </c>
       <c r="AF100">
-        <v>-6.7</v>
+        <v>-10.1</v>
       </c>
       <c r="AG100">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AH100">
         <v>416</v>
@@ -12447,7 +12447,7 @@
         <v>294</v>
       </c>
       <c r="C101">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D101">
         <v>1</v>
@@ -12519,13 +12519,13 @@
         <v>0</v>
       </c>
       <c r="AA101">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="AB101">
         <v>0</v>
       </c>
       <c r="AC101">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="AD101">
         <v>0</v>
@@ -12534,10 +12534,10 @@
         <v>0</v>
       </c>
       <c r="AF101">
-        <v>-20.8</v>
+        <v>-10.4</v>
       </c>
       <c r="AG101">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AH101">
         <v>796</v>
@@ -12557,10 +12557,10 @@
         <v>295</v>
       </c>
       <c r="C102">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D102">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E102">
         <v>35885</v>
@@ -12629,7 +12629,7 @@
         <v>0</v>
       </c>
       <c r="AA102">
-        <v>5.6</v>
+        <v>7.3</v>
       </c>
       <c r="AB102">
         <v>0.1</v>
@@ -12638,16 +12638,16 @@
         <v>1.5</v>
       </c>
       <c r="AD102">
-        <v>2.1</v>
+        <v>4.1</v>
       </c>
       <c r="AE102">
-        <v>2.8</v>
+        <v>5.6</v>
       </c>
       <c r="AF102">
-        <v>-22.3</v>
+        <v>-19.5</v>
       </c>
       <c r="AG102">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="AH102">
         <v>1135</v>
@@ -12667,10 +12667,10 @@
         <v>296</v>
       </c>
       <c r="C103">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D103">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E103">
         <v>13905</v>
@@ -12739,25 +12739,25 @@
         <v>18.4</v>
       </c>
       <c r="AA103">
-        <v>6.9</v>
+        <v>9</v>
       </c>
       <c r="AB103">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="AC103">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AD103">
-        <v>10.4</v>
+        <v>14.3</v>
       </c>
       <c r="AE103">
-        <v>-7.2</v>
+        <v>7.2</v>
       </c>
       <c r="AF103">
-        <v>-115.1</v>
+        <v>-244.5</v>
       </c>
       <c r="AG103">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="AH103">
         <v>108</v>
@@ -12777,7 +12777,7 @@
         <v>297</v>
       </c>
       <c r="C104">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D104">
         <v>3</v>
@@ -12849,19 +12849,19 @@
         <v>13</v>
       </c>
       <c r="AA104">
-        <v>9.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AB104">
         <v>0.1</v>
       </c>
       <c r="AC104">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="AD104">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="AE104">
-        <v>-3.7</v>
+        <v>0</v>
       </c>
       <c r="AF104">
         <v>-7.4</v>
@@ -12887,10 +12887,10 @@
         <v>298</v>
       </c>
       <c r="C105">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E105">
         <v>21113</v>
@@ -12959,25 +12959,25 @@
         <v>46.1</v>
       </c>
       <c r="AA105">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AB105">
         <v>0</v>
       </c>
       <c r="AC105">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="AD105">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE105">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="AF105">
-        <v>-18.9</v>
+        <v>18.9</v>
       </c>
       <c r="AG105">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="AH105">
         <v>447</v>
@@ -13084,10 +13084,10 @@
         <v>0</v>
       </c>
       <c r="AF106">
-        <v>-11.9</v>
+        <v>-8.5</v>
       </c>
       <c r="AG106">
-        <v>0.2</v>
+        <v>-0</v>
       </c>
       <c r="AH106">
         <v>1485</v>
@@ -13107,7 +13107,7 @@
         <v>300</v>
       </c>
       <c r="C107">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D107">
         <v>0</v>
@@ -13185,7 +13185,7 @@
         <v>0</v>
       </c>
       <c r="AC107">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AD107">
         <v>0</v>
@@ -13194,10 +13194,10 @@
         <v>0</v>
       </c>
       <c r="AF107">
-        <v>-22.2</v>
+        <v>-17.8</v>
       </c>
       <c r="AG107">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="AH107">
         <v>232</v>
@@ -13217,7 +13217,7 @@
         <v>301</v>
       </c>
       <c r="C108">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D108">
         <v>0</v>
@@ -13304,10 +13304,10 @@
         <v>0</v>
       </c>
       <c r="AF108">
-        <v>76.09999999999999</v>
+        <v>44.9</v>
       </c>
       <c r="AG108">
-        <v>5.4</v>
+        <v>2.5</v>
       </c>
       <c r="AH108">
         <v>954</v>
@@ -13327,7 +13327,7 @@
         <v>302</v>
       </c>
       <c r="C109">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D109">
         <v>2</v>
@@ -13399,7 +13399,7 @@
         <v>0</v>
       </c>
       <c r="AA109">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="AB109">
         <v>0.1</v>
@@ -13414,10 +13414,10 @@
         <v>0</v>
       </c>
       <c r="AF109">
-        <v>-29.8</v>
+        <v>-32.7</v>
       </c>
       <c r="AG109">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="AH109">
         <v>902</v>
@@ -13437,7 +13437,7 @@
         <v>303</v>
       </c>
       <c r="C110">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D110">
         <v>1</v>
@@ -13509,16 +13509,16 @@
         <v>0</v>
       </c>
       <c r="AA110">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AB110">
         <v>0.1</v>
       </c>
       <c r="AC110">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AD110">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AE110">
         <v>5.4</v>
@@ -13527,7 +13527,7 @@
         <v>-10.8</v>
       </c>
       <c r="AG110">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="AH110">
         <v>371</v>
@@ -13547,7 +13547,7 @@
         <v>304</v>
       </c>
       <c r="C111">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D111">
         <v>0</v>
@@ -13634,10 +13634,10 @@
         <v>0</v>
       </c>
       <c r="AF111">
-        <v>-61</v>
+        <v>-52.3</v>
       </c>
       <c r="AG111">
-        <v>7.4</v>
+        <v>1.9</v>
       </c>
       <c r="AH111">
         <v>810</v>
@@ -13744,10 +13744,10 @@
         <v>0</v>
       </c>
       <c r="AF112">
-        <v>-1.6</v>
+        <v>1.6</v>
       </c>
       <c r="AG112">
-        <v>-0.1</v>
+        <v>-0.2</v>
       </c>
       <c r="AH112">
         <v>1237</v>
@@ -13767,7 +13767,7 @@
         <v>306</v>
       </c>
       <c r="C113">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D113">
         <v>0</v>
@@ -13845,7 +13845,7 @@
         <v>0</v>
       </c>
       <c r="AC113">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AD113">
         <v>0</v>
@@ -13854,10 +13854,10 @@
         <v>0</v>
       </c>
       <c r="AF113">
-        <v>15.6</v>
+        <v>0</v>
       </c>
       <c r="AG113">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="AH113">
         <v>342</v>
@@ -13877,10 +13877,10 @@
         <v>307</v>
       </c>
       <c r="C114">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="D114">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E114">
         <v>45606</v>
@@ -13949,25 +13949,25 @@
         <v>23.6</v>
       </c>
       <c r="AA114">
-        <v>5.3</v>
+        <v>4.7</v>
       </c>
       <c r="AB114">
         <v>0.2</v>
       </c>
       <c r="AC114">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="AD114">
-        <v>10.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AE114">
-        <v>6.6</v>
+        <v>4.4</v>
       </c>
       <c r="AF114">
-        <v>-48.2</v>
+        <v>-15.3</v>
       </c>
       <c r="AG114">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AH114">
         <v>790</v>
@@ -13987,7 +13987,7 @@
         <v>308</v>
       </c>
       <c r="C115">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D115">
         <v>4</v>
@@ -14059,19 +14059,19 @@
         <v>20</v>
       </c>
       <c r="AA115">
-        <v>8.9</v>
+        <v>8.5</v>
       </c>
       <c r="AB115">
         <v>0.2</v>
       </c>
       <c r="AC115">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AD115">
-        <v>4.2</v>
+        <v>2</v>
       </c>
       <c r="AE115">
-        <v>-9.300000000000001</v>
+        <v>-4.7</v>
       </c>
       <c r="AF115">
         <v>-18.6</v>
@@ -14097,10 +14097,10 @@
         <v>309</v>
       </c>
       <c r="C116">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="D116">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E116">
         <v>30352</v>
@@ -14169,19 +14169,19 @@
         <v>45.3</v>
       </c>
       <c r="AA116">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="AB116">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AC116">
-        <v>12.7</v>
+        <v>12.9</v>
       </c>
       <c r="AD116">
-        <v>29.2</v>
+        <v>22.4</v>
       </c>
       <c r="AE116">
-        <v>0</v>
+        <v>-3.3</v>
       </c>
       <c r="AF116">
         <v>-3.3</v>
@@ -14207,7 +14207,7 @@
         <v>310</v>
       </c>
       <c r="C117">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D117">
         <v>1</v>
@@ -14288,16 +14288,16 @@
         <v>0.7</v>
       </c>
       <c r="AD117">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AE117">
         <v>-1.2</v>
       </c>
       <c r="AF117">
-        <v>7.1</v>
+        <v>6</v>
       </c>
       <c r="AG117">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="AH117">
         <v>3342</v>
@@ -14317,7 +14317,7 @@
         <v>311</v>
       </c>
       <c r="C118">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D118">
         <v>2</v>
@@ -14389,25 +14389,25 @@
         <v>27.1</v>
       </c>
       <c r="AA118">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="AB118">
         <v>0</v>
       </c>
       <c r="AC118">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="AD118">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AE118">
         <v>1.5</v>
       </c>
       <c r="AF118">
-        <v>13.7</v>
+        <v>18.2</v>
       </c>
       <c r="AG118">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="AH118">
         <v>1818</v>
@@ -14427,7 +14427,7 @@
         <v>312</v>
       </c>
       <c r="C119">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D119">
         <v>3</v>
@@ -14499,25 +14499,25 @@
         <v>12.1</v>
       </c>
       <c r="AA119">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AB119">
         <v>0.1</v>
       </c>
       <c r="AC119">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="AD119">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="AE119">
-        <v>-4.4</v>
+        <v>0</v>
       </c>
       <c r="AF119">
-        <v>-39.9</v>
+        <v>-57.6</v>
       </c>
       <c r="AG119">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AH119">
         <v>318</v>
@@ -14537,10 +14537,10 @@
         <v>313</v>
       </c>
       <c r="C120">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="D120">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E120">
         <v>26216</v>
@@ -14609,22 +14609,22 @@
         <v>24.4</v>
       </c>
       <c r="AA120">
-        <v>8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AB120">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="AC120">
-        <v>8.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD120">
-        <v>20.8</v>
+        <v>22.4</v>
       </c>
       <c r="AE120">
-        <v>-7.6</v>
+        <v>-11.4</v>
       </c>
       <c r="AF120">
-        <v>11.4</v>
+        <v>34.3</v>
       </c>
       <c r="AG120">
         <v>0.1</v>
@@ -14647,7 +14647,7 @@
         <v>314</v>
       </c>
       <c r="C121">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D121">
         <v>4</v>
@@ -14719,7 +14719,7 @@
         <v>14.2</v>
       </c>
       <c r="AA121">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="AB121">
         <v>0</v>
@@ -14728,16 +14728,16 @@
         <v>1.5</v>
       </c>
       <c r="AD121">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="AE121">
         <v>2.2</v>
       </c>
       <c r="AF121">
-        <v>1.1</v>
+        <v>-1.1</v>
       </c>
       <c r="AG121">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="AH121">
         <v>2770</v>
@@ -14757,7 +14757,7 @@
         <v>315</v>
       </c>
       <c r="C122">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="D122">
         <v>10</v>
@@ -14829,22 +14829,22 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AA122">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="AB122">
         <v>0.1</v>
       </c>
       <c r="AC122">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="AD122">
-        <v>10.4</v>
+        <v>4.1</v>
       </c>
       <c r="AE122">
-        <v>-0.9</v>
+        <v>1.8</v>
       </c>
       <c r="AF122">
-        <v>-4.5</v>
+        <v>-7.2</v>
       </c>
       <c r="AG122">
         <v>0.3</v>
@@ -14867,7 +14867,7 @@
         <v>316</v>
       </c>
       <c r="C123">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D123">
         <v>1</v>
@@ -14939,13 +14939,13 @@
         <v>46.1</v>
       </c>
       <c r="AA123">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AB123">
         <v>0</v>
       </c>
       <c r="AC123">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="AD123">
         <v>0</v>
@@ -14954,10 +14954,10 @@
         <v>0</v>
       </c>
       <c r="AF123">
-        <v>2.1</v>
+        <v>4.2</v>
       </c>
       <c r="AG123">
-        <v>-0.2</v>
+        <v>-0.1</v>
       </c>
       <c r="AH123">
         <v>1155</v>
@@ -14977,7 +14977,7 @@
         <v>317</v>
       </c>
       <c r="C124">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="D124">
         <v>4</v>
@@ -15049,25 +15049,25 @@
         <v>6.1</v>
       </c>
       <c r="AA124">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="AB124">
         <v>0.1</v>
       </c>
       <c r="AC124">
+        <v>2.2</v>
+      </c>
+      <c r="AD124">
         <v>2</v>
       </c>
-      <c r="AD124">
-        <v>2.1</v>
-      </c>
       <c r="AE124">
-        <v>1.3</v>
+        <v>-1.3</v>
       </c>
       <c r="AF124">
-        <v>33.8</v>
+        <v>44.2</v>
       </c>
       <c r="AG124">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="AH124">
         <v>2184</v>
@@ -15087,10 +15087,10 @@
         <v>318</v>
       </c>
       <c r="C125">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="D125">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E125">
         <v>69774</v>
@@ -15159,25 +15159,25 @@
         <v>27.9</v>
       </c>
       <c r="AA125">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="AB125">
         <v>0.1</v>
       </c>
       <c r="AC125">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="AD125">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE125">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AF125">
-        <v>-5.7</v>
+        <v>-24.4</v>
       </c>
       <c r="AG125">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="AH125">
         <v>1783</v>
@@ -15197,10 +15197,10 @@
         <v>319</v>
       </c>
       <c r="C126">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D126">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E126">
         <v>22846</v>
@@ -15269,25 +15269,25 @@
         <v>18.2</v>
       </c>
       <c r="AA126">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="AB126">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="AC126">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="AD126">
-        <v>2.1</v>
+        <v>4.1</v>
       </c>
       <c r="AE126">
-        <v>4.4</v>
+        <v>0</v>
       </c>
       <c r="AF126">
-        <v>-91.90000000000001</v>
+        <v>-83.2</v>
       </c>
       <c r="AG126">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="AH126">
         <v>460</v>
@@ -15307,7 +15307,7 @@
         <v>320</v>
       </c>
       <c r="C127">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D127">
         <v>0</v>
@@ -15397,7 +15397,7 @@
         <v>-4.8</v>
       </c>
       <c r="AG127">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="AH127">
         <v>1562</v>
@@ -15417,10 +15417,10 @@
         <v>321</v>
       </c>
       <c r="C128">
-        <v>344</v>
+        <v>355</v>
       </c>
       <c r="D128">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E128">
         <v>44289</v>
@@ -15489,25 +15489,25 @@
         <v>6.6</v>
       </c>
       <c r="AA128">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="AB128">
         <v>0.2</v>
       </c>
       <c r="AC128">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AD128">
-        <v>12.5</v>
+        <v>14.3</v>
       </c>
       <c r="AE128">
-        <v>9</v>
+        <v>6.8</v>
       </c>
       <c r="AF128">
-        <v>173.9</v>
+        <v>153.5</v>
       </c>
       <c r="AG128">
-        <v>4.5</v>
+        <v>2.2</v>
       </c>
       <c r="AH128">
         <v>1076</v>
@@ -15527,7 +15527,7 @@
         <v>322</v>
       </c>
       <c r="C129">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="D129">
         <v>4</v>
@@ -15599,7 +15599,7 @@
         <v>0</v>
       </c>
       <c r="AA129">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="AB129">
         <v>0</v>
@@ -15608,16 +15608,16 @@
         <v>1.1</v>
       </c>
       <c r="AD129">
-        <v>6.2</v>
+        <v>4.1</v>
       </c>
       <c r="AE129">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="AF129">
-        <v>-8.800000000000001</v>
+        <v>-2.7</v>
       </c>
       <c r="AG129">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="AH129">
         <v>3091</v>
@@ -15637,7 +15637,7 @@
         <v>323</v>
       </c>
       <c r="C130">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="D130">
         <v>13</v>
@@ -15709,7 +15709,7 @@
         <v>44.8</v>
       </c>
       <c r="AA130">
-        <v>8.300000000000001</v>
+        <v>8.1</v>
       </c>
       <c r="AB130">
         <v>0.1</v>
@@ -15724,10 +15724,10 @@
         <v>0</v>
       </c>
       <c r="AF130">
-        <v>12.8</v>
+        <v>-4</v>
       </c>
       <c r="AG130">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="AH130">
         <v>4868</v>
@@ -15747,7 +15747,7 @@
         <v>324</v>
       </c>
       <c r="C131">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="D131">
         <v>7</v>
@@ -15819,25 +15819,25 @@
         <v>15.4</v>
       </c>
       <c r="AA131">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="AB131">
         <v>0.2</v>
       </c>
       <c r="AC131">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AD131">
-        <v>8.300000000000001</v>
+        <v>6.1</v>
       </c>
       <c r="AE131">
-        <v>4.7</v>
+        <v>7</v>
       </c>
       <c r="AF131">
         <v>32.6</v>
       </c>
       <c r="AG131">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AH131">
         <v>546</v>
@@ -15857,7 +15857,7 @@
         <v>325</v>
       </c>
       <c r="C132">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="D132">
         <v>4</v>
@@ -15938,7 +15938,7 @@
         <v>1.4</v>
       </c>
       <c r="AD132">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AE132">
         <v>-0.9</v>
@@ -15947,7 +15947,7 @@
         <v>-13.1</v>
       </c>
       <c r="AG132">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="AH132">
         <v>2512</v>
@@ -15967,7 +15967,7 @@
         <v>326</v>
       </c>
       <c r="C133">
-        <v>213</v>
+        <v>242</v>
       </c>
       <c r="D133">
         <v>4</v>
@@ -16039,25 +16039,25 @@
         <v>11.4</v>
       </c>
       <c r="AA133">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="AB133">
         <v>0</v>
       </c>
       <c r="AC133">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="AD133">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="AE133">
-        <v>-0.7</v>
+        <v>0</v>
       </c>
       <c r="AF133">
-        <v>-0.7</v>
+        <v>21.3</v>
       </c>
       <c r="AG133">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="AH133">
         <v>4496</v>
@@ -16077,7 +16077,7 @@
         <v>327</v>
       </c>
       <c r="C134">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D134">
         <v>2</v>
@@ -16149,7 +16149,7 @@
         <v>23.2</v>
       </c>
       <c r="AA134">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="AB134">
         <v>0</v>
@@ -16158,16 +16158,16 @@
         <v>0.6</v>
       </c>
       <c r="AD134">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="AE134">
-        <v>-1.3</v>
+        <v>0</v>
       </c>
       <c r="AF134">
-        <v>1.3</v>
+        <v>6.7</v>
       </c>
       <c r="AG134">
-        <v>0.2</v>
+        <v>-0.1</v>
       </c>
       <c r="AH134">
         <v>2160</v>
@@ -16187,7 +16187,7 @@
         <v>328</v>
       </c>
       <c r="C135">
-        <v>331</v>
+        <v>341</v>
       </c>
       <c r="D135">
         <v>10</v>
@@ -16259,25 +16259,25 @@
         <v>7.5</v>
       </c>
       <c r="AA135">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="AB135">
         <v>0</v>
       </c>
       <c r="AC135">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AD135">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="AE135">
         <v>0.5</v>
       </c>
       <c r="AF135">
-        <v>13.6</v>
+        <v>4.5</v>
       </c>
       <c r="AG135">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="AH135">
         <v>5395</v>
@@ -16297,7 +16297,7 @@
         <v>329</v>
       </c>
       <c r="C136">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D136">
         <v>1</v>
@@ -16369,22 +16369,22 @@
         <v>7.5</v>
       </c>
       <c r="AA136">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="AB136">
         <v>0</v>
       </c>
       <c r="AC136">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="AD136">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AE136">
         <v>2.5</v>
       </c>
       <c r="AF136">
-        <v>7.6</v>
+        <v>5.1</v>
       </c>
       <c r="AG136">
         <v>1</v>
@@ -16407,10 +16407,10 @@
         <v>330</v>
       </c>
       <c r="C137">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D137">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E137">
         <v>56790</v>
@@ -16479,7 +16479,7 @@
         <v>10</v>
       </c>
       <c r="AA137">
-        <v>10.6</v>
+        <v>11.2</v>
       </c>
       <c r="AB137">
         <v>0.2</v>
@@ -16488,13 +16488,13 @@
         <v>2</v>
       </c>
       <c r="AD137">
-        <v>14.6</v>
+        <v>14.3</v>
       </c>
       <c r="AE137">
-        <v>-5.3</v>
+        <v>-8.800000000000001</v>
       </c>
       <c r="AF137">
-        <v>15.8</v>
+        <v>31.7</v>
       </c>
       <c r="AG137">
         <v>1.1</v>
@@ -16517,10 +16517,10 @@
         <v>331</v>
       </c>
       <c r="C138">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="D138">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E138">
         <v>64719</v>
@@ -16589,25 +16589,25 @@
         <v>14.5</v>
       </c>
       <c r="AA138">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="AB138">
         <v>0.2</v>
       </c>
       <c r="AC138">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="AD138">
-        <v>6.2</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AE138">
-        <v>1.5</v>
+        <v>3.1</v>
       </c>
       <c r="AF138">
-        <v>-57.2</v>
+        <v>-61.8</v>
       </c>
       <c r="AG138">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AH138">
         <v>1513</v>
@@ -16627,10 +16627,10 @@
         <v>332</v>
       </c>
       <c r="C139">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="D139">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E139">
         <v>155840</v>
@@ -16699,25 +16699,25 @@
         <v>19</v>
       </c>
       <c r="AA139">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="AB139">
         <v>0.1</v>
       </c>
       <c r="AC139">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="AD139">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="AE139">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AF139">
-        <v>5.8</v>
+        <v>10.3</v>
       </c>
       <c r="AG139">
-        <v>-0.1</v>
+        <v>-0</v>
       </c>
       <c r="AH139">
         <v>4507</v>
@@ -16737,7 +16737,7 @@
         <v>333</v>
       </c>
       <c r="C140">
-        <v>237</v>
+        <v>261</v>
       </c>
       <c r="D140">
         <v>14</v>
@@ -16809,22 +16809,22 @@
         <v>14.9</v>
       </c>
       <c r="AA140">
-        <v>5.9</v>
+        <v>5.4</v>
       </c>
       <c r="AB140">
         <v>0.1</v>
       </c>
       <c r="AC140">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="AD140">
-        <v>8.300000000000001</v>
+        <v>6.1</v>
       </c>
       <c r="AE140">
-        <v>-1.3</v>
+        <v>-0.7</v>
       </c>
       <c r="AF140">
-        <v>-6.6</v>
+        <v>8.6</v>
       </c>
       <c r="AG140">
         <v>0.4</v>
@@ -16847,10 +16847,10 @@
         <v>334</v>
       </c>
       <c r="C141">
-        <v>1534</v>
+        <v>1543</v>
       </c>
       <c r="D141">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E141">
         <v>91049</v>
@@ -16925,16 +16925,16 @@
         <v>1.4</v>
       </c>
       <c r="AC141">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="AD141">
-        <v>70.8</v>
+        <v>55.1</v>
       </c>
       <c r="AE141">
-        <v>-2.2</v>
+        <v>-5.5</v>
       </c>
       <c r="AF141">
-        <v>3.3</v>
+        <v>20.9</v>
       </c>
       <c r="AG141">
         <v>-0</v>
@@ -16957,10 +16957,10 @@
         <v>335</v>
       </c>
       <c r="C142">
-        <v>1694</v>
+        <v>1776</v>
       </c>
       <c r="D142">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E142">
         <v>195961</v>
@@ -17035,19 +17035,19 @@
         <v>0.1</v>
       </c>
       <c r="AC142">
-        <v>8.6</v>
+        <v>9.1</v>
       </c>
       <c r="AD142">
-        <v>33.3</v>
+        <v>28.6</v>
       </c>
       <c r="AE142">
-        <v>5.1</v>
+        <v>4.1</v>
       </c>
       <c r="AF142">
-        <v>120.9</v>
+        <v>143.9</v>
       </c>
       <c r="AG142">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="AH142">
         <v>4826</v>
@@ -17067,7 +17067,7 @@
         <v>336</v>
       </c>
       <c r="C143">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="D143">
         <v>6</v>
@@ -17139,7 +17139,7 @@
         <v>12.2</v>
       </c>
       <c r="AA143">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="AB143">
         <v>0.1</v>
@@ -17154,10 +17154,10 @@
         <v>0</v>
       </c>
       <c r="AF143">
-        <v>-10.1</v>
+        <v>7.9</v>
       </c>
       <c r="AG143">
-        <v>0.1</v>
+        <v>-0</v>
       </c>
       <c r="AH143">
         <v>2768</v>
@@ -17177,7 +17177,7 @@
         <v>337</v>
       </c>
       <c r="C144">
-        <v>324</v>
+        <v>341</v>
       </c>
       <c r="D144">
         <v>31</v>
@@ -17249,25 +17249,25 @@
         <v>5.8</v>
       </c>
       <c r="AA144">
-        <v>9.6</v>
+        <v>9.1</v>
       </c>
       <c r="AB144">
         <v>0.3</v>
       </c>
       <c r="AC144">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="AD144">
-        <v>18.8</v>
+        <v>14.3</v>
       </c>
       <c r="AE144">
         <v>-2.9</v>
       </c>
       <c r="AF144">
-        <v>3.9</v>
+        <v>17.4</v>
       </c>
       <c r="AG144">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="AH144">
         <v>3848</v>
@@ -17287,10 +17287,10 @@
         <v>338</v>
       </c>
       <c r="C145">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D145">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E145">
         <v>116022</v>
@@ -17359,7 +17359,7 @@
         <v>22.7</v>
       </c>
       <c r="AA145">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="AB145">
         <v>0.1</v>
@@ -17368,16 +17368,16 @@
         <v>3.3</v>
       </c>
       <c r="AD145">
-        <v>10.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AE145">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="AF145">
-        <v>3.4</v>
+        <v>24.1</v>
       </c>
       <c r="AG145">
-        <v>0.1</v>
+        <v>-0</v>
       </c>
       <c r="AH145">
         <v>3655</v>
@@ -17397,7 +17397,7 @@
         <v>339</v>
       </c>
       <c r="C146">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="D146">
         <v>11</v>
@@ -17469,7 +17469,7 @@
         <v>12.3</v>
       </c>
       <c r="AA146">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="AB146">
         <v>0.1</v>
@@ -17478,16 +17478,16 @@
         <v>2.4</v>
       </c>
       <c r="AD146">
-        <v>10.4</v>
+        <v>10.2</v>
       </c>
       <c r="AE146">
-        <v>0.7</v>
+        <v>-3.5</v>
       </c>
       <c r="AF146">
-        <v>8.5</v>
+        <v>12.7</v>
       </c>
       <c r="AG146">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="AH146">
         <v>4793</v>
@@ -17507,10 +17507,10 @@
         <v>340</v>
       </c>
       <c r="C147">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="D147">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E147">
         <v>106497</v>
@@ -17579,25 +17579,25 @@
         <v>7.4</v>
       </c>
       <c r="AA147">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="AB147">
         <v>0.1</v>
       </c>
       <c r="AC147">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AD147">
-        <v>8.300000000000001</v>
+        <v>10.2</v>
       </c>
       <c r="AE147">
-        <v>-1.9</v>
+        <v>-2.8</v>
       </c>
       <c r="AF147">
-        <v>-5.6</v>
+        <v>7.5</v>
       </c>
       <c r="AG147">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AH147">
         <v>3326</v>
@@ -17617,10 +17617,10 @@
         <v>341</v>
       </c>
       <c r="C148">
-        <v>482</v>
+        <v>509</v>
       </c>
       <c r="D148">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E148">
         <v>241910</v>
@@ -17689,22 +17689,22 @@
         <v>2.5</v>
       </c>
       <c r="AA148">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="AB148">
         <v>0.1</v>
       </c>
       <c r="AC148">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AD148">
-        <v>10.4</v>
+        <v>10.2</v>
       </c>
       <c r="AE148">
-        <v>0.4</v>
+        <v>1.2</v>
       </c>
       <c r="AF148">
-        <v>12.8</v>
+        <v>16.5</v>
       </c>
       <c r="AG148">
         <v>0.6</v>
@@ -17727,10 +17727,10 @@
         <v>342</v>
       </c>
       <c r="C149">
-        <v>319</v>
+        <v>346</v>
       </c>
       <c r="D149">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E149">
         <v>153490</v>
@@ -17799,25 +17799,25 @@
         <v>56.9</v>
       </c>
       <c r="AA149">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AB149">
         <v>0.1</v>
       </c>
       <c r="AC149">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="AD149">
-        <v>20.8</v>
+        <v>22.4</v>
       </c>
       <c r="AE149">
-        <v>0</v>
+        <v>-0.7</v>
       </c>
       <c r="AF149">
-        <v>11.7</v>
+        <v>24.1</v>
       </c>
       <c r="AG149">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="AH149">
         <v>4321</v>
@@ -17837,7 +17837,7 @@
         <v>343</v>
       </c>
       <c r="C150">
-        <v>320</v>
+        <v>335</v>
       </c>
       <c r="D150">
         <v>7</v>
@@ -17909,16 +17909,16 @@
         <v>58.9</v>
       </c>
       <c r="AA150">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AB150">
         <v>0</v>
       </c>
       <c r="AC150">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="AD150">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="AE150">
         <v>1.5</v>
@@ -17927,7 +17927,7 @@
         <v>-1</v>
       </c>
       <c r="AG150">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="AH150">
         <v>5446</v>
@@ -17947,7 +17947,7 @@
         <v>344</v>
       </c>
       <c r="C151">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="D151">
         <v>11</v>
@@ -18019,7 +18019,7 @@
         <v>58.2</v>
       </c>
       <c r="AA151">
-        <v>7.6</v>
+        <v>7.3</v>
       </c>
       <c r="AB151">
         <v>0.1</v>
@@ -18028,13 +18028,13 @@
         <v>1.5</v>
       </c>
       <c r="AD151">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="AE151">
-        <v>-1</v>
+        <v>-3.1</v>
       </c>
       <c r="AF151">
-        <v>1</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AG151">
         <v>-0.1</v>
@@ -18057,10 +18057,10 @@
         <v>345</v>
       </c>
       <c r="C152">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="D152">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E152">
         <v>103849</v>
@@ -18129,22 +18129,22 @@
         <v>20.2</v>
       </c>
       <c r="AA152">
-        <v>3.4</v>
+        <v>4.8</v>
       </c>
       <c r="AB152">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AC152">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="AD152">
-        <v>2.1</v>
+        <v>4.1</v>
       </c>
       <c r="AE152">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="AF152">
-        <v>33.7</v>
+        <v>31.8</v>
       </c>
       <c r="AG152">
         <v>0.8</v>
@@ -18167,7 +18167,7 @@
         <v>346</v>
       </c>
       <c r="C153">
-        <v>512</v>
+        <v>520</v>
       </c>
       <c r="D153">
         <v>13</v>
@@ -18248,13 +18248,13 @@
         <v>2.3</v>
       </c>
       <c r="AD153">
-        <v>12.5</v>
+        <v>6.1</v>
       </c>
       <c r="AE153">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AF153">
-        <v>-2.3</v>
+        <v>-11.7</v>
       </c>
       <c r="AG153">
         <v>0.4</v>
@@ -18277,10 +18277,10 @@
         <v>347</v>
       </c>
       <c r="C154">
-        <v>230</v>
+        <v>246</v>
       </c>
       <c r="D154">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E154">
         <v>287049</v>
@@ -18349,22 +18349,22 @@
         <v>41.5</v>
       </c>
       <c r="AA154">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="AB154">
         <v>0</v>
       </c>
       <c r="AC154">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="AD154">
-        <v>8.300000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AE154">
         <v>0.7</v>
       </c>
       <c r="AF154">
-        <v>-1.4</v>
+        <v>4.9</v>
       </c>
       <c r="AG154">
         <v>0.1</v>
@@ -18387,10 +18387,10 @@
         <v>348</v>
       </c>
       <c r="C155">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="D155">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E155">
         <v>201463</v>
@@ -18459,7 +18459,7 @@
         <v>99</v>
       </c>
       <c r="AA155">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="AB155">
         <v>0.1</v>
@@ -18468,16 +18468,16 @@
         <v>2.1</v>
       </c>
       <c r="AD155">
-        <v>12.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AE155">
         <v>-1</v>
       </c>
       <c r="AF155">
-        <v>-16.4</v>
+        <v>-24.3</v>
       </c>
       <c r="AG155">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AH155">
         <v>5203</v>
@@ -18497,10 +18497,10 @@
         <v>349</v>
       </c>
       <c r="C156">
-        <v>777</v>
+        <v>804</v>
       </c>
       <c r="D156">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E156">
         <v>278666</v>
@@ -18569,25 +18569,25 @@
         <v>22.9</v>
       </c>
       <c r="AA156">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="AB156">
         <v>0.1</v>
       </c>
       <c r="AC156">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="AD156">
-        <v>33.3</v>
+        <v>24.5</v>
       </c>
       <c r="AE156">
-        <v>2.9</v>
+        <v>1.4</v>
       </c>
       <c r="AF156">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AG156">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="AH156">
         <v>10024</v>
@@ -18607,10 +18607,10 @@
         <v>350</v>
       </c>
       <c r="C157">
-        <v>1749</v>
+        <v>1839</v>
       </c>
       <c r="D157">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="E157">
         <v>745057</v>
@@ -18685,16 +18685,16 @@
         <v>0.1</v>
       </c>
       <c r="AC157">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="AD157">
-        <v>93.8</v>
+        <v>91.8</v>
       </c>
       <c r="AE157">
-        <v>-0.1</v>
+        <v>-0.7</v>
       </c>
       <c r="AF157">
-        <v>8.5</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AG157">
         <v>0.4</v>
@@ -18717,10 +18717,10 @@
         <v>351</v>
       </c>
       <c r="C158">
-        <v>1934</v>
+        <v>2057</v>
       </c>
       <c r="D158">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="E158">
         <v>902298</v>
@@ -18789,25 +18789,25 @@
         <v>11.1</v>
       </c>
       <c r="AA158">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="AB158">
         <v>0.1</v>
       </c>
       <c r="AC158">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="AD158">
-        <v>45.8</v>
+        <v>46.9</v>
       </c>
       <c r="AE158">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="AF158">
-        <v>8.1</v>
+        <v>16.4</v>
       </c>
       <c r="AG158">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="AH158">
         <v>29768</v>
@@ -18827,10 +18827,10 @@
         <v>352</v>
       </c>
       <c r="C159">
-        <v>2148</v>
+        <v>2255</v>
       </c>
       <c r="D159">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E159">
         <v>743187</v>
@@ -18899,22 +18899,22 @@
         <v>31.4</v>
       </c>
       <c r="AA159">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AB159">
         <v>0.1</v>
       </c>
       <c r="AC159">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="AD159">
-        <v>58.3</v>
+        <v>63.3</v>
       </c>
       <c r="AE159">
-        <v>0.5</v>
+        <v>-0.1</v>
       </c>
       <c r="AF159">
-        <v>-2.7</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AG159">
         <v>0.3</v>
@@ -18937,10 +18937,10 @@
         <v>353</v>
       </c>
       <c r="C160">
-        <v>2928</v>
+        <v>3057</v>
       </c>
       <c r="D160">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="E160">
         <v>1021902</v>
@@ -19015,16 +19015,16 @@
         <v>0.1</v>
       </c>
       <c r="AC160">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="AD160">
         <v>100</v>
       </c>
       <c r="AE160">
-        <v>1.4</v>
+        <v>0.3</v>
       </c>
       <c r="AF160">
-        <v>-9.1</v>
+        <v>-10.3</v>
       </c>
       <c r="AG160">
         <v>0.3</v>

--- a/data/countyData.xlsx
+++ b/data/countyData.xlsx
@@ -1644,7 +1644,7 @@
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="AG2">
         <v>0</v>
@@ -1757,7 +1757,7 @@
         <v>43.9</v>
       </c>
       <c r="AG3">
-        <v>3.1</v>
+        <v>5.6</v>
       </c>
       <c r="AH3">
         <v>9</v>
@@ -1777,7 +1777,7 @@
         <v>197</v>
       </c>
       <c r="C4">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -1855,7 +1855,7 @@
         <v>0</v>
       </c>
       <c r="AC4">
-        <v>1.3</v>
+        <v>2.4</v>
       </c>
       <c r="AD4">
         <v>0</v>
@@ -1864,10 +1864,10 @@
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>29.7</v>
+        <v>103.8</v>
       </c>
       <c r="AG4">
-        <v>0.3</v>
+        <v>7.2</v>
       </c>
       <c r="AH4">
         <v>29</v>
@@ -1968,16 +1968,16 @@
         <v>3.8</v>
       </c>
       <c r="AD5">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="AE5">
         <v>-76.5</v>
       </c>
       <c r="AF5">
-        <v>-153.1</v>
+        <v>-114.8</v>
       </c>
       <c r="AG5">
-        <v>0.7</v>
+        <v>2.8</v>
       </c>
       <c r="AH5">
         <v>15</v>
@@ -2107,7 +2107,7 @@
         <v>200</v>
       </c>
       <c r="C7">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -2179,13 +2179,13 @@
         <v>0</v>
       </c>
       <c r="AA7">
-        <v>7.7</v>
+        <v>7.1</v>
       </c>
       <c r="AB7">
         <v>0.6</v>
       </c>
       <c r="AC7">
-        <v>8.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD7">
         <v>0</v>
@@ -2197,7 +2197,7 @@
         <v>62.7</v>
       </c>
       <c r="AG7">
-        <v>0.2</v>
+        <v>2.9</v>
       </c>
       <c r="AH7">
         <v>39</v>
@@ -2217,7 +2217,7 @@
         <v>201</v>
       </c>
       <c r="C8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -2289,13 +2289,13 @@
         <v>34.8</v>
       </c>
       <c r="AA8">
-        <v>6.5</v>
+        <v>6.2</v>
       </c>
       <c r="AB8">
         <v>0.2</v>
       </c>
       <c r="AC8">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="AD8">
         <v>0</v>
@@ -2304,10 +2304,10 @@
         <v>0</v>
       </c>
       <c r="AF8">
-        <v>-23.7</v>
+        <v>11.9</v>
       </c>
       <c r="AG8">
-        <v>0.4</v>
+        <v>1.2</v>
       </c>
       <c r="AH8">
         <v>109</v>
@@ -2327,7 +2327,7 @@
         <v>202</v>
       </c>
       <c r="C9">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -2399,7 +2399,7 @@
         <v>4.4</v>
       </c>
       <c r="AA9">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="AB9">
         <v>0.1</v>
@@ -2414,10 +2414,10 @@
         <v>0</v>
       </c>
       <c r="AF9">
-        <v>-12.3</v>
+        <v>18.5</v>
       </c>
       <c r="AG9">
-        <v>0.3</v>
+        <v>1.4</v>
       </c>
       <c r="AH9">
         <v>181</v>
@@ -2437,7 +2437,7 @@
         <v>203</v>
       </c>
       <c r="C10">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -2515,7 +2515,7 @@
         <v>0</v>
       </c>
       <c r="AC10">
-        <v>5.5</v>
+        <v>5.1</v>
       </c>
       <c r="AD10">
         <v>0</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="AF10">
-        <v>-51.4</v>
+        <v>-102.8</v>
       </c>
       <c r="AG10">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="AH10">
         <v>72</v>
@@ -2547,7 +2547,7 @@
         <v>204</v>
       </c>
       <c r="C11">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -2619,13 +2619,13 @@
         <v>0</v>
       </c>
       <c r="AA11">
-        <v>6.2</v>
+        <v>6.7</v>
       </c>
       <c r="AB11">
         <v>0.2</v>
       </c>
       <c r="AC11">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="AD11">
         <v>0</v>
@@ -2767,7 +2767,7 @@
         <v>206</v>
       </c>
       <c r="C13">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -2845,7 +2845,7 @@
         <v>0</v>
       </c>
       <c r="AC13">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AD13">
         <v>0</v>
@@ -2854,10 +2854,10 @@
         <v>0</v>
       </c>
       <c r="AF13">
-        <v>15.4</v>
+        <v>30.8</v>
       </c>
       <c r="AG13">
-        <v>1.4</v>
+        <v>4.9</v>
       </c>
       <c r="AH13">
         <v>93</v>
@@ -2877,7 +2877,7 @@
         <v>207</v>
       </c>
       <c r="C14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -2955,7 +2955,7 @@
         <v>0</v>
       </c>
       <c r="AC14">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="AD14">
         <v>0</v>
@@ -2964,10 +2964,10 @@
         <v>0</v>
       </c>
       <c r="AF14">
-        <v>18.6</v>
+        <v>-18.6</v>
       </c>
       <c r="AG14">
-        <v>0.8</v>
+        <v>3.1</v>
       </c>
       <c r="AH14">
         <v>21</v>
@@ -3071,13 +3071,13 @@
         <v>2</v>
       </c>
       <c r="AE15">
-        <v>8.800000000000001</v>
+        <v>-8.800000000000001</v>
       </c>
       <c r="AF15">
-        <v>-43.8</v>
+        <v>-26.3</v>
       </c>
       <c r="AG15">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AH15">
         <v>302</v>
@@ -3187,7 +3187,7 @@
         <v>9.6</v>
       </c>
       <c r="AG16">
-        <v>0.6</v>
+        <v>2.7</v>
       </c>
       <c r="AH16">
         <v>99</v>
@@ -3207,7 +3207,7 @@
         <v>210</v>
       </c>
       <c r="C17">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D17">
         <v>3</v>
@@ -3279,13 +3279,13 @@
         <v>0</v>
       </c>
       <c r="AA17">
-        <v>12</v>
+        <v>11.1</v>
       </c>
       <c r="AB17">
         <v>1</v>
       </c>
       <c r="AC17">
-        <v>8.300000000000001</v>
+        <v>9</v>
       </c>
       <c r="AD17">
         <v>2</v>
@@ -3297,7 +3297,7 @@
         <v>166.6</v>
       </c>
       <c r="AG17">
-        <v>-0.1</v>
+        <v>2.2</v>
       </c>
       <c r="AH17">
         <v>115</v>
@@ -3317,7 +3317,7 @@
         <v>211</v>
       </c>
       <c r="C18">
-        <v>64</v>
+        <v>110</v>
       </c>
       <c r="D18">
         <v>2</v>
@@ -3389,25 +3389,25 @@
         <v>0</v>
       </c>
       <c r="AA18">
-        <v>3.1</v>
+        <v>1.8</v>
       </c>
       <c r="AB18">
         <v>0.2</v>
       </c>
       <c r="AC18">
-        <v>7.5</v>
+        <v>12.9</v>
       </c>
       <c r="AD18">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="AE18">
-        <v>23.4</v>
+        <v>0</v>
       </c>
       <c r="AF18">
-        <v>281.2</v>
+        <v>480.4</v>
       </c>
       <c r="AG18">
-        <v>7.6</v>
+        <v>17.2</v>
       </c>
       <c r="AH18">
         <v>102</v>
@@ -3427,7 +3427,7 @@
         <v>212</v>
       </c>
       <c r="C19">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D19">
         <v>3</v>
@@ -3499,7 +3499,7 @@
         <v>0</v>
       </c>
       <c r="AA19">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AB19">
         <v>0.2</v>
@@ -3508,16 +3508,16 @@
         <v>3.4</v>
       </c>
       <c r="AD19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE19">
-        <v>-6.8</v>
+        <v>0</v>
       </c>
       <c r="AF19">
-        <v>-81.2</v>
+        <v>-74.40000000000001</v>
       </c>
       <c r="AG19">
-        <v>0.9</v>
+        <v>2.8</v>
       </c>
       <c r="AH19">
         <v>242</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="AG20">
-        <v>1.3</v>
+        <v>4.2</v>
       </c>
       <c r="AH20">
         <v>24</v>
@@ -3650,7 +3650,7 @@
         <v>221</v>
       </c>
       <c r="D21">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E21">
         <v>10348</v>
@@ -3719,25 +3719,25 @@
         <v>13</v>
       </c>
       <c r="AA21">
-        <v>10.9</v>
+        <v>11.3</v>
       </c>
       <c r="AB21">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="AC21">
         <v>21.4</v>
       </c>
       <c r="AD21">
-        <v>28.6</v>
+        <v>26</v>
       </c>
       <c r="AE21">
-        <v>38.7</v>
+        <v>-29</v>
       </c>
       <c r="AF21">
-        <v>-96.59999999999999</v>
+        <v>-202.9</v>
       </c>
       <c r="AG21">
-        <v>0.2</v>
+        <v>1.3</v>
       </c>
       <c r="AH21">
         <v>71</v>
@@ -3757,7 +3757,7 @@
         <v>215</v>
       </c>
       <c r="C22">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -3835,7 +3835,7 @@
         <v>0</v>
       </c>
       <c r="AC22">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="AD22">
         <v>0</v>
@@ -3844,10 +3844,10 @@
         <v>0</v>
       </c>
       <c r="AF22">
-        <v>99.3</v>
+        <v>-49.7</v>
       </c>
       <c r="AG22">
-        <v>0.3</v>
+        <v>3.2</v>
       </c>
       <c r="AH22">
         <v>59</v>
@@ -3954,10 +3954,10 @@
         <v>0</v>
       </c>
       <c r="AF23">
-        <v>0</v>
+        <v>-10.8</v>
       </c>
       <c r="AG23">
-        <v>-0.3</v>
+        <v>0.7</v>
       </c>
       <c r="AH23">
         <v>312</v>
@@ -4064,10 +4064,10 @@
         <v>0</v>
       </c>
       <c r="AF24">
-        <v>12.8</v>
+        <v>-25.6</v>
       </c>
       <c r="AG24">
-        <v>0.2</v>
+        <v>1.4</v>
       </c>
       <c r="AH24">
         <v>146</v>
@@ -4090,7 +4090,7 @@
         <v>90</v>
       </c>
       <c r="D25">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E25">
         <v>8846</v>
@@ -4159,25 +4159,25 @@
         <v>0</v>
       </c>
       <c r="AA25">
-        <v>11.1</v>
+        <v>13.3</v>
       </c>
       <c r="AB25">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="AC25">
         <v>10.2</v>
       </c>
       <c r="AD25">
-        <v>12.2</v>
+        <v>12</v>
       </c>
       <c r="AE25">
         <v>0</v>
       </c>
       <c r="AF25">
-        <v>-113</v>
+        <v>-395.7</v>
       </c>
       <c r="AG25">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="AH25">
         <v>48</v>
@@ -4197,7 +4197,7 @@
         <v>219</v>
       </c>
       <c r="C26">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D26">
         <v>3</v>
@@ -4269,25 +4269,25 @@
         <v>0</v>
       </c>
       <c r="AA26">
-        <v>5.7</v>
+        <v>5.2</v>
       </c>
       <c r="AB26">
         <v>0.2</v>
       </c>
       <c r="AC26">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="AD26">
         <v>2</v>
       </c>
       <c r="AE26">
-        <v>5.2</v>
+        <v>-5.2</v>
       </c>
       <c r="AF26">
-        <v>-20.9</v>
+        <v>36.5</v>
       </c>
       <c r="AG26">
-        <v>-0.1</v>
+        <v>0.9</v>
       </c>
       <c r="AH26">
         <v>265</v>
@@ -4307,7 +4307,7 @@
         <v>220</v>
       </c>
       <c r="C27">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -4385,7 +4385,7 @@
         <v>0</v>
       </c>
       <c r="AC27">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AD27">
         <v>0</v>
@@ -4394,10 +4394,10 @@
         <v>0</v>
       </c>
       <c r="AF27">
-        <v>-30.4</v>
+        <v>-10.1</v>
       </c>
       <c r="AG27">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AH27">
         <v>94</v>
@@ -4417,7 +4417,7 @@
         <v>221</v>
       </c>
       <c r="C28">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -4489,13 +4489,13 @@
         <v>27.6</v>
       </c>
       <c r="AA28">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="AB28">
         <v>0.1</v>
       </c>
       <c r="AC28">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AD28">
         <v>0</v>
@@ -4504,10 +4504,10 @@
         <v>0</v>
       </c>
       <c r="AF28">
-        <v>26.7</v>
+        <v>44.5</v>
       </c>
       <c r="AG28">
-        <v>-0.1</v>
+        <v>2.7</v>
       </c>
       <c r="AH28">
         <v>151</v>
@@ -4527,7 +4527,7 @@
         <v>222</v>
       </c>
       <c r="C29">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -4599,13 +4599,13 @@
         <v>0</v>
       </c>
       <c r="AA29">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="AB29">
         <v>0.1</v>
       </c>
       <c r="AC29">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="AD29">
         <v>0</v>
@@ -4614,10 +4614,10 @@
         <v>0</v>
       </c>
       <c r="AF29">
-        <v>-141.4</v>
+        <v>-47.1</v>
       </c>
       <c r="AG29">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="AH29">
         <v>88</v>
@@ -4637,10 +4637,10 @@
         <v>223</v>
       </c>
       <c r="C30">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="D30">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E30">
         <v>24926</v>
@@ -4709,25 +4709,25 @@
         <v>14</v>
       </c>
       <c r="AA30">
-        <v>4.8</v>
+        <v>5.3</v>
       </c>
       <c r="AB30">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="AC30">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="AD30">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="AE30">
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="AF30">
         <v>-44.1</v>
       </c>
       <c r="AG30">
-        <v>1</v>
+        <v>3.6</v>
       </c>
       <c r="AH30">
         <v>311</v>
@@ -4747,7 +4747,7 @@
         <v>224</v>
       </c>
       <c r="C31">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D31">
         <v>1</v>
@@ -4819,25 +4819,25 @@
         <v>19.7</v>
       </c>
       <c r="AA31">
-        <v>5.6</v>
+        <v>5</v>
       </c>
       <c r="AB31">
         <v>0.1</v>
       </c>
       <c r="AC31">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="AD31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE31">
-        <v>-10.8</v>
+        <v>0</v>
       </c>
       <c r="AF31">
-        <v>32.4</v>
+        <v>53.9</v>
       </c>
       <c r="AG31">
-        <v>0.2</v>
+        <v>2.1</v>
       </c>
       <c r="AH31">
         <v>71</v>
@@ -4857,7 +4857,7 @@
         <v>225</v>
       </c>
       <c r="C32">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D32">
         <v>4</v>
@@ -4935,19 +4935,19 @@
         <v>0.6</v>
       </c>
       <c r="AC32">
-        <v>16.6</v>
+        <v>17</v>
       </c>
       <c r="AD32">
-        <v>4.1</v>
+        <v>2</v>
       </c>
       <c r="AE32">
-        <v>0</v>
+        <v>-15.6</v>
       </c>
       <c r="AF32">
-        <v>-93.3</v>
+        <v>46.7</v>
       </c>
       <c r="AG32">
-        <v>-0.6</v>
+        <v>2.1</v>
       </c>
       <c r="AH32">
         <v>114</v>
@@ -4967,7 +4967,7 @@
         <v>226</v>
       </c>
       <c r="C33">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -5039,13 +5039,13 @@
         <v>0</v>
       </c>
       <c r="AA33">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="AB33">
         <v>0.2</v>
       </c>
       <c r="AC33">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="AD33">
         <v>0</v>
@@ -5054,10 +5054,10 @@
         <v>0</v>
       </c>
       <c r="AF33">
-        <v>31.4</v>
+        <v>-47</v>
       </c>
       <c r="AG33">
-        <v>-0.4</v>
+        <v>1</v>
       </c>
       <c r="AH33">
         <v>102</v>
@@ -5187,7 +5187,7 @@
         <v>228</v>
       </c>
       <c r="C35">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D35">
         <v>2</v>
@@ -5259,13 +5259,13 @@
         <v>0</v>
       </c>
       <c r="AA35">
-        <v>5.6</v>
+        <v>4.9</v>
       </c>
       <c r="AB35">
         <v>0.2</v>
       </c>
       <c r="AC35">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="AD35">
         <v>0</v>
@@ -5274,10 +5274,10 @@
         <v>0</v>
       </c>
       <c r="AF35">
-        <v>-66.09999999999999</v>
+        <v>-77.09999999999999</v>
       </c>
       <c r="AG35">
-        <v>1</v>
+        <v>3.1</v>
       </c>
       <c r="AH35">
         <v>127</v>
@@ -5297,7 +5297,7 @@
         <v>229</v>
       </c>
       <c r="C36">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -5375,7 +5375,7 @@
         <v>0</v>
       </c>
       <c r="AC36">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="AD36">
         <v>0</v>
@@ -5384,10 +5384,10 @@
         <v>0</v>
       </c>
       <c r="AF36">
-        <v>14.8</v>
+        <v>0</v>
       </c>
       <c r="AG36">
-        <v>1.2</v>
+        <v>6</v>
       </c>
       <c r="AH36">
         <v>72</v>
@@ -5497,7 +5497,7 @@
         <v>-18.7</v>
       </c>
       <c r="AG37">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="AH37">
         <v>98</v>
@@ -5517,10 +5517,10 @@
         <v>231</v>
       </c>
       <c r="C38">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D38">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E38">
         <v>7087</v>
@@ -5589,25 +5589,25 @@
         <v>16.7</v>
       </c>
       <c r="AA38">
-        <v>11.6</v>
+        <v>12</v>
       </c>
       <c r="AB38">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="AC38">
-        <v>23.1</v>
+        <v>23.6</v>
       </c>
       <c r="AD38">
-        <v>8.199999999999999</v>
+        <v>6</v>
       </c>
       <c r="AE38">
-        <v>-56.4</v>
+        <v>-14.1</v>
       </c>
       <c r="AF38">
         <v>-42.3</v>
       </c>
       <c r="AG38">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
       <c r="AH38">
         <v>156</v>
@@ -5717,7 +5717,7 @@
         <v>-36.6</v>
       </c>
       <c r="AG39">
-        <v>0.5</v>
+        <v>1.9</v>
       </c>
       <c r="AH39">
         <v>97</v>
@@ -5824,10 +5824,10 @@
         <v>0</v>
       </c>
       <c r="AF40">
-        <v>0</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AG40">
-        <v>0.4</v>
+        <v>1.8</v>
       </c>
       <c r="AH40">
         <v>115</v>
@@ -5847,7 +5847,7 @@
         <v>234</v>
       </c>
       <c r="C41">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D41">
         <v>10</v>
@@ -5919,25 +5919,25 @@
         <v>0</v>
       </c>
       <c r="AA41">
-        <v>14.5</v>
+        <v>14.1</v>
       </c>
       <c r="AB41">
         <v>1.3</v>
       </c>
       <c r="AC41">
-        <v>8.699999999999999</v>
+        <v>8.9</v>
       </c>
       <c r="AD41">
-        <v>12.2</v>
+        <v>10</v>
       </c>
       <c r="AE41">
-        <v>-25.1</v>
+        <v>-12.6</v>
       </c>
       <c r="AF41">
-        <v>-12.6</v>
+        <v>-50.2</v>
       </c>
       <c r="AG41">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AH41">
         <v>212</v>
@@ -5957,7 +5957,7 @@
         <v>235</v>
       </c>
       <c r="C42">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D42">
         <v>2</v>
@@ -6029,13 +6029,13 @@
         <v>0</v>
       </c>
       <c r="AA42">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="AB42">
         <v>0.2</v>
       </c>
       <c r="AC42">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AD42">
         <v>2</v>
@@ -6044,10 +6044,10 @@
         <v>-10.3</v>
       </c>
       <c r="AF42">
-        <v>195.3</v>
+        <v>226.1</v>
       </c>
       <c r="AG42">
-        <v>-0.5</v>
+        <v>4.4</v>
       </c>
       <c r="AH42">
         <v>103</v>
@@ -6067,7 +6067,7 @@
         <v>236</v>
       </c>
       <c r="C43">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D43">
         <v>5</v>
@@ -6139,25 +6139,25 @@
         <v>5.1</v>
       </c>
       <c r="AA43">
-        <v>10.9</v>
+        <v>10</v>
       </c>
       <c r="AB43">
         <v>0.2</v>
       </c>
       <c r="AC43">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="AD43">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="AE43">
         <v>-14</v>
       </c>
       <c r="AF43">
-        <v>-14</v>
+        <v>14</v>
       </c>
       <c r="AG43">
-        <v>0.6</v>
+        <v>4.1</v>
       </c>
       <c r="AH43">
         <v>667</v>
@@ -6177,7 +6177,7 @@
         <v>237</v>
       </c>
       <c r="C44">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -6264,10 +6264,10 @@
         <v>0</v>
       </c>
       <c r="AF44">
-        <v>32.4</v>
+        <v>24.3</v>
       </c>
       <c r="AG44">
-        <v>0.3</v>
+        <v>2.3</v>
       </c>
       <c r="AH44">
         <v>199</v>
@@ -6287,7 +6287,7 @@
         <v>238</v>
       </c>
       <c r="C45">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -6365,7 +6365,7 @@
         <v>0</v>
       </c>
       <c r="AC45">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AD45">
         <v>0</v>
@@ -6374,10 +6374,10 @@
         <v>0</v>
       </c>
       <c r="AF45">
-        <v>-15.8</v>
+        <v>-26.3</v>
       </c>
       <c r="AG45">
-        <v>1.6</v>
+        <v>3.5</v>
       </c>
       <c r="AH45">
         <v>261</v>
@@ -6397,7 +6397,7 @@
         <v>239</v>
       </c>
       <c r="C46">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D46">
         <v>1</v>
@@ -6469,13 +6469,13 @@
         <v>26.6</v>
       </c>
       <c r="AA46">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="AB46">
         <v>0</v>
       </c>
       <c r="AC46">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AD46">
         <v>2</v>
@@ -6484,10 +6484,10 @@
         <v>-4.8</v>
       </c>
       <c r="AF46">
-        <v>4.8</v>
+        <v>14.3</v>
       </c>
       <c r="AG46">
-        <v>0.5</v>
+        <v>2.7</v>
       </c>
       <c r="AH46">
         <v>149</v>
@@ -6507,7 +6507,7 @@
         <v>240</v>
       </c>
       <c r="C47">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -6597,7 +6597,7 @@
         <v>5.4</v>
       </c>
       <c r="AG47">
-        <v>-0.4</v>
+        <v>1.7</v>
       </c>
       <c r="AH47">
         <v>893</v>
@@ -6617,7 +6617,7 @@
         <v>241</v>
       </c>
       <c r="C48">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -6704,10 +6704,10 @@
         <v>0</v>
       </c>
       <c r="AF48">
-        <v>16.5</v>
+        <v>-11</v>
       </c>
       <c r="AG48">
-        <v>0.4</v>
+        <v>2.3</v>
       </c>
       <c r="AH48">
         <v>572</v>
@@ -6814,10 +6814,10 @@
         <v>6.1</v>
       </c>
       <c r="AF49">
-        <v>6.1</v>
+        <v>-12.2</v>
       </c>
       <c r="AG49">
-        <v>0.4</v>
+        <v>2.8</v>
       </c>
       <c r="AH49">
         <v>634</v>
@@ -6837,7 +6837,7 @@
         <v>243</v>
       </c>
       <c r="C50">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -6924,10 +6924,10 @@
         <v>0</v>
       </c>
       <c r="AF50">
-        <v>14.2</v>
+        <v>7.1</v>
       </c>
       <c r="AG50">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="AH50">
         <v>350</v>
@@ -7144,10 +7144,10 @@
         <v>0</v>
       </c>
       <c r="AF52">
-        <v>0</v>
+        <v>-11.8</v>
       </c>
       <c r="AG52">
-        <v>1.5</v>
+        <v>3.1</v>
       </c>
       <c r="AH52">
         <v>175</v>
@@ -7257,7 +7257,7 @@
         <v>0</v>
       </c>
       <c r="AG53">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="AH53">
         <v>136</v>
@@ -7367,7 +7367,7 @@
         <v>-5.5</v>
       </c>
       <c r="AG54">
-        <v>1.7</v>
+        <v>7.7</v>
       </c>
       <c r="AH54">
         <v>204</v>
@@ -7387,7 +7387,7 @@
         <v>248</v>
       </c>
       <c r="C55">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -7465,7 +7465,7 @@
         <v>0</v>
       </c>
       <c r="AC55">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="AD55">
         <v>0</v>
@@ -7474,10 +7474,10 @@
         <v>0</v>
       </c>
       <c r="AF55">
-        <v>-23.3</v>
+        <v>35</v>
       </c>
       <c r="AG55">
-        <v>0.6</v>
+        <v>4.1</v>
       </c>
       <c r="AH55">
         <v>163</v>
@@ -7497,7 +7497,7 @@
         <v>249</v>
       </c>
       <c r="C56">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -7575,7 +7575,7 @@
         <v>0</v>
       </c>
       <c r="AC56">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="AD56">
         <v>0</v>
@@ -7584,10 +7584,10 @@
         <v>0</v>
       </c>
       <c r="AF56">
-        <v>54</v>
+        <v>43.2</v>
       </c>
       <c r="AG56">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="AH56">
         <v>355</v>
@@ -7607,7 +7607,7 @@
         <v>250</v>
       </c>
       <c r="C57">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D57">
         <v>1</v>
@@ -7679,13 +7679,13 @@
         <v>22.5</v>
       </c>
       <c r="AA57">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="AB57">
         <v>0.1</v>
       </c>
       <c r="AC57">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="AD57">
         <v>0</v>
@@ -7694,10 +7694,10 @@
         <v>0</v>
       </c>
       <c r="AF57">
-        <v>40.7</v>
+        <v>11.6</v>
       </c>
       <c r="AG57">
-        <v>1.6</v>
+        <v>5.5</v>
       </c>
       <c r="AH57">
         <v>354</v>
@@ -7804,10 +7804,10 @@
         <v>0</v>
       </c>
       <c r="AF58">
-        <v>-22.7</v>
+        <v>-11.3</v>
       </c>
       <c r="AG58">
-        <v>0.3</v>
+        <v>0.9</v>
       </c>
       <c r="AH58">
         <v>99</v>
@@ -7914,10 +7914,10 @@
         <v>0</v>
       </c>
       <c r="AF59">
-        <v>6.7</v>
+        <v>-6.7</v>
       </c>
       <c r="AG59">
-        <v>3.1</v>
+        <v>6.9</v>
       </c>
       <c r="AH59">
         <v>111</v>
@@ -8027,7 +8027,7 @@
         <v>-16.6</v>
       </c>
       <c r="AG60">
-        <v>-0.1</v>
+        <v>0.4</v>
       </c>
       <c r="AH60">
         <v>351</v>
@@ -8047,7 +8047,7 @@
         <v>254</v>
       </c>
       <c r="C61">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D61">
         <v>1</v>
@@ -8119,13 +8119,13 @@
         <v>62.1</v>
       </c>
       <c r="AA61">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="AB61">
         <v>0</v>
       </c>
       <c r="AC61">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AD61">
         <v>2</v>
@@ -8134,10 +8134,10 @@
         <v>4.4</v>
       </c>
       <c r="AF61">
-        <v>0</v>
+        <v>17.8</v>
       </c>
       <c r="AG61">
-        <v>0.9</v>
+        <v>3.3</v>
       </c>
       <c r="AH61">
         <v>498</v>
@@ -8157,7 +8157,7 @@
         <v>255</v>
       </c>
       <c r="C62">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -8235,7 +8235,7 @@
         <v>0</v>
       </c>
       <c r="AC62">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="AD62">
         <v>0</v>
@@ -8247,7 +8247,7 @@
         <v>14.5</v>
       </c>
       <c r="AG62">
-        <v>0.8</v>
+        <v>2.3</v>
       </c>
       <c r="AH62">
         <v>300</v>
@@ -8267,7 +8267,7 @@
         <v>256</v>
       </c>
       <c r="C63">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D63">
         <v>1</v>
@@ -8339,13 +8339,13 @@
         <v>33.9</v>
       </c>
       <c r="AA63">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="AB63">
         <v>0</v>
       </c>
       <c r="AC63">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AD63">
         <v>0</v>
@@ -8354,10 +8354,10 @@
         <v>0</v>
       </c>
       <c r="AF63">
-        <v>-29.3</v>
+        <v>-9.800000000000001</v>
       </c>
       <c r="AG63">
-        <v>-0</v>
+        <v>3.7</v>
       </c>
       <c r="AH63">
         <v>203</v>
@@ -8377,7 +8377,7 @@
         <v>257</v>
       </c>
       <c r="C64">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D64">
         <v>1</v>
@@ -8449,7 +8449,7 @@
         <v>10.1</v>
       </c>
       <c r="AA64">
-        <v>6.7</v>
+        <v>6.2</v>
       </c>
       <c r="AB64">
         <v>0.1</v>
@@ -8464,10 +8464,10 @@
         <v>0</v>
       </c>
       <c r="AF64">
-        <v>-14.3</v>
+        <v>0</v>
       </c>
       <c r="AG64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH64">
         <v>207</v>
@@ -8574,10 +8574,10 @@
         <v>0</v>
       </c>
       <c r="AF65">
-        <v>-43.4</v>
+        <v>-37.2</v>
       </c>
       <c r="AG65">
-        <v>1</v>
+        <v>4.4</v>
       </c>
       <c r="AH65">
         <v>87</v>
@@ -8684,10 +8684,10 @@
         <v>0</v>
       </c>
       <c r="AF66">
-        <v>62.6</v>
+        <v>15.7</v>
       </c>
       <c r="AG66">
-        <v>3.4</v>
+        <v>9</v>
       </c>
       <c r="AH66">
         <v>185</v>
@@ -8791,13 +8791,13 @@
         <v>2</v>
       </c>
       <c r="AE67">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="AF67">
         <v>-16.1</v>
       </c>
       <c r="AG67">
-        <v>0.8</v>
+        <v>2.4</v>
       </c>
       <c r="AH67">
         <v>68</v>
@@ -8817,7 +8817,7 @@
         <v>261</v>
       </c>
       <c r="C68">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D68">
         <v>7</v>
@@ -8889,13 +8889,13 @@
         <v>8.4</v>
       </c>
       <c r="AA68">
-        <v>11.5</v>
+        <v>10.9</v>
       </c>
       <c r="AB68">
         <v>0.4</v>
       </c>
       <c r="AC68">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="AD68">
         <v>2</v>
@@ -8904,10 +8904,10 @@
         <v>6.4</v>
       </c>
       <c r="AF68">
-        <v>-128</v>
+        <v>-64</v>
       </c>
       <c r="AG68">
-        <v>1</v>
+        <v>4.3</v>
       </c>
       <c r="AH68">
         <v>179</v>
@@ -8927,7 +8927,7 @@
         <v>262</v>
       </c>
       <c r="C69">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="D69">
         <v>21</v>
@@ -8999,25 +8999,25 @@
         <v>0</v>
       </c>
       <c r="AA69">
-        <v>11.1</v>
+        <v>10.9</v>
       </c>
       <c r="AB69">
         <v>2.4</v>
       </c>
       <c r="AC69">
-        <v>21.3</v>
+        <v>21.8</v>
       </c>
       <c r="AD69">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AE69">
         <v>22.6</v>
       </c>
       <c r="AF69">
-        <v>56.4</v>
+        <v>-22.6</v>
       </c>
       <c r="AG69">
-        <v>-0.1</v>
+        <v>1.3</v>
       </c>
       <c r="AH69">
         <v>121</v>
@@ -9124,10 +9124,10 @@
         <v>0</v>
       </c>
       <c r="AF70">
-        <v>17.7</v>
+        <v>-35.4</v>
       </c>
       <c r="AG70">
-        <v>0.8</v>
+        <v>3.8</v>
       </c>
       <c r="AH70">
         <v>87</v>
@@ -9147,7 +9147,7 @@
         <v>264</v>
       </c>
       <c r="C71">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D71">
         <v>1</v>
@@ -9219,7 +9219,7 @@
         <v>6.2</v>
       </c>
       <c r="AA71">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="AB71">
         <v>0</v>
@@ -9234,10 +9234,10 @@
         <v>0</v>
       </c>
       <c r="AF71">
-        <v>-79</v>
+        <v>-52.7</v>
       </c>
       <c r="AG71">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="AH71">
         <v>679</v>
@@ -9257,10 +9257,10 @@
         <v>265</v>
       </c>
       <c r="C72">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="D72">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E72">
         <v>20656</v>
@@ -9329,25 +9329,25 @@
         <v>6.7</v>
       </c>
       <c r="AA72">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="AB72">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AC72">
-        <v>8.1</v>
+        <v>8.5</v>
       </c>
       <c r="AD72">
-        <v>6.1</v>
+        <v>8</v>
       </c>
       <c r="AE72">
-        <v>14.5</v>
+        <v>0</v>
       </c>
       <c r="AF72">
-        <v>43.6</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="AG72">
-        <v>-0.1</v>
+        <v>1.7</v>
       </c>
       <c r="AH72">
         <v>322</v>
@@ -9367,7 +9367,7 @@
         <v>266</v>
       </c>
       <c r="C73">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D73">
         <v>1</v>
@@ -9439,13 +9439,13 @@
         <v>0</v>
       </c>
       <c r="AA73">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AB73">
         <v>0</v>
       </c>
       <c r="AC73">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="AD73">
         <v>0</v>
@@ -9454,10 +9454,10 @@
         <v>0</v>
       </c>
       <c r="AF73">
-        <v>25.1</v>
+        <v>4.2</v>
       </c>
       <c r="AG73">
-        <v>0.5</v>
+        <v>2.7</v>
       </c>
       <c r="AH73">
         <v>877</v>
@@ -9477,7 +9477,7 @@
         <v>267</v>
       </c>
       <c r="C74">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D74">
         <v>1</v>
@@ -9549,7 +9549,7 @@
         <v>6.2</v>
       </c>
       <c r="AA74">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="AB74">
         <v>0</v>
@@ -9564,10 +9564,10 @@
         <v>-1.9</v>
       </c>
       <c r="AF74">
-        <v>0</v>
+        <v>-5.7</v>
       </c>
       <c r="AG74">
-        <v>-0</v>
+        <v>1.4</v>
       </c>
       <c r="AH74">
         <v>961</v>
@@ -9587,10 +9587,10 @@
         <v>268</v>
       </c>
       <c r="C75">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D75">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E75">
         <v>31951</v>
@@ -9659,25 +9659,25 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AA75">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="AB75">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AC75">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="AD75">
-        <v>4.1</v>
+        <v>2</v>
       </c>
       <c r="AE75">
-        <v>0</v>
+        <v>-3.1</v>
       </c>
       <c r="AF75">
-        <v>84.5</v>
+        <v>56.3</v>
       </c>
       <c r="AG75">
-        <v>2.1</v>
+        <v>7.4</v>
       </c>
       <c r="AH75">
         <v>1003</v>
@@ -9697,10 +9697,10 @@
         <v>269</v>
       </c>
       <c r="C76">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="D76">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E76">
         <v>22432</v>
@@ -9769,25 +9769,25 @@
         <v>6.5</v>
       </c>
       <c r="AA76">
-        <v>10.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AB76">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AC76">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AD76">
-        <v>20.4</v>
+        <v>16</v>
       </c>
       <c r="AE76">
-        <v>0</v>
+        <v>-26.7</v>
       </c>
       <c r="AF76">
-        <v>-196.1</v>
+        <v>35.7</v>
       </c>
       <c r="AG76">
-        <v>0.1</v>
+        <v>1.1</v>
       </c>
       <c r="AH76">
         <v>246</v>
@@ -9807,7 +9807,7 @@
         <v>270</v>
       </c>
       <c r="C77">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D77">
         <v>5</v>
@@ -9879,25 +9879,25 @@
         <v>15.7</v>
       </c>
       <c r="AA77">
-        <v>8.800000000000001</v>
+        <v>9.1</v>
       </c>
       <c r="AB77">
         <v>0.3</v>
       </c>
       <c r="AC77">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="AD77">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AE77">
-        <v>23.6</v>
+        <v>11.8</v>
       </c>
       <c r="AF77">
-        <v>-11.8</v>
+        <v>-23.6</v>
       </c>
       <c r="AG77">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
       <c r="AH77">
         <v>445</v>
@@ -9917,10 +9917,10 @@
         <v>271</v>
       </c>
       <c r="C78">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="D78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E78">
         <v>26833</v>
@@ -9989,25 +9989,25 @@
         <v>19</v>
       </c>
       <c r="AA78">
-        <v>1.1</v>
+        <v>1.9</v>
       </c>
       <c r="AB78">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AC78">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="AD78">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE78">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="AF78">
-        <v>59.6</v>
+        <v>-26.1</v>
       </c>
       <c r="AG78">
-        <v>1.3</v>
+        <v>4.3</v>
       </c>
       <c r="AH78">
         <v>365</v>
@@ -10027,7 +10027,7 @@
         <v>272</v>
       </c>
       <c r="C79">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D79">
         <v>2</v>
@@ -10099,13 +10099,13 @@
         <v>32.4</v>
       </c>
       <c r="AA79">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="AB79">
         <v>0.1</v>
       </c>
       <c r="AC79">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="AD79">
         <v>0</v>
@@ -10114,10 +10114,10 @@
         <v>0</v>
       </c>
       <c r="AF79">
-        <v>59.3</v>
+        <v>22.3</v>
       </c>
       <c r="AG79">
-        <v>0.9</v>
+        <v>3.9</v>
       </c>
       <c r="AH79">
         <v>672</v>
@@ -10137,7 +10137,7 @@
         <v>273</v>
       </c>
       <c r="C80">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D80">
         <v>0</v>
@@ -10215,7 +10215,7 @@
         <v>0</v>
       </c>
       <c r="AC80">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AD80">
         <v>0</v>
@@ -10224,10 +10224,10 @@
         <v>0</v>
       </c>
       <c r="AF80">
-        <v>-17.5</v>
+        <v>-10.5</v>
       </c>
       <c r="AG80">
-        <v>0.4</v>
+        <v>1.9</v>
       </c>
       <c r="AH80">
         <v>460</v>
@@ -10247,7 +10247,7 @@
         <v>274</v>
       </c>
       <c r="C81">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D81">
         <v>1</v>
@@ -10319,25 +10319,25 @@
         <v>0</v>
       </c>
       <c r="AA81">
-        <v>8.300000000000001</v>
+        <v>5.6</v>
       </c>
       <c r="AB81">
         <v>0.1</v>
       </c>
       <c r="AC81">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="AD81">
         <v>2</v>
       </c>
       <c r="AE81">
-        <v>12.1</v>
+        <v>-12.1</v>
       </c>
       <c r="AF81">
-        <v>36.3</v>
+        <v>108.9</v>
       </c>
       <c r="AG81">
-        <v>1.8</v>
+        <v>7.4</v>
       </c>
       <c r="AH81">
         <v>121</v>
@@ -10357,7 +10357,7 @@
         <v>275</v>
       </c>
       <c r="C82">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D82">
         <v>1</v>
@@ -10429,13 +10429,13 @@
         <v>0</v>
       </c>
       <c r="AA82">
-        <v>7.7</v>
+        <v>7.1</v>
       </c>
       <c r="AB82">
         <v>0.1</v>
       </c>
       <c r="AC82">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="AD82">
         <v>0</v>
@@ -10444,10 +10444,10 @@
         <v>0</v>
       </c>
       <c r="AF82">
-        <v>17.1</v>
+        <v>34.3</v>
       </c>
       <c r="AG82">
-        <v>0.3</v>
+        <v>3.4</v>
       </c>
       <c r="AH82">
         <v>219</v>
@@ -10467,7 +10467,7 @@
         <v>276</v>
       </c>
       <c r="C83">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D83">
         <v>1</v>
@@ -10545,7 +10545,7 @@
         <v>0</v>
       </c>
       <c r="AC83">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AD83">
         <v>0</v>
@@ -10554,10 +10554,10 @@
         <v>0</v>
       </c>
       <c r="AF83">
-        <v>-54.5</v>
+        <v>-50.6</v>
       </c>
       <c r="AG83">
-        <v>1.4</v>
+        <v>4.9</v>
       </c>
       <c r="AH83">
         <v>548</v>
@@ -10664,10 +10664,10 @@
         <v>0</v>
       </c>
       <c r="AF84">
-        <v>16.2</v>
+        <v>-9.699999999999999</v>
       </c>
       <c r="AG84">
-        <v>0.9</v>
+        <v>3.2</v>
       </c>
       <c r="AH84">
         <v>899</v>
@@ -10687,10 +10687,10 @@
         <v>278</v>
       </c>
       <c r="C85">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E85">
         <v>28956</v>
@@ -10759,25 +10759,25 @@
         <v>5.5</v>
       </c>
       <c r="AA85">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="AB85">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AC85">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AD85">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE85">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="AF85">
-        <v>-10.4</v>
+        <v>6.9</v>
       </c>
       <c r="AG85">
-        <v>0.4</v>
+        <v>1.3</v>
       </c>
       <c r="AH85">
         <v>819</v>
@@ -10797,7 +10797,7 @@
         <v>279</v>
       </c>
       <c r="C86">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D86">
         <v>0</v>
@@ -10875,7 +10875,7 @@
         <v>0</v>
       </c>
       <c r="AC86">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="AD86">
         <v>0</v>
@@ -10884,10 +10884,10 @@
         <v>0</v>
       </c>
       <c r="AF86">
-        <v>0</v>
+        <v>-5.2</v>
       </c>
       <c r="AG86">
-        <v>6.1</v>
+        <v>6.5</v>
       </c>
       <c r="AH86">
         <v>250</v>
@@ -10907,10 +10907,10 @@
         <v>280</v>
       </c>
       <c r="C87">
-        <v>196</v>
+        <v>219</v>
       </c>
       <c r="D87">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E87">
         <v>44730</v>
@@ -10979,25 +10979,25 @@
         <v>86.5</v>
       </c>
       <c r="AA87">
-        <v>10.2</v>
+        <v>10</v>
       </c>
       <c r="AB87">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AC87">
-        <v>4.4</v>
+        <v>4.9</v>
       </c>
       <c r="AD87">
-        <v>14.3</v>
+        <v>16</v>
       </c>
       <c r="AE87">
-        <v>2.2</v>
+        <v>-4.5</v>
       </c>
       <c r="AF87">
-        <v>-4.5</v>
+        <v>24.6</v>
       </c>
       <c r="AG87">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AH87">
         <v>870</v>
@@ -11017,7 +11017,7 @@
         <v>281</v>
       </c>
       <c r="C88">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D88">
         <v>1</v>
@@ -11089,13 +11089,13 @@
         <v>13.5</v>
       </c>
       <c r="AA88">
-        <v>6.7</v>
+        <v>5.9</v>
       </c>
       <c r="AB88">
         <v>0.1</v>
       </c>
       <c r="AC88">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AD88">
         <v>0</v>
@@ -11104,10 +11104,10 @@
         <v>0</v>
       </c>
       <c r="AF88">
-        <v>-12.7</v>
+        <v>0</v>
       </c>
       <c r="AG88">
-        <v>0.4</v>
+        <v>2.6</v>
       </c>
       <c r="AH88">
         <v>216</v>
@@ -11127,7 +11127,7 @@
         <v>282</v>
       </c>
       <c r="C89">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="D89">
         <v>17</v>
@@ -11199,25 +11199,25 @@
         <v>7</v>
       </c>
       <c r="AA89">
-        <v>11.2</v>
+        <v>10.4</v>
       </c>
       <c r="AB89">
         <v>0.7</v>
       </c>
       <c r="AC89">
-        <v>6.4</v>
+        <v>6.9</v>
       </c>
       <c r="AD89">
-        <v>32.7</v>
+        <v>32</v>
       </c>
       <c r="AE89">
-        <v>50.5</v>
+        <v>42.1</v>
       </c>
       <c r="AF89">
-        <v>-84.2</v>
+        <v>84.2</v>
       </c>
       <c r="AG89">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="AH89">
         <v>582</v>
@@ -11237,7 +11237,7 @@
         <v>283</v>
       </c>
       <c r="C90">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D90">
         <v>1</v>
@@ -11309,7 +11309,7 @@
         <v>7.2</v>
       </c>
       <c r="AA90">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="AB90">
         <v>0</v>
@@ -11321,13 +11321,13 @@
         <v>2</v>
       </c>
       <c r="AE90">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="AF90">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="AG90">
-        <v>0.7</v>
+        <v>3.7</v>
       </c>
       <c r="AH90">
         <v>853</v>
@@ -11347,10 +11347,10 @@
         <v>284</v>
       </c>
       <c r="C91">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="D91">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E91">
         <v>29348</v>
@@ -11419,25 +11419,25 @@
         <v>0</v>
       </c>
       <c r="AA91">
-        <v>6.1</v>
+        <v>6.5</v>
       </c>
       <c r="AB91">
         <v>0.7</v>
       </c>
       <c r="AC91">
-        <v>11.2</v>
+        <v>11.5</v>
       </c>
       <c r="AD91">
-        <v>8.199999999999999</v>
+        <v>10</v>
       </c>
       <c r="AE91">
-        <v>-6.8</v>
+        <v>-3.4</v>
       </c>
       <c r="AF91">
-        <v>-30.7</v>
+        <v>13.6</v>
       </c>
       <c r="AG91">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="AH91">
         <v>1347</v>
@@ -11457,10 +11457,10 @@
         <v>285</v>
       </c>
       <c r="C92">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="D92">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E92">
         <v>35599</v>
@@ -11529,25 +11529,25 @@
         <v>48.2</v>
       </c>
       <c r="AA92">
-        <v>9</v>
+        <v>8.9</v>
       </c>
       <c r="AB92">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AC92">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="AD92">
-        <v>12.2</v>
+        <v>12</v>
       </c>
       <c r="AE92">
-        <v>5.6</v>
+        <v>0</v>
       </c>
       <c r="AF92">
-        <v>-8.4</v>
+        <v>30.9</v>
       </c>
       <c r="AG92">
-        <v>0.1</v>
+        <v>2.8</v>
       </c>
       <c r="AH92">
         <v>569</v>
@@ -11567,10 +11567,10 @@
         <v>286</v>
       </c>
       <c r="C93">
-        <v>239</v>
+        <v>263</v>
       </c>
       <c r="D93">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93">
         <v>45286</v>
@@ -11645,19 +11645,19 @@
         <v>0.2</v>
       </c>
       <c r="AC93">
-        <v>5.3</v>
+        <v>5.8</v>
       </c>
       <c r="AD93">
-        <v>10.2</v>
+        <v>12</v>
       </c>
       <c r="AE93">
-        <v>2.2</v>
+        <v>-4.4</v>
       </c>
       <c r="AF93">
-        <v>-37.5</v>
+        <v>-4.4</v>
       </c>
       <c r="AG93">
-        <v>0.9</v>
+        <v>3.6</v>
       </c>
       <c r="AH93">
         <v>1101</v>
@@ -11758,16 +11758,16 @@
         <v>6</v>
       </c>
       <c r="AD94">
-        <v>4.1</v>
+        <v>2</v>
       </c>
       <c r="AE94">
-        <v>-14.8</v>
+        <v>-7.4</v>
       </c>
       <c r="AF94">
-        <v>-89</v>
+        <v>-59.3</v>
       </c>
       <c r="AG94">
-        <v>0.1</v>
+        <v>1.5</v>
       </c>
       <c r="AH94">
         <v>238</v>
@@ -11787,7 +11787,7 @@
         <v>288</v>
       </c>
       <c r="C95">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D95">
         <v>0</v>
@@ -11865,7 +11865,7 @@
         <v>0</v>
       </c>
       <c r="AC95">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="AD95">
         <v>0</v>
@@ -11874,10 +11874,10 @@
         <v>0</v>
       </c>
       <c r="AF95">
-        <v>-53.5</v>
+        <v>-90.2</v>
       </c>
       <c r="AG95">
-        <v>5.2</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AH95">
         <v>695</v>
@@ -11897,10 +11897,10 @@
         <v>289</v>
       </c>
       <c r="C96">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D96">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E96">
         <v>27010</v>
@@ -11969,25 +11969,25 @@
         <v>5.3</v>
       </c>
       <c r="AA96">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="AB96">
         <v>0.1</v>
       </c>
       <c r="AC96">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="AD96">
-        <v>4.1</v>
+        <v>6</v>
       </c>
       <c r="AE96">
+        <v>-3.7</v>
+      </c>
+      <c r="AF96">
         <v>7.4</v>
       </c>
-      <c r="AF96">
-        <v>-7.4</v>
-      </c>
       <c r="AG96">
-        <v>1</v>
+        <v>4.5</v>
       </c>
       <c r="AH96">
         <v>576</v>
@@ -12007,7 +12007,7 @@
         <v>290</v>
       </c>
       <c r="C97">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D97">
         <v>0</v>
@@ -12094,10 +12094,10 @@
         <v>0</v>
       </c>
       <c r="AF97">
-        <v>-27.1</v>
+        <v>7.5</v>
       </c>
       <c r="AG97">
-        <v>1.9</v>
+        <v>1.1</v>
       </c>
       <c r="AH97">
         <v>749</v>
@@ -12117,10 +12117,10 @@
         <v>291</v>
       </c>
       <c r="C98">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D98">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E98">
         <v>40510</v>
@@ -12189,25 +12189,25 @@
         <v>33.1</v>
       </c>
       <c r="AA98">
-        <v>3.8</v>
+        <v>4.4</v>
       </c>
       <c r="AB98">
         <v>0.1</v>
       </c>
       <c r="AC98">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="AD98">
-        <v>4.1</v>
+        <v>6</v>
       </c>
       <c r="AE98">
-        <v>-4.9</v>
+        <v>-2.5</v>
       </c>
       <c r="AF98">
-        <v>74.09999999999999</v>
+        <v>22.2</v>
       </c>
       <c r="AG98">
-        <v>-0</v>
+        <v>2.5</v>
       </c>
       <c r="AH98">
         <v>1138</v>
@@ -12227,10 +12227,10 @@
         <v>292</v>
       </c>
       <c r="C99">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D99">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E99">
         <v>18454</v>
@@ -12299,25 +12299,25 @@
         <v>16.1</v>
       </c>
       <c r="AA99">
-        <v>9.5</v>
+        <v>12.8</v>
       </c>
       <c r="AB99">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AC99">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="AD99">
-        <v>14.3</v>
+        <v>16</v>
       </c>
       <c r="AE99">
-        <v>-16.3</v>
+        <v>10.8</v>
       </c>
       <c r="AF99">
-        <v>-135.5</v>
+        <v>-27.1</v>
       </c>
       <c r="AG99">
-        <v>6.5</v>
+        <v>3.4</v>
       </c>
       <c r="AH99">
         <v>420</v>
@@ -12424,10 +12424,10 @@
         <v>0</v>
       </c>
       <c r="AF100">
-        <v>-10.1</v>
+        <v>-3.4</v>
       </c>
       <c r="AG100">
-        <v>-0</v>
+        <v>2</v>
       </c>
       <c r="AH100">
         <v>416</v>
@@ -12447,7 +12447,7 @@
         <v>294</v>
       </c>
       <c r="C101">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D101">
         <v>1</v>
@@ -12519,7 +12519,7 @@
         <v>0</v>
       </c>
       <c r="AA101">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="AB101">
         <v>0</v>
@@ -12537,7 +12537,7 @@
         <v>-10.4</v>
       </c>
       <c r="AG101">
-        <v>0.7</v>
+        <v>2.6</v>
       </c>
       <c r="AH101">
         <v>796</v>
@@ -12557,7 +12557,7 @@
         <v>295</v>
       </c>
       <c r="C102">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D102">
         <v>4</v>
@@ -12629,25 +12629,25 @@
         <v>0</v>
       </c>
       <c r="AA102">
-        <v>7.3</v>
+        <v>7</v>
       </c>
       <c r="AB102">
         <v>0.1</v>
       </c>
       <c r="AC102">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AD102">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="AE102">
         <v>5.6</v>
       </c>
       <c r="AF102">
-        <v>-19.5</v>
+        <v>-22.3</v>
       </c>
       <c r="AG102">
-        <v>0.7</v>
+        <v>2.1</v>
       </c>
       <c r="AH102">
         <v>1135</v>
@@ -12670,7 +12670,7 @@
         <v>133</v>
       </c>
       <c r="D103">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E103">
         <v>13905</v>
@@ -12739,25 +12739,25 @@
         <v>18.4</v>
       </c>
       <c r="AA103">
-        <v>9</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AB103">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="AC103">
         <v>9.6</v>
       </c>
       <c r="AD103">
-        <v>14.3</v>
+        <v>10</v>
       </c>
       <c r="AE103">
-        <v>7.2</v>
+        <v>-7.2</v>
       </c>
       <c r="AF103">
-        <v>-244.5</v>
+        <v>-280.5</v>
       </c>
       <c r="AG103">
-        <v>1.1</v>
+        <v>3.9</v>
       </c>
       <c r="AH103">
         <v>108</v>
@@ -12777,7 +12777,7 @@
         <v>297</v>
       </c>
       <c r="C104">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D104">
         <v>3</v>
@@ -12849,13 +12849,13 @@
         <v>13</v>
       </c>
       <c r="AA104">
-        <v>8.800000000000001</v>
+        <v>8.1</v>
       </c>
       <c r="AB104">
         <v>0.1</v>
       </c>
       <c r="AC104">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="AD104">
         <v>0</v>
@@ -12867,7 +12867,7 @@
         <v>-7.4</v>
       </c>
       <c r="AG104">
-        <v>0.6</v>
+        <v>3.5</v>
       </c>
       <c r="AH104">
         <v>389</v>
@@ -12887,7 +12887,7 @@
         <v>298</v>
       </c>
       <c r="C105">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D105">
         <v>1</v>
@@ -12959,13 +12959,13 @@
         <v>46.1</v>
       </c>
       <c r="AA105">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="AB105">
         <v>0</v>
       </c>
       <c r="AC105">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="AD105">
         <v>2</v>
@@ -12974,10 +12974,10 @@
         <v>4.7</v>
       </c>
       <c r="AF105">
-        <v>18.9</v>
+        <v>-4.7</v>
       </c>
       <c r="AG105">
-        <v>0.1</v>
+        <v>1.4</v>
       </c>
       <c r="AH105">
         <v>447</v>
@@ -12997,7 +12997,7 @@
         <v>299</v>
       </c>
       <c r="C106">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D106">
         <v>1</v>
@@ -13069,7 +13069,7 @@
         <v>16.4</v>
       </c>
       <c r="AA106">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="AB106">
         <v>0</v>
@@ -13084,10 +13084,10 @@
         <v>0</v>
       </c>
       <c r="AF106">
-        <v>-8.5</v>
+        <v>0</v>
       </c>
       <c r="AG106">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="AH106">
         <v>1485</v>
@@ -13194,10 +13194,10 @@
         <v>0</v>
       </c>
       <c r="AF107">
-        <v>-17.8</v>
+        <v>-22.2</v>
       </c>
       <c r="AG107">
-        <v>0.6</v>
+        <v>1.9</v>
       </c>
       <c r="AH107">
         <v>232</v>
@@ -13217,10 +13217,10 @@
         <v>301</v>
       </c>
       <c r="C108">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E108">
         <v>28928</v>
@@ -13289,25 +13289,25 @@
         <v>0</v>
       </c>
       <c r="AA108">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AB108">
         <v>0</v>
       </c>
       <c r="AC108">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="AD108">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE108">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="AF108">
-        <v>44.9</v>
+        <v>-6.9</v>
       </c>
       <c r="AG108">
-        <v>2.5</v>
+        <v>6.5</v>
       </c>
       <c r="AH108">
         <v>954</v>
@@ -13327,7 +13327,7 @@
         <v>302</v>
       </c>
       <c r="C109">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D109">
         <v>2</v>
@@ -13399,7 +13399,7 @@
         <v>0</v>
       </c>
       <c r="AA109">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="AB109">
         <v>0.1</v>
@@ -13414,10 +13414,10 @@
         <v>0</v>
       </c>
       <c r="AF109">
-        <v>-32.7</v>
+        <v>-26.8</v>
       </c>
       <c r="AG109">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="AH109">
         <v>902</v>
@@ -13521,13 +13521,13 @@
         <v>2</v>
       </c>
       <c r="AE110">
-        <v>5.4</v>
+        <v>-5.4</v>
       </c>
       <c r="AF110">
-        <v>-10.8</v>
+        <v>-37.8</v>
       </c>
       <c r="AG110">
-        <v>0.2</v>
+        <v>1.7</v>
       </c>
       <c r="AH110">
         <v>371</v>
@@ -13634,10 +13634,10 @@
         <v>0</v>
       </c>
       <c r="AF111">
-        <v>-52.3</v>
+        <v>14.5</v>
       </c>
       <c r="AG111">
-        <v>1.9</v>
+        <v>1.4</v>
       </c>
       <c r="AH111">
         <v>810</v>
@@ -13657,7 +13657,7 @@
         <v>305</v>
       </c>
       <c r="C112">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D112">
         <v>0</v>
@@ -13747,7 +13747,7 @@
         <v>1.6</v>
       </c>
       <c r="AG112">
-        <v>-0.2</v>
+        <v>0.8</v>
       </c>
       <c r="AH112">
         <v>1237</v>
@@ -13767,7 +13767,7 @@
         <v>306</v>
       </c>
       <c r="C113">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D113">
         <v>0</v>
@@ -13845,7 +13845,7 @@
         <v>0</v>
       </c>
       <c r="AC113">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AD113">
         <v>0</v>
@@ -13854,10 +13854,10 @@
         <v>0</v>
       </c>
       <c r="AF113">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="AG113">
-        <v>2.2</v>
+        <v>7.4</v>
       </c>
       <c r="AH113">
         <v>342</v>
@@ -13877,10 +13877,10 @@
         <v>307</v>
       </c>
       <c r="C114">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="D114">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E114">
         <v>45606</v>
@@ -13949,25 +13949,25 @@
         <v>23.6</v>
       </c>
       <c r="AA114">
-        <v>4.7</v>
+        <v>5.1</v>
       </c>
       <c r="AB114">
         <v>0.2</v>
       </c>
       <c r="AC114">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="AD114">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AE114">
-        <v>4.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AF114">
-        <v>-15.3</v>
+        <v>-13.2</v>
       </c>
       <c r="AG114">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AH114">
         <v>790</v>
@@ -13987,7 +13987,7 @@
         <v>308</v>
       </c>
       <c r="C115">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D115">
         <v>4</v>
@@ -14059,25 +14059,25 @@
         <v>20</v>
       </c>
       <c r="AA115">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AB115">
         <v>0.2</v>
       </c>
       <c r="AC115">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="AD115">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE115">
-        <v>-4.7</v>
+        <v>0</v>
       </c>
       <c r="AF115">
-        <v>-18.6</v>
+        <v>-14</v>
       </c>
       <c r="AG115">
-        <v>0.2</v>
+        <v>1.8</v>
       </c>
       <c r="AH115">
         <v>431</v>
@@ -14097,7 +14097,7 @@
         <v>309</v>
       </c>
       <c r="C116">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="D116">
         <v>29</v>
@@ -14169,25 +14169,25 @@
         <v>45.3</v>
       </c>
       <c r="AA116">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="AB116">
         <v>1</v>
       </c>
       <c r="AC116">
-        <v>12.9</v>
+        <v>12.7</v>
       </c>
       <c r="AD116">
-        <v>22.4</v>
+        <v>18</v>
       </c>
       <c r="AE116">
-        <v>-3.3</v>
+        <v>-23.1</v>
       </c>
       <c r="AF116">
-        <v>-3.3</v>
+        <v>-98.8</v>
       </c>
       <c r="AG116">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AH116">
         <v>373</v>
@@ -14207,7 +14207,7 @@
         <v>310</v>
       </c>
       <c r="C117">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="D117">
         <v>1</v>
@@ -14279,13 +14279,13 @@
         <v>25.4</v>
       </c>
       <c r="AA117">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="AB117">
         <v>0</v>
       </c>
       <c r="AC117">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="AD117">
         <v>2</v>
@@ -14294,10 +14294,10 @@
         <v>-1.2</v>
       </c>
       <c r="AF117">
-        <v>6</v>
+        <v>10.7</v>
       </c>
       <c r="AG117">
-        <v>0.1</v>
+        <v>2.2</v>
       </c>
       <c r="AH117">
         <v>3342</v>
@@ -14317,10 +14317,10 @@
         <v>311</v>
       </c>
       <c r="C118">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="D118">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E118">
         <v>65755</v>
@@ -14389,25 +14389,25 @@
         <v>27.1</v>
       </c>
       <c r="AA118">
+        <v>2.6</v>
+      </c>
+      <c r="AB118">
+        <v>0</v>
+      </c>
+      <c r="AC118">
         <v>1.8</v>
       </c>
-      <c r="AB118">
-        <v>0</v>
-      </c>
-      <c r="AC118">
-        <v>1.7</v>
-      </c>
       <c r="AD118">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE118">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AF118">
-        <v>18.2</v>
+        <v>15.2</v>
       </c>
       <c r="AG118">
-        <v>0.7</v>
+        <v>3.9</v>
       </c>
       <c r="AH118">
         <v>1818</v>
@@ -14427,7 +14427,7 @@
         <v>312</v>
       </c>
       <c r="C119">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D119">
         <v>3</v>
@@ -14514,10 +14514,10 @@
         <v>0</v>
       </c>
       <c r="AF119">
-        <v>-57.6</v>
+        <v>-115.3</v>
       </c>
       <c r="AG119">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AH119">
         <v>318</v>
@@ -14537,10 +14537,10 @@
         <v>313</v>
       </c>
       <c r="C120">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="D120">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E120">
         <v>26216</v>
@@ -14609,25 +14609,25 @@
         <v>24.4</v>
       </c>
       <c r="AA120">
-        <v>8.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AB120">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="AC120">
-        <v>9.199999999999999</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AD120">
-        <v>22.4</v>
+        <v>22</v>
       </c>
       <c r="AE120">
-        <v>-11.4</v>
+        <v>3.8</v>
       </c>
       <c r="AF120">
-        <v>34.3</v>
+        <v>22.9</v>
       </c>
       <c r="AG120">
-        <v>0.1</v>
+        <v>1.8</v>
       </c>
       <c r="AH120">
         <v>499</v>
@@ -14647,10 +14647,10 @@
         <v>314</v>
       </c>
       <c r="C121">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="D121">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E121">
         <v>90132</v>
@@ -14719,25 +14719,25 @@
         <v>14.2</v>
       </c>
       <c r="AA121">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="AB121">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AC121">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AD121">
-        <v>4.1</v>
+        <v>6</v>
       </c>
       <c r="AE121">
-        <v>2.2</v>
+        <v>1.1</v>
       </c>
       <c r="AF121">
-        <v>-1.1</v>
+        <v>-28.8</v>
       </c>
       <c r="AG121">
-        <v>1.6</v>
+        <v>4.2</v>
       </c>
       <c r="AH121">
         <v>2770</v>
@@ -14757,10 +14757,10 @@
         <v>315</v>
       </c>
       <c r="C122">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D122">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E122">
         <v>111369</v>
@@ -14829,7 +14829,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AA122">
-        <v>5.3</v>
+        <v>5.9</v>
       </c>
       <c r="AB122">
         <v>0.1</v>
@@ -14838,16 +14838,16 @@
         <v>1.7</v>
       </c>
       <c r="AD122">
-        <v>4.1</v>
+        <v>6</v>
       </c>
       <c r="AE122">
-        <v>1.8</v>
+        <v>-0.9</v>
       </c>
       <c r="AF122">
-        <v>-7.2</v>
+        <v>-16.2</v>
       </c>
       <c r="AG122">
-        <v>0.3</v>
+        <v>1.4</v>
       </c>
       <c r="AH122">
         <v>2954</v>
@@ -14867,7 +14867,7 @@
         <v>316</v>
       </c>
       <c r="C123">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D123">
         <v>1</v>
@@ -14939,14 +14939,14 @@
         <v>46.1</v>
       </c>
       <c r="AA123">
+        <v>1.4</v>
+      </c>
+      <c r="AB123">
+        <v>0</v>
+      </c>
+      <c r="AC123">
         <v>1.5</v>
       </c>
-      <c r="AB123">
-        <v>0</v>
-      </c>
-      <c r="AC123">
-        <v>1.4</v>
-      </c>
       <c r="AD123">
         <v>0</v>
       </c>
@@ -14954,10 +14954,10 @@
         <v>0</v>
       </c>
       <c r="AF123">
-        <v>4.2</v>
+        <v>12.7</v>
       </c>
       <c r="AG123">
-        <v>-0.1</v>
+        <v>3.1</v>
       </c>
       <c r="AH123">
         <v>1155</v>
@@ -14977,10 +14977,10 @@
         <v>317</v>
       </c>
       <c r="C124">
-        <v>167</v>
+        <v>197</v>
       </c>
       <c r="D124">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E124">
         <v>76887</v>
@@ -15049,25 +15049,25 @@
         <v>6.1</v>
       </c>
       <c r="AA124">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AB124">
         <v>0.1</v>
       </c>
       <c r="AC124">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="AD124">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE124">
-        <v>-1.3</v>
+        <v>0</v>
       </c>
       <c r="AF124">
-        <v>44.2</v>
+        <v>49.4</v>
       </c>
       <c r="AG124">
-        <v>0.8</v>
+        <v>4.6</v>
       </c>
       <c r="AH124">
         <v>2184</v>
@@ -15087,7 +15087,7 @@
         <v>318</v>
       </c>
       <c r="C125">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="D125">
         <v>5</v>
@@ -15159,13 +15159,13 @@
         <v>27.9</v>
       </c>
       <c r="AA125">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="AB125">
         <v>0.1</v>
       </c>
       <c r="AC125">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="AD125">
         <v>2</v>
@@ -15174,10 +15174,10 @@
         <v>1.4</v>
       </c>
       <c r="AF125">
-        <v>-24.4</v>
+        <v>-18.6</v>
       </c>
       <c r="AG125">
-        <v>0.4</v>
+        <v>2.6</v>
       </c>
       <c r="AH125">
         <v>1783</v>
@@ -15197,10 +15197,10 @@
         <v>319</v>
       </c>
       <c r="C126">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="D126">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E126">
         <v>22846</v>
@@ -15269,25 +15269,25 @@
         <v>18.2</v>
       </c>
       <c r="AA126">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="AB126">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="AC126">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="AD126">
-        <v>4.1</v>
+        <v>8</v>
       </c>
       <c r="AE126">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AF126">
-        <v>-83.2</v>
+        <v>-78.8</v>
       </c>
       <c r="AG126">
-        <v>0.3</v>
+        <v>1.7</v>
       </c>
       <c r="AH126">
         <v>460</v>
@@ -15307,7 +15307,7 @@
         <v>320</v>
       </c>
       <c r="C127">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D127">
         <v>0</v>
@@ -15385,7 +15385,7 @@
         <v>0</v>
       </c>
       <c r="AC127">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AD127">
         <v>0</v>
@@ -15394,10 +15394,10 @@
         <v>0</v>
       </c>
       <c r="AF127">
-        <v>-4.8</v>
+        <v>-36</v>
       </c>
       <c r="AG127">
-        <v>1</v>
+        <v>4.2</v>
       </c>
       <c r="AH127">
         <v>1562</v>
@@ -15417,10 +15417,10 @@
         <v>321</v>
       </c>
       <c r="C128">
-        <v>355</v>
+        <v>376</v>
       </c>
       <c r="D128">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E128">
         <v>44289</v>
@@ -15489,25 +15489,25 @@
         <v>6.6</v>
       </c>
       <c r="AA128">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="AB128">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="AC128">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AD128">
-        <v>14.3</v>
+        <v>18</v>
       </c>
       <c r="AE128">
-        <v>6.8</v>
+        <v>2.3</v>
       </c>
       <c r="AF128">
-        <v>153.5</v>
+        <v>36.1</v>
       </c>
       <c r="AG128">
-        <v>2.2</v>
+        <v>7</v>
       </c>
       <c r="AH128">
         <v>1076</v>
@@ -15527,10 +15527,10 @@
         <v>322</v>
       </c>
       <c r="C129">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D129">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E129">
         <v>147295</v>
@@ -15599,25 +15599,25 @@
         <v>0</v>
       </c>
       <c r="AA129">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="AB129">
         <v>0</v>
       </c>
       <c r="AC129">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="AD129">
-        <v>4.1</v>
+        <v>6</v>
       </c>
       <c r="AE129">
-        <v>1.4</v>
+        <v>-0.7</v>
       </c>
       <c r="AF129">
-        <v>-2.7</v>
+        <v>-12.2</v>
       </c>
       <c r="AG129">
-        <v>0.2</v>
+        <v>2</v>
       </c>
       <c r="AH129">
         <v>3091</v>
@@ -15637,7 +15637,7 @@
         <v>323</v>
       </c>
       <c r="C130">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="D130">
         <v>13</v>
@@ -15709,13 +15709,13 @@
         <v>44.8</v>
       </c>
       <c r="AA130">
-        <v>8.1</v>
+        <v>7.5</v>
       </c>
       <c r="AB130">
         <v>0.1</v>
       </c>
       <c r="AC130">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="AD130">
         <v>0</v>
@@ -15724,10 +15724,10 @@
         <v>0</v>
       </c>
       <c r="AF130">
-        <v>-4</v>
+        <v>3.2</v>
       </c>
       <c r="AG130">
-        <v>0.1</v>
+        <v>2.6</v>
       </c>
       <c r="AH130">
         <v>4868</v>
@@ -15747,10 +15747,10 @@
         <v>324</v>
       </c>
       <c r="C131">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="D131">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E131">
         <v>42961</v>
@@ -15819,25 +15819,25 @@
         <v>15.4</v>
       </c>
       <c r="AA131">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="AB131">
         <v>0.2</v>
       </c>
       <c r="AC131">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="AD131">
-        <v>6.1</v>
+        <v>8</v>
       </c>
       <c r="AE131">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AF131">
-        <v>32.6</v>
+        <v>-25.6</v>
       </c>
       <c r="AG131">
-        <v>0.5</v>
+        <v>4.1</v>
       </c>
       <c r="AH131">
         <v>546</v>
@@ -15857,7 +15857,7 @@
         <v>325</v>
       </c>
       <c r="C132">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="D132">
         <v>4</v>
@@ -15929,25 +15929,25 @@
         <v>36</v>
       </c>
       <c r="AA132">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="AB132">
         <v>0</v>
       </c>
       <c r="AC132">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AD132">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE132">
-        <v>-0.9</v>
+        <v>0</v>
       </c>
       <c r="AF132">
-        <v>-13.1</v>
+        <v>-12.2</v>
       </c>
       <c r="AG132">
-        <v>0.4</v>
+        <v>2.2</v>
       </c>
       <c r="AH132">
         <v>2512</v>
@@ -15967,7 +15967,7 @@
         <v>326</v>
       </c>
       <c r="C133">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="D133">
         <v>4</v>
@@ -16039,13 +16039,13 @@
         <v>11.4</v>
       </c>
       <c r="AA133">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="AB133">
         <v>0</v>
       </c>
       <c r="AC133">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="AD133">
         <v>0</v>
@@ -16054,10 +16054,10 @@
         <v>0</v>
       </c>
       <c r="AF133">
-        <v>21.3</v>
+        <v>17.1</v>
       </c>
       <c r="AG133">
-        <v>0.5</v>
+        <v>2.4</v>
       </c>
       <c r="AH133">
         <v>4496</v>
@@ -16077,7 +16077,7 @@
         <v>327</v>
       </c>
       <c r="C134">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D134">
         <v>2</v>
@@ -16149,7 +16149,7 @@
         <v>23.2</v>
       </c>
       <c r="AA134">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="AB134">
         <v>0</v>
@@ -16164,10 +16164,10 @@
         <v>0</v>
       </c>
       <c r="AF134">
-        <v>6.7</v>
+        <v>4</v>
       </c>
       <c r="AG134">
-        <v>-0.1</v>
+        <v>1.8</v>
       </c>
       <c r="AH134">
         <v>2160</v>
@@ -16187,7 +16187,7 @@
         <v>328</v>
       </c>
       <c r="C135">
-        <v>341</v>
+        <v>356</v>
       </c>
       <c r="D135">
         <v>10</v>
@@ -16259,7 +16259,7 @@
         <v>7.5</v>
       </c>
       <c r="AA135">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="AB135">
         <v>0</v>
@@ -16268,16 +16268,16 @@
         <v>1.6</v>
       </c>
       <c r="AD135">
-        <v>6.1</v>
+        <v>4</v>
       </c>
       <c r="AE135">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AF135">
-        <v>4.5</v>
+        <v>-0.5</v>
       </c>
       <c r="AG135">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="AH135">
         <v>5395</v>
@@ -16297,7 +16297,7 @@
         <v>329</v>
       </c>
       <c r="C136">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D136">
         <v>1</v>
@@ -16384,10 +16384,10 @@
         <v>2.5</v>
       </c>
       <c r="AF136">
-        <v>5.1</v>
+        <v>-15.2</v>
       </c>
       <c r="AG136">
-        <v>1</v>
+        <v>4.6</v>
       </c>
       <c r="AH136">
         <v>848</v>
@@ -16407,10 +16407,10 @@
         <v>330</v>
       </c>
       <c r="C137">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D137">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E137">
         <v>56790</v>
@@ -16479,25 +16479,25 @@
         <v>10</v>
       </c>
       <c r="AA137">
-        <v>11.2</v>
+        <v>11.9</v>
       </c>
       <c r="AB137">
         <v>0.2</v>
       </c>
       <c r="AC137">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AD137">
-        <v>14.3</v>
+        <v>12</v>
       </c>
       <c r="AE137">
-        <v>-8.800000000000001</v>
+        <v>-3.5</v>
       </c>
       <c r="AF137">
-        <v>31.7</v>
+        <v>10.6</v>
       </c>
       <c r="AG137">
-        <v>1.1</v>
+        <v>3.6</v>
       </c>
       <c r="AH137">
         <v>1418</v>
@@ -16517,7 +16517,7 @@
         <v>331</v>
       </c>
       <c r="C138">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="D138">
         <v>11</v>
@@ -16589,7 +16589,7 @@
         <v>14.5</v>
       </c>
       <c r="AA138">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="AB138">
         <v>0.2</v>
@@ -16598,16 +16598,16 @@
         <v>3.4</v>
       </c>
       <c r="AD138">
-        <v>8.199999999999999</v>
+        <v>6</v>
       </c>
       <c r="AE138">
-        <v>3.1</v>
+        <v>1.5</v>
       </c>
       <c r="AF138">
-        <v>-61.8</v>
+        <v>-78.8</v>
       </c>
       <c r="AG138">
-        <v>0.8</v>
+        <v>3.6</v>
       </c>
       <c r="AH138">
         <v>1513</v>
@@ -16627,10 +16627,10 @@
         <v>332</v>
       </c>
       <c r="C139">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="D139">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E139">
         <v>155840</v>
@@ -16699,25 +16699,25 @@
         <v>19</v>
       </c>
       <c r="AA139">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="AB139">
         <v>0.1</v>
       </c>
       <c r="AC139">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="AD139">
-        <v>4.1</v>
+        <v>6</v>
       </c>
       <c r="AE139">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="AF139">
-        <v>10.3</v>
+        <v>3.2</v>
       </c>
       <c r="AG139">
-        <v>-0</v>
+        <v>2.6</v>
       </c>
       <c r="AH139">
         <v>4507</v>
@@ -16737,7 +16737,7 @@
         <v>333</v>
       </c>
       <c r="C140">
-        <v>261</v>
+        <v>274</v>
       </c>
       <c r="D140">
         <v>14</v>
@@ -16809,25 +16809,25 @@
         <v>14.9</v>
       </c>
       <c r="AA140">
-        <v>5.4</v>
+        <v>5.1</v>
       </c>
       <c r="AB140">
         <v>0.1</v>
       </c>
       <c r="AC140">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="AD140">
-        <v>6.1</v>
+        <v>2</v>
       </c>
       <c r="AE140">
-        <v>-0.7</v>
+        <v>0.7</v>
       </c>
       <c r="AF140">
-        <v>8.6</v>
+        <v>15.8</v>
       </c>
       <c r="AG140">
-        <v>0.4</v>
+        <v>2.5</v>
       </c>
       <c r="AH140">
         <v>3816</v>
@@ -16847,10 +16847,10 @@
         <v>334</v>
       </c>
       <c r="C141">
-        <v>1543</v>
+        <v>1555</v>
       </c>
       <c r="D141">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E141">
         <v>91049</v>
@@ -16925,19 +16925,19 @@
         <v>1.4</v>
       </c>
       <c r="AC141">
-        <v>16.9</v>
+        <v>17.1</v>
       </c>
       <c r="AD141">
-        <v>55.1</v>
+        <v>40</v>
       </c>
       <c r="AE141">
-        <v>-5.5</v>
+        <v>-6.6</v>
       </c>
       <c r="AF141">
-        <v>20.9</v>
+        <v>22</v>
       </c>
       <c r="AG141">
-        <v>-0</v>
+        <v>0.4</v>
       </c>
       <c r="AH141">
         <v>2663</v>
@@ -16957,10 +16957,10 @@
         <v>335</v>
       </c>
       <c r="C142">
-        <v>1776</v>
+        <v>1914</v>
       </c>
       <c r="D142">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E142">
         <v>195961</v>
@@ -17029,25 +17029,25 @@
         <v>23</v>
       </c>
       <c r="AA142">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="AB142">
         <v>0.1</v>
       </c>
       <c r="AC142">
-        <v>9.1</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD142">
-        <v>28.6</v>
+        <v>36</v>
       </c>
       <c r="AE142">
-        <v>4.1</v>
+        <v>-2</v>
       </c>
       <c r="AF142">
-        <v>143.9</v>
+        <v>152.6</v>
       </c>
       <c r="AG142">
-        <v>1.8</v>
+        <v>5.1</v>
       </c>
       <c r="AH142">
         <v>4826</v>
@@ -17067,10 +17067,10 @@
         <v>336</v>
       </c>
       <c r="C143">
-        <v>199</v>
+        <v>223</v>
       </c>
       <c r="D143">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E143">
         <v>89011</v>
@@ -17139,25 +17139,25 @@
         <v>12.2</v>
       </c>
       <c r="AA143">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="AB143">
         <v>0.1</v>
       </c>
       <c r="AC143">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="AD143">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE143">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AF143">
-        <v>7.9</v>
+        <v>12.4</v>
       </c>
       <c r="AG143">
-        <v>-0</v>
+        <v>2.9</v>
       </c>
       <c r="AH143">
         <v>2768</v>
@@ -17177,10 +17177,10 @@
         <v>337</v>
       </c>
       <c r="C144">
-        <v>341</v>
+        <v>359</v>
       </c>
       <c r="D144">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E144">
         <v>103620</v>
@@ -17249,25 +17249,25 @@
         <v>5.8</v>
       </c>
       <c r="AA144">
-        <v>9.1</v>
+        <v>8.9</v>
       </c>
       <c r="AB144">
         <v>0.3</v>
       </c>
       <c r="AC144">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="AD144">
-        <v>14.3</v>
+        <v>10</v>
       </c>
       <c r="AE144">
-        <v>-2.9</v>
+        <v>-1</v>
       </c>
       <c r="AF144">
-        <v>17.4</v>
+        <v>0</v>
       </c>
       <c r="AG144">
-        <v>0.2</v>
+        <v>2.2</v>
       </c>
       <c r="AH144">
         <v>3848</v>
@@ -17287,7 +17287,7 @@
         <v>338</v>
       </c>
       <c r="C145">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="D145">
         <v>15</v>
@@ -17359,25 +17359,25 @@
         <v>22.7</v>
       </c>
       <c r="AA145">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="AB145">
         <v>0.1</v>
       </c>
       <c r="AC145">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="AD145">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AE145">
-        <v>0</v>
+        <v>-1.7</v>
       </c>
       <c r="AF145">
-        <v>24.1</v>
+        <v>-0.9</v>
       </c>
       <c r="AG145">
-        <v>-0</v>
+        <v>1.6</v>
       </c>
       <c r="AH145">
         <v>3655</v>
@@ -17397,7 +17397,7 @@
         <v>339</v>
       </c>
       <c r="C146">
-        <v>343</v>
+        <v>363</v>
       </c>
       <c r="D146">
         <v>11</v>
@@ -17469,25 +17469,25 @@
         <v>12.3</v>
       </c>
       <c r="AA146">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="AB146">
         <v>0.1</v>
       </c>
       <c r="AC146">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="AD146">
-        <v>10.2</v>
+        <v>6</v>
       </c>
       <c r="AE146">
-        <v>-3.5</v>
+        <v>-2.1</v>
       </c>
       <c r="AF146">
-        <v>12.7</v>
+        <v>0</v>
       </c>
       <c r="AG146">
-        <v>0.2</v>
+        <v>2.1</v>
       </c>
       <c r="AH146">
         <v>4793</v>
@@ -17507,7 +17507,7 @@
         <v>340</v>
       </c>
       <c r="C147">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="D147">
         <v>8</v>
@@ -17579,25 +17579,25 @@
         <v>7.4</v>
       </c>
       <c r="AA147">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="AB147">
         <v>0.1</v>
       </c>
       <c r="AC147">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AD147">
-        <v>10.2</v>
+        <v>6</v>
       </c>
       <c r="AE147">
-        <v>-2.8</v>
+        <v>-0.9</v>
       </c>
       <c r="AF147">
-        <v>7.5</v>
+        <v>-7.5</v>
       </c>
       <c r="AG147">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="AH147">
         <v>3326</v>
@@ -17617,10 +17617,10 @@
         <v>341</v>
       </c>
       <c r="C148">
-        <v>509</v>
+        <v>544</v>
       </c>
       <c r="D148">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E148">
         <v>241910</v>
@@ -17689,25 +17689,25 @@
         <v>2.5</v>
       </c>
       <c r="AA148">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="AB148">
         <v>0.1</v>
       </c>
       <c r="AC148">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AD148">
-        <v>10.2</v>
+        <v>12</v>
       </c>
       <c r="AE148">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="AF148">
-        <v>16.5</v>
+        <v>-12.4</v>
       </c>
       <c r="AG148">
-        <v>0.6</v>
+        <v>2.9</v>
       </c>
       <c r="AH148">
         <v>9092</v>
@@ -17727,10 +17727,10 @@
         <v>342</v>
       </c>
       <c r="C149">
-        <v>346</v>
+        <v>367</v>
       </c>
       <c r="D149">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E149">
         <v>153490</v>
@@ -17799,25 +17799,25 @@
         <v>56.9</v>
       </c>
       <c r="AA149">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="AB149">
         <v>0.1</v>
       </c>
       <c r="AC149">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="AD149">
-        <v>22.4</v>
+        <v>20</v>
       </c>
       <c r="AE149">
-        <v>-0.7</v>
+        <v>-1.3</v>
       </c>
       <c r="AF149">
-        <v>24.1</v>
+        <v>-8.5</v>
       </c>
       <c r="AG149">
-        <v>0.8</v>
+        <v>3.3</v>
       </c>
       <c r="AH149">
         <v>4321</v>
@@ -17837,10 +17837,10 @@
         <v>343</v>
       </c>
       <c r="C150">
-        <v>335</v>
+        <v>348</v>
       </c>
       <c r="D150">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E150">
         <v>196670</v>
@@ -17909,25 +17909,25 @@
         <v>58.9</v>
       </c>
       <c r="AA150">
-        <v>2.1</v>
+        <v>3.4</v>
       </c>
       <c r="AB150">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AC150">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="AD150">
-        <v>6.1</v>
+        <v>16</v>
       </c>
       <c r="AE150">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AF150">
-        <v>-1</v>
+        <v>-3.1</v>
       </c>
       <c r="AG150">
-        <v>0.3</v>
+        <v>2.2</v>
       </c>
       <c r="AH150">
         <v>5446</v>
@@ -17947,7 +17947,7 @@
         <v>344</v>
       </c>
       <c r="C151">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D151">
         <v>11</v>
@@ -18019,25 +18019,25 @@
         <v>58.2</v>
       </c>
       <c r="AA151">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="AB151">
         <v>0.1</v>
       </c>
       <c r="AC151">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AD151">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="AE151">
         <v>-3.1</v>
       </c>
       <c r="AF151">
-        <v>8.300000000000001</v>
+        <v>2.1</v>
       </c>
       <c r="AG151">
-        <v>-0.1</v>
+        <v>1.2</v>
       </c>
       <c r="AH151">
         <v>3764</v>
@@ -18057,7 +18057,7 @@
         <v>345</v>
       </c>
       <c r="C152">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="D152">
         <v>6</v>
@@ -18129,25 +18129,25 @@
         <v>20.2</v>
       </c>
       <c r="AA152">
-        <v>4.8</v>
+        <v>4.4</v>
       </c>
       <c r="AB152">
         <v>0.1</v>
       </c>
       <c r="AC152">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="AD152">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="AE152">
         <v>1.9</v>
       </c>
       <c r="AF152">
-        <v>31.8</v>
+        <v>28.9</v>
       </c>
       <c r="AG152">
-        <v>0.8</v>
+        <v>6.4</v>
       </c>
       <c r="AH152">
         <v>2661</v>
@@ -18167,10 +18167,10 @@
         <v>346</v>
       </c>
       <c r="C153">
-        <v>520</v>
+        <v>546</v>
       </c>
       <c r="D153">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E153">
         <v>221307</v>
@@ -18239,25 +18239,25 @@
         <v>10.9</v>
       </c>
       <c r="AA153">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AB153">
         <v>0.1</v>
       </c>
       <c r="AC153">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="AD153">
-        <v>6.1</v>
+        <v>8</v>
       </c>
       <c r="AE153">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AF153">
-        <v>-11.7</v>
+        <v>-23.5</v>
       </c>
       <c r="AG153">
-        <v>0.4</v>
+        <v>2</v>
       </c>
       <c r="AH153">
         <v>7343</v>
@@ -18277,10 +18277,10 @@
         <v>347</v>
       </c>
       <c r="C154">
-        <v>246</v>
+        <v>282</v>
       </c>
       <c r="D154">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E154">
         <v>287049</v>
@@ -18349,25 +18349,25 @@
         <v>41.5</v>
       </c>
       <c r="AA154">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="AB154">
         <v>0</v>
       </c>
       <c r="AC154">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AD154">
-        <v>8.199999999999999</v>
+        <v>12</v>
       </c>
       <c r="AE154">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="AF154">
-        <v>4.9</v>
+        <v>11.5</v>
       </c>
       <c r="AG154">
-        <v>0.1</v>
+        <v>2.5</v>
       </c>
       <c r="AH154">
         <v>14925</v>
@@ -18387,7 +18387,7 @@
         <v>348</v>
       </c>
       <c r="C155">
-        <v>422</v>
+        <v>429</v>
       </c>
       <c r="D155">
         <v>15</v>
@@ -18459,7 +18459,7 @@
         <v>99</v>
       </c>
       <c r="AA155">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AB155">
         <v>0.1</v>
@@ -18468,16 +18468,16 @@
         <v>2.1</v>
       </c>
       <c r="AD155">
-        <v>8.199999999999999</v>
+        <v>4</v>
       </c>
       <c r="AE155">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AF155">
-        <v>-24.3</v>
+        <v>-18.9</v>
       </c>
       <c r="AG155">
-        <v>0.2</v>
+        <v>1.8</v>
       </c>
       <c r="AH155">
         <v>5203</v>
@@ -18497,10 +18497,10 @@
         <v>349</v>
       </c>
       <c r="C156">
-        <v>804</v>
+        <v>849</v>
       </c>
       <c r="D156">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E156">
         <v>278666</v>
@@ -18569,25 +18569,25 @@
         <v>22.9</v>
       </c>
       <c r="AA156">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="AB156">
         <v>0.1</v>
       </c>
       <c r="AC156">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="AD156">
-        <v>24.5</v>
+        <v>24</v>
       </c>
       <c r="AE156">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="AF156">
-        <v>16.5</v>
+        <v>4.3</v>
       </c>
       <c r="AG156">
-        <v>0.3</v>
+        <v>2.3</v>
       </c>
       <c r="AH156">
         <v>10024</v>
@@ -18607,10 +18607,10 @@
         <v>350</v>
       </c>
       <c r="C157">
-        <v>1839</v>
+        <v>1998</v>
       </c>
       <c r="D157">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="E157">
         <v>745057</v>
@@ -18679,25 +18679,25 @@
         <v>15</v>
       </c>
       <c r="AA157">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="AB157">
         <v>0.1</v>
       </c>
       <c r="AC157">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="AD157">
-        <v>91.8</v>
+        <v>88</v>
       </c>
       <c r="AE157">
-        <v>-0.7</v>
+        <v>-0.8</v>
       </c>
       <c r="AF157">
-        <v>9.300000000000001</v>
+        <v>14.5</v>
       </c>
       <c r="AG157">
-        <v>0.4</v>
+        <v>3</v>
       </c>
       <c r="AH157">
         <v>26415</v>
@@ -18717,10 +18717,10 @@
         <v>351</v>
       </c>
       <c r="C158">
-        <v>2057</v>
+        <v>2222</v>
       </c>
       <c r="D158">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="E158">
         <v>902298</v>
@@ -18789,25 +18789,25 @@
         <v>11.1</v>
       </c>
       <c r="AA158">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="AB158">
         <v>0.1</v>
       </c>
       <c r="AC158">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="AD158">
-        <v>46.9</v>
+        <v>70</v>
       </c>
       <c r="AE158">
-        <v>0.3</v>
+        <v>1.9</v>
       </c>
       <c r="AF158">
-        <v>16.4</v>
+        <v>0.8</v>
       </c>
       <c r="AG158">
-        <v>0.7</v>
+        <v>3.6</v>
       </c>
       <c r="AH158">
         <v>29768</v>
@@ -18827,10 +18827,10 @@
         <v>352</v>
       </c>
       <c r="C159">
-        <v>2255</v>
+        <v>2357</v>
       </c>
       <c r="D159">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E159">
         <v>743187</v>
@@ -18899,25 +18899,25 @@
         <v>31.4</v>
       </c>
       <c r="AA159">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AB159">
         <v>0.1</v>
       </c>
       <c r="AC159">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="AD159">
-        <v>63.3</v>
+        <v>60</v>
       </c>
       <c r="AE159">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="AF159">
-        <v>8.699999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AG159">
-        <v>0.3</v>
+        <v>2.4</v>
       </c>
       <c r="AH159">
         <v>27027</v>
@@ -18937,10 +18937,10 @@
         <v>353</v>
       </c>
       <c r="C160">
-        <v>3057</v>
+        <v>3250</v>
       </c>
       <c r="D160">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="E160">
         <v>1021902</v>
@@ -19015,19 +19015,19 @@
         <v>0.1</v>
       </c>
       <c r="AC160">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="AD160">
         <v>100</v>
       </c>
       <c r="AE160">
-        <v>0.3</v>
+        <v>-1.2</v>
       </c>
       <c r="AF160">
-        <v>-10.3</v>
+        <v>-6.4</v>
       </c>
       <c r="AG160">
-        <v>0.3</v>
+        <v>2.1</v>
       </c>
       <c r="AH160">
         <v>44097</v>

--- a/data/countyData.xlsx
+++ b/data/countyData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="355">
   <si>
     <t>FIPS</t>
   </si>
@@ -124,15 +124,15 @@
     <t>Claims_Pct_Change</t>
   </si>
   <si>
+    <t>13239</t>
+  </si>
+  <si>
+    <t>13065</t>
+  </si>
+  <si>
     <t>13101</t>
   </si>
   <si>
-    <t>13239</t>
-  </si>
-  <si>
-    <t>13065</t>
-  </si>
-  <si>
     <t>13307</t>
   </si>
   <si>
@@ -601,15 +601,15 @@
     <t>13121</t>
   </si>
   <si>
+    <t>Quitman County</t>
+  </si>
+  <si>
+    <t>Clinch County</t>
+  </si>
+  <si>
     <t>Echols County</t>
   </si>
   <si>
-    <t>Quitman County</t>
-  </si>
-  <si>
-    <t>Clinch County</t>
-  </si>
-  <si>
     <t>Webster County</t>
   </si>
   <si>
@@ -1076,6 +1076,9 @@
   </si>
   <si>
     <t>Fulton County</t>
+  </si>
+  <si>
+    <t>inf</t>
   </si>
 </sst>
 </file>
@@ -1557,61 +1560,61 @@
         <v>195</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>3994</v>
+        <v>2276</v>
       </c>
       <c r="F2">
-        <v>861</v>
+        <v>421</v>
       </c>
       <c r="G2">
-        <v>3133</v>
+        <v>1855</v>
       </c>
       <c r="H2">
-        <v>646</v>
+        <v>608</v>
       </c>
       <c r="I2">
-        <v>16.2</v>
+        <v>26.7</v>
       </c>
       <c r="J2">
-        <v>854.2678317409049</v>
+        <v>440.0618984850062</v>
       </c>
       <c r="K2">
-        <v>6.4</v>
+        <v>3.5</v>
       </c>
       <c r="L2">
         <v>0.8</v>
       </c>
       <c r="M2">
-        <v>118.7</v>
+        <v>81.8</v>
       </c>
       <c r="N2">
-        <v>13.9</v>
+        <v>18.6</v>
       </c>
       <c r="O2">
-        <v>0.86</v>
+        <v>0.98</v>
       </c>
       <c r="P2">
-        <v>0.27</v>
+        <v>0.97</v>
       </c>
       <c r="Q2">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="R2">
-        <v>0.26</v>
+        <v>0.37</v>
       </c>
       <c r="S2">
-        <v>0.07000000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="T2">
-        <v>0.54</v>
+        <v>0.72</v>
       </c>
       <c r="U2">
-        <v>0.48</v>
+        <v>0.99</v>
       </c>
       <c r="V2">
         <v>0</v>
@@ -1623,22 +1626,22 @@
         <v>0</v>
       </c>
       <c r="Y2">
-        <v>23.3</v>
+        <v>12.3</v>
       </c>
       <c r="Z2">
         <v>0</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AC2">
-        <v>1.3</v>
+        <v>3.5</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AE2">
         <v>0</v>
@@ -1647,16 +1650,16 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AH2">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="AI2">
-        <v>1</v>
-      </c>
-      <c r="AJ2">
-        <v>2700</v>
+        <v>0</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="3" spans="1:36">
@@ -1667,40 +1670,40 @@
         <v>196</v>
       </c>
       <c r="C3">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3">
-        <v>2276</v>
+        <v>6743</v>
       </c>
       <c r="F3">
-        <v>421</v>
+        <v>1810</v>
       </c>
       <c r="G3">
-        <v>1855</v>
+        <v>4933</v>
       </c>
       <c r="H3">
-        <v>608</v>
+        <v>1023</v>
       </c>
       <c r="I3">
-        <v>26.7</v>
+        <v>15.2</v>
       </c>
       <c r="J3">
-        <v>440.0618984850062</v>
+        <v>2513.42463038527</v>
       </c>
       <c r="K3">
-        <v>3.5</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="L3">
-        <v>0.8</v>
+        <v>3.4</v>
       </c>
       <c r="M3">
-        <v>81.8</v>
+        <v>369.1</v>
       </c>
       <c r="N3">
-        <v>18.6</v>
+        <v>14.7</v>
       </c>
       <c r="O3">
         <v>0.98</v>
@@ -1709,64 +1712,64 @@
         <v>0.97</v>
       </c>
       <c r="Q3">
-        <v>0.87</v>
+        <v>0.78</v>
       </c>
       <c r="R3">
-        <v>0.37</v>
+        <v>0.97</v>
       </c>
       <c r="S3">
-        <v>0.95</v>
+        <v>0.66</v>
       </c>
       <c r="T3">
-        <v>0.72</v>
+        <v>0.54</v>
       </c>
       <c r="U3">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="Y3">
-        <v>12.3</v>
+        <v>13.6</v>
       </c>
       <c r="Z3">
-        <v>0</v>
+        <v>24.4</v>
       </c>
       <c r="AA3">
-        <v>16.7</v>
+        <v>2.2</v>
       </c>
       <c r="AB3">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="AC3">
-        <v>2.6</v>
+        <v>6.8</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="AE3">
-        <v>0</v>
+        <v>14.8</v>
       </c>
       <c r="AF3">
-        <v>43.9</v>
+        <v>-148.3</v>
       </c>
       <c r="AG3">
-        <v>5.6</v>
+        <v>9</v>
       </c>
       <c r="AH3">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="AI3">
-        <v>1</v>
-      </c>
-      <c r="AJ3">
-        <v>800</v>
+        <v>0</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="4" spans="1:36">
@@ -1777,76 +1780,76 @@
         <v>197</v>
       </c>
       <c r="C4">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>6743</v>
+        <v>3994</v>
       </c>
       <c r="F4">
-        <v>1810</v>
+        <v>861</v>
       </c>
       <c r="G4">
-        <v>4933</v>
+        <v>3133</v>
       </c>
       <c r="H4">
-        <v>1023</v>
+        <v>646</v>
       </c>
       <c r="I4">
-        <v>15.2</v>
+        <v>16.2</v>
       </c>
       <c r="J4">
-        <v>2513.42463038527</v>
+        <v>854.2678317409049</v>
       </c>
       <c r="K4">
-        <v>84.59999999999999</v>
+        <v>6.4</v>
       </c>
       <c r="L4">
-        <v>3.4</v>
+        <v>0.8</v>
       </c>
       <c r="M4">
-        <v>369.1</v>
+        <v>118.7</v>
       </c>
       <c r="N4">
-        <v>14.7</v>
+        <v>13.9</v>
       </c>
       <c r="O4">
-        <v>0.98</v>
+        <v>0.86</v>
       </c>
       <c r="P4">
-        <v>0.97</v>
+        <v>0.27</v>
       </c>
       <c r="Q4">
-        <v>0.78</v>
+        <v>0.88</v>
       </c>
       <c r="R4">
-        <v>0.97</v>
+        <v>0.26</v>
       </c>
       <c r="S4">
-        <v>0.66</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T4">
         <v>0.54</v>
       </c>
       <c r="U4">
-        <v>0.98</v>
+        <v>0.48</v>
       </c>
       <c r="V4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>13.6</v>
+        <v>23.3</v>
       </c>
       <c r="Z4">
-        <v>24.4</v>
+        <v>0</v>
       </c>
       <c r="AA4">
         <v>0</v>
@@ -1855,28 +1858,28 @@
         <v>0</v>
       </c>
       <c r="AC4">
-        <v>2.4</v>
+        <v>13.5</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AE4">
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>103.8</v>
+        <v>901.4</v>
       </c>
       <c r="AG4">
-        <v>7.2</v>
+        <v>20.9</v>
       </c>
       <c r="AH4">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AI4">
         <v>1</v>
       </c>
       <c r="AJ4">
-        <v>2800</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="5" spans="1:36">
@@ -1887,10 +1890,10 @@
         <v>198</v>
       </c>
       <c r="C5">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E5">
         <v>2613</v>
@@ -1959,25 +1962,25 @@
         <v>0</v>
       </c>
       <c r="AA5">
-        <v>20</v>
+        <v>9.1</v>
       </c>
       <c r="AB5">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="AC5">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="AD5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>-76.5</v>
+        <v>38.3</v>
       </c>
       <c r="AF5">
-        <v>-114.8</v>
+        <v>-38.3</v>
       </c>
       <c r="AG5">
-        <v>2.8</v>
+        <v>0.7</v>
       </c>
       <c r="AH5">
         <v>15</v>
@@ -2078,7 +2081,7 @@
         <v>0.6</v>
       </c>
       <c r="AD6">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AE6">
         <v>0</v>
@@ -2107,10 +2110,10 @@
         <v>200</v>
       </c>
       <c r="C7">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E7">
         <v>3189</v>
@@ -2179,25 +2182,25 @@
         <v>0</v>
       </c>
       <c r="AA7">
-        <v>7.1</v>
+        <v>3.1</v>
       </c>
       <c r="AB7">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="AC7">
-        <v>8.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AD7">
         <v>0</v>
       </c>
       <c r="AE7">
-        <v>0</v>
+        <v>-31.4</v>
       </c>
       <c r="AF7">
-        <v>62.7</v>
+        <v>-156.8</v>
       </c>
       <c r="AG7">
-        <v>2.9</v>
+        <v>0.3</v>
       </c>
       <c r="AH7">
         <v>39</v>
@@ -2217,7 +2220,7 @@
         <v>201</v>
       </c>
       <c r="C8">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -2289,25 +2292,25 @@
         <v>34.8</v>
       </c>
       <c r="AA8">
-        <v>6.2</v>
+        <v>4.8</v>
       </c>
       <c r="AB8">
         <v>0.2</v>
       </c>
       <c r="AC8">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="AD8">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AE8">
         <v>0</v>
       </c>
       <c r="AF8">
-        <v>11.9</v>
+        <v>-11.9</v>
       </c>
       <c r="AG8">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="AH8">
         <v>109</v>
@@ -2327,7 +2330,7 @@
         <v>202</v>
       </c>
       <c r="C9">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -2399,16 +2402,16 @@
         <v>4.4</v>
       </c>
       <c r="AA9">
-        <v>5.9</v>
+        <v>4.8</v>
       </c>
       <c r="AB9">
         <v>0.1</v>
       </c>
       <c r="AC9">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="AD9">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AE9">
         <v>0</v>
@@ -2417,7 +2420,7 @@
         <v>18.5</v>
       </c>
       <c r="AG9">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="AH9">
         <v>181</v>
@@ -2437,7 +2440,7 @@
         <v>203</v>
       </c>
       <c r="C10">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -2515,19 +2518,19 @@
         <v>0</v>
       </c>
       <c r="AC10">
-        <v>5.1</v>
+        <v>6.3</v>
       </c>
       <c r="AD10">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AE10">
         <v>0</v>
       </c>
       <c r="AF10">
-        <v>-102.8</v>
+        <v>-85.7</v>
       </c>
       <c r="AG10">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="AH10">
         <v>72</v>
@@ -2547,7 +2550,7 @@
         <v>204</v>
       </c>
       <c r="C11">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -2619,25 +2622,25 @@
         <v>0</v>
       </c>
       <c r="AA11">
-        <v>6.7</v>
+        <v>6.2</v>
       </c>
       <c r="AB11">
         <v>0.2</v>
       </c>
       <c r="AC11">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="AD11">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AE11">
         <v>0</v>
       </c>
       <c r="AF11">
-        <v>0</v>
+        <v>19.2</v>
       </c>
       <c r="AG11">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AH11">
         <v>48</v>
@@ -2657,7 +2660,7 @@
         <v>205</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -2735,13 +2738,13 @@
         <v>0</v>
       </c>
       <c r="AC12">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="AD12">
         <v>0</v>
       </c>
       <c r="AE12">
-        <v>0</v>
+        <v>33.2</v>
       </c>
       <c r="AF12">
         <v>0</v>
@@ -2767,10 +2770,10 @@
         <v>206</v>
       </c>
       <c r="C13">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13">
         <v>12983</v>
@@ -2839,25 +2842,25 @@
         <v>42.6</v>
       </c>
       <c r="AA13">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="AB13">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AC13">
-        <v>1</v>
+        <v>2.2</v>
       </c>
       <c r="AD13">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="AE13">
-        <v>0</v>
+        <v>-7.7</v>
       </c>
       <c r="AF13">
-        <v>30.8</v>
+        <v>15.4</v>
       </c>
       <c r="AG13">
-        <v>4.9</v>
+        <v>3.9</v>
       </c>
       <c r="AH13">
         <v>93</v>
@@ -2877,7 +2880,7 @@
         <v>207</v>
       </c>
       <c r="C14">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -2955,10 +2958,10 @@
         <v>0</v>
       </c>
       <c r="AC14">
-        <v>1.1</v>
+        <v>1.8</v>
       </c>
       <c r="AD14">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AE14">
         <v>0</v>
@@ -2967,7 +2970,7 @@
         <v>-18.6</v>
       </c>
       <c r="AG14">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="AH14">
         <v>21</v>
@@ -2987,7 +2990,7 @@
         <v>208</v>
       </c>
       <c r="C15">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -3059,25 +3062,25 @@
         <v>6.4</v>
       </c>
       <c r="AA15">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="AB15">
         <v>0.1</v>
       </c>
       <c r="AC15">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="AD15">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AE15">
-        <v>-8.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="AF15">
-        <v>-26.3</v>
+        <v>0</v>
       </c>
       <c r="AG15">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="AH15">
         <v>302</v>
@@ -3097,10 +3100,10 @@
         <v>209</v>
       </c>
       <c r="C16">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E16">
         <v>10366</v>
@@ -3169,25 +3172,25 @@
         <v>19</v>
       </c>
       <c r="AA16">
-        <v>10</v>
+        <v>16.7</v>
       </c>
       <c r="AB16">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="AC16">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AD16">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="AE16">
-        <v>0</v>
+        <v>-9.6</v>
       </c>
       <c r="AF16">
-        <v>9.6</v>
+        <v>0</v>
       </c>
       <c r="AG16">
-        <v>2.7</v>
+        <v>1.4</v>
       </c>
       <c r="AH16">
         <v>99</v>
@@ -3207,10 +3210,10 @@
         <v>210</v>
       </c>
       <c r="C17">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E17">
         <v>3001</v>
@@ -3279,25 +3282,25 @@
         <v>0</v>
       </c>
       <c r="AA17">
-        <v>11.1</v>
+        <v>6.2</v>
       </c>
       <c r="AB17">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AC17">
-        <v>9</v>
+        <v>10.7</v>
       </c>
       <c r="AD17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE17">
-        <v>33.3</v>
+        <v>-33.3</v>
       </c>
       <c r="AF17">
-        <v>166.6</v>
+        <v>100</v>
       </c>
       <c r="AG17">
-        <v>2.2</v>
+        <v>1.3</v>
       </c>
       <c r="AH17">
         <v>115</v>
@@ -3317,10 +3320,10 @@
         <v>211</v>
       </c>
       <c r="C18">
-        <v>110</v>
+        <v>167</v>
       </c>
       <c r="D18">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E18">
         <v>8535</v>
@@ -3389,25 +3392,25 @@
         <v>0</v>
       </c>
       <c r="AA18">
+        <v>9</v>
+      </c>
+      <c r="AB18">
         <v>1.8</v>
       </c>
-      <c r="AB18">
-        <v>0.2</v>
-      </c>
       <c r="AC18">
-        <v>12.9</v>
+        <v>19.6</v>
       </c>
       <c r="AD18">
-        <v>4</v>
+        <v>24.1</v>
       </c>
       <c r="AE18">
-        <v>0</v>
+        <v>117.2</v>
       </c>
       <c r="AF18">
-        <v>480.4</v>
+        <v>0</v>
       </c>
       <c r="AG18">
-        <v>17.2</v>
+        <v>2.5</v>
       </c>
       <c r="AH18">
         <v>102</v>
@@ -3427,10 +3430,10 @@
         <v>212</v>
       </c>
       <c r="C19">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D19">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E19">
         <v>14784</v>
@@ -3499,25 +3502,25 @@
         <v>0</v>
       </c>
       <c r="AA19">
-        <v>5.9</v>
+        <v>8.9</v>
       </c>
       <c r="AB19">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="AC19">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="AD19">
-        <v>0</v>
+        <v>5.6</v>
       </c>
       <c r="AE19">
         <v>0</v>
       </c>
       <c r="AF19">
-        <v>-74.40000000000001</v>
+        <v>-6.8</v>
       </c>
       <c r="AG19">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="AH19">
         <v>242</v>
@@ -3537,7 +3540,7 @@
         <v>213</v>
       </c>
       <c r="C20">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -3615,19 +3618,19 @@
         <v>0</v>
       </c>
       <c r="AC20">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="AD20">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AE20">
         <v>0</v>
       </c>
       <c r="AF20">
-        <v>0</v>
+        <v>-50.4</v>
       </c>
       <c r="AG20">
-        <v>4.2</v>
+        <v>5.8</v>
       </c>
       <c r="AH20">
         <v>24</v>
@@ -3647,10 +3650,10 @@
         <v>214</v>
       </c>
       <c r="C21">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="D21">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E21">
         <v>10348</v>
@@ -3719,25 +3722,25 @@
         <v>13</v>
       </c>
       <c r="AA21">
-        <v>11.3</v>
+        <v>12.3</v>
       </c>
       <c r="AB21">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="AC21">
-        <v>21.4</v>
+        <v>22.7</v>
       </c>
       <c r="AD21">
-        <v>26</v>
+        <v>7.4</v>
       </c>
       <c r="AE21">
-        <v>-29</v>
+        <v>-9.699999999999999</v>
       </c>
       <c r="AF21">
-        <v>-202.9</v>
+        <v>-164.3</v>
       </c>
       <c r="AG21">
-        <v>1.3</v>
+        <v>0.4</v>
       </c>
       <c r="AH21">
         <v>71</v>
@@ -3757,7 +3760,7 @@
         <v>215</v>
       </c>
       <c r="C22">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -3835,19 +3838,19 @@
         <v>0</v>
       </c>
       <c r="AC22">
-        <v>4.3</v>
+        <v>6.6</v>
       </c>
       <c r="AD22">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AE22">
         <v>0</v>
       </c>
       <c r="AF22">
-        <v>-49.7</v>
+        <v>-115.9</v>
       </c>
       <c r="AG22">
-        <v>3.2</v>
+        <v>2.1</v>
       </c>
       <c r="AH22">
         <v>59</v>
@@ -3867,7 +3870,7 @@
         <v>216</v>
       </c>
       <c r="C23">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="D23">
         <v>2</v>
@@ -3939,25 +3942,25 @@
         <v>0</v>
       </c>
       <c r="AA23">
-        <v>9.1</v>
+        <v>4.3</v>
       </c>
       <c r="AB23">
         <v>0.1</v>
       </c>
       <c r="AC23">
-        <v>1.2</v>
+        <v>2.5</v>
       </c>
       <c r="AD23">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AE23">
         <v>0</v>
       </c>
       <c r="AF23">
-        <v>-10.8</v>
+        <v>70</v>
       </c>
       <c r="AG23">
-        <v>0.7</v>
+        <v>5.3</v>
       </c>
       <c r="AH23">
         <v>312</v>
@@ -3977,10 +3980,10 @@
         <v>217</v>
       </c>
       <c r="C24">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24">
         <v>7799</v>
@@ -4049,25 +4052,25 @@
         <v>0</v>
       </c>
       <c r="AA24">
-        <v>0</v>
+        <v>6.7</v>
       </c>
       <c r="AB24">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AC24">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="AD24">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="AE24">
-        <v>0</v>
+        <v>12.8</v>
       </c>
       <c r="AF24">
-        <v>-25.6</v>
+        <v>38.5</v>
       </c>
       <c r="AG24">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="AH24">
         <v>146</v>
@@ -4087,10 +4090,10 @@
         <v>218</v>
       </c>
       <c r="C25">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="D25">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E25">
         <v>8846</v>
@@ -4162,22 +4165,22 @@
         <v>13.3</v>
       </c>
       <c r="AB25">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AC25">
-        <v>10.2</v>
+        <v>11.1</v>
       </c>
       <c r="AD25">
-        <v>12</v>
+        <v>3.7</v>
       </c>
       <c r="AE25">
-        <v>0</v>
+        <v>11.3</v>
       </c>
       <c r="AF25">
-        <v>-395.7</v>
+        <v>-67.8</v>
       </c>
       <c r="AG25">
-        <v>2.6</v>
+        <v>0.3</v>
       </c>
       <c r="AH25">
         <v>48</v>
@@ -4197,10 +4200,10 @@
         <v>219</v>
       </c>
       <c r="C26">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="D26">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E26">
         <v>19164</v>
@@ -4269,25 +4272,25 @@
         <v>0</v>
       </c>
       <c r="AA26">
-        <v>5.2</v>
+        <v>4.7</v>
       </c>
       <c r="AB26">
         <v>0.2</v>
       </c>
       <c r="AC26">
-        <v>3</v>
+        <v>4.4</v>
       </c>
       <c r="AD26">
-        <v>2</v>
+        <v>3.7</v>
       </c>
       <c r="AE26">
         <v>-5.2</v>
       </c>
       <c r="AF26">
-        <v>36.5</v>
+        <v>31.3</v>
       </c>
       <c r="AG26">
-        <v>0.9</v>
+        <v>2.7</v>
       </c>
       <c r="AH26">
         <v>265</v>
@@ -4307,10 +4310,10 @@
         <v>220</v>
       </c>
       <c r="C27">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27">
         <v>9884</v>
@@ -4379,25 +4382,25 @@
         <v>11.1</v>
       </c>
       <c r="AA27">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="AB27">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AC27">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="AD27">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="AE27">
-        <v>0</v>
+        <v>-10.1</v>
       </c>
       <c r="AF27">
-        <v>-10.1</v>
+        <v>0</v>
       </c>
       <c r="AG27">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AH27">
         <v>94</v>
@@ -4417,10 +4420,10 @@
         <v>221</v>
       </c>
       <c r="C28">
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E28">
         <v>11228</v>
@@ -4489,25 +4492,25 @@
         <v>27.6</v>
       </c>
       <c r="AA28">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="AB28">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="AC28">
-        <v>2.6</v>
+        <v>6.5</v>
       </c>
       <c r="AD28">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="AE28">
-        <v>0</v>
+        <v>-8.9</v>
       </c>
       <c r="AF28">
-        <v>44.5</v>
+        <v>26.7</v>
       </c>
       <c r="AG28">
-        <v>2.7</v>
+        <v>5.7</v>
       </c>
       <c r="AH28">
         <v>151</v>
@@ -4527,10 +4530,10 @@
         <v>222</v>
       </c>
       <c r="C29">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E29">
         <v>8484</v>
@@ -4599,25 +4602,25 @@
         <v>0</v>
       </c>
       <c r="AA29">
-        <v>2.7</v>
+        <v>4.2</v>
       </c>
       <c r="AB29">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="AC29">
-        <v>4.4</v>
+        <v>5.7</v>
       </c>
       <c r="AD29">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="AE29">
-        <v>0</v>
+        <v>11.8</v>
       </c>
       <c r="AF29">
-        <v>-47.1</v>
+        <v>106.1</v>
       </c>
       <c r="AG29">
-        <v>0.6</v>
+        <v>1.6</v>
       </c>
       <c r="AH29">
         <v>88</v>
@@ -4637,7 +4640,7 @@
         <v>223</v>
       </c>
       <c r="C30">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="D30">
         <v>4</v>
@@ -4709,25 +4712,25 @@
         <v>14</v>
       </c>
       <c r="AA30">
-        <v>5.3</v>
+        <v>4.3</v>
       </c>
       <c r="AB30">
         <v>0.2</v>
       </c>
       <c r="AC30">
-        <v>3</v>
+        <v>3.7</v>
       </c>
       <c r="AD30">
-        <v>4</v>
+        <v>1.9</v>
       </c>
       <c r="AE30">
         <v>0</v>
       </c>
       <c r="AF30">
-        <v>-44.1</v>
+        <v>-16</v>
       </c>
       <c r="AG30">
-        <v>3.6</v>
+        <v>0.8</v>
       </c>
       <c r="AH30">
         <v>311</v>
@@ -4747,7 +4750,7 @@
         <v>224</v>
       </c>
       <c r="C31">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D31">
         <v>1</v>
@@ -4819,25 +4822,25 @@
         <v>19.7</v>
       </c>
       <c r="AA31">
-        <v>5</v>
+        <v>4.3</v>
       </c>
       <c r="AB31">
         <v>0.1</v>
       </c>
       <c r="AC31">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="AD31">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AE31">
         <v>0</v>
       </c>
       <c r="AF31">
-        <v>53.9</v>
+        <v>0</v>
       </c>
       <c r="AG31">
-        <v>2.1</v>
+        <v>0.7</v>
       </c>
       <c r="AH31">
         <v>71</v>
@@ -4857,10 +4860,10 @@
         <v>225</v>
       </c>
       <c r="C32">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="D32">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E32">
         <v>6428</v>
@@ -4929,25 +4932,25 @@
         <v>26.8</v>
       </c>
       <c r="AA32">
+        <v>5</v>
+      </c>
+      <c r="AB32">
+        <v>0.9</v>
+      </c>
+      <c r="AC32">
+        <v>18.8</v>
+      </c>
+      <c r="AD32">
         <v>3.7</v>
       </c>
-      <c r="AB32">
-        <v>0.6</v>
-      </c>
-      <c r="AC32">
-        <v>17</v>
-      </c>
-      <c r="AD32">
-        <v>2</v>
-      </c>
       <c r="AE32">
-        <v>-15.6</v>
+        <v>15.6</v>
       </c>
       <c r="AF32">
-        <v>46.7</v>
+        <v>-46.7</v>
       </c>
       <c r="AG32">
-        <v>2.1</v>
+        <v>0.5</v>
       </c>
       <c r="AH32">
         <v>114</v>
@@ -4967,7 +4970,7 @@
         <v>226</v>
       </c>
       <c r="C33">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -5039,25 +5042,25 @@
         <v>0</v>
       </c>
       <c r="AA33">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="AB33">
         <v>0.2</v>
       </c>
       <c r="AC33">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="AD33">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AE33">
         <v>0</v>
       </c>
       <c r="AF33">
-        <v>-47</v>
+        <v>62.7</v>
       </c>
       <c r="AG33">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AH33">
         <v>102</v>
@@ -5077,7 +5080,7 @@
         <v>227</v>
       </c>
       <c r="C34">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -5155,19 +5158,19 @@
         <v>0</v>
       </c>
       <c r="AC34">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="AD34">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AE34">
         <v>0</v>
       </c>
       <c r="AF34">
-        <v>0</v>
+        <v>-9.199999999999999</v>
       </c>
       <c r="AG34">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="AH34">
         <v>186</v>
@@ -5187,10 +5190,10 @@
         <v>228</v>
       </c>
       <c r="C35">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="D35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E35">
         <v>9078</v>
@@ -5262,22 +5265,22 @@
         <v>4.9</v>
       </c>
       <c r="AB35">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="AC35">
-        <v>4.5</v>
+        <v>6.7</v>
       </c>
       <c r="AD35">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="AE35">
-        <v>0</v>
+        <v>-11</v>
       </c>
       <c r="AF35">
-        <v>-77.09999999999999</v>
+        <v>231.3</v>
       </c>
       <c r="AG35">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="AH35">
         <v>127</v>
@@ -5297,7 +5300,7 @@
         <v>229</v>
       </c>
       <c r="C36">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -5375,19 +5378,19 @@
         <v>0</v>
       </c>
       <c r="AC36">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="AD36">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AE36">
         <v>0</v>
       </c>
       <c r="AF36">
-        <v>0</v>
+        <v>-14.8</v>
       </c>
       <c r="AG36">
-        <v>6</v>
+        <v>3.9</v>
       </c>
       <c r="AH36">
         <v>72</v>
@@ -5407,7 +5410,7 @@
         <v>230</v>
       </c>
       <c r="C37">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -5485,19 +5488,19 @@
         <v>0</v>
       </c>
       <c r="AC37">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="AD37">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AE37">
         <v>0</v>
       </c>
       <c r="AF37">
-        <v>-18.7</v>
+        <v>-37.4</v>
       </c>
       <c r="AG37">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="AH37">
         <v>98</v>
@@ -5517,7 +5520,7 @@
         <v>231</v>
       </c>
       <c r="C38">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D38">
         <v>20</v>
@@ -5589,25 +5592,25 @@
         <v>16.7</v>
       </c>
       <c r="AA38">
-        <v>12</v>
+        <v>11.8</v>
       </c>
       <c r="AB38">
         <v>2.8</v>
       </c>
       <c r="AC38">
-        <v>23.6</v>
+        <v>24</v>
       </c>
       <c r="AD38">
-        <v>6</v>
+        <v>1.9</v>
       </c>
       <c r="AE38">
+        <v>-28.2</v>
+      </c>
+      <c r="AF38">
         <v>-14.1</v>
       </c>
-      <c r="AF38">
-        <v>-42.3</v>
-      </c>
       <c r="AG38">
-        <v>0.8</v>
+        <v>0.1</v>
       </c>
       <c r="AH38">
         <v>156</v>
@@ -5627,7 +5630,7 @@
         <v>232</v>
       </c>
       <c r="C39">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D39">
         <v>2</v>
@@ -5699,25 +5702,25 @@
         <v>53.5</v>
       </c>
       <c r="AA39">
-        <v>11.1</v>
+        <v>9.5</v>
       </c>
       <c r="AB39">
         <v>0.2</v>
       </c>
       <c r="AC39">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="AD39">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AE39">
         <v>0</v>
       </c>
       <c r="AF39">
-        <v>-36.6</v>
+        <v>-61</v>
       </c>
       <c r="AG39">
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
       <c r="AH39">
         <v>97</v>
@@ -5818,16 +5821,16 @@
         <v>0.5</v>
       </c>
       <c r="AD40">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AE40">
         <v>0</v>
       </c>
       <c r="AF40">
-        <v>9.300000000000001</v>
+        <v>18.6</v>
       </c>
       <c r="AG40">
-        <v>1.8</v>
+        <v>0.4</v>
       </c>
       <c r="AH40">
         <v>115</v>
@@ -5847,10 +5850,10 @@
         <v>234</v>
       </c>
       <c r="C41">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="D41">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E41">
         <v>7962</v>
@@ -5919,25 +5922,25 @@
         <v>0</v>
       </c>
       <c r="AA41">
-        <v>14.1</v>
+        <v>13.3</v>
       </c>
       <c r="AB41">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="AC41">
-        <v>8.9</v>
+        <v>11.3</v>
       </c>
       <c r="AD41">
-        <v>10</v>
+        <v>3.7</v>
       </c>
       <c r="AE41">
         <v>-12.6</v>
       </c>
       <c r="AF41">
-        <v>-50.2</v>
+        <v>12.6</v>
       </c>
       <c r="AG41">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="AH41">
         <v>212</v>
@@ -5957,7 +5960,7 @@
         <v>235</v>
       </c>
       <c r="C42">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="D42">
         <v>2</v>
@@ -6029,25 +6032,25 @@
         <v>0</v>
       </c>
       <c r="AA42">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="AB42">
         <v>0.2</v>
       </c>
       <c r="AC42">
-        <v>6.6</v>
+        <v>8</v>
       </c>
       <c r="AD42">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AE42">
-        <v>-10.3</v>
+        <v>0</v>
       </c>
       <c r="AF42">
-        <v>226.1</v>
+        <v>20.6</v>
       </c>
       <c r="AG42">
-        <v>4.4</v>
+        <v>1.6</v>
       </c>
       <c r="AH42">
         <v>103</v>
@@ -6067,10 +6070,10 @@
         <v>236</v>
       </c>
       <c r="C43">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="D43">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E43">
         <v>21503</v>
@@ -6139,25 +6142,25 @@
         <v>5.1</v>
       </c>
       <c r="AA43">
-        <v>10</v>
+        <v>8.1</v>
       </c>
       <c r="AB43">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="AC43">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="AD43">
-        <v>6</v>
+        <v>5.6</v>
       </c>
       <c r="AE43">
-        <v>-14</v>
+        <v>0</v>
       </c>
       <c r="AF43">
-        <v>14</v>
+        <v>83.7</v>
       </c>
       <c r="AG43">
-        <v>4.1</v>
+        <v>3.5</v>
       </c>
       <c r="AH43">
         <v>667</v>
@@ -6177,7 +6180,7 @@
         <v>237</v>
       </c>
       <c r="C44">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -6255,19 +6258,19 @@
         <v>0</v>
       </c>
       <c r="AC44">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="AD44">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AE44">
         <v>0</v>
       </c>
       <c r="AF44">
-        <v>24.3</v>
+        <v>32.4</v>
       </c>
       <c r="AG44">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
       <c r="AH44">
         <v>199</v>
@@ -6287,7 +6290,7 @@
         <v>238</v>
       </c>
       <c r="C45">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -6365,16 +6368,16 @@
         <v>0</v>
       </c>
       <c r="AC45">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="AD45">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AE45">
         <v>0</v>
       </c>
       <c r="AF45">
-        <v>-26.3</v>
+        <v>47.3</v>
       </c>
       <c r="AG45">
         <v>3.5</v>
@@ -6397,10 +6400,10 @@
         <v>239</v>
       </c>
       <c r="C46">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="D46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E46">
         <v>20919</v>
@@ -6469,25 +6472,25 @@
         <v>26.6</v>
       </c>
       <c r="AA46">
-        <v>3.1</v>
+        <v>4.3</v>
       </c>
       <c r="AB46">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AC46">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="AD46">
-        <v>2</v>
+        <v>3.7</v>
       </c>
       <c r="AE46">
-        <v>-4.8</v>
+        <v>4.8</v>
       </c>
       <c r="AF46">
-        <v>14.3</v>
+        <v>9.6</v>
       </c>
       <c r="AG46">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="AH46">
         <v>149</v>
@@ -6507,10 +6510,10 @@
         <v>240</v>
       </c>
       <c r="C47">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="D47">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E47">
         <v>37017</v>
@@ -6579,25 +6582,25 @@
         <v>0</v>
       </c>
       <c r="AA47">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="AB47">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AC47">
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
       <c r="AD47">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="AE47">
-        <v>0</v>
+        <v>8.1</v>
       </c>
       <c r="AF47">
-        <v>5.4</v>
+        <v>24.3</v>
       </c>
       <c r="AG47">
-        <v>1.7</v>
+        <v>3.5</v>
       </c>
       <c r="AH47">
         <v>893</v>
@@ -6617,7 +6620,7 @@
         <v>241</v>
       </c>
       <c r="C48">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -6695,10 +6698,10 @@
         <v>0</v>
       </c>
       <c r="AC48">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="AD48">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AE48">
         <v>0</v>
@@ -6707,7 +6710,7 @@
         <v>-11</v>
       </c>
       <c r="AG48">
-        <v>2.3</v>
+        <v>0.9</v>
       </c>
       <c r="AH48">
         <v>572</v>
@@ -6727,7 +6730,7 @@
         <v>242</v>
       </c>
       <c r="C49">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D49">
         <v>1</v>
@@ -6799,25 +6802,25 @@
         <v>5.6</v>
       </c>
       <c r="AA49">
-        <v>7.7</v>
+        <v>6.7</v>
       </c>
       <c r="AB49">
         <v>0.1</v>
       </c>
       <c r="AC49">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="AD49">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AE49">
-        <v>6.1</v>
+        <v>0</v>
       </c>
       <c r="AF49">
-        <v>-12.2</v>
+        <v>0</v>
       </c>
       <c r="AG49">
-        <v>2.8</v>
+        <v>1.1</v>
       </c>
       <c r="AH49">
         <v>634</v>
@@ -6837,7 +6840,7 @@
         <v>243</v>
       </c>
       <c r="C50">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -6915,19 +6918,19 @@
         <v>0</v>
       </c>
       <c r="AC50">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="AD50">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AE50">
         <v>0</v>
       </c>
       <c r="AF50">
-        <v>7.1</v>
+        <v>-7.1</v>
       </c>
       <c r="AG50">
-        <v>1.8</v>
+        <v>4.6</v>
       </c>
       <c r="AH50">
         <v>350</v>
@@ -6947,7 +6950,7 @@
         <v>244</v>
       </c>
       <c r="C51">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -7025,19 +7028,19 @@
         <v>0</v>
       </c>
       <c r="AC51">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="AD51">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AE51">
         <v>0</v>
       </c>
       <c r="AF51">
-        <v>-24.1</v>
+        <v>12.1</v>
       </c>
       <c r="AG51">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="AH51">
         <v>95</v>
@@ -7057,7 +7060,7 @@
         <v>245</v>
       </c>
       <c r="C52">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -7135,19 +7138,19 @@
         <v>0</v>
       </c>
       <c r="AC52">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AD52">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AE52">
         <v>0</v>
       </c>
       <c r="AF52">
-        <v>-11.8</v>
+        <v>0</v>
       </c>
       <c r="AG52">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="AH52">
         <v>175</v>
@@ -7167,7 +7170,7 @@
         <v>246</v>
       </c>
       <c r="C53">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -7245,10 +7248,10 @@
         <v>0</v>
       </c>
       <c r="AC53">
-        <v>0.2</v>
+        <v>0.9</v>
       </c>
       <c r="AD53">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AE53">
         <v>0</v>
@@ -7257,7 +7260,7 @@
         <v>0</v>
       </c>
       <c r="AG53">
-        <v>0</v>
+        <v>6.1</v>
       </c>
       <c r="AH53">
         <v>136</v>
@@ -7277,10 +7280,10 @@
         <v>247</v>
       </c>
       <c r="C54">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E54">
         <v>18156</v>
@@ -7349,25 +7352,25 @@
         <v>0</v>
       </c>
       <c r="AA54">
-        <v>0</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AB54">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AC54">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="AD54">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="AE54">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="AF54">
-        <v>-5.5</v>
+        <v>38.6</v>
       </c>
       <c r="AG54">
-        <v>7.7</v>
+        <v>8.6</v>
       </c>
       <c r="AH54">
         <v>204</v>
@@ -7387,10 +7390,10 @@
         <v>248</v>
       </c>
       <c r="C55">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="D55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E55">
         <v>17154</v>
@@ -7459,25 +7462,25 @@
         <v>27</v>
       </c>
       <c r="AA55">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AB55">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AC55">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="AD55">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="AE55">
-        <v>0</v>
+        <v>-5.8</v>
       </c>
       <c r="AF55">
-        <v>35</v>
+        <v>17.5</v>
       </c>
       <c r="AG55">
-        <v>4.1</v>
+        <v>2.3</v>
       </c>
       <c r="AH55">
         <v>163</v>
@@ -7497,7 +7500,7 @@
         <v>249</v>
       </c>
       <c r="C56">
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -7575,19 +7578,19 @@
         <v>0</v>
       </c>
       <c r="AC56">
-        <v>1.7</v>
+        <v>3.7</v>
       </c>
       <c r="AD56">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AE56">
         <v>0</v>
       </c>
       <c r="AF56">
-        <v>43.2</v>
+        <v>113.5</v>
       </c>
       <c r="AG56">
-        <v>4.8</v>
+        <v>5.4</v>
       </c>
       <c r="AH56">
         <v>355</v>
@@ -7607,10 +7610,10 @@
         <v>250</v>
       </c>
       <c r="C57">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E57">
         <v>17184</v>
@@ -7679,25 +7682,25 @@
         <v>22.5</v>
       </c>
       <c r="AA57">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="AB57">
         <v>0.1</v>
       </c>
       <c r="AC57">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="AD57">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="AE57">
-        <v>0</v>
+        <v>-5.8</v>
       </c>
       <c r="AF57">
-        <v>11.6</v>
+        <v>40.7</v>
       </c>
       <c r="AG57">
-        <v>5.5</v>
+        <v>1.9</v>
       </c>
       <c r="AH57">
         <v>354</v>
@@ -7798,16 +7801,16 @@
         <v>1.9</v>
       </c>
       <c r="AD58">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AE58">
         <v>0</v>
       </c>
       <c r="AF58">
-        <v>-11.3</v>
+        <v>22.7</v>
       </c>
       <c r="AG58">
-        <v>0.9</v>
+        <v>0.1</v>
       </c>
       <c r="AH58">
         <v>99</v>
@@ -7827,7 +7830,7 @@
         <v>252</v>
       </c>
       <c r="C59">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D59">
         <v>1</v>
@@ -7899,25 +7902,25 @@
         <v>10.9</v>
       </c>
       <c r="AA59">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="AB59">
         <v>0.1</v>
       </c>
       <c r="AC59">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="AD59">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AE59">
         <v>0</v>
       </c>
       <c r="AF59">
-        <v>-6.7</v>
+        <v>20</v>
       </c>
       <c r="AG59">
-        <v>6.9</v>
+        <v>1.4</v>
       </c>
       <c r="AH59">
         <v>111</v>
@@ -7937,7 +7940,7 @@
         <v>253</v>
       </c>
       <c r="C60">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D60">
         <v>2</v>
@@ -8009,25 +8012,25 @@
         <v>0</v>
       </c>
       <c r="AA60">
-        <v>5</v>
+        <v>4.4</v>
       </c>
       <c r="AB60">
         <v>0.1</v>
       </c>
       <c r="AC60">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="AD60">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AE60">
         <v>0</v>
       </c>
       <c r="AF60">
-        <v>-16.6</v>
+        <v>-11.1</v>
       </c>
       <c r="AG60">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="AH60">
         <v>351</v>
@@ -8047,7 +8050,7 @@
         <v>254</v>
       </c>
       <c r="C61">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D61">
         <v>1</v>
@@ -8119,25 +8122,25 @@
         <v>62.1</v>
       </c>
       <c r="AA61">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="AB61">
         <v>0</v>
       </c>
       <c r="AC61">
-        <v>1.1</v>
+        <v>1.6</v>
       </c>
       <c r="AD61">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AE61">
-        <v>4.4</v>
+        <v>0</v>
       </c>
       <c r="AF61">
-        <v>17.8</v>
+        <v>0</v>
       </c>
       <c r="AG61">
-        <v>3.3</v>
+        <v>2.2</v>
       </c>
       <c r="AH61">
         <v>498</v>
@@ -8160,7 +8163,7 @@
         <v>26</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E62">
         <v>13784</v>
@@ -8229,25 +8232,25 @@
         <v>7.3</v>
       </c>
       <c r="AA62">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="AB62">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AC62">
         <v>1.9</v>
       </c>
       <c r="AD62">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="AE62">
-        <v>0</v>
+        <v>7.3</v>
       </c>
       <c r="AF62">
-        <v>14.5</v>
+        <v>0</v>
       </c>
       <c r="AG62">
-        <v>2.3</v>
+        <v>0</v>
       </c>
       <c r="AH62">
         <v>300</v>
@@ -8267,7 +8270,7 @@
         <v>256</v>
       </c>
       <c r="C63">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="D63">
         <v>1</v>
@@ -8339,25 +8342,25 @@
         <v>33.9</v>
       </c>
       <c r="AA63">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="AB63">
         <v>0</v>
       </c>
       <c r="AC63">
-        <v>2.2</v>
+        <v>3.5</v>
       </c>
       <c r="AD63">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AE63">
         <v>0</v>
       </c>
       <c r="AF63">
-        <v>-9.800000000000001</v>
+        <v>-14.7</v>
       </c>
       <c r="AG63">
-        <v>3.7</v>
+        <v>2.3</v>
       </c>
       <c r="AH63">
         <v>203</v>
@@ -8377,7 +8380,7 @@
         <v>257</v>
       </c>
       <c r="C64">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D64">
         <v>1</v>
@@ -8449,25 +8452,25 @@
         <v>10.1</v>
       </c>
       <c r="AA64">
-        <v>6.2</v>
+        <v>4.5</v>
       </c>
       <c r="AB64">
         <v>0.1</v>
       </c>
       <c r="AC64">
-        <v>1.1</v>
+        <v>1.6</v>
       </c>
       <c r="AD64">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AE64">
         <v>0</v>
       </c>
       <c r="AF64">
-        <v>0</v>
+        <v>21.4</v>
       </c>
       <c r="AG64">
-        <v>1</v>
+        <v>1.9</v>
       </c>
       <c r="AH64">
         <v>207</v>
@@ -8487,10 +8490,10 @@
         <v>258</v>
       </c>
       <c r="C65">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E65">
         <v>16115</v>
@@ -8559,25 +8562,25 @@
         <v>0</v>
       </c>
       <c r="AA65">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="AB65">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AC65">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="AD65">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="AE65">
-        <v>0</v>
+        <v>-6.2</v>
       </c>
       <c r="AF65">
-        <v>-37.2</v>
+        <v>0</v>
       </c>
       <c r="AG65">
-        <v>4.4</v>
+        <v>0.5</v>
       </c>
       <c r="AH65">
         <v>87</v>
@@ -8597,7 +8600,7 @@
         <v>259</v>
       </c>
       <c r="C66">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -8675,19 +8678,19 @@
         <v>0</v>
       </c>
       <c r="AC66">
-        <v>1.6</v>
+        <v>2.7</v>
       </c>
       <c r="AD66">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AE66">
         <v>0</v>
       </c>
       <c r="AF66">
-        <v>15.7</v>
+        <v>-62.6</v>
       </c>
       <c r="AG66">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AH66">
         <v>185</v>
@@ -8707,7 +8710,7 @@
         <v>260</v>
       </c>
       <c r="C67">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D67">
         <v>2</v>
@@ -8779,25 +8782,25 @@
         <v>7.4</v>
       </c>
       <c r="AA67">
-        <v>13.3</v>
+        <v>10</v>
       </c>
       <c r="AB67">
         <v>0.1</v>
       </c>
       <c r="AC67">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="AD67">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AE67">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="AF67">
-        <v>-16.1</v>
+        <v>16.1</v>
       </c>
       <c r="AG67">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="AH67">
         <v>68</v>
@@ -8817,10 +8820,10 @@
         <v>261</v>
       </c>
       <c r="C68">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D68">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E68">
         <v>15622</v>
@@ -8889,25 +8892,25 @@
         <v>8.4</v>
       </c>
       <c r="AA68">
-        <v>10.9</v>
+        <v>13.6</v>
       </c>
       <c r="AB68">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="AC68">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="AD68">
-        <v>2</v>
+        <v>5.6</v>
       </c>
       <c r="AE68">
-        <v>6.4</v>
+        <v>0</v>
       </c>
       <c r="AF68">
-        <v>-64</v>
+        <v>12.8</v>
       </c>
       <c r="AG68">
-        <v>4.3</v>
+        <v>0.2</v>
       </c>
       <c r="AH68">
         <v>179</v>
@@ -8927,10 +8930,10 @@
         <v>262</v>
       </c>
       <c r="C69">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="D69">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E69">
         <v>8859</v>
@@ -8999,25 +9002,25 @@
         <v>0</v>
       </c>
       <c r="AA69">
-        <v>10.9</v>
+        <v>12.3</v>
       </c>
       <c r="AB69">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="AC69">
-        <v>21.8</v>
+        <v>23</v>
       </c>
       <c r="AD69">
-        <v>8</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AE69">
-        <v>22.6</v>
+        <v>-22.6</v>
       </c>
       <c r="AF69">
-        <v>-22.6</v>
+        <v>11.3</v>
       </c>
       <c r="AG69">
-        <v>1.3</v>
+        <v>0.2</v>
       </c>
       <c r="AH69">
         <v>121</v>
@@ -9037,10 +9040,10 @@
         <v>263</v>
       </c>
       <c r="C70">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D70">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E70">
         <v>11295</v>
@@ -9109,25 +9112,25 @@
         <v>22.9</v>
       </c>
       <c r="AA70">
-        <v>3</v>
+        <v>5.3</v>
       </c>
       <c r="AB70">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="AC70">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="AD70">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="AE70">
-        <v>0</v>
+        <v>8.9</v>
       </c>
       <c r="AF70">
         <v>-35.4</v>
       </c>
       <c r="AG70">
-        <v>3.8</v>
+        <v>1.1</v>
       </c>
       <c r="AH70">
         <v>87</v>
@@ -9147,7 +9150,7 @@
         <v>264</v>
       </c>
       <c r="C71">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D71">
         <v>1</v>
@@ -9219,25 +9222,25 @@
         <v>6.2</v>
       </c>
       <c r="AA71">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="AB71">
         <v>0</v>
       </c>
       <c r="AC71">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="AD71">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AE71">
         <v>0</v>
       </c>
       <c r="AF71">
-        <v>-52.7</v>
+        <v>0</v>
       </c>
       <c r="AG71">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="AH71">
         <v>679</v>
@@ -9257,10 +9260,10 @@
         <v>265</v>
       </c>
       <c r="C72">
-        <v>175</v>
+        <v>207</v>
       </c>
       <c r="D72">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E72">
         <v>20656</v>
@@ -9329,25 +9332,25 @@
         <v>6.7</v>
       </c>
       <c r="AA72">
-        <v>6.9</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="AB72">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AC72">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AD72">
-        <v>8</v>
+        <v>14.8</v>
       </c>
       <c r="AE72">
-        <v>0</v>
+        <v>-4.8</v>
       </c>
       <c r="AF72">
-        <v>72.59999999999999</v>
+        <v>19.4</v>
       </c>
       <c r="AG72">
-        <v>1.7</v>
+        <v>1</v>
       </c>
       <c r="AH72">
         <v>322</v>
@@ -9367,10 +9370,10 @@
         <v>266</v>
       </c>
       <c r="C73">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="D73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E73">
         <v>23861</v>
@@ -9439,25 +9442,25 @@
         <v>0</v>
       </c>
       <c r="AA73">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="AB73">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AC73">
-        <v>3</v>
+        <v>4.1</v>
       </c>
       <c r="AD73">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="AE73">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="AF73">
-        <v>4.2</v>
+        <v>16.8</v>
       </c>
       <c r="AG73">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="AH73">
         <v>877</v>
@@ -9477,7 +9480,7 @@
         <v>267</v>
       </c>
       <c r="C74">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="D74">
         <v>1</v>
@@ -9549,25 +9552,25 @@
         <v>6.2</v>
       </c>
       <c r="AA74">
-        <v>2.9</v>
+        <v>1.9</v>
       </c>
       <c r="AB74">
         <v>0</v>
       </c>
       <c r="AC74">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AD74">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AE74">
-        <v>-1.9</v>
+        <v>0</v>
       </c>
       <c r="AF74">
-        <v>-5.7</v>
+        <v>-7.6</v>
       </c>
       <c r="AG74">
-        <v>1.4</v>
+        <v>3.1</v>
       </c>
       <c r="AH74">
         <v>961</v>
@@ -9587,7 +9590,7 @@
         <v>268</v>
       </c>
       <c r="C75">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="D75">
         <v>1</v>
@@ -9659,25 +9662,25 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AA75">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="AB75">
         <v>0</v>
       </c>
       <c r="AC75">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="AD75">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AE75">
-        <v>-3.1</v>
+        <v>0</v>
       </c>
       <c r="AF75">
-        <v>56.3</v>
+        <v>0</v>
       </c>
       <c r="AG75">
-        <v>7.4</v>
+        <v>1.1</v>
       </c>
       <c r="AH75">
         <v>1003</v>
@@ -9697,10 +9700,10 @@
         <v>269</v>
       </c>
       <c r="C76">
-        <v>336</v>
+        <v>399</v>
       </c>
       <c r="D76">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E76">
         <v>22432</v>
@@ -9769,22 +9772,22 @@
         <v>6.5</v>
       </c>
       <c r="AA76">
-        <v>9.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AB76">
         <v>1.4</v>
       </c>
       <c r="AC76">
-        <v>15</v>
+        <v>17.8</v>
       </c>
       <c r="AD76">
-        <v>16</v>
+        <v>3.7</v>
       </c>
       <c r="AE76">
-        <v>-26.7</v>
+        <v>-4.5</v>
       </c>
       <c r="AF76">
-        <v>35.7</v>
+        <v>-156</v>
       </c>
       <c r="AG76">
         <v>1.1</v>
@@ -9807,10 +9810,10 @@
         <v>270</v>
       </c>
       <c r="C77">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="D77">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E77">
         <v>16976</v>
@@ -9879,25 +9882,25 @@
         <v>15.7</v>
       </c>
       <c r="AA77">
-        <v>9.1</v>
+        <v>11.3</v>
       </c>
       <c r="AB77">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AC77">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="AD77">
-        <v>8</v>
+        <v>5.6</v>
       </c>
       <c r="AE77">
         <v>11.8</v>
       </c>
       <c r="AF77">
-        <v>-23.6</v>
+        <v>23.6</v>
       </c>
       <c r="AG77">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="AH77">
         <v>445</v>
@@ -9917,10 +9920,10 @@
         <v>271</v>
       </c>
       <c r="C78">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="D78">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E78">
         <v>26833</v>
@@ -9989,25 +9992,25 @@
         <v>19</v>
       </c>
       <c r="AA78">
-        <v>1.9</v>
+        <v>2.8</v>
       </c>
       <c r="AB78">
         <v>0.1</v>
       </c>
       <c r="AC78">
-        <v>3.9</v>
+        <v>5.4</v>
       </c>
       <c r="AD78">
-        <v>2</v>
+        <v>5.6</v>
       </c>
       <c r="AE78">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="AF78">
-        <v>-26.1</v>
+        <v>70.8</v>
       </c>
       <c r="AG78">
-        <v>4.3</v>
+        <v>2.1</v>
       </c>
       <c r="AH78">
         <v>365</v>
@@ -10027,10 +10030,10 @@
         <v>272</v>
       </c>
       <c r="C79">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="D79">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E79">
         <v>26966</v>
@@ -10099,25 +10102,25 @@
         <v>32.4</v>
       </c>
       <c r="AA79">
-        <v>3.3</v>
+        <v>4.3</v>
       </c>
       <c r="AB79">
         <v>0.1</v>
       </c>
       <c r="AC79">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="AD79">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="AE79">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="AF79">
-        <v>22.3</v>
+        <v>-29.7</v>
       </c>
       <c r="AG79">
-        <v>3.9</v>
+        <v>0.8</v>
       </c>
       <c r="AH79">
         <v>672</v>
@@ -10137,7 +10140,7 @@
         <v>273</v>
       </c>
       <c r="C80">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D80">
         <v>0</v>
@@ -10218,16 +10221,16 @@
         <v>1.1</v>
       </c>
       <c r="AD80">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AE80">
         <v>0</v>
       </c>
       <c r="AF80">
-        <v>-10.5</v>
+        <v>7</v>
       </c>
       <c r="AG80">
-        <v>1.9</v>
+        <v>0.2</v>
       </c>
       <c r="AH80">
         <v>460</v>
@@ -10247,10 +10250,10 @@
         <v>274</v>
       </c>
       <c r="C81">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D81">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E81">
         <v>8265</v>
@@ -10319,25 +10322,25 @@
         <v>0</v>
       </c>
       <c r="AA81">
-        <v>5.6</v>
+        <v>7.7</v>
       </c>
       <c r="AB81">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="AC81">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="AD81">
-        <v>2</v>
+        <v>3.7</v>
       </c>
       <c r="AE81">
         <v>-12.1</v>
       </c>
       <c r="AF81">
-        <v>108.9</v>
+        <v>60.5</v>
       </c>
       <c r="AG81">
-        <v>7.4</v>
+        <v>2</v>
       </c>
       <c r="AH81">
         <v>121</v>
@@ -10357,10 +10360,10 @@
         <v>275</v>
       </c>
       <c r="C82">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D82">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E82">
         <v>11677</v>
@@ -10429,25 +10432,25 @@
         <v>0</v>
       </c>
       <c r="AA82">
-        <v>7.1</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AB82">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="AC82">
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
       <c r="AD82">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="AE82">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="AF82">
         <v>34.3</v>
       </c>
       <c r="AG82">
-        <v>3.4</v>
+        <v>4.1</v>
       </c>
       <c r="AH82">
         <v>219</v>
@@ -10467,10 +10470,10 @@
         <v>276</v>
       </c>
       <c r="C83">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="D83">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E83">
         <v>25676</v>
@@ -10539,25 +10542,25 @@
         <v>19.6</v>
       </c>
       <c r="AA83">
-        <v>1.1</v>
+        <v>1.7</v>
       </c>
       <c r="AB83">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AC83">
-        <v>3.5</v>
+        <v>4.7</v>
       </c>
       <c r="AD83">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="AE83">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="AF83">
-        <v>-50.6</v>
+        <v>93.5</v>
       </c>
       <c r="AG83">
-        <v>4.9</v>
+        <v>2.1</v>
       </c>
       <c r="AH83">
         <v>548</v>
@@ -10577,10 +10580,10 @@
         <v>277</v>
       </c>
       <c r="C84">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="D84">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E84">
         <v>30832</v>
@@ -10649,25 +10652,25 @@
         <v>7.5</v>
       </c>
       <c r="AA84">
-        <v>6.9</v>
+        <v>7.5</v>
       </c>
       <c r="AB84">
         <v>0.1</v>
       </c>
       <c r="AC84">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="AD84">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="AE84">
-        <v>0</v>
+        <v>-3.2</v>
       </c>
       <c r="AF84">
-        <v>-9.699999999999999</v>
+        <v>3.2</v>
       </c>
       <c r="AG84">
-        <v>3.2</v>
+        <v>1.6</v>
       </c>
       <c r="AH84">
         <v>899</v>
@@ -10687,7 +10690,7 @@
         <v>278</v>
       </c>
       <c r="C85">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D85">
         <v>2</v>
@@ -10759,25 +10762,25 @@
         <v>5.5</v>
       </c>
       <c r="AA85">
-        <v>6.5</v>
+        <v>5.6</v>
       </c>
       <c r="AB85">
         <v>0.1</v>
       </c>
       <c r="AC85">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="AD85">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AE85">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="AF85">
-        <v>6.9</v>
+        <v>0</v>
       </c>
       <c r="AG85">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="AH85">
         <v>819</v>
@@ -10797,7 +10800,7 @@
         <v>279</v>
       </c>
       <c r="C86">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="D86">
         <v>0</v>
@@ -10875,19 +10878,19 @@
         <v>0</v>
       </c>
       <c r="AC86">
-        <v>1.7</v>
+        <v>3.6</v>
       </c>
       <c r="AD86">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AE86">
         <v>0</v>
       </c>
       <c r="AF86">
-        <v>-5.2</v>
+        <v>57.3</v>
       </c>
       <c r="AG86">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="AH86">
         <v>250</v>
@@ -10907,10 +10910,10 @@
         <v>280</v>
       </c>
       <c r="C87">
-        <v>219</v>
+        <v>304</v>
       </c>
       <c r="D87">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="E87">
         <v>44730</v>
@@ -10979,25 +10982,25 @@
         <v>86.5</v>
       </c>
       <c r="AA87">
-        <v>10</v>
+        <v>9.9</v>
       </c>
       <c r="AB87">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="AC87">
-        <v>4.9</v>
+        <v>6.8</v>
       </c>
       <c r="AD87">
-        <v>16</v>
+        <v>16.7</v>
       </c>
       <c r="AE87">
-        <v>-4.5</v>
+        <v>-8.9</v>
       </c>
       <c r="AF87">
-        <v>24.6</v>
+        <v>-46.9</v>
       </c>
       <c r="AG87">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="AH87">
         <v>870</v>
@@ -11017,7 +11020,7 @@
         <v>281</v>
       </c>
       <c r="C88">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D88">
         <v>1</v>
@@ -11089,25 +11092,25 @@
         <v>13.5</v>
       </c>
       <c r="AA88">
-        <v>5.9</v>
+        <v>3.8</v>
       </c>
       <c r="AB88">
         <v>0.1</v>
       </c>
       <c r="AC88">
-        <v>1.1</v>
+        <v>1.6</v>
       </c>
       <c r="AD88">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AE88">
         <v>0</v>
       </c>
       <c r="AF88">
-        <v>0</v>
+        <v>-6.3</v>
       </c>
       <c r="AG88">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="AH88">
         <v>216</v>
@@ -11127,10 +11130,10 @@
         <v>282</v>
       </c>
       <c r="C89">
-        <v>163</v>
+        <v>205</v>
       </c>
       <c r="D89">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E89">
         <v>23750</v>
@@ -11199,25 +11202,25 @@
         <v>7</v>
       </c>
       <c r="AA89">
-        <v>10.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AB89">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="AC89">
-        <v>6.9</v>
+        <v>8.6</v>
       </c>
       <c r="AD89">
-        <v>32</v>
+        <v>3.7</v>
       </c>
       <c r="AE89">
-        <v>42.1</v>
+        <v>4.2</v>
       </c>
       <c r="AF89">
-        <v>84.2</v>
+        <v>-84.2</v>
       </c>
       <c r="AG89">
-        <v>1.9</v>
+        <v>1.3</v>
       </c>
       <c r="AH89">
         <v>582</v>
@@ -11237,7 +11240,7 @@
         <v>283</v>
       </c>
       <c r="C90">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D90">
         <v>1</v>
@@ -11309,25 +11312,25 @@
         <v>7.2</v>
       </c>
       <c r="AA90">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="AB90">
         <v>0</v>
       </c>
       <c r="AC90">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="AD90">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AE90">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="AF90">
-        <v>-12</v>
+        <v>4</v>
       </c>
       <c r="AG90">
-        <v>3.7</v>
+        <v>1</v>
       </c>
       <c r="AH90">
         <v>853</v>
@@ -11347,7 +11350,7 @@
         <v>284</v>
       </c>
       <c r="C91">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="D91">
         <v>22</v>
@@ -11425,19 +11428,19 @@
         <v>0.7</v>
       </c>
       <c r="AC91">
-        <v>11.5</v>
+        <v>11.6</v>
       </c>
       <c r="AD91">
-        <v>10</v>
+        <v>1.9</v>
       </c>
       <c r="AE91">
-        <v>-3.4</v>
+        <v>0</v>
       </c>
       <c r="AF91">
-        <v>13.6</v>
+        <v>-23.9</v>
       </c>
       <c r="AG91">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="AH91">
         <v>1347</v>
@@ -11457,7 +11460,7 @@
         <v>285</v>
       </c>
       <c r="C92">
-        <v>146</v>
+        <v>191</v>
       </c>
       <c r="D92">
         <v>13</v>
@@ -11529,25 +11532,25 @@
         <v>48.2</v>
       </c>
       <c r="AA92">
-        <v>8.9</v>
+        <v>6.8</v>
       </c>
       <c r="AB92">
         <v>0.4</v>
       </c>
       <c r="AC92">
-        <v>4.1</v>
+        <v>5.4</v>
       </c>
       <c r="AD92">
-        <v>12</v>
+        <v>3.7</v>
       </c>
       <c r="AE92">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="AF92">
-        <v>30.9</v>
+        <v>0</v>
       </c>
       <c r="AG92">
-        <v>2.8</v>
+        <v>1.5</v>
       </c>
       <c r="AH92">
         <v>569</v>
@@ -11567,10 +11570,10 @@
         <v>286</v>
       </c>
       <c r="C93">
-        <v>263</v>
+        <v>299</v>
       </c>
       <c r="D93">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E93">
         <v>45286</v>
@@ -11639,25 +11642,25 @@
         <v>50.2</v>
       </c>
       <c r="AA93">
-        <v>3.8</v>
+        <v>5.4</v>
       </c>
       <c r="AB93">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="AC93">
-        <v>5.8</v>
+        <v>6.6</v>
       </c>
       <c r="AD93">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AE93">
-        <v>-4.4</v>
+        <v>4.4</v>
       </c>
       <c r="AF93">
-        <v>-4.4</v>
+        <v>19.9</v>
       </c>
       <c r="AG93">
-        <v>3.6</v>
+        <v>0.7</v>
       </c>
       <c r="AH93">
         <v>1101</v>
@@ -11677,10 +11680,10 @@
         <v>287</v>
       </c>
       <c r="C94">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="D94">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E94">
         <v>13480</v>
@@ -11749,25 +11752,25 @@
         <v>22.7</v>
       </c>
       <c r="AA94">
-        <v>3.7</v>
+        <v>6.4</v>
       </c>
       <c r="AB94">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="AC94">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AD94">
-        <v>2</v>
+        <v>7.4</v>
       </c>
       <c r="AE94">
         <v>-7.4</v>
       </c>
       <c r="AF94">
-        <v>-59.3</v>
+        <v>-22.3</v>
       </c>
       <c r="AG94">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="AH94">
         <v>238</v>
@@ -11787,7 +11790,7 @@
         <v>288</v>
       </c>
       <c r="C95">
-        <v>83</v>
+        <v>123</v>
       </c>
       <c r="D95">
         <v>0</v>
@@ -11865,19 +11868,19 @@
         <v>0</v>
       </c>
       <c r="AC95">
-        <v>2.8</v>
+        <v>4.1</v>
       </c>
       <c r="AD95">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AE95">
         <v>0</v>
       </c>
       <c r="AF95">
-        <v>-90.2</v>
+        <v>6.7</v>
       </c>
       <c r="AG95">
-        <v>8.300000000000001</v>
+        <v>2.4</v>
       </c>
       <c r="AH95">
         <v>695</v>
@@ -11897,10 +11900,10 @@
         <v>289</v>
       </c>
       <c r="C96">
-        <v>33</v>
+        <v>113</v>
       </c>
       <c r="D96">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E96">
         <v>27010</v>
@@ -11969,25 +11972,25 @@
         <v>5.3</v>
       </c>
       <c r="AA96">
-        <v>12.1</v>
+        <v>7.1</v>
       </c>
       <c r="AB96">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="AC96">
-        <v>1.2</v>
+        <v>4.2</v>
       </c>
       <c r="AD96">
-        <v>6</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AE96">
-        <v>-3.7</v>
+        <v>14.8</v>
       </c>
       <c r="AF96">
-        <v>7.4</v>
+        <v>211</v>
       </c>
       <c r="AG96">
-        <v>4.5</v>
+        <v>11.1</v>
       </c>
       <c r="AH96">
         <v>576</v>
@@ -12007,7 +12010,7 @@
         <v>290</v>
       </c>
       <c r="C97">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="D97">
         <v>0</v>
@@ -12085,19 +12088,19 @@
         <v>0</v>
       </c>
       <c r="AC97">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="AD97">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AE97">
         <v>0</v>
       </c>
       <c r="AF97">
-        <v>7.5</v>
+        <v>-13.6</v>
       </c>
       <c r="AG97">
-        <v>1.1</v>
+        <v>3.1</v>
       </c>
       <c r="AH97">
         <v>749</v>
@@ -12117,10 +12120,10 @@
         <v>291</v>
       </c>
       <c r="C98">
-        <v>136</v>
+        <v>204</v>
       </c>
       <c r="D98">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E98">
         <v>40510</v>
@@ -12189,22 +12192,22 @@
         <v>33.1</v>
       </c>
       <c r="AA98">
-        <v>4.4</v>
+        <v>6.9</v>
       </c>
       <c r="AB98">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="AC98">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="AD98">
-        <v>6</v>
+        <v>16.7</v>
       </c>
       <c r="AE98">
-        <v>-2.5</v>
+        <v>0</v>
       </c>
       <c r="AF98">
-        <v>22.2</v>
+        <v>7.4</v>
       </c>
       <c r="AG98">
         <v>2.5</v>
@@ -12227,10 +12230,10 @@
         <v>292</v>
       </c>
       <c r="C99">
-        <v>78</v>
+        <v>118</v>
       </c>
       <c r="D99">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E99">
         <v>18454</v>
@@ -12299,25 +12302,25 @@
         <v>16.1</v>
       </c>
       <c r="AA99">
-        <v>12.8</v>
+        <v>10.2</v>
       </c>
       <c r="AB99">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="AC99">
-        <v>4.2</v>
+        <v>6.4</v>
       </c>
       <c r="AD99">
-        <v>16</v>
+        <v>5.6</v>
       </c>
       <c r="AE99">
         <v>10.8</v>
       </c>
       <c r="AF99">
-        <v>-27.1</v>
+        <v>-54.2</v>
       </c>
       <c r="AG99">
-        <v>3.4</v>
+        <v>2.1</v>
       </c>
       <c r="AH99">
         <v>420</v>
@@ -12337,7 +12340,7 @@
         <v>293</v>
       </c>
       <c r="C100">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D100">
         <v>0</v>
@@ -12415,19 +12418,19 @@
         <v>0</v>
       </c>
       <c r="AC100">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AD100">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AE100">
         <v>0</v>
       </c>
       <c r="AF100">
-        <v>-3.4</v>
+        <v>0</v>
       </c>
       <c r="AG100">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="AH100">
         <v>416</v>
@@ -12447,7 +12450,7 @@
         <v>294</v>
       </c>
       <c r="C101">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D101">
         <v>1</v>
@@ -12519,25 +12522,25 @@
         <v>0</v>
       </c>
       <c r="AA101">
-        <v>3.7</v>
+        <v>3.1</v>
       </c>
       <c r="AB101">
         <v>0</v>
       </c>
       <c r="AC101">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="AD101">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AE101">
         <v>0</v>
       </c>
       <c r="AF101">
-        <v>-10.4</v>
+        <v>6.9</v>
       </c>
       <c r="AG101">
-        <v>2.6</v>
+        <v>1</v>
       </c>
       <c r="AH101">
         <v>796</v>
@@ -12557,10 +12560,10 @@
         <v>295</v>
       </c>
       <c r="C102">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="D102">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E102">
         <v>35885</v>
@@ -12629,25 +12632,25 @@
         <v>0</v>
       </c>
       <c r="AA102">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB102">
         <v>0.1</v>
       </c>
       <c r="AC102">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="AD102">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="AE102">
+        <v>2.8</v>
+      </c>
+      <c r="AF102">
         <v>5.6</v>
       </c>
-      <c r="AF102">
-        <v>-22.3</v>
-      </c>
       <c r="AG102">
-        <v>2.1</v>
+        <v>0.9</v>
       </c>
       <c r="AH102">
         <v>1135</v>
@@ -12667,10 +12670,10 @@
         <v>296</v>
       </c>
       <c r="C103">
-        <v>133</v>
+        <v>164</v>
       </c>
       <c r="D103">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E103">
         <v>13905</v>
@@ -12739,25 +12742,25 @@
         <v>18.4</v>
       </c>
       <c r="AA103">
-        <v>8.300000000000001</v>
+        <v>7.3</v>
       </c>
       <c r="AB103">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="AC103">
-        <v>9.6</v>
+        <v>11.8</v>
       </c>
       <c r="AD103">
-        <v>10</v>
+        <v>1.9</v>
       </c>
       <c r="AE103">
-        <v>-7.2</v>
+        <v>0</v>
       </c>
       <c r="AF103">
-        <v>-280.5</v>
+        <v>-21.6</v>
       </c>
       <c r="AG103">
-        <v>3.9</v>
+        <v>1.1</v>
       </c>
       <c r="AH103">
         <v>108</v>
@@ -12777,10 +12780,10 @@
         <v>297</v>
       </c>
       <c r="C104">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="D104">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E104">
         <v>27048</v>
@@ -12849,25 +12852,25 @@
         <v>13</v>
       </c>
       <c r="AA104">
-        <v>8.1</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AB104">
         <v>0.1</v>
       </c>
       <c r="AC104">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="AD104">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="AE104">
-        <v>0</v>
+        <v>-3.7</v>
       </c>
       <c r="AF104">
-        <v>-7.4</v>
+        <v>0</v>
       </c>
       <c r="AG104">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="AH104">
         <v>389</v>
@@ -12887,10 +12890,10 @@
         <v>298</v>
       </c>
       <c r="C105">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="D105">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E105">
         <v>21113</v>
@@ -12959,25 +12962,25 @@
         <v>46.1</v>
       </c>
       <c r="AA105">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="AB105">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AC105">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="AD105">
-        <v>2</v>
+        <v>3.7</v>
       </c>
       <c r="AE105">
         <v>4.7</v>
       </c>
       <c r="AF105">
-        <v>-4.7</v>
+        <v>-33.2</v>
       </c>
       <c r="AG105">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AH105">
         <v>447</v>
@@ -12997,7 +13000,7 @@
         <v>299</v>
       </c>
       <c r="C106">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="D106">
         <v>1</v>
@@ -13069,25 +13072,25 @@
         <v>16.4</v>
       </c>
       <c r="AA106">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="AB106">
         <v>0</v>
       </c>
       <c r="AC106">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="AD106">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AE106">
         <v>0</v>
       </c>
       <c r="AF106">
-        <v>0</v>
+        <v>18.7</v>
       </c>
       <c r="AG106">
-        <v>1</v>
+        <v>2.2</v>
       </c>
       <c r="AH106">
         <v>1485</v>
@@ -13107,10 +13110,10 @@
         <v>300</v>
       </c>
       <c r="C107">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D107">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E107">
         <v>22499</v>
@@ -13179,25 +13182,25 @@
         <v>20.6</v>
       </c>
       <c r="AA107">
-        <v>0</v>
+        <v>7.7</v>
       </c>
       <c r="AB107">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AC107">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AD107">
-        <v>0</v>
+        <v>5.6</v>
       </c>
       <c r="AE107">
         <v>0</v>
       </c>
       <c r="AF107">
-        <v>-22.2</v>
+        <v>-4.4</v>
       </c>
       <c r="AG107">
-        <v>1.9</v>
+        <v>0.9</v>
       </c>
       <c r="AH107">
         <v>232</v>
@@ -13217,10 +13220,10 @@
         <v>301</v>
       </c>
       <c r="C108">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="D108">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E108">
         <v>28928</v>
@@ -13289,25 +13292,25 @@
         <v>0</v>
       </c>
       <c r="AA108">
-        <v>1.2</v>
+        <v>3.3</v>
       </c>
       <c r="AB108">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AC108">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="AD108">
-        <v>2</v>
+        <v>3.7</v>
       </c>
       <c r="AE108">
         <v>3.5</v>
       </c>
       <c r="AF108">
-        <v>-6.9</v>
+        <v>6.9</v>
       </c>
       <c r="AG108">
-        <v>6.5</v>
+        <v>0.4</v>
       </c>
       <c r="AH108">
         <v>954</v>
@@ -13327,10 +13330,10 @@
         <v>302</v>
       </c>
       <c r="C109">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="D109">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E109">
         <v>33590</v>
@@ -13399,25 +13402,25 @@
         <v>0</v>
       </c>
       <c r="AA109">
-        <v>3.3</v>
+        <v>5.1</v>
       </c>
       <c r="AB109">
         <v>0.1</v>
       </c>
       <c r="AC109">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="AD109">
-        <v>0</v>
+        <v>5.6</v>
       </c>
       <c r="AE109">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AF109">
         <v>-26.8</v>
       </c>
       <c r="AG109">
-        <v>0.6</v>
+        <v>1.7</v>
       </c>
       <c r="AH109">
         <v>902</v>
@@ -13437,7 +13440,7 @@
         <v>303</v>
       </c>
       <c r="C110">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D110">
         <v>1</v>
@@ -13509,25 +13512,25 @@
         <v>0</v>
       </c>
       <c r="AA110">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="AB110">
         <v>0.1</v>
       </c>
       <c r="AC110">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="AD110">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AE110">
-        <v>-5.4</v>
+        <v>0</v>
       </c>
       <c r="AF110">
-        <v>-37.8</v>
+        <v>10.8</v>
       </c>
       <c r="AG110">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="AH110">
         <v>371</v>
@@ -13547,7 +13550,7 @@
         <v>304</v>
       </c>
       <c r="C111">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="D111">
         <v>0</v>
@@ -13625,19 +13628,19 @@
         <v>0</v>
       </c>
       <c r="AC111">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="AD111">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AE111">
         <v>0</v>
       </c>
       <c r="AF111">
-        <v>14.5</v>
+        <v>-4.4</v>
       </c>
       <c r="AG111">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="AH111">
         <v>810</v>
@@ -13657,7 +13660,7 @@
         <v>305</v>
       </c>
       <c r="C112">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="D112">
         <v>0</v>
@@ -13735,19 +13738,19 @@
         <v>0</v>
       </c>
       <c r="AC112">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AD112">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AE112">
         <v>0</v>
       </c>
       <c r="AF112">
-        <v>1.6</v>
+        <v>17.7</v>
       </c>
       <c r="AG112">
-        <v>0.8</v>
+        <v>2.6</v>
       </c>
       <c r="AH112">
         <v>1237</v>
@@ -13767,7 +13770,7 @@
         <v>306</v>
       </c>
       <c r="C113">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D113">
         <v>0</v>
@@ -13845,19 +13848,19 @@
         <v>0</v>
       </c>
       <c r="AC113">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AD113">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AE113">
         <v>0</v>
       </c>
       <c r="AF113">
-        <v>3.9</v>
+        <v>11.7</v>
       </c>
       <c r="AG113">
-        <v>7.4</v>
+        <v>4.1</v>
       </c>
       <c r="AH113">
         <v>342</v>
@@ -13877,10 +13880,10 @@
         <v>307</v>
       </c>
       <c r="C114">
-        <v>198</v>
+        <v>267</v>
       </c>
       <c r="D114">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E114">
         <v>45606</v>
@@ -13949,25 +13952,25 @@
         <v>23.6</v>
       </c>
       <c r="AA114">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="AB114">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="AC114">
-        <v>4.3</v>
+        <v>5.9</v>
       </c>
       <c r="AD114">
-        <v>8</v>
+        <v>7.4</v>
       </c>
       <c r="AE114">
-        <v>8.800000000000001</v>
+        <v>2.2</v>
       </c>
       <c r="AF114">
-        <v>-13.2</v>
+        <v>-30.7</v>
       </c>
       <c r="AG114">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="AH114">
         <v>790</v>
@@ -13987,10 +13990,10 @@
         <v>308</v>
       </c>
       <c r="C115">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D115">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E115">
         <v>21498</v>
@@ -14059,25 +14062,25 @@
         <v>20</v>
       </c>
       <c r="AA115">
-        <v>8</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AB115">
         <v>0.2</v>
       </c>
       <c r="AC115">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="AD115">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="AE115">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="AF115">
-        <v>-14</v>
+        <v>18.6</v>
       </c>
       <c r="AG115">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="AH115">
         <v>431</v>
@@ -14097,10 +14100,10 @@
         <v>309</v>
       </c>
       <c r="C116">
-        <v>385</v>
+        <v>432</v>
       </c>
       <c r="D116">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="E116">
         <v>30352</v>
@@ -14169,25 +14172,25 @@
         <v>45.3</v>
       </c>
       <c r="AA116">
-        <v>7.5</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AB116">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="AC116">
-        <v>12.7</v>
+        <v>14.2</v>
       </c>
       <c r="AD116">
-        <v>18</v>
+        <v>22.2</v>
       </c>
       <c r="AE116">
         <v>-23.1</v>
       </c>
       <c r="AF116">
-        <v>-98.8</v>
+        <v>-16.5</v>
       </c>
       <c r="AG116">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="AH116">
         <v>373</v>
@@ -14207,7 +14210,7 @@
         <v>310</v>
       </c>
       <c r="C117">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="D117">
         <v>1</v>
@@ -14279,25 +14282,25 @@
         <v>25.4</v>
       </c>
       <c r="AA117">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AB117">
         <v>0</v>
       </c>
       <c r="AC117">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AD117">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AE117">
-        <v>-1.2</v>
+        <v>0</v>
       </c>
       <c r="AF117">
-        <v>10.7</v>
+        <v>7.1</v>
       </c>
       <c r="AG117">
-        <v>2.2</v>
+        <v>1</v>
       </c>
       <c r="AH117">
         <v>3342</v>
@@ -14317,7 +14320,7 @@
         <v>311</v>
       </c>
       <c r="C118">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="D118">
         <v>3</v>
@@ -14389,25 +14392,25 @@
         <v>27.1</v>
       </c>
       <c r="AA118">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="AB118">
         <v>0</v>
       </c>
       <c r="AC118">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="AD118">
-        <v>4</v>
+        <v>1.9</v>
       </c>
       <c r="AE118">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AF118">
-        <v>15.2</v>
+        <v>9.1</v>
       </c>
       <c r="AG118">
-        <v>3.9</v>
+        <v>0.9</v>
       </c>
       <c r="AH118">
         <v>1818</v>
@@ -14427,10 +14430,10 @@
         <v>312</v>
       </c>
       <c r="C119">
-        <v>89</v>
+        <v>120</v>
       </c>
       <c r="D119">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E119">
         <v>22550</v>
@@ -14499,25 +14502,25 @@
         <v>12.1</v>
       </c>
       <c r="AA119">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="AB119">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="AC119">
-        <v>3.9</v>
+        <v>5.3</v>
       </c>
       <c r="AD119">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="AE119">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="AF119">
-        <v>-115.3</v>
+        <v>-62.1</v>
       </c>
       <c r="AG119">
-        <v>3</v>
+        <v>1.3</v>
       </c>
       <c r="AH119">
         <v>318</v>
@@ -14537,10 +14540,10 @@
         <v>313</v>
       </c>
       <c r="C120">
-        <v>245</v>
+        <v>271</v>
       </c>
       <c r="D120">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="E120">
         <v>26216</v>
@@ -14609,25 +14612,25 @@
         <v>24.4</v>
       </c>
       <c r="AA120">
-        <v>9.4</v>
+        <v>12.2</v>
       </c>
       <c r="AB120">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="AC120">
-        <v>9.300000000000001</v>
+        <v>10.3</v>
       </c>
       <c r="AD120">
-        <v>22</v>
+        <v>18.5</v>
       </c>
       <c r="AE120">
-        <v>3.8</v>
+        <v>11.4</v>
       </c>
       <c r="AF120">
-        <v>22.9</v>
+        <v>26.7</v>
       </c>
       <c r="AG120">
-        <v>1.8</v>
+        <v>0.7</v>
       </c>
       <c r="AH120">
         <v>499</v>
@@ -14647,10 +14650,10 @@
         <v>314</v>
       </c>
       <c r="C121">
-        <v>143</v>
+        <v>186</v>
       </c>
       <c r="D121">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E121">
         <v>90132</v>
@@ -14719,25 +14722,25 @@
         <v>14.2</v>
       </c>
       <c r="AA121">
-        <v>3.5</v>
+        <v>4.8</v>
       </c>
       <c r="AB121">
         <v>0.1</v>
       </c>
       <c r="AC121">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="AD121">
-        <v>6</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AE121">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="AF121">
-        <v>-28.8</v>
+        <v>18.9</v>
       </c>
       <c r="AG121">
-        <v>4.2</v>
+        <v>1.7</v>
       </c>
       <c r="AH121">
         <v>2770</v>
@@ -14757,7 +14760,7 @@
         <v>315</v>
       </c>
       <c r="C122">
-        <v>188</v>
+        <v>212</v>
       </c>
       <c r="D122">
         <v>11</v>
@@ -14829,25 +14832,25 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AA122">
-        <v>5.9</v>
+        <v>5.2</v>
       </c>
       <c r="AB122">
         <v>0.1</v>
       </c>
       <c r="AC122">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="AD122">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AE122">
-        <v>-0.9</v>
+        <v>0.9</v>
       </c>
       <c r="AF122">
-        <v>-16.2</v>
+        <v>-4.5</v>
       </c>
       <c r="AG122">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="AH122">
         <v>2954</v>
@@ -14867,7 +14870,7 @@
         <v>316</v>
       </c>
       <c r="C123">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="D123">
         <v>1</v>
@@ -14939,25 +14942,25 @@
         <v>46.1</v>
       </c>
       <c r="AA123">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="AB123">
         <v>0</v>
       </c>
       <c r="AC123">
+        <v>2</v>
+      </c>
+      <c r="AD123">
+        <v>1.9</v>
+      </c>
+      <c r="AE123">
+        <v>0</v>
+      </c>
+      <c r="AF123">
+        <v>-10.5</v>
+      </c>
+      <c r="AG123">
         <v>1.5</v>
-      </c>
-      <c r="AD123">
-        <v>0</v>
-      </c>
-      <c r="AE123">
-        <v>0</v>
-      </c>
-      <c r="AF123">
-        <v>12.7</v>
-      </c>
-      <c r="AG123">
-        <v>3.1</v>
       </c>
       <c r="AH123">
         <v>1155</v>
@@ -14977,10 +14980,10 @@
         <v>317</v>
       </c>
       <c r="C124">
-        <v>197</v>
+        <v>276</v>
       </c>
       <c r="D124">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E124">
         <v>76887</v>
@@ -15049,25 +15052,25 @@
         <v>6.1</v>
       </c>
       <c r="AA124">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="AB124">
         <v>0.1</v>
       </c>
       <c r="AC124">
-        <v>2.6</v>
+        <v>3.6</v>
       </c>
       <c r="AD124">
-        <v>4</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AE124">
         <v>0</v>
       </c>
       <c r="AF124">
-        <v>49.4</v>
+        <v>-55.9</v>
       </c>
       <c r="AG124">
-        <v>4.6</v>
+        <v>2.7</v>
       </c>
       <c r="AH124">
         <v>2184</v>
@@ -15087,10 +15090,10 @@
         <v>318</v>
       </c>
       <c r="C125">
-        <v>168</v>
+        <v>227</v>
       </c>
       <c r="D125">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E125">
         <v>69774</v>
@@ -15159,25 +15162,25 @@
         <v>27.9</v>
       </c>
       <c r="AA125">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="AB125">
         <v>0.1</v>
       </c>
       <c r="AC125">
-        <v>2.4</v>
+        <v>3.3</v>
       </c>
       <c r="AD125">
-        <v>2</v>
+        <v>7.4</v>
       </c>
       <c r="AE125">
-        <v>1.4</v>
+        <v>4.3</v>
       </c>
       <c r="AF125">
-        <v>-18.6</v>
+        <v>22.9</v>
       </c>
       <c r="AG125">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="AH125">
         <v>1783</v>
@@ -15197,10 +15200,10 @@
         <v>319</v>
       </c>
       <c r="C126">
-        <v>178</v>
+        <v>204</v>
       </c>
       <c r="D126">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E126">
         <v>22846</v>
@@ -15275,19 +15278,19 @@
         <v>0.3</v>
       </c>
       <c r="AC126">
-        <v>7.8</v>
+        <v>8.9</v>
       </c>
       <c r="AD126">
-        <v>8</v>
+        <v>3.7</v>
       </c>
       <c r="AE126">
-        <v>8.800000000000001</v>
+        <v>-4.4</v>
       </c>
       <c r="AF126">
-        <v>-78.8</v>
+        <v>-4.4</v>
       </c>
       <c r="AG126">
-        <v>1.7</v>
+        <v>0.8</v>
       </c>
       <c r="AH126">
         <v>460</v>
@@ -15307,7 +15310,7 @@
         <v>320</v>
       </c>
       <c r="C127">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="D127">
         <v>0</v>
@@ -15385,19 +15388,19 @@
         <v>0</v>
       </c>
       <c r="AC127">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="AD127">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AE127">
         <v>0</v>
       </c>
       <c r="AF127">
-        <v>-36</v>
+        <v>21.6</v>
       </c>
       <c r="AG127">
-        <v>4.2</v>
+        <v>2.1</v>
       </c>
       <c r="AH127">
         <v>1562</v>
@@ -15417,10 +15420,10 @@
         <v>321</v>
       </c>
       <c r="C128">
-        <v>376</v>
+        <v>473</v>
       </c>
       <c r="D128">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E128">
         <v>44289</v>
@@ -15489,25 +15492,25 @@
         <v>6.6</v>
       </c>
       <c r="AA128">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="AB128">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AC128">
-        <v>8.5</v>
+        <v>10.7</v>
       </c>
       <c r="AD128">
-        <v>18</v>
+        <v>7.4</v>
       </c>
       <c r="AE128">
-        <v>2.3</v>
+        <v>6.8</v>
       </c>
       <c r="AF128">
-        <v>36.1</v>
+        <v>124.2</v>
       </c>
       <c r="AG128">
-        <v>7</v>
+        <v>1.5</v>
       </c>
       <c r="AH128">
         <v>1076</v>
@@ -15527,10 +15530,10 @@
         <v>322</v>
       </c>
       <c r="C129">
-        <v>170</v>
+        <v>224</v>
       </c>
       <c r="D129">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E129">
         <v>147295</v>
@@ -15599,25 +15602,25 @@
         <v>0</v>
       </c>
       <c r="AA129">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="AB129">
         <v>0</v>
       </c>
       <c r="AC129">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AD129">
-        <v>6</v>
+        <v>3.7</v>
       </c>
       <c r="AE129">
         <v>-0.7</v>
       </c>
       <c r="AF129">
-        <v>-12.2</v>
+        <v>0</v>
       </c>
       <c r="AG129">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="AH129">
         <v>3091</v>
@@ -15637,7 +15640,7 @@
         <v>323</v>
       </c>
       <c r="C130">
-        <v>174</v>
+        <v>208</v>
       </c>
       <c r="D130">
         <v>13</v>
@@ -15709,25 +15712,25 @@
         <v>44.8</v>
       </c>
       <c r="AA130">
-        <v>7.5</v>
+        <v>6.2</v>
       </c>
       <c r="AB130">
         <v>0.1</v>
       </c>
       <c r="AC130">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="AD130">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AE130">
         <v>0</v>
       </c>
       <c r="AF130">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="AG130">
-        <v>2.6</v>
+        <v>1</v>
       </c>
       <c r="AH130">
         <v>4868</v>
@@ -15747,10 +15750,10 @@
         <v>324</v>
       </c>
       <c r="C131">
-        <v>159</v>
+        <v>218</v>
       </c>
       <c r="D131">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E131">
         <v>42961</v>
@@ -15819,25 +15822,25 @@
         <v>15.4</v>
       </c>
       <c r="AA131">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AB131">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="AC131">
-        <v>3.7</v>
+        <v>5.1</v>
       </c>
       <c r="AD131">
-        <v>8</v>
+        <v>11.1</v>
       </c>
       <c r="AE131">
-        <v>0</v>
+        <v>-2.3</v>
       </c>
       <c r="AF131">
-        <v>-25.6</v>
+        <v>2.3</v>
       </c>
       <c r="AG131">
-        <v>4.1</v>
+        <v>1.8</v>
       </c>
       <c r="AH131">
         <v>546</v>
@@ -15857,10 +15860,10 @@
         <v>325</v>
       </c>
       <c r="C132">
-        <v>170</v>
+        <v>229</v>
       </c>
       <c r="D132">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E132">
         <v>114582</v>
@@ -15929,25 +15932,25 @@
         <v>36</v>
       </c>
       <c r="AA132">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="AB132">
         <v>0</v>
       </c>
       <c r="AC132">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AD132">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="AE132">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="AF132">
-        <v>-12.2</v>
+        <v>0</v>
       </c>
       <c r="AG132">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="AH132">
         <v>2512</v>
@@ -15967,10 +15970,10 @@
         <v>326</v>
       </c>
       <c r="C133">
-        <v>246</v>
+        <v>303</v>
       </c>
       <c r="D133">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E133">
         <v>140516</v>
@@ -16039,25 +16042,25 @@
         <v>11.4</v>
       </c>
       <c r="AA133">
-        <v>1.6</v>
+        <v>2.3</v>
       </c>
       <c r="AB133">
         <v>0</v>
       </c>
       <c r="AC133">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="AD133">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="AE133">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AF133">
-        <v>17.1</v>
+        <v>0</v>
       </c>
       <c r="AG133">
-        <v>2.4</v>
+        <v>1.2</v>
       </c>
       <c r="AH133">
         <v>4496</v>
@@ -16077,7 +16080,7 @@
         <v>327</v>
       </c>
       <c r="C134">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D134">
         <v>2</v>
@@ -16149,7 +16152,7 @@
         <v>23.2</v>
       </c>
       <c r="AA134">
-        <v>4.8</v>
+        <v>4.2</v>
       </c>
       <c r="AB134">
         <v>0</v>
@@ -16158,16 +16161,16 @@
         <v>0.6</v>
       </c>
       <c r="AD134">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AE134">
         <v>0</v>
       </c>
       <c r="AF134">
-        <v>4</v>
+        <v>-1.3</v>
       </c>
       <c r="AG134">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="AH134">
         <v>2160</v>
@@ -16187,10 +16190,10 @@
         <v>328</v>
       </c>
       <c r="C135">
-        <v>356</v>
+        <v>443</v>
       </c>
       <c r="D135">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E135">
         <v>219880</v>
@@ -16259,25 +16262,25 @@
         <v>7.5</v>
       </c>
       <c r="AA135">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="AB135">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AC135">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="AD135">
-        <v>4</v>
+        <v>5.6</v>
       </c>
       <c r="AE135">
         <v>0</v>
       </c>
       <c r="AF135">
-        <v>-0.5</v>
+        <v>6.4</v>
       </c>
       <c r="AG135">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="AH135">
         <v>5395</v>
@@ -16297,7 +16300,7 @@
         <v>329</v>
       </c>
       <c r="C136">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="D136">
         <v>1</v>
@@ -16369,25 +16372,25 @@
         <v>7.5</v>
       </c>
       <c r="AA136">
-        <v>2.9</v>
+        <v>1.4</v>
       </c>
       <c r="AB136">
         <v>0</v>
       </c>
       <c r="AC136">
-        <v>0.9</v>
+        <v>1.7</v>
       </c>
       <c r="AD136">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AE136">
+        <v>0</v>
+      </c>
+      <c r="AF136">
         <v>2.5</v>
       </c>
-      <c r="AF136">
-        <v>-15.2</v>
-      </c>
       <c r="AG136">
-        <v>4.6</v>
+        <v>3.1</v>
       </c>
       <c r="AH136">
         <v>848</v>
@@ -16407,10 +16410,10 @@
         <v>330</v>
       </c>
       <c r="C137">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="D137">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E137">
         <v>56790</v>
@@ -16479,25 +16482,25 @@
         <v>10</v>
       </c>
       <c r="AA137">
-        <v>11.9</v>
+        <v>11.1</v>
       </c>
       <c r="AB137">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="AC137">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="AD137">
-        <v>12</v>
+        <v>1.9</v>
       </c>
       <c r="AE137">
-        <v>-3.5</v>
+        <v>0</v>
       </c>
       <c r="AF137">
-        <v>10.6</v>
+        <v>12.3</v>
       </c>
       <c r="AG137">
-        <v>3.6</v>
+        <v>0.8</v>
       </c>
       <c r="AH137">
         <v>1418</v>
@@ -16517,10 +16520,10 @@
         <v>331</v>
       </c>
       <c r="C138">
-        <v>223</v>
+        <v>246</v>
       </c>
       <c r="D138">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E138">
         <v>64719</v>
@@ -16589,25 +16592,25 @@
         <v>14.5</v>
       </c>
       <c r="AA138">
-        <v>4.9</v>
+        <v>5.7</v>
       </c>
       <c r="AB138">
         <v>0.2</v>
       </c>
       <c r="AC138">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="AD138">
-        <v>6</v>
+        <v>7.4</v>
       </c>
       <c r="AE138">
         <v>1.5</v>
       </c>
       <c r="AF138">
-        <v>-78.8</v>
+        <v>-12.4</v>
       </c>
       <c r="AG138">
-        <v>3.6</v>
+        <v>0.6</v>
       </c>
       <c r="AH138">
         <v>1513</v>
@@ -16627,10 +16630,10 @@
         <v>332</v>
       </c>
       <c r="C139">
-        <v>212</v>
+        <v>264</v>
       </c>
       <c r="D139">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E139">
         <v>155840</v>
@@ -16699,25 +16702,25 @@
         <v>19</v>
       </c>
       <c r="AA139">
-        <v>4.7</v>
+        <v>4.2</v>
       </c>
       <c r="AB139">
         <v>0.1</v>
       </c>
       <c r="AC139">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="AD139">
-        <v>6</v>
+        <v>3.7</v>
       </c>
       <c r="AE139">
         <v>0.6</v>
       </c>
       <c r="AF139">
-        <v>3.2</v>
+        <v>6.4</v>
       </c>
       <c r="AG139">
-        <v>2.6</v>
+        <v>1.3</v>
       </c>
       <c r="AH139">
         <v>4507</v>
@@ -16737,10 +16740,10 @@
         <v>333</v>
       </c>
       <c r="C140">
-        <v>274</v>
+        <v>335</v>
       </c>
       <c r="D140">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E140">
         <v>151682</v>
@@ -16809,25 +16812,25 @@
         <v>14.9</v>
       </c>
       <c r="AA140">
-        <v>5.1</v>
+        <v>4.8</v>
       </c>
       <c r="AB140">
         <v>0.1</v>
       </c>
       <c r="AC140">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="AD140">
-        <v>2</v>
+        <v>3.7</v>
       </c>
       <c r="AE140">
+        <v>-2</v>
+      </c>
+      <c r="AF140">
         <v>0.7</v>
       </c>
-      <c r="AF140">
-        <v>15.8</v>
-      </c>
       <c r="AG140">
-        <v>2.5</v>
+        <v>1.2</v>
       </c>
       <c r="AH140">
         <v>3816</v>
@@ -16847,10 +16850,10 @@
         <v>334</v>
       </c>
       <c r="C141">
-        <v>1555</v>
+        <v>1716</v>
       </c>
       <c r="D141">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="E141">
         <v>91049</v>
@@ -16919,25 +16922,25 @@
         <v>70.5</v>
       </c>
       <c r="AA141">
-        <v>8.1</v>
+        <v>8</v>
       </c>
       <c r="AB141">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AC141">
-        <v>17.1</v>
+        <v>18.8</v>
       </c>
       <c r="AD141">
-        <v>40</v>
+        <v>24.1</v>
       </c>
       <c r="AE141">
-        <v>-6.6</v>
+        <v>0</v>
       </c>
       <c r="AF141">
-        <v>22</v>
+        <v>-4.4</v>
       </c>
       <c r="AG141">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="AH141">
         <v>2663</v>
@@ -16957,10 +16960,10 @@
         <v>335</v>
       </c>
       <c r="C142">
-        <v>1914</v>
+        <v>2248</v>
       </c>
       <c r="D142">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="E142">
         <v>195961</v>
@@ -17029,25 +17032,25 @@
         <v>23</v>
       </c>
       <c r="AA142">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="AB142">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="AC142">
-        <v>9.800000000000001</v>
+        <v>11.5</v>
       </c>
       <c r="AD142">
-        <v>36</v>
+        <v>27.8</v>
       </c>
       <c r="AE142">
-        <v>-2</v>
+        <v>-6.1</v>
       </c>
       <c r="AF142">
-        <v>152.6</v>
+        <v>-23.5</v>
       </c>
       <c r="AG142">
-        <v>5.1</v>
+        <v>0.9</v>
       </c>
       <c r="AH142">
         <v>4826</v>
@@ -17067,10 +17070,10 @@
         <v>336</v>
       </c>
       <c r="C143">
-        <v>223</v>
+        <v>254</v>
       </c>
       <c r="D143">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E143">
         <v>89011</v>
@@ -17139,25 +17142,25 @@
         <v>12.2</v>
       </c>
       <c r="AA143">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="AB143">
         <v>0.1</v>
       </c>
       <c r="AC143">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="AD143">
-        <v>2</v>
+        <v>5.6</v>
       </c>
       <c r="AE143">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="AF143">
-        <v>12.4</v>
+        <v>-20.2</v>
       </c>
       <c r="AG143">
-        <v>2.9</v>
+        <v>0.8</v>
       </c>
       <c r="AH143">
         <v>2768</v>
@@ -17177,10 +17180,10 @@
         <v>337</v>
       </c>
       <c r="C144">
-        <v>359</v>
+        <v>424</v>
       </c>
       <c r="D144">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E144">
         <v>103620</v>
@@ -17249,25 +17252,25 @@
         <v>5.8</v>
       </c>
       <c r="AA144">
-        <v>8.9</v>
+        <v>8.5</v>
       </c>
       <c r="AB144">
         <v>0.3</v>
       </c>
       <c r="AC144">
-        <v>3.5</v>
+        <v>4.1</v>
       </c>
       <c r="AD144">
-        <v>10</v>
+        <v>11.1</v>
       </c>
       <c r="AE144">
-        <v>-1</v>
+        <v>-2.9</v>
       </c>
       <c r="AF144">
-        <v>0</v>
+        <v>18.3</v>
       </c>
       <c r="AG144">
-        <v>2.2</v>
+        <v>1.2</v>
       </c>
       <c r="AH144">
         <v>3848</v>
@@ -17287,10 +17290,10 @@
         <v>338</v>
       </c>
       <c r="C145">
-        <v>391</v>
+        <v>437</v>
       </c>
       <c r="D145">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="E145">
         <v>116022</v>
@@ -17359,25 +17362,25 @@
         <v>22.7</v>
       </c>
       <c r="AA145">
+        <v>5.5</v>
+      </c>
+      <c r="AB145">
+        <v>0.2</v>
+      </c>
+      <c r="AC145">
         <v>3.8</v>
       </c>
-      <c r="AB145">
-        <v>0.1</v>
-      </c>
-      <c r="AC145">
-        <v>3.4</v>
-      </c>
       <c r="AD145">
-        <v>8</v>
+        <v>16.7</v>
       </c>
       <c r="AE145">
-        <v>-1.7</v>
+        <v>1.7</v>
       </c>
       <c r="AF145">
-        <v>-0.9</v>
+        <v>22.4</v>
       </c>
       <c r="AG145">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="AH145">
         <v>3655</v>
@@ -17397,10 +17400,10 @@
         <v>339</v>
       </c>
       <c r="C146">
-        <v>363</v>
+        <v>455</v>
       </c>
       <c r="D146">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E146">
         <v>141840</v>
@@ -17469,25 +17472,25 @@
         <v>12.3</v>
       </c>
       <c r="AA146">
-        <v>3</v>
+        <v>4.8</v>
       </c>
       <c r="AB146">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="AC146">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="AD146">
-        <v>6</v>
+        <v>22.2</v>
       </c>
       <c r="AE146">
-        <v>-2.1</v>
+        <v>3.5</v>
       </c>
       <c r="AF146">
-        <v>0</v>
+        <v>-26.1</v>
       </c>
       <c r="AG146">
-        <v>2.1</v>
+        <v>1</v>
       </c>
       <c r="AH146">
         <v>4793</v>
@@ -17507,10 +17510,10 @@
         <v>340</v>
       </c>
       <c r="C147">
-        <v>232</v>
+        <v>280</v>
       </c>
       <c r="D147">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E147">
         <v>106497</v>
@@ -17579,25 +17582,25 @@
         <v>7.4</v>
       </c>
       <c r="AA147">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="AB147">
         <v>0.1</v>
       </c>
       <c r="AC147">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="AD147">
-        <v>6</v>
+        <v>7.4</v>
       </c>
       <c r="AE147">
-        <v>-0.9</v>
+        <v>2.8</v>
       </c>
       <c r="AF147">
-        <v>-7.5</v>
+        <v>-9.4</v>
       </c>
       <c r="AG147">
-        <v>3</v>
+        <v>1.1</v>
       </c>
       <c r="AH147">
         <v>3326</v>
@@ -17617,10 +17620,10 @@
         <v>341</v>
       </c>
       <c r="C148">
-        <v>544</v>
+        <v>769</v>
       </c>
       <c r="D148">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E148">
         <v>241910</v>
@@ -17689,25 +17692,25 @@
         <v>2.5</v>
       </c>
       <c r="AA148">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="AB148">
         <v>0.1</v>
       </c>
       <c r="AC148">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="AD148">
-        <v>12</v>
+        <v>24.1</v>
       </c>
       <c r="AE148">
         <v>1.7</v>
       </c>
       <c r="AF148">
-        <v>-12.4</v>
+        <v>-5.8</v>
       </c>
       <c r="AG148">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="AH148">
         <v>9092</v>
@@ -17727,10 +17730,10 @@
         <v>342</v>
       </c>
       <c r="C149">
-        <v>367</v>
+        <v>416</v>
       </c>
       <c r="D149">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E149">
         <v>153490</v>
@@ -17799,25 +17802,25 @@
         <v>56.9</v>
       </c>
       <c r="AA149">
-        <v>3.8</v>
+        <v>4.8</v>
       </c>
       <c r="AB149">
         <v>0.1</v>
       </c>
       <c r="AC149">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="AD149">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="AE149">
-        <v>-1.3</v>
+        <v>1.3</v>
       </c>
       <c r="AF149">
-        <v>-8.5</v>
+        <v>17.6</v>
       </c>
       <c r="AG149">
-        <v>3.3</v>
+        <v>0.6</v>
       </c>
       <c r="AH149">
         <v>4321</v>
@@ -17837,10 +17840,10 @@
         <v>343</v>
       </c>
       <c r="C150">
-        <v>348</v>
+        <v>487</v>
       </c>
       <c r="D150">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E150">
         <v>196670</v>
@@ -17909,25 +17912,25 @@
         <v>58.9</v>
       </c>
       <c r="AA150">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AB150">
         <v>0.1</v>
       </c>
       <c r="AC150">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="AD150">
-        <v>16</v>
+        <v>11.1</v>
       </c>
       <c r="AE150">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AF150">
-        <v>-3.1</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="AG150">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AH150">
         <v>5446</v>
@@ -17947,10 +17950,10 @@
         <v>344</v>
       </c>
       <c r="C151">
-        <v>152</v>
+        <v>218</v>
       </c>
       <c r="D151">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E151">
         <v>96824</v>
@@ -18019,25 +18022,25 @@
         <v>58.2</v>
       </c>
       <c r="AA151">
-        <v>7.2</v>
+        <v>6</v>
       </c>
       <c r="AB151">
         <v>0.1</v>
       </c>
       <c r="AC151">
-        <v>1.6</v>
+        <v>2.3</v>
       </c>
       <c r="AD151">
-        <v>6</v>
+        <v>3.7</v>
       </c>
       <c r="AE151">
-        <v>-3.1</v>
+        <v>1</v>
       </c>
       <c r="AF151">
-        <v>2.1</v>
+        <v>36.1</v>
       </c>
       <c r="AG151">
-        <v>1.2</v>
+        <v>2.5</v>
       </c>
       <c r="AH151">
         <v>3764</v>
@@ -18057,10 +18060,10 @@
         <v>345</v>
       </c>
       <c r="C152">
-        <v>135</v>
+        <v>220</v>
       </c>
       <c r="D152">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E152">
         <v>103849</v>
@@ -18129,25 +18132,25 @@
         <v>20.2</v>
       </c>
       <c r="AA152">
-        <v>4.4</v>
+        <v>3.2</v>
       </c>
       <c r="AB152">
         <v>0.1</v>
       </c>
       <c r="AC152">
-        <v>1.3</v>
+        <v>2.1</v>
       </c>
       <c r="AD152">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="AE152">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="AF152">
-        <v>28.9</v>
+        <v>10.6</v>
       </c>
       <c r="AG152">
-        <v>6.4</v>
+        <v>3.3</v>
       </c>
       <c r="AH152">
         <v>2661</v>
@@ -18167,10 +18170,10 @@
         <v>346</v>
       </c>
       <c r="C153">
-        <v>546</v>
+        <v>623</v>
       </c>
       <c r="D153">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E153">
         <v>221307</v>
@@ -18239,25 +18242,25 @@
         <v>10.9</v>
       </c>
       <c r="AA153">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="AB153">
         <v>0.1</v>
       </c>
       <c r="AC153">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="AD153">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AE153">
         <v>0</v>
       </c>
       <c r="AF153">
-        <v>-23.5</v>
+        <v>-27.6</v>
       </c>
       <c r="AG153">
-        <v>2</v>
+        <v>0.7</v>
       </c>
       <c r="AH153">
         <v>7343</v>
@@ -18277,10 +18280,10 @@
         <v>347</v>
       </c>
       <c r="C154">
-        <v>282</v>
+        <v>406</v>
       </c>
       <c r="D154">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E154">
         <v>287049</v>
@@ -18349,25 +18352,25 @@
         <v>41.5</v>
       </c>
       <c r="AA154">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="AB154">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AC154">
+        <v>1.4</v>
+      </c>
+      <c r="AD154">
+        <v>13</v>
+      </c>
+      <c r="AE154">
+        <v>0.7</v>
+      </c>
+      <c r="AF154">
         <v>1</v>
       </c>
-      <c r="AD154">
-        <v>12</v>
-      </c>
-      <c r="AE154">
-        <v>0</v>
-      </c>
-      <c r="AF154">
-        <v>11.5</v>
-      </c>
       <c r="AG154">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="AH154">
         <v>14925</v>
@@ -18387,10 +18390,10 @@
         <v>348</v>
       </c>
       <c r="C155">
-        <v>429</v>
+        <v>522</v>
       </c>
       <c r="D155">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E155">
         <v>201463</v>
@@ -18459,25 +18462,25 @@
         <v>99</v>
       </c>
       <c r="AA155">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="AB155">
         <v>0.1</v>
       </c>
       <c r="AC155">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="AD155">
-        <v>4</v>
+        <v>5.6</v>
       </c>
       <c r="AE155">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AF155">
-        <v>-18.9</v>
+        <v>-1</v>
       </c>
       <c r="AG155">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="AH155">
         <v>5203</v>
@@ -18497,10 +18500,10 @@
         <v>349</v>
       </c>
       <c r="C156">
-        <v>849</v>
+        <v>1047</v>
       </c>
       <c r="D156">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="E156">
         <v>278666</v>
@@ -18569,25 +18572,25 @@
         <v>22.9</v>
       </c>
       <c r="AA156">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="AB156">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="AC156">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="AD156">
-        <v>24</v>
+        <v>16.7</v>
       </c>
       <c r="AE156">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AF156">
-        <v>4.3</v>
+        <v>-14.7</v>
       </c>
       <c r="AG156">
-        <v>2.3</v>
+        <v>1.2</v>
       </c>
       <c r="AH156">
         <v>10024</v>
@@ -18607,10 +18610,10 @@
         <v>350</v>
       </c>
       <c r="C157">
-        <v>1998</v>
+        <v>2625</v>
       </c>
       <c r="D157">
-        <v>107</v>
+        <v>138</v>
       </c>
       <c r="E157">
         <v>745057</v>
@@ -18679,25 +18682,25 @@
         <v>15</v>
       </c>
       <c r="AA157">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="AB157">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="AC157">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="AD157">
-        <v>88</v>
+        <v>57.4</v>
       </c>
       <c r="AE157">
-        <v>-0.8</v>
+        <v>-1.6</v>
       </c>
       <c r="AF157">
-        <v>14.5</v>
+        <v>-10.3</v>
       </c>
       <c r="AG157">
-        <v>3</v>
+        <v>1.7</v>
       </c>
       <c r="AH157">
         <v>26415</v>
@@ -18717,10 +18720,10 @@
         <v>351</v>
       </c>
       <c r="C158">
-        <v>2222</v>
+        <v>2882</v>
       </c>
       <c r="D158">
-        <v>81</v>
+        <v>121</v>
       </c>
       <c r="E158">
         <v>902298</v>
@@ -18789,25 +18792,25 @@
         <v>11.1</v>
       </c>
       <c r="AA158">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="AB158">
         <v>0.1</v>
       </c>
       <c r="AC158">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="AD158">
-        <v>70</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="AE158">
-        <v>1.9</v>
+        <v>0.3</v>
       </c>
       <c r="AF158">
-        <v>0.8</v>
+        <v>3.5</v>
       </c>
       <c r="AG158">
-        <v>3.6</v>
+        <v>1.6</v>
       </c>
       <c r="AH158">
         <v>29768</v>
@@ -18827,10 +18830,10 @@
         <v>352</v>
       </c>
       <c r="C159">
-        <v>2357</v>
+        <v>3038</v>
       </c>
       <c r="D159">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="E159">
         <v>743187</v>
@@ -18899,25 +18902,25 @@
         <v>31.4</v>
       </c>
       <c r="AA159">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="AB159">
         <v>0.1</v>
       </c>
       <c r="AC159">
-        <v>3.2</v>
+        <v>4.1</v>
       </c>
       <c r="AD159">
-        <v>60</v>
+        <v>64.8</v>
       </c>
       <c r="AE159">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AF159">
-        <v>0.8</v>
+        <v>14.3</v>
       </c>
       <c r="AG159">
-        <v>2.4</v>
+        <v>1.6</v>
       </c>
       <c r="AH159">
         <v>27027</v>
@@ -18937,10 +18940,10 @@
         <v>353</v>
       </c>
       <c r="C160">
-        <v>3250</v>
+        <v>3872</v>
       </c>
       <c r="D160">
-        <v>135</v>
+        <v>190</v>
       </c>
       <c r="E160">
         <v>1021902</v>
@@ -19009,25 +19012,25 @@
         <v>43.9</v>
       </c>
       <c r="AA160">
-        <v>4.2</v>
+        <v>4.9</v>
       </c>
       <c r="AB160">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="AC160">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="AD160">
         <v>100</v>
       </c>
       <c r="AE160">
-        <v>-1.2</v>
+        <v>0.9</v>
       </c>
       <c r="AF160">
-        <v>-6.4</v>
+        <v>-11.5</v>
       </c>
       <c r="AG160">
-        <v>2.1</v>
+        <v>1.1</v>
       </c>
       <c r="AH160">
         <v>44097</v>
